--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1248">
   <si>
     <t>frase</t>
   </si>
@@ -3527,6 +3527,246 @@
   </si>
   <si>
     <t>Foi revoltante ver a falta de respeito na sala de aula</t>
+  </si>
+  <si>
+    <t>Consegui resolver tudo antes do prazo e fiquei super aliviado.</t>
+  </si>
+  <si>
+    <t>A torcida inteira vibrou comigo quando acertei o lance final.</t>
+  </si>
+  <si>
+    <t>O clima lá em casa hoje está tão leve que dá vontade de ficar conversando por horas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recebi uma mensagem que fez meu dia começar muito melhor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O professor elogiou meu esforço e isso me deixou radiante. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treinei bastante e finalmente meu corpo respondeu do jeito que eu queria. </t>
+  </si>
+  <si>
+    <t>Minha equipe fechou o projeto com chave de ouro.</t>
+  </si>
+  <si>
+    <t>Passei na consulta e o médico disse que está tudo ótimo comigo.</t>
+  </si>
+  <si>
+    <t>A risada dos meus amigos me trouxe uma alegria enorme.</t>
+  </si>
+  <si>
+    <t>Hoje a aula prática foi tão divertida que o tempo voou.</t>
+  </si>
+  <si>
+    <t>Meu irmão me surpreendeu com algo que eu queria muito.</t>
+  </si>
+  <si>
+    <t>As pequenas conquistas da semana estão me deixando orgulhoso.</t>
+  </si>
+  <si>
+    <t>As crianças da minha família espalham alegria pela casa inteira.</t>
+  </si>
+  <si>
+    <t>Hoje consegui dormir bem e acordei com a mente leve.</t>
+  </si>
+  <si>
+    <t>Terminei a série e amei cada segundo da história.</t>
+  </si>
+  <si>
+    <t>Hoje me senti realmente vivo, presente e feliz.</t>
+  </si>
+  <si>
+    <t>A comida ficou tão boa que todo mundo pediu a receita.</t>
+  </si>
+  <si>
+    <t>O abraço que recebi hoje valeu mais do que mil palavras.</t>
+  </si>
+  <si>
+    <t>Finalmente organizei meu quarto e ficou do jeito que eu queria.</t>
+  </si>
+  <si>
+    <t>Ver meu time marcar o gol no último minuto foi pura emoção boa.</t>
+  </si>
+  <si>
+    <t>Ouvi um barulho forte no portão e meu corpo travou.</t>
+  </si>
+  <si>
+    <t>Minha respiração ficou curta quando percebi que estava sozinho na rua.</t>
+  </si>
+  <si>
+    <t>A sensação de estar sendo seguido me deixa em pânico.</t>
+  </si>
+  <si>
+    <t>O corredor escuro da escola sempre me dá um arrepio estranho.</t>
+  </si>
+  <si>
+    <t>Não quero abrir aquele resultado médico, estou nervoso demais.</t>
+  </si>
+  <si>
+    <t>Minha mão está tremendo desde que ouvi aquela notícia.</t>
+  </si>
+  <si>
+    <t>A torcida adversária começou a gritar e eu fiquei com receio de confusão.</t>
+  </si>
+  <si>
+    <t>A casa ficou silenciosa demais de repente.</t>
+  </si>
+  <si>
+    <t>Meu coração dispara toda vez que penso no que pode acontecer.</t>
+  </si>
+  <si>
+    <t>O cachorro começou a rosnar para um ponto vazio e isso me assustou.</t>
+  </si>
+  <si>
+    <t>Não gosto de dirigir à noite, parece tudo mais perigoso.</t>
+  </si>
+  <si>
+    <t>Ao ver a discussão aumentar, fiquei com medo de alguém se machucar.</t>
+  </si>
+  <si>
+    <t>O clima na empresa ficou tão tenso que estou com receio de demissões.</t>
+  </si>
+  <si>
+    <t>Aquela mensagem inesperada me deixou inquieto.</t>
+  </si>
+  <si>
+    <t>O barulho vindo do quintal me fez congelar por um segundo.</t>
+  </si>
+  <si>
+    <t>Quando a luz apagou, meu corpo inteiro arrepiou.</t>
+  </si>
+  <si>
+    <t>Algo ali parecia errado, como se fosse melhor voltar.</t>
+  </si>
+  <si>
+    <t>Senti que minha voz não ia sair se eu tentasse pedir ajuda.</t>
+  </si>
+  <si>
+    <t>O vento forte batendo na janela me deu um susto enorme.</t>
+  </si>
+  <si>
+    <t>Fico com medo de decepcionar quem acredita em mim.</t>
+  </si>
+  <si>
+    <t>Já estou cansado dessa falta de respeito diária.</t>
+  </si>
+  <si>
+    <t>Falam demais e resolvem de menos, isso irrita qualquer um.</t>
+  </si>
+  <si>
+    <t>Meu time perdeu por erro de arbitragem, é revoltante.</t>
+  </si>
+  <si>
+    <t>Não suporto quando ignoram tudo o que eu digo.</t>
+  </si>
+  <si>
+    <t>Essa situação absurda não deveria nem existir.</t>
+  </si>
+  <si>
+    <t>A escola prometeu melhorias e não cumpriu nada.</t>
+  </si>
+  <si>
+    <t>Estou com uma vontade enorme de mandar todo mundo parar com essa palhaçada.</t>
+  </si>
+  <si>
+    <t>Se continuarem me empurrando responsabilidades, eu vou explodir.</t>
+  </si>
+  <si>
+    <t>Não dá pra aceitar tanta injustiça de braços cruzados.</t>
+  </si>
+  <si>
+    <t>Já cansei de carregar problemas que não são meus.</t>
+  </si>
+  <si>
+    <t>É irritante ver gente fingindo que está tudo normal.</t>
+  </si>
+  <si>
+    <t>A forma como me trataram hoje foi simplesmente inaceitável.</t>
+  </si>
+  <si>
+    <t>Minha paciência acabou com esse pessoal irresponsável.</t>
+  </si>
+  <si>
+    <t>A torcida rival provocando sem parar me deixou furioso.</t>
+  </si>
+  <si>
+    <t>Ninguém assume os erros, jogam tudo pra cima de mim.</t>
+  </si>
+  <si>
+    <t>Esse atraso ridículo acabou com toda minha organização.</t>
+  </si>
+  <si>
+    <t>Se repetirem isso mais uma vez, eu não garanto nada.</t>
+  </si>
+  <si>
+    <t>O absurdo que ouvi hoje ainda está entalado na minha garganta.</t>
+  </si>
+  <si>
+    <t>O caos no trânsito está me tirando do sério.</t>
+  </si>
+  <si>
+    <t>Detesto quando fazem pouco caso dos meus sentimentos.</t>
+  </si>
+  <si>
+    <t>Eu tento seguir em frente, mas parece que algo sempre me puxa de volta.</t>
+  </si>
+  <si>
+    <t>Os corredores da escola hoje pareciam mais vazios que o normal.</t>
+  </si>
+  <si>
+    <t>Senti um aperto no peito ao lembrar de como as coisas eram antes.</t>
+  </si>
+  <si>
+    <t>A conversa que tive com minha família ainda ecoa na minha mente.</t>
+  </si>
+  <si>
+    <t>Não consegui comemorar a vitória do time, algo dentro de mim está pesado.</t>
+  </si>
+  <si>
+    <t>Ver as pessoas ao meu redor rindo me fez me sentir deslocado.</t>
+  </si>
+  <si>
+    <t>A consulta médica trouxe mais dúvidas do que respostas.</t>
+  </si>
+  <si>
+    <t>O silêncio do meu quarto ficou mais alto hoje.</t>
+  </si>
+  <si>
+    <t>Minha energia sumiu, como se eu estivesse carregando o mundo nas costas.</t>
+  </si>
+  <si>
+    <t>As mensagens que não chegam doem mais do que as que chegam.</t>
+  </si>
+  <si>
+    <t>Sinto saudade de tempos que nunca vão voltar.</t>
+  </si>
+  <si>
+    <t>A reunião no trabalho me deixou com uma sensação amarga.</t>
+  </si>
+  <si>
+    <t>Mesmo rodeado de gente, continuo me sentindo invisível.</t>
+  </si>
+  <si>
+    <t>Hoje me olhei no espelho e não reconheci quem estava lá.</t>
+  </si>
+  <si>
+    <t>Percebi que não estou conseguindo acompanhar o ritmo de ninguém.</t>
+  </si>
+  <si>
+    <t>Algo dentro de mim quebrou e eu não sei como consertar.</t>
+  </si>
+  <si>
+    <t>A lembrança daquele momento feliz voltou para me machucar.</t>
+  </si>
+  <si>
+    <t>Sinto como se tudo estivesse desmoronando aos poucos.</t>
+  </si>
+  <si>
+    <t>Olhei o campo vazio e lembrei de todas as derrotas.</t>
+  </si>
+  <si>
+    <t>O dia terminou, mas a sensação ruim ficou comigo.</t>
   </si>
 </sst>
 </file>
@@ -3899,10 +4139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1164"/>
+  <dimension ref="A1:I1244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1152" sqref="B1152"/>
+    <sheetView tabSelected="1" topLeftCell="A1212" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1231" sqref="I1231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13223,6 +13463,647 @@
         <v>311</v>
       </c>
     </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1165" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1166" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1167" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1168" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1174" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1182" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1185" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1186" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1187" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1188" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1189" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1190" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1191" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1193" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1194" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1195" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1196" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1197" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1198" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1199" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1200" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1201" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1202" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1203" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1204" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1205" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1206" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1207" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1208" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1209" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1210" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1211" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1212" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1213" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1214" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1215" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1216" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1217" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1218" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1219" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1220" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1221" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1222" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1223" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1224" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1225" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1226" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1227" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1228" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1229" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1230" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1231" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1231" s="2"/>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1232" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1233" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1234" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1235" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1236" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1237" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1238" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1239" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1240" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1241" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1242" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1243" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1244" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1634">
   <si>
     <t>frase</t>
   </si>
@@ -3767,6 +3767,1164 @@
   </si>
   <si>
     <t>O dia terminou, mas a sensação ruim ficou comigo.</t>
+  </si>
+  <si>
+    <t>Ganhei a competição de matemática</t>
+  </si>
+  <si>
+    <t>Meu time venceu a final do campeonato</t>
+  </si>
+  <si>
+    <t>Consegui terminar o projeto antes do prazo</t>
+  </si>
+  <si>
+    <t>Fui elogiado pelo chefe pelo meu esforço</t>
+  </si>
+  <si>
+    <t>Meu aniversário foi incrível</t>
+  </si>
+  <si>
+    <t>Recebi presentes que amei</t>
+  </si>
+  <si>
+    <t>A festa de formatura foi perfeita</t>
+  </si>
+  <si>
+    <t>Passei de ano com notas excelentes</t>
+  </si>
+  <si>
+    <t>Meu colega me surpreendeu com um presente</t>
+  </si>
+  <si>
+    <t>A reunião terminou com reconhecimento ao meu trabalho</t>
+  </si>
+  <si>
+    <t>Comi meu prato favorito no almoço</t>
+  </si>
+  <si>
+    <t>Hoje o dia foi leve e divertido</t>
+  </si>
+  <si>
+    <t>Consegui resolver um problema difícil sozinho</t>
+  </si>
+  <si>
+    <t>Meu amigo compartilhou boas notícias comigo</t>
+  </si>
+  <si>
+    <t>A família veio me visitar e trouxe alegria</t>
+  </si>
+  <si>
+    <t>O cachorro aprendeu um truque novo</t>
+  </si>
+  <si>
+    <t>Minha mãe elogiou meu esforço</t>
+  </si>
+  <si>
+    <t>O professor comentou que meu trabalho foi excelente</t>
+  </si>
+  <si>
+    <t>Meu time marcou o gol da vitória</t>
+  </si>
+  <si>
+    <t>Ganhei ingressos para o show dos meus sonhos</t>
+  </si>
+  <si>
+    <t>Recebi boas notícias do médico</t>
+  </si>
+  <si>
+    <t>Minha planta floresceu depois de semanas</t>
+  </si>
+  <si>
+    <t>Consegui terminar minha leitura favorita</t>
+  </si>
+  <si>
+    <t>Meu amigo me fez rir muito hoje</t>
+  </si>
+  <si>
+    <t>A viagem foi divertida e inesquecível</t>
+  </si>
+  <si>
+    <t>Ganhei destaque na apresentação</t>
+  </si>
+  <si>
+    <t>Fui aceito no curso que queria</t>
+  </si>
+  <si>
+    <t>O sol apareceu e deixou o dia lindo</t>
+  </si>
+  <si>
+    <t>O time venceu sem dificuldades</t>
+  </si>
+  <si>
+    <t>Meus esforços foram reconhecidos</t>
+  </si>
+  <si>
+    <t>Minha família fez uma surpresa especial</t>
+  </si>
+  <si>
+    <t>Hoje consegui manter a calma e aproveitar o momento</t>
+  </si>
+  <si>
+    <t>Meu quadro foi elogiado pelos colegas</t>
+  </si>
+  <si>
+    <t>A comida estava deliciosa no jantar</t>
+  </si>
+  <si>
+    <t>Recebi mensagens carinhosas de amigos</t>
+  </si>
+  <si>
+    <t>Meu time subiu de categoria no campeonato</t>
+  </si>
+  <si>
+    <t>Ganhei medalha na competição</t>
+  </si>
+  <si>
+    <t>Meu colega agradeceu a ajuda que dei</t>
+  </si>
+  <si>
+    <t>Assisti meu filme favorito e adorei</t>
+  </si>
+  <si>
+    <t>Meu pai elogiou meu desempenho</t>
+  </si>
+  <si>
+    <t>Consegui terminar a tarefa de forma criativa</t>
+  </si>
+  <si>
+    <t>O passeio com amigos foi maravilhoso</t>
+  </si>
+  <si>
+    <t>Recebi reconhecimento pelo trabalho em equipe</t>
+  </si>
+  <si>
+    <t>Meu time fez um gol espetacular</t>
+  </si>
+  <si>
+    <t>Ganhei elogios por minha apresentação</t>
+  </si>
+  <si>
+    <t>Meu amigo trouxe boas notícias</t>
+  </si>
+  <si>
+    <t>Consegui organizar tudo antes do prazo</t>
+  </si>
+  <si>
+    <t>Fui aprovado na atividade extracurricular</t>
+  </si>
+  <si>
+    <t>Minha irmã me surpreendeu positivamente</t>
+  </si>
+  <si>
+    <t>O dia foi leve e divertido com a família</t>
+  </si>
+  <si>
+    <t>Meu cachorro fez algo engraçado e divertido</t>
+  </si>
+  <si>
+    <t>Consegui completar a leitura do livro favorito</t>
+  </si>
+  <si>
+    <t>Ganhei destaque no jogo de futebol</t>
+  </si>
+  <si>
+    <t>Fui reconhecido pelo esforço no projeto</t>
+  </si>
+  <si>
+    <t>Meu colega comemorou minha conquista</t>
+  </si>
+  <si>
+    <t>Assisti a peça de teatro e adorei</t>
+  </si>
+  <si>
+    <t>O time venceu o campeonato regional</t>
+  </si>
+  <si>
+    <t>Recebi elogios por minha dedicação</t>
+  </si>
+  <si>
+    <t>Meu amigo trouxe alegria para o dia</t>
+  </si>
+  <si>
+    <t>Consegui terminar o trabalho em grupo com sucesso</t>
+  </si>
+  <si>
+    <t>A festa de família foi divertida e acolhedora</t>
+  </si>
+  <si>
+    <t>Meu pai elogiou meu comportamento</t>
+  </si>
+  <si>
+    <t>A viagem de férias foi incrível</t>
+  </si>
+  <si>
+    <t>Consegui aprender algo novo com facilidade</t>
+  </si>
+  <si>
+    <t>Ganhei destaque na competição de dança</t>
+  </si>
+  <si>
+    <t>A reunião terminou com boas notícias</t>
+  </si>
+  <si>
+    <t>Consegui ajudar alguém e isso me deixou feliz</t>
+  </si>
+  <si>
+    <t>Minha amiga me agradeceu pela ajuda</t>
+  </si>
+  <si>
+    <t>O dia foi iluminado pelo sol e pela diversão</t>
+  </si>
+  <si>
+    <t>Meu quadro foi reconhecido pelos professores</t>
+  </si>
+  <si>
+    <t>Ganhei elogios na apresentação de projeto</t>
+  </si>
+  <si>
+    <t>Meu time jogou de forma excelente</t>
+  </si>
+  <si>
+    <t>Assisti a série favorita e adorei</t>
+  </si>
+  <si>
+    <t>Meu amigo trouxe algo inesperado e divertido</t>
+  </si>
+  <si>
+    <t>Consegui terminar a atividade artística com sucesso</t>
+  </si>
+  <si>
+    <t>O passeio com a família foi ótimo</t>
+  </si>
+  <si>
+    <t>Recebi mensagens positivas dos colegas</t>
+  </si>
+  <si>
+    <t>Meu time subiu de divisão no campeonato</t>
+  </si>
+  <si>
+    <t>Ganhei medalha na competição de artes</t>
+  </si>
+  <si>
+    <t>Assisti ao concerto e adorei a performance</t>
+  </si>
+  <si>
+    <t>Consegui organizar meu espaço de estudo de forma criativa</t>
+  </si>
+  <si>
+    <t>Meu cachorro me fez rir com suas travessuras</t>
+  </si>
+  <si>
+    <t>O dia foi leve, divertido e produtivo</t>
+  </si>
+  <si>
+    <t>Ganhei destaque em atividade de grupo</t>
+  </si>
+  <si>
+    <t>Meu amigo trouxe boas notícias sobre a escola</t>
+  </si>
+  <si>
+    <t>A família preparou um almoço especial</t>
+  </si>
+  <si>
+    <t>Consegui aprender a coreografia completa</t>
+  </si>
+  <si>
+    <t>Meu time fez jogadas incríveis</t>
+  </si>
+  <si>
+    <t>Recebi reconhecimento pelo esforço extra</t>
+  </si>
+  <si>
+    <t>O passeio com os amigos foi inesquecível</t>
+  </si>
+  <si>
+    <t>Estou sozinho na rua e tudo está muito escuro</t>
+  </si>
+  <si>
+    <t>Ouço passos atrás de mim e não sei quem é</t>
+  </si>
+  <si>
+    <t>O trânsito está perigoso hoje</t>
+  </si>
+  <si>
+    <t>Não quero me perder na floresta</t>
+  </si>
+  <si>
+    <t>Sinto que algo ruim vai acontecer</t>
+  </si>
+  <si>
+    <t>O exame médico trouxe resultados inesperados</t>
+  </si>
+  <si>
+    <t>O prédio parece instável durante o terremoto</t>
+  </si>
+  <si>
+    <t>Meu amigo desapareceu e não consigo encontrá-lo</t>
+  </si>
+  <si>
+    <t>A tempestade está ficando forte demais</t>
+  </si>
+  <si>
+    <t>O cachorro latiu de forma estranha no quintal</t>
+  </si>
+  <si>
+    <t>Receio de não conseguir terminar a prova a tempo</t>
+  </si>
+  <si>
+    <t>A ponte balançou e senti receio de cair</t>
+  </si>
+  <si>
+    <t>O filme de terror deixou minha noite assustadora</t>
+  </si>
+  <si>
+    <t>O avião balançou muito durante o voo</t>
+  </si>
+  <si>
+    <t>O barulho estranho no porão me deixou inquieto</t>
+  </si>
+  <si>
+    <t>Estou em um bairro desconhecido e escuro</t>
+  </si>
+  <si>
+    <t>Não consigo sair do labirinto</t>
+  </si>
+  <si>
+    <t>O médico demorou para chegar com notícias</t>
+  </si>
+  <si>
+    <t>O carro derrapou na estrada molhada</t>
+  </si>
+  <si>
+    <t>O animal selvagem apareceu na trilha</t>
+  </si>
+  <si>
+    <t>Tenho receio de errar no projeto importante</t>
+  </si>
+  <si>
+    <t>O vizinho estranho está rondando a rua</t>
+  </si>
+  <si>
+    <t>Estou preso no elevador sozinho</t>
+  </si>
+  <si>
+    <t>O barulho na noite aumentou e ninguém responde</t>
+  </si>
+  <si>
+    <t>A água da enchente subiu rápido demais</t>
+  </si>
+  <si>
+    <t>Meu celular caiu no rio e não consigo recuperá-lo</t>
+  </si>
+  <si>
+    <t>O cachorro latiu sem parar na madrugada</t>
+  </si>
+  <si>
+    <t>Sinto que alguém me observa</t>
+  </si>
+  <si>
+    <t>A tempestade derrubou árvores na estrada</t>
+  </si>
+  <si>
+    <t>Meu amigo não respondeu minhas mensagens</t>
+  </si>
+  <si>
+    <t>Estou perdido em uma cidade desconhecida</t>
+  </si>
+  <si>
+    <t>O barco balançou forte durante a travessia</t>
+  </si>
+  <si>
+    <t>O hospital parece muito silencioso e assustador</t>
+  </si>
+  <si>
+    <t>A estrada escorregadia me deixou apreensivo</t>
+  </si>
+  <si>
+    <t>O prédio antigo rangia com o vento forte</t>
+  </si>
+  <si>
+    <t>O teto começou a apresentar rachaduras</t>
+  </si>
+  <si>
+    <t>Meu irmão sumiu durante a viagem</t>
+  </si>
+  <si>
+    <t>Receio de não conseguir terminar a maratona</t>
+  </si>
+  <si>
+    <t>O cachorro fugiu para a rua movimentada</t>
+  </si>
+  <si>
+    <t>O incêndio se espalhou rápido demais</t>
+  </si>
+  <si>
+    <t>Estou cercado por pessoas estranhas à noite</t>
+  </si>
+  <si>
+    <t>O vento frio cortou meu rosto na trilha</t>
+  </si>
+  <si>
+    <t>O quarto ficou escuro de repente</t>
+  </si>
+  <si>
+    <t>Não consigo encontrar a saída da escola</t>
+  </si>
+  <si>
+    <t>O barulho estranho da porta me assustou</t>
+  </si>
+  <si>
+    <t>O prédio antigo parece prestes a desabar</t>
+  </si>
+  <si>
+    <t>A tempestade se aproxima e estou sem abrigo</t>
+  </si>
+  <si>
+    <t>Estou sozinho em casa e ouço barulhos</t>
+  </si>
+  <si>
+    <t>O avião perdeu altitude repentinamente</t>
+  </si>
+  <si>
+    <t>Receio de que o projeto seja rejeitado</t>
+  </si>
+  <si>
+    <t>A rua deserta está silenciosa demais</t>
+  </si>
+  <si>
+    <t>O animal desconhecido cruzou meu caminho</t>
+  </si>
+  <si>
+    <t>Sinto que algo está errado com o elevador</t>
+  </si>
+  <si>
+    <t>O rio subiu e não consigo atravessar</t>
+  </si>
+  <si>
+    <t>A ponte parece frágil demais para atravessar</t>
+  </si>
+  <si>
+    <t>O carro derrapou no gelo da estrada</t>
+  </si>
+  <si>
+    <t>Estou em um bairro que não conheço</t>
+  </si>
+  <si>
+    <t>O prédio vazio me deixa nervoso</t>
+  </si>
+  <si>
+    <t>O vento forte quase me derrubou</t>
+  </si>
+  <si>
+    <t>O cachorro latiu e correu para um canto escuro</t>
+  </si>
+  <si>
+    <t>A luz apagou de repente na casa</t>
+  </si>
+  <si>
+    <t>Não consigo localizar meu amigo na multidão</t>
+  </si>
+  <si>
+    <t>O avião tremeu demais na turbulência</t>
+  </si>
+  <si>
+    <t>Receio que o exame não seja bom</t>
+  </si>
+  <si>
+    <t>O labirinto parece não ter saída</t>
+  </si>
+  <si>
+    <t>Estou em um lugar desconhecido sem mapa</t>
+  </si>
+  <si>
+    <t>O barulho da tempestade me deixou apreensivo</t>
+  </si>
+  <si>
+    <t>O animal selvagem apareceu de repente</t>
+  </si>
+  <si>
+    <t>O barco balançou perigosamente</t>
+  </si>
+  <si>
+    <t>O prédio começou a ranger com o vento</t>
+  </si>
+  <si>
+    <t>O carro derrapou em alta velocidade</t>
+  </si>
+  <si>
+    <t>Receio de perder o emprego</t>
+  </si>
+  <si>
+    <t>O cachorro desapareceu no parque à noite</t>
+  </si>
+  <si>
+    <t>Estou sozinho e não consigo abrir a porta</t>
+  </si>
+  <si>
+    <t>A rua ficou completamente deserta</t>
+  </si>
+  <si>
+    <t>O avião perdeu controle por alguns segundos</t>
+  </si>
+  <si>
+    <t>O médico se atrasou com notícias importantes</t>
+  </si>
+  <si>
+    <t>Receio que meu time perca o campeonato</t>
+  </si>
+  <si>
+    <t>A tempestade atingiu a cidade rapidamente</t>
+  </si>
+  <si>
+    <t>O vento derrubou árvores e postes</t>
+  </si>
+  <si>
+    <t>O elevador parou entre os andares</t>
+  </si>
+  <si>
+    <t>O prédio antigo está prestes a desabar</t>
+  </si>
+  <si>
+    <t>Não consigo atravessar a ponte insegura</t>
+  </si>
+  <si>
+    <t>O carro travou no meio da estrada molhada</t>
+  </si>
+  <si>
+    <t>Receio de não conseguir terminar a corrida</t>
+  </si>
+  <si>
+    <t>O quarto ficou escuro e assustador</t>
+  </si>
+  <si>
+    <t>A floresta parece sem saída</t>
+  </si>
+  <si>
+    <t>O animal correu atrás de mim na trilha</t>
+  </si>
+  <si>
+    <t>O barulho da rua me deixa nervoso</t>
+  </si>
+  <si>
+    <t>O avião perdeu altitude de forma brusca</t>
+  </si>
+  <si>
+    <t>Receio que meu projeto seja um fracasso</t>
+  </si>
+  <si>
+    <t>O prédio rangia com cada rajada de vento</t>
+  </si>
+  <si>
+    <t>O carro derrapou na curva perigosa</t>
+  </si>
+  <si>
+    <t>O hospital ficou silencioso demais</t>
+  </si>
+  <si>
+    <t>O vento frio atravessou meu corpo</t>
+  </si>
+  <si>
+    <t>O cachorro desapareceu no quintal escuro</t>
+  </si>
+  <si>
+    <t>Meu computador travou no meio do relatório</t>
+  </si>
+  <si>
+    <t>Esqueceram de marcar minha reunião importante</t>
+  </si>
+  <si>
+    <t>Mais um prazo perdido por culpa dos outros</t>
+  </si>
+  <si>
+    <t>Não aguento tanta burocracia inútil</t>
+  </si>
+  <si>
+    <t>Tive que refazer tudo porque alguém errou</t>
+  </si>
+  <si>
+    <t>O projeto inteiro atrasou e ninguém avisa</t>
+  </si>
+  <si>
+    <t>Não dá para trabalhar nesse clima de bagunça</t>
+  </si>
+  <si>
+    <t>Meu esforço não é reconhecido</t>
+  </si>
+  <si>
+    <t>Cada reunião parece perder tempo</t>
+  </si>
+  <si>
+    <t>Ninguém cumpre os horários combinados</t>
+  </si>
+  <si>
+    <t>O professor corrigiu errado outra vez</t>
+  </si>
+  <si>
+    <t>Não aceitam novas ideias por besteira</t>
+  </si>
+  <si>
+    <t>Tenho que consertar erros que não fiz</t>
+  </si>
+  <si>
+    <t>Sempre me passam tarefas de última hora</t>
+  </si>
+  <si>
+    <t>Alguém mexeu nos meus arquivos sem permissão</t>
+  </si>
+  <si>
+    <t>A equipe ignora minhas sugestões</t>
+  </si>
+  <si>
+    <t>Cada relatório vira uma novela sem fim</t>
+  </si>
+  <si>
+    <t>Não suporto revisões sem sentido</t>
+  </si>
+  <si>
+    <t>Perdi horas por culpa de uma falha alheia</t>
+  </si>
+  <si>
+    <t>O sistema caiu justo na hora da entrega</t>
+  </si>
+  <si>
+    <t>Meu time perdeu por erro de arbitragem</t>
+  </si>
+  <si>
+    <t>Sempre erram o pênalti decisivo</t>
+  </si>
+  <si>
+    <t>Não aguento ver jogadores desmotivados</t>
+  </si>
+  <si>
+    <t>Gritar do jeito que gritei e não adiantou</t>
+  </si>
+  <si>
+    <t>O treinador faz escolhas sem lógica</t>
+  </si>
+  <si>
+    <t>Cada jogo parece uma frustração garantida</t>
+  </si>
+  <si>
+    <t>A torcida do outro time provocando</t>
+  </si>
+  <si>
+    <t>Perdi meu ingresso e nem avisaram</t>
+  </si>
+  <si>
+    <t>As regras mudam no meio da partida</t>
+  </si>
+  <si>
+    <t>O juiz favoreceu claramente o outro time</t>
+  </si>
+  <si>
+    <t>Meu time sempre toma gols fáceis</t>
+  </si>
+  <si>
+    <t>Jogadores discutindo durante o jogo</t>
+  </si>
+  <si>
+    <t>Não consigo acreditar que fizemos treino inútil</t>
+  </si>
+  <si>
+    <t>Os comentários da transmissão irritam demais</t>
+  </si>
+  <si>
+    <t>Cada campeonato vira um pesadelo de erros</t>
+  </si>
+  <si>
+    <t>Me prometeram e não apareceram</t>
+  </si>
+  <si>
+    <t>Chegaram atrasados e ainda reclamaram</t>
+  </si>
+  <si>
+    <t>Ignoram meus avisos importantes</t>
+  </si>
+  <si>
+    <t>Falar com certas pessoas é perder tempo</t>
+  </si>
+  <si>
+    <t>Sempre inventam desculpas esfarrapadas</t>
+  </si>
+  <si>
+    <t>Alguns amigos só pensam neles mesmos</t>
+  </si>
+  <si>
+    <t>Estava contando com eles e decepcionaram</t>
+  </si>
+  <si>
+    <t>Não suporto falsas promessas</t>
+  </si>
+  <si>
+    <t>Fui deixado de lado sem motivo</t>
+  </si>
+  <si>
+    <t>Cada festa vira um drama desnecessário</t>
+  </si>
+  <si>
+    <t>A conversa que prometia ser boa virou conflito</t>
+  </si>
+  <si>
+    <t>Alguns riem do que eu levo a sério</t>
+  </si>
+  <si>
+    <t>Estou cansado de mal-entendidos evitáveis</t>
+  </si>
+  <si>
+    <t>Cada encontro parece carregar tensão</t>
+  </si>
+  <si>
+    <t>Pessoas ignorando regras básicas irritam demais</t>
+  </si>
+  <si>
+    <t>O ônibus atrasou de novo</t>
+  </si>
+  <si>
+    <t>O app deu erro justo agora</t>
+  </si>
+  <si>
+    <t>O carro quebrou no pior momento</t>
+  </si>
+  <si>
+    <t>Internet caindo no meio da aula online</t>
+  </si>
+  <si>
+    <t>O site trava e não consigo finalizar</t>
+  </si>
+  <si>
+    <t>Sempre pego engarrafamento no mesmo horário</t>
+  </si>
+  <si>
+    <t>A bateria do celular acabou sem aviso</t>
+  </si>
+  <si>
+    <t>O GPS me levou para lugar errado</t>
+  </si>
+  <si>
+    <t>Cada atualização piora o aplicativo</t>
+  </si>
+  <si>
+    <t>O transporte público está uma bagunça</t>
+  </si>
+  <si>
+    <t>Ficar parado esperando um táxi é irritante</t>
+  </si>
+  <si>
+    <t>O sistema de pagamento falhou</t>
+  </si>
+  <si>
+    <t>As filas demoram o dobro do esperado</t>
+  </si>
+  <si>
+    <t>O serviço prometido não funciona</t>
+  </si>
+  <si>
+    <t>Sempre perco tempo por falhas de terceiros</t>
+  </si>
+  <si>
+    <t>Sempre me interrompem quando falo</t>
+  </si>
+  <si>
+    <t>Bagunça que ninguém arruma</t>
+  </si>
+  <si>
+    <t>Regras mudam sem ninguém avisar</t>
+  </si>
+  <si>
+    <t>Sempre tenho que ceder, nunca eles</t>
+  </si>
+  <si>
+    <t>Ninguém ajuda nas tarefas de casa</t>
+  </si>
+  <si>
+    <t>Discussões sem sentido acontecem todo dia</t>
+  </si>
+  <si>
+    <t>Algumas pessoas só reclamam sem agir</t>
+  </si>
+  <si>
+    <t>Me sinto responsável por tudo sozinho</t>
+  </si>
+  <si>
+    <t>As decisões não fazem justiça</t>
+  </si>
+  <si>
+    <t>Cada conselho parece uma cobrança</t>
+  </si>
+  <si>
+    <t>Nada é valorizado como deveria</t>
+  </si>
+  <si>
+    <t>Não suportam minhas escolhas simples</t>
+  </si>
+  <si>
+    <t>Sempre me culpam por problemas que não causei</t>
+  </si>
+  <si>
+    <t>Conversas viram discussão por bobagem</t>
+  </si>
+  <si>
+    <t>Algumas atitudes irritam mais do que ajudam</t>
+  </si>
+  <si>
+    <t>Marcar consulta é um caos</t>
+  </si>
+  <si>
+    <t>Consultório atrasou minha hora de novo</t>
+  </si>
+  <si>
+    <t>Filas intermináveis em todo lugar</t>
+  </si>
+  <si>
+    <t>Receita que não funciona como devia</t>
+  </si>
+  <si>
+    <t>Treino que não surte efeito algum</t>
+  </si>
+  <si>
+    <t>Comer fora e receber comida errada</t>
+  </si>
+  <si>
+    <t>O ônibus passou e não parou</t>
+  </si>
+  <si>
+    <t>Perder objetos por descuido de terceiros</t>
+  </si>
+  <si>
+    <t>Nada sai do jeito que planejei</t>
+  </si>
+  <si>
+    <t>Acordar cedo e ver o trânsito parado</t>
+  </si>
+  <si>
+    <t>Programação do dia cancelada sem aviso</t>
+  </si>
+  <si>
+    <t>Serviço de entrega atrasou e ninguém explica</t>
+  </si>
+  <si>
+    <t>Minha rotina está sempre atrapalhada</t>
+  </si>
+  <si>
+    <t>Cada tarefa simples vira um drama</t>
+  </si>
+  <si>
+    <t>Não consigo descansar por culpa alheia</t>
+  </si>
+  <si>
+    <t>Roupa que estragou sem motivo aparente</t>
+  </si>
+  <si>
+    <t>Produtos que não entregam o prometido</t>
+  </si>
+  <si>
+    <t>Agendamento que some do sistema</t>
+  </si>
+  <si>
+    <t>Pessoas falando alto quando preciso de silêncio</t>
+  </si>
+  <si>
+    <t>Cada dia parece que algo vai dar errado</t>
+  </si>
+  <si>
+    <t>As noites parecem intermináveis e vazias</t>
+  </si>
+  <si>
+    <t>A ausência de carinho deixa o coração pesado</t>
+  </si>
+  <si>
+    <t>Cada despedida machuca mais do que a anterior</t>
+  </si>
+  <si>
+    <t>Me sinto deslocado mesmo em meio a pessoas</t>
+  </si>
+  <si>
+    <t>A solidão se arrasta pelos dias sem fim</t>
+  </si>
+  <si>
+    <t>Não consigo encontrar motivos para sorrir hoje</t>
+  </si>
+  <si>
+    <t>As palavras de ontem ainda ecoam na minha mente</t>
+  </si>
+  <si>
+    <t>Olhar para o passado só aumenta a dor</t>
+  </si>
+  <si>
+    <t>As lembranças boas parecem distantes demais</t>
+  </si>
+  <si>
+    <t>É difícil levantar quando tudo pesa tanto</t>
+  </si>
+  <si>
+    <t>O silêncio em casa é mais doloroso que brigas</t>
+  </si>
+  <si>
+    <t>A escola parece um lugar sem cor nem alegria</t>
+  </si>
+  <si>
+    <t>A ausência de amigos próximos machuca profundamente</t>
+  </si>
+  <si>
+    <t>Me vejo estagnado enquanto todos avançam</t>
+  </si>
+  <si>
+    <t>A rotina diária parece só aumentar o vazio</t>
+  </si>
+  <si>
+    <t>Perder oportunidades deixa uma marca no coração</t>
+  </si>
+  <si>
+    <t>Dias cinzentos parecem intermináveis</t>
+  </si>
+  <si>
+    <t>As promessas quebradas ferem mais que palavras duras</t>
+  </si>
+  <si>
+    <t>Me preocupo demais e o cansaço emocional é enorme</t>
+  </si>
+  <si>
+    <t>O mundo parece indiferente às minhas lutas</t>
+  </si>
+  <si>
+    <t>Não tenho vontade de conversar com ninguém</t>
+  </si>
+  <si>
+    <t>A sensação de fracasso me acompanha todos os dias</t>
+  </si>
+  <si>
+    <t>A distância da família dói mais do que eu imaginava</t>
+  </si>
+  <si>
+    <t>Cada erro do passado parece me perseguir</t>
+  </si>
+  <si>
+    <t>A falta de compreensão dos outros machuca profundamente</t>
+  </si>
+  <si>
+    <t>O que antes era divertido agora só traz tristeza</t>
+  </si>
+  <si>
+    <t>O cansaço emocional me impede de aproveitar pequenas coisas</t>
+  </si>
+  <si>
+    <t>Me sinto invisível diante das pessoas</t>
+  </si>
+  <si>
+    <t>As expectativas frustradas do trabalho me esmagam</t>
+  </si>
+  <si>
+    <t>O olhar das pessoas parece sempre julgar</t>
+  </si>
+  <si>
+    <t>É difícil acreditar que dias melhores virão</t>
+  </si>
+  <si>
+    <t>As mensagens não respondidas aumentam a sensação de abandono</t>
+  </si>
+  <si>
+    <t>Os projetos interrompidos deixam um vazio no peito</t>
+  </si>
+  <si>
+    <t>Me culpo por coisas que não posso controlar</t>
+  </si>
+  <si>
+    <t>O som da casa vazia dói mais que qualquer briga</t>
+  </si>
+  <si>
+    <t>As pequenas alegrias parecem sempre fora do alcance</t>
+  </si>
+  <si>
+    <t>Cada derrota me deixa mais inseguro</t>
+  </si>
+  <si>
+    <t>O silêncio de amigos que antes eram próximos machuca</t>
+  </si>
+  <si>
+    <t>A rotina escolar parece só me afastar dos meus sonhos</t>
+  </si>
+  <si>
+    <t>A saúde debilitada me deixa sem forças para sorrir</t>
+  </si>
+  <si>
+    <t>Cada erro meu é lembrado repetidamente</t>
+  </si>
+  <si>
+    <t>Me sinto desconectado do mundo ao meu redor</t>
+  </si>
+  <si>
+    <t>A frieza de algumas pessoas corta mais que palavras duras</t>
+  </si>
+  <si>
+    <t>A distância de quem amo aumenta a dor</t>
+  </si>
+  <si>
+    <t>Os pequenos fracassos parecem enormes</t>
+  </si>
+  <si>
+    <t>O tempo não apaga certas feridas</t>
+  </si>
+  <si>
+    <t>A rotina de trabalho sem reconhecimento machuca</t>
+  </si>
+  <si>
+    <t>As festas e celebrações parecem sempre tristes</t>
+  </si>
+  <si>
+    <t>O que deveria ser simples se torna pesado</t>
+  </si>
+  <si>
+    <t>Meus esforços nunca parecem suficientes</t>
+  </si>
+  <si>
+    <t>Cada decepção deixa marcas invisíveis</t>
+  </si>
+  <si>
+    <t>A falta de apoio familiar machuca o coração</t>
+  </si>
+  <si>
+    <t>A sensação de estar preso em um ciclo sem saída</t>
+  </si>
+  <si>
+    <t>A solidão social aperta o peito</t>
+  </si>
+  <si>
+    <t>A perda de alguém querido deixa um vazio imenso</t>
+  </si>
+  <si>
+    <t>Me sinto esquecido pelas pessoas mais próximas</t>
+  </si>
+  <si>
+    <t>As pequenas alegrias de ontem agora parecem distantes</t>
+  </si>
+  <si>
+    <t>Cada crítica recebida me deixa abalado</t>
+  </si>
+  <si>
+    <t>A rotina escolar às vezes parece um peso insuportável</t>
+  </si>
+  <si>
+    <t>O desinteresse dos colegas machuca silenciosamente</t>
+  </si>
+  <si>
+    <t>O tédio se mistura com uma sensação de vazio</t>
+  </si>
+  <si>
+    <t>A frieza de professores e superiores é desanimadora</t>
+  </si>
+  <si>
+    <t>Cada dia sem notícias de quem amo dói</t>
+  </si>
+  <si>
+    <t>Os sonhos interrompidos parecem impossíveis</t>
+  </si>
+  <si>
+    <t>O isolamento social me deixa sem esperança</t>
+  </si>
+  <si>
+    <t>Cada lembrança de erros passados dói mais que antes</t>
+  </si>
+  <si>
+    <t>A tristeza parece se instalar em todos os lugares</t>
+  </si>
+  <si>
+    <t>As pequenas derrotas se acumulam e pesam</t>
+  </si>
+  <si>
+    <t>A falta de atenção de amigos machuca silenciosamente</t>
+  </si>
+  <si>
+    <t>A sensação de estar sozinho no mundo é constante</t>
+  </si>
+  <si>
+    <t>Cada olhar de desprezo dói mais que palavras</t>
+  </si>
+  <si>
+    <t>O abandono emocional deixa marcas profundas</t>
+  </si>
+  <si>
+    <t>A rotina familiar parece sempre distante e fria</t>
+  </si>
+  <si>
+    <t>Cada dia de doença me deixa mais frágil emocionalmente</t>
+  </si>
+  <si>
+    <t>O medo de perder quem amo aumenta a dor</t>
+  </si>
+  <si>
+    <t>As oportunidades perdidas me fazem duvidar de mim</t>
+  </si>
+  <si>
+    <t>Me sinto sobrecarregado com responsabilidades sem fim</t>
+  </si>
+  <si>
+    <t>A frustração do trabalho não reconhecido pesa no coração</t>
+  </si>
+  <si>
+    <t>O silêncio das pessoas que amo é ensurdecedor</t>
+  </si>
+  <si>
+    <t>As pequenas alegrias são cada vez mais raras</t>
+  </si>
+  <si>
+    <t>A indiferença social machuca mais que críticas</t>
+  </si>
+  <si>
+    <t>O cansaço emocional é maior que a força física</t>
+  </si>
+  <si>
+    <t>Cada conflito familiar aumenta o vazio interior</t>
+  </si>
+  <si>
+    <t>Me sinto preso em uma rotina sem saída</t>
+  </si>
+  <si>
+    <t>As expectativas frustradas dos outros pesam demais</t>
+  </si>
+  <si>
+    <t>Cada despedida deixa cicatrizes invisíveis</t>
+  </si>
+  <si>
+    <t>A falta de apoio torna tudo mais difícil</t>
+  </si>
+  <si>
+    <t>O isolamento prolongado aumenta a sensação de desamparo</t>
+  </si>
+  <si>
+    <t>As lembranças de perdas passadas não me deixam</t>
+  </si>
+  <si>
+    <t>O mundo parece indiferente às minhas lutas diárias</t>
+  </si>
+  <si>
+    <t>Cada falha parece impossível de superar</t>
+  </si>
+  <si>
+    <t>A falta de compreensão machuca silenciosamente</t>
+  </si>
+  <si>
+    <t>O desânimo toma conta sem perceber</t>
+  </si>
+  <si>
+    <t>Cada rejeição aumenta a sensação de vazio</t>
+  </si>
+  <si>
+    <t>A sensação de não pertencer machuca profundamente</t>
+  </si>
+  <si>
+    <t>Me sinto invisível em meio à multidão</t>
+  </si>
+  <si>
+    <t>O peso das responsabilidades me sobrecarrega</t>
+  </si>
+  <si>
+    <t>A distância de quem amo dói mais a cada dia</t>
+  </si>
+  <si>
+    <t>O desinteresse emocional das pessoas ao redor me fere</t>
+  </si>
+  <si>
+    <t>A sensação de fracasso acompanha todos os meus passos</t>
   </si>
 </sst>
 </file>
@@ -4139,10 +5297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1244"/>
+  <dimension ref="A1:I1632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1212" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1231" sqref="I1231"/>
+    <sheetView tabSelected="1" topLeftCell="A1517" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1534" sqref="B1534:B1632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14104,6 +15262,3110 @@
         <v>290</v>
       </c>
     </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1245" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1246" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1247" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1248" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1249" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1250" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1251" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1252" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1253" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1254" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1255" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1256" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1257" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1258" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1259" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1260" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1261" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1262" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1263" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1264" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1265" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1266" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1267" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1268" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1269" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1270" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1271" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1272" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1273" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1274" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1275" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1276" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1277" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1278" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1279" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1280" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1281" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1282" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1283" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1284" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1285" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1286" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1287" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1288" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1289" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1290" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1291" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1292" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1293" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1294" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1295" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1296" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1297" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1298" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1299" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1300" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1301" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1302" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1303" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1304" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1305" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1306" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1307" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1308" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1309" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1310" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1311" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1312" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1313" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1314" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1315" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1316" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1317" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1318" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1319" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1320" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1321" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1322" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1323" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1324" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1325" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1326" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1327" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1328" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1329" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1330" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1331" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1332" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1333" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1334" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1335" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1336" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1337" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1338" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1339" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1340" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1341" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1342" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1343" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1344" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1345" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1346" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1347" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1348" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1349" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1350" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1351" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1352" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1353" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1354" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1355" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1356" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1357" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1358" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1359" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1360" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1361" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1362" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1363" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1364" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1365" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1366" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1367" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1368" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1369" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1370" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1371" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1372" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1373" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1374" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1375" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1376" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1377" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1378" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1379" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1380" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1381" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1382" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1383" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1384" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1385" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1386" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1387" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1388" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1389" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1390" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1391" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1392" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1393" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1394" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1395" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1396" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1397" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1398" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1399" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1400" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1401" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1402" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1403" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1404" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1405" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1406" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1407" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1408" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1409" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1410" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1411" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1412" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1413" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1414" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1415" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1416" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1417" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1418" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1419" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1420" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1421" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1422" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1423" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1424" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1425" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1426" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1427" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1428" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1429" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1430" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1431" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1432" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1433" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1434" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1435" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1436" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1437" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1438" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1439" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1440" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1441" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1442" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1443" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1444" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1445" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1446" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1447" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1448" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1449" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1450" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1451" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1452" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1453" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1454" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1455" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1456" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1457" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1458" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1459" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1460" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1461" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1462" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1463" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1464" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1465" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1466" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1467" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1468" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1469" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1470" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1471" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1472" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1473" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1474" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1475" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1476" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1477" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1478" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1479" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1480" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1481" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1482" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1483" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1484" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1485" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1486" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1487" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1488" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1489" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1490" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1491" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1492" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1493" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1494" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1495" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1496" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1497" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1498" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1499" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1500" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1501" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1502" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1503" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1504" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1505" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1506" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1507" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1508" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1509" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1510" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1511" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1512" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1513" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1514" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1515" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1516" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1517" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1518" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1519" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1520" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1521" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1522" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1523" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1524" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1525" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1526" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1527" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1528" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1529" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1530" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1531" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1532" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1533" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1534" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1535" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1536" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1537" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1538" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1539" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1540" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1541" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1542" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1543" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1544" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1545" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1546" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1547" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1548" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1549" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1550" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1551" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1552" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1553" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1554" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1555" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1556" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1557" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1558" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1559" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1560" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1561" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1562" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1563" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1564" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1565" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1566" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1567" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1568" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1569" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1570" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1571" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1572" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1573" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1574" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1575" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1576" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1577" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1578" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1579" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1580" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1581" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1582" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1583" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1584" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1585" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1586" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1587" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1588" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1589" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1590" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1591" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1592" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1593" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1594" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1595" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1596" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1597" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1598" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1599" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1600" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1601" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1602" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1603" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1604" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1605" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1606" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1607" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1608" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1609" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1610" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1611" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1612" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1613" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1614" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1615" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1616" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1617" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1618" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1619" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1620" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1621" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1622" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1623" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1624" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1625" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1626" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1627" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1628" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1629" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1630" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1631" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1632" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="1734">
   <si>
     <t>frase</t>
   </si>
@@ -2209,9 +2209,6 @@
   </si>
   <si>
     <t>A ausência de carinho machuca mais do que a solidão.</t>
-  </si>
-  <si>
-    <t>Sinto como se minha voz não tivesse importância.</t>
   </si>
   <si>
     <t>Perdi a vontade de tentar de novo.</t>
@@ -4636,9 +4633,6 @@
     <t>Cada despedida machuca mais do que a anterior</t>
   </si>
   <si>
-    <t>Me sinto deslocado mesmo em meio a pessoas</t>
-  </si>
-  <si>
     <t>A solidão se arrasta pelos dias sem fim</t>
   </si>
   <si>
@@ -4912,9 +4906,6 @@
     <t>A sensação de não pertencer machuca profundamente</t>
   </si>
   <si>
-    <t>Me sinto invisível em meio à multidão</t>
-  </si>
-  <si>
     <t>O peso das responsabilidades me sobrecarrega</t>
   </si>
   <si>
@@ -4925,6 +4916,315 @@
   </si>
   <si>
     <t>A sensação de fracasso acompanha todos os meus passos</t>
+  </si>
+  <si>
+    <t>É como se minha voz não tivesse importância.</t>
+  </si>
+  <si>
+    <t>Eu fico deslocado mesmo em meio a pessoas</t>
+  </si>
+  <si>
+    <t>É como se eu fosse invisível em meio à multidão</t>
+  </si>
+  <si>
+    <t>O avião tremia muito, receio de cair agora.</t>
+  </si>
+  <si>
+    <t>Perdi o passaporte, sinto um pânico total e gelado.</t>
+  </si>
+  <si>
+    <t>O hotel parece sujo, isso é muito perigoso.</t>
+  </si>
+  <si>
+    <t>Viagem cancelada, incerteza sobre o reembolso desespera.</t>
+  </si>
+  <si>
+    <t>Estou sozinha no país, inseguro e muito vulnerável.</t>
+  </si>
+  <si>
+    <t>Notícias de roubo na região me deixam assustada.</t>
+  </si>
+  <si>
+    <t>A mala sumiu, hesitação em seguir viagem agora.</t>
+  </si>
+  <si>
+    <t>O guia parece suspeito, sinto grande desconfiança.</t>
+  </si>
+  <si>
+    <t>O mar estava agitado, um risco enorme de afogamento.</t>
+  </si>
+  <si>
+    <t>Barulho estranho no motor, pavor de algo acontecer.</t>
+  </si>
+  <si>
+    <t>O labirinto da cidade noturna causa muito temor.</t>
+  </si>
+  <si>
+    <t>Tenho medo de não conseguir voltar para casa.</t>
+  </si>
+  <si>
+    <t>A fronteira parece tensa, receio de sermos barrados.</t>
+  </si>
+  <si>
+    <t>O vulcão está ativo, grande perigo de erupção.</t>
+  </si>
+  <si>
+    <t>A vacina não funcionou, pânico de ficar doente.</t>
+  </si>
+  <si>
+    <t>Meu voo atrasou muito, enorme insegurança na conexão.</t>
+  </si>
+  <si>
+    <t>O elevador do prédio balançou, me sinto aterrorizada.</t>
+  </si>
+  <si>
+    <t>Vi um inseto enorme, pavor de insetos gigantes.</t>
+  </si>
+  <si>
+    <t>Desceram com pressa, o perigo parecia iminente.</t>
+  </si>
+  <si>
+    <t>Fiquei isolado do grupo, assustado e sem rumo.</t>
+  </si>
+  <si>
+    <t>O carro alugado falhou, receio de acidente grave.</t>
+  </si>
+  <si>
+    <t>A trilha era íngreme, pavor de escorregar e cair.</t>
+  </si>
+  <si>
+    <t>Checagem de segurança rígida, muito receio de multa.</t>
+  </si>
+  <si>
+    <t>A hospedagem não atende, me sinto completamente vulnerável.</t>
+  </si>
+  <si>
+    <t>O temporal está vindo, perigo de desmoronamento.</t>
+  </si>
+  <si>
+    <t>O voo atrasou horas, estou muito irritada.;Raiva</t>
+  </si>
+  <si>
+    <t>A agência mentiu sobre o hotel, que frustração.;Raiva</t>
+  </si>
+  <si>
+    <t>Fui roubada na rua, sinto-me ultrajada e revoltada.;Raiva</t>
+  </si>
+  <si>
+    <t>A bagagem foi extraviada, isso é muita injustiça.;Raiva</t>
+  </si>
+  <si>
+    <t>O hotel luxuoso superou, sinto-me realizada aqui</t>
+  </si>
+  <si>
+    <t>Consegui a passagem barata, estou muito animada</t>
+  </si>
+  <si>
+    <t>O pôr do sol na praia é maravilhoso, que satisfação</t>
+  </si>
+  <si>
+    <t>Encontrei ótimos amigos viajando, muita felicidade</t>
+  </si>
+  <si>
+    <t>A comida local é incrível, que experiência divertida</t>
+  </si>
+  <si>
+    <t>Fui promovida e comemoro nas ilhas paradisíacas</t>
+  </si>
+  <si>
+    <t>O monumento histórico é lindo, sinto-me contente</t>
+  </si>
+  <si>
+    <t>A escalada foi um sucesso, estou muito vitoriosa</t>
+  </si>
+  <si>
+    <t>O show de rua foi excelente, quanta diversão inesperada</t>
+  </si>
+  <si>
+    <t>Fotos incríveis garantidas, pura euforia e êxtase</t>
+  </si>
+  <si>
+    <t>Finalmente cheguei ao topo, uma conquista tremenda</t>
+  </si>
+  <si>
+    <t>Reencontrei parentes distantes, que momento abençoado</t>
+  </si>
+  <si>
+    <t>O clima está perfeito, que viagem agradável</t>
+  </si>
+  <si>
+    <t>Os passeios foram impecáveis, grande contentamento</t>
+  </si>
+  <si>
+    <t>Recebemos um presente especial, que surpresa deliciosa</t>
+  </si>
+  <si>
+    <t>Visitar o museu foi enriquecedor, estou radiante</t>
+  </si>
+  <si>
+    <t>O mergulho nas águas claras proporcionou grande gozo</t>
+  </si>
+  <si>
+    <t>A vista da montanha me enche de alegria</t>
+  </si>
+  <si>
+    <t>Ganhamos a competição local, que satisfação gostosa</t>
+  </si>
+  <si>
+    <t>O guia turístico é hilário, risadas garantidas</t>
+  </si>
+  <si>
+    <t>Encontrei uma loja sensacional, pura realização</t>
+  </si>
+  <si>
+    <t>A viagem superou as expectativas, estou em júbilo</t>
+  </si>
+  <si>
+    <t>Os colegas de grupo são ótimos, que ambiente festivo</t>
+  </si>
+  <si>
+    <t>A reserva de natureza é belíssima, sinto-me encantada</t>
+  </si>
+  <si>
+    <t>A comida exótica era deliciosa, que prazer incrível</t>
+  </si>
+  <si>
+    <t>O guia turístico sumiu, estou aborrecida e tensa.</t>
+  </si>
+  <si>
+    <t>Cobraram taxas abusivas, sinto-me muito contrariada.</t>
+  </si>
+  <si>
+    <t>A comida do avião é horrível, que falta de respeito.</t>
+  </si>
+  <si>
+    <t>O vizinho de quarto é barulhento, que grande incômodo.</t>
+  </si>
+  <si>
+    <t>Prometeram vista para o mar, que engano revoltante.</t>
+  </si>
+  <si>
+    <t>O taxista me enganou, estou furiosa com a situação.</t>
+  </si>
+  <si>
+    <t>O museu estava fechado, sinto-me muito frustrada.</t>
+  </si>
+  <si>
+    <t>Tentaram me passar a perna, que atitude deplorável.</t>
+  </si>
+  <si>
+    <t>A fila da imigração não anda, que grande irritação.</t>
+  </si>
+  <si>
+    <t>A internet é lenta demais, sinto-me bastante incomodada.</t>
+  </si>
+  <si>
+    <t>A reserva sumiu, que grande falta de organização.</t>
+  </si>
+  <si>
+    <t>O ônibus demorou demais, isso é um desrespeito.</t>
+  </si>
+  <si>
+    <t>O café da manhã estava frio, que grande desprazer.</t>
+  </si>
+  <si>
+    <t>Fui maltratada pela atendente, estou muito ofendida.</t>
+  </si>
+  <si>
+    <t>O motorista dirige mal, que grande irritação.</t>
+  </si>
+  <si>
+    <t>O grupo não me esperou, sinto-me excluída e brava.</t>
+  </si>
+  <si>
+    <t>O ingresso era falso, que vergonha e revolta.</t>
+  </si>
+  <si>
+    <t>O sol queimou minha pele, isso me deixa furiosa.</t>
+  </si>
+  <si>
+    <t>Perdi o mapa da cidade, frustração total agora.</t>
+  </si>
+  <si>
+    <t>A excursão foi péssima, que grande aborrecimento.</t>
+  </si>
+  <si>
+    <t>O quarto cheirava mal, estou revoltada com tudo.</t>
+  </si>
+  <si>
+    <t>Sinto muita saudade de casa, estou desanimada.</t>
+  </si>
+  <si>
+    <t>O lugar me lembra um ex-amor, grande melancolia.</t>
+  </si>
+  <si>
+    <t>A viagem acabou, sinto um vazio enorme agora.</t>
+  </si>
+  <si>
+    <t>Ninguém da família veio, grande desapontamento.</t>
+  </si>
+  <si>
+    <t>Gastei demais sem necessidade, grande arrependimento.</t>
+  </si>
+  <si>
+    <t>O guia foi rude comigo, sinto-me magoada.</t>
+  </si>
+  <si>
+    <t>Perdi o celular, sinto-me desolada e sozinha.</t>
+  </si>
+  <si>
+    <t>O local não era como imaginei, estou muito triste.</t>
+  </si>
+  <si>
+    <t>Meu pai não pode vir, sinto falta dele demais.</t>
+  </si>
+  <si>
+    <t>A chuva estragou tudo, que momento lastimável.</t>
+  </si>
+  <si>
+    <t>O memorial de guerra é muito doloroso, quanta tristeza.</t>
+  </si>
+  <si>
+    <t>O museu fechou cedo, grande desapontamento hoje.</t>
+  </si>
+  <si>
+    <t>O grupo se separou, estou isolada e muito desanimada.</t>
+  </si>
+  <si>
+    <t>Não consegui ver a aurora, que tristeza profunda.</t>
+  </si>
+  <si>
+    <t>A paisagem estava poluída, grande pesar ambiental.</t>
+  </si>
+  <si>
+    <t>A foto não ficou boa, que nostalgia daquele momento.</t>
+  </si>
+  <si>
+    <t>O mar estava frio, sinto um vazio na experiência.</t>
+  </si>
+  <si>
+    <t>Voltar ao hotel sozinha é deprimente, que solidão.</t>
+  </si>
+  <si>
+    <t>Ninguém me ligou, grande desânimo neste feriado.</t>
+  </si>
+  <si>
+    <t>A saúde não ajudou, sinto-me muito cansada.</t>
+  </si>
+  <si>
+    <t>O fim de semana acabou, sinto-me completamente vazia.</t>
+  </si>
+  <si>
+    <t>Encontrei uma carta antiga, grande nostalgia do passado.</t>
+  </si>
+  <si>
+    <t>O souvenir quebrou, sinto-me triste pela perda.</t>
+  </si>
+  <si>
+    <t>Não sei o que fazer, sinto-me perdida e desanimada.</t>
+  </si>
+  <si>
+    <t>A comida não estava boa, grande decepção culinária.</t>
   </si>
 </sst>
 </file>
@@ -5297,10 +5597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1632"/>
+  <dimension ref="A1:I1732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1517" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1534" sqref="B1534:B1632"/>
+    <sheetView tabSelected="1" topLeftCell="A1716" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1733" sqref="A1733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5335,7 +5635,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -5343,7 +5643,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -5351,7 +5651,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -5487,7 +5787,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -5495,7 +5795,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -5503,7 +5803,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -7687,7 +7987,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B298" t="s">
         <v>290</v>
@@ -7695,7 +7995,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B299" t="s">
         <v>290</v>
@@ -7703,7 +8003,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B300" t="s">
         <v>290</v>
@@ -7799,7 +8099,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B312" t="s">
         <v>160</v>
@@ -7807,7 +8107,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B313" t="s">
         <v>160</v>
@@ -7815,7 +8115,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B314" t="s">
         <v>160</v>
@@ -7903,7 +8203,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B325" t="s">
         <v>311</v>
@@ -7919,7 +8219,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B327" t="s">
         <v>311</v>
@@ -7927,7 +8227,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B328" t="s">
         <v>311</v>
@@ -11231,7 +11531,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
-        <v>729</v>
+        <v>1631</v>
       </c>
       <c r="B741" t="s">
         <v>290</v>
@@ -11239,7 +11539,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B742" t="s">
         <v>290</v>
@@ -11247,7 +11547,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B743" t="s">
         <v>290</v>
@@ -11255,7 +11555,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B744" t="s">
         <v>290</v>
@@ -11263,7 +11563,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B745" t="s">
         <v>290</v>
@@ -11271,7 +11571,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B746" t="s">
         <v>290</v>
@@ -11279,7 +11579,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B747" t="s">
         <v>290</v>
@@ -11287,7 +11587,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B748" t="s">
         <v>290</v>
@@ -11295,7 +11595,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B749" t="s">
         <v>290</v>
@@ -11303,7 +11603,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B750" t="s">
         <v>290</v>
@@ -11311,7 +11611,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B751" t="s">
         <v>290</v>
@@ -11319,7 +11619,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B752" t="s">
         <v>290</v>
@@ -11327,7 +11627,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B753" t="s">
         <v>290</v>
@@ -11335,7 +11635,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B754" t="s">
         <v>290</v>
@@ -11343,7 +11643,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B755" t="s">
         <v>290</v>
@@ -11351,7 +11651,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B756" t="s">
         <v>290</v>
@@ -11359,7 +11659,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B757" t="s">
         <v>290</v>
@@ -11367,7 +11667,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B758" t="s">
         <v>290</v>
@@ -11375,7 +11675,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B759" t="s">
         <v>290</v>
@@ -11383,7 +11683,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B760" t="s">
         <v>290</v>
@@ -11391,7 +11691,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B761" t="s">
         <v>290</v>
@@ -11399,7 +11699,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B762" t="s">
         <v>290</v>
@@ -11407,7 +11707,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B763" t="s">
         <v>290</v>
@@ -11415,7 +11715,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B764" t="s">
         <v>290</v>
@@ -11423,7 +11723,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B765" t="s">
         <v>290</v>
@@ -11431,7 +11731,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B766" t="s">
         <v>290</v>
@@ -11439,7 +11739,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B767" t="s">
         <v>290</v>
@@ -11447,7 +11747,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B768" t="s">
         <v>290</v>
@@ -11455,7 +11755,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B769" t="s">
         <v>290</v>
@@ -11463,7 +11763,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B770" t="s">
         <v>290</v>
@@ -11471,7 +11771,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B771" t="s">
         <v>290</v>
@@ -11479,7 +11779,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B772" t="s">
         <v>290</v>
@@ -11487,7 +11787,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B773" t="s">
         <v>290</v>
@@ -11495,7 +11795,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B774" t="s">
         <v>290</v>
@@ -11503,7 +11803,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B775" t="s">
         <v>290</v>
@@ -11511,7 +11811,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B776" t="s">
         <v>290</v>
@@ -11519,7 +11819,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B777" t="s">
         <v>290</v>
@@ -11527,7 +11827,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B778" t="s">
         <v>290</v>
@@ -11535,7 +11835,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B779" t="s">
         <v>290</v>
@@ -11543,7 +11843,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B780" t="s">
         <v>290</v>
@@ -11551,7 +11851,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B781" t="s">
         <v>290</v>
@@ -11559,7 +11859,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B782" t="s">
         <v>290</v>
@@ -11567,7 +11867,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B783" t="s">
         <v>290</v>
@@ -11575,7 +11875,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B784" t="s">
         <v>290</v>
@@ -11583,7 +11883,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B785" t="s">
         <v>290</v>
@@ -11591,7 +11891,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B786" t="s">
         <v>290</v>
@@ -11599,7 +11899,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B787" t="s">
         <v>290</v>
@@ -11607,7 +11907,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B788" t="s">
         <v>290</v>
@@ -11615,7 +11915,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B789" t="s">
         <v>290</v>
@@ -11623,7 +11923,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B790" t="s">
         <v>290</v>
@@ -11631,7 +11931,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B791" t="s">
         <v>290</v>
@@ -11639,7 +11939,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B792" t="s">
         <v>290</v>
@@ -11647,7 +11947,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B793" t="s">
         <v>290</v>
@@ -11655,7 +11955,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B794" t="s">
         <v>290</v>
@@ -11663,7 +11963,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B795" t="s">
         <v>290</v>
@@ -11671,7 +11971,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B796" t="s">
         <v>290</v>
@@ -11679,7 +11979,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B797" t="s">
         <v>290</v>
@@ -11687,7 +11987,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B798" t="s">
         <v>290</v>
@@ -11695,7 +11995,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B799" t="s">
         <v>290</v>
@@ -11703,7 +12003,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B800" t="s">
         <v>290</v>
@@ -11711,7 +12011,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B801" t="s">
         <v>290</v>
@@ -11719,7 +12019,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B802" t="s">
         <v>290</v>
@@ -11727,7 +12027,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B803" t="s">
         <v>290</v>
@@ -11735,7 +12035,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B804" t="s">
         <v>290</v>
@@ -11743,7 +12043,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B805" t="s">
         <v>290</v>
@@ -11751,7 +12051,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B806" t="s">
         <v>290</v>
@@ -11759,7 +12059,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B807" t="s">
         <v>290</v>
@@ -11767,7 +12067,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B808" t="s">
         <v>290</v>
@@ -11775,7 +12075,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B809" t="s">
         <v>290</v>
@@ -11783,7 +12083,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B810" t="s">
         <v>290</v>
@@ -11791,7 +12091,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B811" t="s">
         <v>290</v>
@@ -11799,7 +12099,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B812" t="s">
         <v>290</v>
@@ -11807,7 +12107,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B813" t="s">
         <v>290</v>
@@ -11815,7 +12115,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B814" t="s">
         <v>290</v>
@@ -11823,7 +12123,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B815" t="s">
         <v>290</v>
@@ -11831,7 +12131,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B816" t="s">
         <v>290</v>
@@ -11839,7 +12139,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B817" t="s">
         <v>290</v>
@@ -11847,7 +12147,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B818" t="s">
         <v>290</v>
@@ -11855,7 +12155,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B819" t="s">
         <v>290</v>
@@ -11863,7 +12163,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B820" t="s">
         <v>290</v>
@@ -11871,7 +12171,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B821" t="s">
         <v>290</v>
@@ -11879,7 +12179,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B822" t="s">
         <v>290</v>
@@ -11887,7 +12187,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B823" t="s">
         <v>290</v>
@@ -11895,7 +12195,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B824" t="s">
         <v>290</v>
@@ -11903,7 +12203,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B825" t="s">
         <v>290</v>
@@ -11911,7 +12211,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B826" t="s">
         <v>290</v>
@@ -11919,7 +12219,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B827" t="s">
         <v>290</v>
@@ -11927,7 +12227,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B828" t="s">
         <v>290</v>
@@ -11935,7 +12235,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B829" t="s">
         <v>290</v>
@@ -11943,7 +12243,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B830" t="s">
         <v>290</v>
@@ -11951,7 +12251,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B831" t="s">
         <v>290</v>
@@ -11959,7 +12259,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B832" t="s">
         <v>290</v>
@@ -11967,7 +12267,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B833" t="s">
         <v>290</v>
@@ -11975,7 +12275,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B834" t="s">
         <v>290</v>
@@ -11983,7 +12283,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B835" t="s">
         <v>290</v>
@@ -11991,7 +12291,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B836" t="s">
         <v>290</v>
@@ -11999,7 +12299,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B837" t="s">
         <v>290</v>
@@ -12007,7 +12307,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B838" t="s">
         <v>290</v>
@@ -12015,7 +12315,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B839" t="s">
         <v>290</v>
@@ -12023,7 +12323,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B840" t="s">
         <v>290</v>
@@ -12031,7 +12331,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B841" t="s">
         <v>290</v>
@@ -12039,7 +12339,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B842" t="s">
         <v>290</v>
@@ -12047,7 +12347,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B843" t="s">
         <v>290</v>
@@ -12055,7 +12355,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B844" t="s">
         <v>290</v>
@@ -12063,7 +12363,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B845" t="s">
         <v>290</v>
@@ -12071,7 +12371,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B846" t="s">
         <v>290</v>
@@ -12079,7 +12379,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B847" t="s">
         <v>290</v>
@@ -12087,7 +12387,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B848" t="s">
         <v>290</v>
@@ -12095,7 +12395,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B849" t="s">
         <v>290</v>
@@ -12103,7 +12403,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B850" t="s">
         <v>290</v>
@@ -12111,7 +12411,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B851" t="s">
         <v>290</v>
@@ -12119,7 +12419,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B852" t="s">
         <v>311</v>
@@ -12127,7 +12427,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B853" t="s">
         <v>311</v>
@@ -12135,7 +12435,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B854" t="s">
         <v>311</v>
@@ -12143,7 +12443,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B855" t="s">
         <v>311</v>
@@ -12151,7 +12451,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B856" t="s">
         <v>311</v>
@@ -12159,7 +12459,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B857" t="s">
         <v>311</v>
@@ -12167,7 +12467,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B858" t="s">
         <v>311</v>
@@ -12175,7 +12475,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B859" t="s">
         <v>311</v>
@@ -12183,7 +12483,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B860" t="s">
         <v>311</v>
@@ -12191,7 +12491,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B861" t="s">
         <v>311</v>
@@ -12199,7 +12499,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B862" t="s">
         <v>311</v>
@@ -12207,7 +12507,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B863" t="s">
         <v>311</v>
@@ -12215,7 +12515,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B864" t="s">
         <v>311</v>
@@ -12223,7 +12523,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B865" t="s">
         <v>311</v>
@@ -12231,7 +12531,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B866" t="s">
         <v>311</v>
@@ -12239,7 +12539,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B867" t="s">
         <v>311</v>
@@ -12247,7 +12547,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B868" t="s">
         <v>311</v>
@@ -12255,7 +12555,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B869" t="s">
         <v>311</v>
@@ -12263,7 +12563,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B870" t="s">
         <v>311</v>
@@ -12271,7 +12571,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B871" t="s">
         <v>311</v>
@@ -12279,7 +12579,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B872" t="s">
         <v>311</v>
@@ -12287,7 +12587,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B873" t="s">
         <v>311</v>
@@ -12295,7 +12595,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B874" t="s">
         <v>311</v>
@@ -12303,7 +12603,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B875" t="s">
         <v>311</v>
@@ -12311,7 +12611,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B876" t="s">
         <v>311</v>
@@ -12319,7 +12619,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B877" t="s">
         <v>311</v>
@@ -12327,7 +12627,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B878" t="s">
         <v>311</v>
@@ -12335,7 +12635,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B879" t="s">
         <v>311</v>
@@ -12343,7 +12643,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B880" t="s">
         <v>311</v>
@@ -12351,7 +12651,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B881" t="s">
         <v>311</v>
@@ -12359,7 +12659,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B882" t="s">
         <v>311</v>
@@ -12367,7 +12667,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B883" t="s">
         <v>311</v>
@@ -12375,7 +12675,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B884" t="s">
         <v>311</v>
@@ -12383,7 +12683,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B885" t="s">
         <v>311</v>
@@ -12391,7 +12691,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B886" t="s">
         <v>311</v>
@@ -12399,7 +12699,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B887" t="s">
         <v>311</v>
@@ -12407,7 +12707,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B888" t="s">
         <v>311</v>
@@ -12415,7 +12715,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B889" t="s">
         <v>311</v>
@@ -12423,7 +12723,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B890" t="s">
         <v>311</v>
@@ -12431,7 +12731,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B891" t="s">
         <v>311</v>
@@ -12439,7 +12739,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B892" t="s">
         <v>311</v>
@@ -12447,7 +12747,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B893" t="s">
         <v>311</v>
@@ -12455,7 +12755,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B894" t="s">
         <v>311</v>
@@ -12463,7 +12763,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B895" t="s">
         <v>311</v>
@@ -12471,7 +12771,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B896" t="s">
         <v>311</v>
@@ -12479,7 +12779,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B897" t="s">
         <v>311</v>
@@ -12487,7 +12787,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B898" t="s">
         <v>311</v>
@@ -12495,7 +12795,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B899" t="s">
         <v>311</v>
@@ -12503,7 +12803,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B900" t="s">
         <v>311</v>
@@ -12511,7 +12811,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B901" t="s">
         <v>311</v>
@@ -12519,7 +12819,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B902" t="s">
         <v>311</v>
@@ -12527,7 +12827,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B903" t="s">
         <v>311</v>
@@ -12535,7 +12835,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B904" t="s">
         <v>311</v>
@@ -12543,7 +12843,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B905" t="s">
         <v>311</v>
@@ -12551,7 +12851,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B906" t="s">
         <v>311</v>
@@ -12559,7 +12859,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B907" t="s">
         <v>311</v>
@@ -12567,7 +12867,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B908" t="s">
         <v>311</v>
@@ -12575,7 +12875,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B909" t="s">
         <v>311</v>
@@ -12583,7 +12883,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B910" t="s">
         <v>311</v>
@@ -12591,7 +12891,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B911" t="s">
         <v>311</v>
@@ -12599,7 +12899,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B912" t="s">
         <v>311</v>
@@ -12607,7 +12907,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B913" t="s">
         <v>311</v>
@@ -12615,7 +12915,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B914" t="s">
         <v>311</v>
@@ -12623,7 +12923,7 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B915" t="s">
         <v>311</v>
@@ -12631,7 +12931,7 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B916" t="s">
         <v>311</v>
@@ -12639,7 +12939,7 @@
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B917" t="s">
         <v>311</v>
@@ -12647,7 +12947,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B918" t="s">
         <v>311</v>
@@ -12655,7 +12955,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B919" t="s">
         <v>311</v>
@@ -12663,7 +12963,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B920" t="s">
         <v>311</v>
@@ -12671,7 +12971,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B921" t="s">
         <v>311</v>
@@ -12679,7 +12979,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B922" t="s">
         <v>311</v>
@@ -12687,7 +12987,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B923" t="s">
         <v>311</v>
@@ -12695,7 +12995,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B924" t="s">
         <v>311</v>
@@ -12703,7 +13003,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B925" t="s">
         <v>311</v>
@@ -12711,7 +13011,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B926" t="s">
         <v>311</v>
@@ -12719,7 +13019,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B927" t="s">
         <v>311</v>
@@ -12727,7 +13027,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B928" t="s">
         <v>311</v>
@@ -12735,7 +13035,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B929" t="s">
         <v>311</v>
@@ -12743,7 +13043,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B930" t="s">
         <v>311</v>
@@ -12751,7 +13051,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B931" t="s">
         <v>311</v>
@@ -12759,7 +13059,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B932" t="s">
         <v>3</v>
@@ -12767,7 +13067,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B933" t="s">
         <v>3</v>
@@ -12775,7 +13075,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B934" t="s">
         <v>3</v>
@@ -12783,7 +13083,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B935" t="s">
         <v>3</v>
@@ -12791,7 +13091,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B936" t="s">
         <v>3</v>
@@ -12799,7 +13099,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B937" t="s">
         <v>3</v>
@@ -12807,7 +13107,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B938" t="s">
         <v>3</v>
@@ -12815,7 +13115,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B939" t="s">
         <v>3</v>
@@ -12823,7 +13123,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B940" t="s">
         <v>3</v>
@@ -12831,7 +13131,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B941" t="s">
         <v>3</v>
@@ -12839,7 +13139,7 @@
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B942" t="s">
         <v>3</v>
@@ -12847,7 +13147,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B943" t="s">
         <v>3</v>
@@ -12855,7 +13155,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B944" t="s">
         <v>3</v>
@@ -12863,7 +13163,7 @@
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B945" t="s">
         <v>3</v>
@@ -12871,7 +13171,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B946" t="s">
         <v>3</v>
@@ -12879,7 +13179,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B947" t="s">
         <v>3</v>
@@ -12887,7 +13187,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B948" t="s">
         <v>3</v>
@@ -12895,7 +13195,7 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B949" t="s">
         <v>3</v>
@@ -12903,7 +13203,7 @@
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B950" t="s">
         <v>3</v>
@@ -12911,7 +13211,7 @@
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B951" t="s">
         <v>3</v>
@@ -12919,7 +13219,7 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B952" t="s">
         <v>160</v>
@@ -12927,7 +13227,7 @@
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B953" t="s">
         <v>160</v>
@@ -12935,7 +13235,7 @@
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B954" t="s">
         <v>160</v>
@@ -12943,7 +13243,7 @@
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B955" t="s">
         <v>160</v>
@@ -12951,7 +13251,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B956" t="s">
         <v>160</v>
@@ -12959,7 +13259,7 @@
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B957" t="s">
         <v>160</v>
@@ -12967,7 +13267,7 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B958" t="s">
         <v>160</v>
@@ -12975,7 +13275,7 @@
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B959" t="s">
         <v>160</v>
@@ -12983,7 +13283,7 @@
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B960" t="s">
         <v>160</v>
@@ -12991,7 +13291,7 @@
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B961" t="s">
         <v>160</v>
@@ -12999,7 +13299,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B962" t="s">
         <v>160</v>
@@ -13007,7 +13307,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B963" t="s">
         <v>160</v>
@@ -13015,7 +13315,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A964" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B964" t="s">
         <v>160</v>
@@ -13023,7 +13323,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A965" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B965" t="s">
         <v>160</v>
@@ -13031,7 +13331,7 @@
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A966" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B966" t="s">
         <v>160</v>
@@ -13039,7 +13339,7 @@
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B967" t="s">
         <v>160</v>
@@ -13047,7 +13347,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B968" t="s">
         <v>160</v>
@@ -13055,7 +13355,7 @@
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A969" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B969" s="2" t="s">
         <v>160</v>
@@ -13063,7 +13363,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B970" t="s">
         <v>160</v>
@@ -13071,7 +13371,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B971" t="s">
         <v>160</v>
@@ -13079,7 +13379,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B972" t="s">
         <v>290</v>
@@ -13087,7 +13387,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B973" t="s">
         <v>290</v>
@@ -13095,7 +13395,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A974" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B974" t="s">
         <v>290</v>
@@ -13103,7 +13403,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B975" t="s">
         <v>290</v>
@@ -13111,7 +13411,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A976" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B976" t="s">
         <v>290</v>
@@ -13119,7 +13419,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A977" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B977" t="s">
         <v>290</v>
@@ -13127,7 +13427,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B978" t="s">
         <v>290</v>
@@ -13135,7 +13435,7 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B979" t="s">
         <v>290</v>
@@ -13143,7 +13443,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B980" t="s">
         <v>290</v>
@@ -13151,7 +13451,7 @@
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A981" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B981" t="s">
         <v>290</v>
@@ -13159,7 +13459,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A982" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B982" t="s">
         <v>290</v>
@@ -13167,7 +13467,7 @@
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B983" t="s">
         <v>290</v>
@@ -13175,7 +13475,7 @@
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B984" t="s">
         <v>290</v>
@@ -13183,7 +13483,7 @@
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B985" t="s">
         <v>290</v>
@@ -13191,7 +13491,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A986" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B986" t="s">
         <v>290</v>
@@ -13199,7 +13499,7 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A987" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B987" t="s">
         <v>290</v>
@@ -13207,7 +13507,7 @@
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A988" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B988" t="s">
         <v>290</v>
@@ -13215,7 +13515,7 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A989" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B989" t="s">
         <v>290</v>
@@ -13223,7 +13523,7 @@
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A990" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B990" t="s">
         <v>290</v>
@@ -13231,7 +13531,7 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A991" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B991" t="s">
         <v>290</v>
@@ -13239,7 +13539,7 @@
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A992" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B992" t="s">
         <v>311</v>
@@ -13247,7 +13547,7 @@
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A993" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B993" t="s">
         <v>311</v>
@@ -13255,7 +13555,7 @@
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A994" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B994" t="s">
         <v>311</v>
@@ -13263,7 +13563,7 @@
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A995" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B995" t="s">
         <v>311</v>
@@ -13271,7 +13571,7 @@
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A996" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B996" t="s">
         <v>311</v>
@@ -13279,7 +13579,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A997" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B997" t="s">
         <v>311</v>
@@ -13287,7 +13587,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A998" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B998" t="s">
         <v>311</v>
@@ -13295,7 +13595,7 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A999" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B999" t="s">
         <v>311</v>
@@ -13303,7 +13603,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1000" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1000" t="s">
         <v>311</v>
@@ -13311,7 +13611,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1001" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1001" t="s">
         <v>311</v>
@@ -13319,7 +13619,7 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1002" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1002" t="s">
         <v>311</v>
@@ -13327,7 +13627,7 @@
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1003" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1003" t="s">
         <v>311</v>
@@ -13335,7 +13635,7 @@
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1004" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1004" t="s">
         <v>311</v>
@@ -13343,7 +13643,7 @@
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1005" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1005" t="s">
         <v>311</v>
@@ -13351,7 +13651,7 @@
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1006" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1006" t="s">
         <v>311</v>
@@ -13359,7 +13659,7 @@
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1007" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1007" t="s">
         <v>311</v>
@@ -13367,7 +13667,7 @@
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1008" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1008" t="s">
         <v>311</v>
@@ -13375,7 +13675,7 @@
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1009" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B1009" t="s">
         <v>311</v>
@@ -13383,7 +13683,7 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1010" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1010" t="s">
         <v>311</v>
@@ -13391,7 +13691,7 @@
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1011" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1011" t="s">
         <v>311</v>
@@ -13399,7 +13699,7 @@
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1012" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1012" t="s">
         <v>3</v>
@@ -13407,7 +13707,7 @@
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1013" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1013" t="s">
         <v>3</v>
@@ -13415,7 +13715,7 @@
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1014" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1014" t="s">
         <v>3</v>
@@ -13423,7 +13723,7 @@
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1015" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1015" t="s">
         <v>3</v>
@@ -13431,7 +13731,7 @@
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1016" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1016" t="s">
         <v>3</v>
@@ -13439,7 +13739,7 @@
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1017" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1017" t="s">
         <v>3</v>
@@ -13447,7 +13747,7 @@
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1018" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1018" t="s">
         <v>3</v>
@@ -13455,7 +13755,7 @@
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1019" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1019" t="s">
         <v>3</v>
@@ -13463,7 +13763,7 @@
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1020" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1020" t="s">
         <v>3</v>
@@ -13471,7 +13771,7 @@
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1021" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1021" t="s">
         <v>3</v>
@@ -13479,7 +13779,7 @@
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1022" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1022" t="s">
         <v>3</v>
@@ -13487,7 +13787,7 @@
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1023" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B1023" t="s">
         <v>3</v>
@@ -13495,7 +13795,7 @@
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1024" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1024" t="s">
         <v>3</v>
@@ -13503,7 +13803,7 @@
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1025" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1025" t="s">
         <v>3</v>
@@ -13511,7 +13811,7 @@
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1026" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1026" t="s">
         <v>3</v>
@@ -13519,7 +13819,7 @@
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1027" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1027" t="s">
         <v>3</v>
@@ -13527,7 +13827,7 @@
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1028" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1028" t="s">
         <v>3</v>
@@ -13535,7 +13835,7 @@
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1029" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1029" t="s">
         <v>3</v>
@@ -13543,7 +13843,7 @@
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1030" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1030" t="s">
         <v>3</v>
@@ -13551,7 +13851,7 @@
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1031" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1031" t="s">
         <v>3</v>
@@ -13559,7 +13859,7 @@
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1032" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1032" t="s">
         <v>160</v>
@@ -13567,7 +13867,7 @@
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1033" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1033" t="s">
         <v>160</v>
@@ -13575,7 +13875,7 @@
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1034" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B1034" t="s">
         <v>160</v>
@@ -13583,7 +13883,7 @@
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1035" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B1035" t="s">
         <v>160</v>
@@ -13591,7 +13891,7 @@
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1036" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1036" t="s">
         <v>160</v>
@@ -13599,7 +13899,7 @@
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1037" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B1037" t="s">
         <v>160</v>
@@ -13607,7 +13907,7 @@
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1038" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1038" t="s">
         <v>160</v>
@@ -13615,7 +13915,7 @@
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1039" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B1039" t="s">
         <v>160</v>
@@ -13623,7 +13923,7 @@
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1040" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1040" t="s">
         <v>160</v>
@@ -13631,7 +13931,7 @@
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1041" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B1041" t="s">
         <v>160</v>
@@ -13639,7 +13939,7 @@
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1042" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B1042" t="s">
         <v>160</v>
@@ -13647,7 +13947,7 @@
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1043" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B1043" t="s">
         <v>160</v>
@@ -13655,7 +13955,7 @@
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1044" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1044" t="s">
         <v>160</v>
@@ -13663,7 +13963,7 @@
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1045" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1045" t="s">
         <v>160</v>
@@ -13671,7 +13971,7 @@
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1046" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1046" t="s">
         <v>160</v>
@@ -13679,7 +13979,7 @@
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1047" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1047" t="s">
         <v>160</v>
@@ -13687,7 +13987,7 @@
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1048" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B1048" t="s">
         <v>160</v>
@@ -13695,7 +13995,7 @@
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1049" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B1049" t="s">
         <v>160</v>
@@ -13703,7 +14003,7 @@
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1050" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B1050" t="s">
         <v>160</v>
@@ -13711,7 +14011,7 @@
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1051" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B1051" t="s">
         <v>160</v>
@@ -13719,7 +14019,7 @@
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1052" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B1052" t="s">
         <v>290</v>
@@ -13727,7 +14027,7 @@
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1053" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1053" t="s">
         <v>290</v>
@@ -13735,7 +14035,7 @@
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1054" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B1054" t="s">
         <v>290</v>
@@ -13743,7 +14043,7 @@
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1055" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1055" t="s">
         <v>290</v>
@@ -13751,7 +14051,7 @@
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1056" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B1056" t="s">
         <v>290</v>
@@ -13759,7 +14059,7 @@
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1057" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B1057" t="s">
         <v>290</v>
@@ -13767,7 +14067,7 @@
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1058" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1058" t="s">
         <v>290</v>
@@ -13775,7 +14075,7 @@
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1059" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B1059" t="s">
         <v>290</v>
@@ -13783,7 +14083,7 @@
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1060" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B1060" t="s">
         <v>290</v>
@@ -13791,7 +14091,7 @@
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1061" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B1061" t="s">
         <v>290</v>
@@ -13799,7 +14099,7 @@
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1062" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B1062" t="s">
         <v>290</v>
@@ -13807,7 +14107,7 @@
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1063" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1063" t="s">
         <v>290</v>
@@ -13815,7 +14115,7 @@
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1064" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1064" t="s">
         <v>290</v>
@@ -13823,7 +14123,7 @@
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1065" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1065" t="s">
         <v>290</v>
@@ -13831,7 +14131,7 @@
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1066" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1066" t="s">
         <v>290</v>
@@ -13839,7 +14139,7 @@
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1067" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B1067" t="s">
         <v>290</v>
@@ -13847,7 +14147,7 @@
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1068" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1068" t="s">
         <v>290</v>
@@ -13855,7 +14155,7 @@
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1069" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1069" t="s">
         <v>290</v>
@@ -13863,7 +14163,7 @@
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1070" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1070" t="s">
         <v>290</v>
@@ -13871,7 +14171,7 @@
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1071" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B1071" t="s">
         <v>290</v>
@@ -13879,7 +14179,7 @@
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1072" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B1072" t="s">
         <v>290</v>
@@ -13887,7 +14187,7 @@
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1073" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1073" t="s">
         <v>290</v>
@@ -13895,7 +14195,7 @@
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1074" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1074" t="s">
         <v>290</v>
@@ -13903,7 +14203,7 @@
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1075" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1075" t="s">
         <v>290</v>
@@ -13911,7 +14211,7 @@
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1076" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1076" t="s">
         <v>290</v>
@@ -13919,7 +14219,7 @@
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1077" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1077" t="s">
         <v>290</v>
@@ -13927,7 +14227,7 @@
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1078" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1078" t="s">
         <v>290</v>
@@ -13935,7 +14235,7 @@
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1079" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1079" t="s">
         <v>290</v>
@@ -13943,7 +14243,7 @@
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1080" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1080" t="s">
         <v>290</v>
@@ -13951,7 +14251,7 @@
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1081" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1081" t="s">
         <v>290</v>
@@ -13959,7 +14259,7 @@
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1082" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1082" t="s">
         <v>290</v>
@@ -13967,7 +14267,7 @@
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1083" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1083" t="s">
         <v>290</v>
@@ -13975,7 +14275,7 @@
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1084" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1084" t="s">
         <v>290</v>
@@ -13983,7 +14283,7 @@
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1085" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B1085" t="s">
         <v>290</v>
@@ -13991,7 +14291,7 @@
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1086" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B1086" t="s">
         <v>3</v>
@@ -13999,7 +14299,7 @@
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1087" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1087" t="s">
         <v>3</v>
@@ -14007,7 +14307,7 @@
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1088" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1088" t="s">
         <v>3</v>
@@ -14015,7 +14315,7 @@
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1089" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B1089" t="s">
         <v>3</v>
@@ -14023,7 +14323,7 @@
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1090" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1090" t="s">
         <v>290</v>
@@ -14031,7 +14331,7 @@
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1091" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1091" t="s">
         <v>290</v>
@@ -14039,7 +14339,7 @@
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1092" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1092" t="s">
         <v>290</v>
@@ -14047,7 +14347,7 @@
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1093" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1093" t="s">
         <v>290</v>
@@ -14055,7 +14355,7 @@
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1094" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1094" t="s">
         <v>290</v>
@@ -14063,7 +14363,7 @@
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1095" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1095" t="s">
         <v>290</v>
@@ -14071,7 +14371,7 @@
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1096" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1096" t="s">
         <v>290</v>
@@ -14079,7 +14379,7 @@
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1097" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1097" t="s">
         <v>290</v>
@@ -14087,7 +14387,7 @@
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1098" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B1098" t="s">
         <v>290</v>
@@ -14095,7 +14395,7 @@
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1099" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1099" t="s">
         <v>290</v>
@@ -14103,7 +14403,7 @@
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1100" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1100" t="s">
         <v>290</v>
@@ -14111,7 +14411,7 @@
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1101" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1101" t="s">
         <v>290</v>
@@ -14119,7 +14419,7 @@
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1102" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1102" t="s">
         <v>290</v>
@@ -14127,7 +14427,7 @@
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1103" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1103" t="s">
         <v>290</v>
@@ -14135,7 +14435,7 @@
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1104" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1104" t="s">
         <v>290</v>
@@ -14143,7 +14443,7 @@
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1105" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1105" t="s">
         <v>290</v>
@@ -14151,7 +14451,7 @@
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1106" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1106" t="s">
         <v>290</v>
@@ -14159,7 +14459,7 @@
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1107" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B1107" t="s">
         <v>290</v>
@@ -14167,7 +14467,7 @@
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1108" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1108" t="s">
         <v>290</v>
@@ -14175,7 +14475,7 @@
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1109" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1109" t="s">
         <v>290</v>
@@ -14183,7 +14483,7 @@
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1110" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1110" t="s">
         <v>290</v>
@@ -14191,7 +14491,7 @@
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1111" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1111" t="s">
         <v>290</v>
@@ -14199,7 +14499,7 @@
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1112" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B1112" t="s">
         <v>290</v>
@@ -14207,7 +14507,7 @@
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1113" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B1113" t="s">
         <v>290</v>
@@ -14215,7 +14515,7 @@
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1114" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B1114" t="s">
         <v>290</v>
@@ -14223,7 +14523,7 @@
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1115" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B1115" t="s">
         <v>160</v>
@@ -14231,7 +14531,7 @@
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1116" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B1116" t="s">
         <v>160</v>
@@ -14239,7 +14539,7 @@
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1117" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B1117" t="s">
         <v>160</v>
@@ -14247,7 +14547,7 @@
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1118" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B1118" t="s">
         <v>160</v>
@@ -14255,7 +14555,7 @@
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1119" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1119" t="s">
         <v>160</v>
@@ -14263,7 +14563,7 @@
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1120" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B1120" t="s">
         <v>160</v>
@@ -14271,7 +14571,7 @@
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1121" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1121" t="s">
         <v>160</v>
@@ -14279,7 +14579,7 @@
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1122" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1122" t="s">
         <v>160</v>
@@ -14287,7 +14587,7 @@
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1123" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B1123" t="s">
         <v>160</v>
@@ -14295,7 +14595,7 @@
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1124" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1124" t="s">
         <v>160</v>
@@ -14303,7 +14603,7 @@
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1125" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1125" t="s">
         <v>160</v>
@@ -14311,7 +14611,7 @@
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1126" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1126" t="s">
         <v>160</v>
@@ -14319,7 +14619,7 @@
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1127" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1127" t="s">
         <v>160</v>
@@ -14327,7 +14627,7 @@
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1128" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1128" t="s">
         <v>160</v>
@@ -14335,7 +14635,7 @@
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1129" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1129" t="s">
         <v>160</v>
@@ -14343,7 +14643,7 @@
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1130" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1130" t="s">
         <v>160</v>
@@ -14351,7 +14651,7 @@
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1131" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B1131" t="s">
         <v>160</v>
@@ -14359,7 +14659,7 @@
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1132" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B1132" t="s">
         <v>160</v>
@@ -14367,7 +14667,7 @@
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1133" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B1133" t="s">
         <v>160</v>
@@ -14375,7 +14675,7 @@
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1134" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B1134" t="s">
         <v>160</v>
@@ -14383,7 +14683,7 @@
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1135" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1135" t="s">
         <v>160</v>
@@ -14391,7 +14691,7 @@
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1136" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B1136" t="s">
         <v>160</v>
@@ -14399,7 +14699,7 @@
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1137" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B1137" t="s">
         <v>160</v>
@@ -14407,7 +14707,7 @@
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1138" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1138" t="s">
         <v>160</v>
@@ -14415,7 +14715,7 @@
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1139" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B1139" t="s">
         <v>160</v>
@@ -14423,7 +14723,7 @@
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1140" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1140" t="s">
         <v>311</v>
@@ -14431,7 +14731,7 @@
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1141" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1141" t="s">
         <v>311</v>
@@ -14439,7 +14739,7 @@
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1142" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B1142" t="s">
         <v>311</v>
@@ -14447,7 +14747,7 @@
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1143" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1143" t="s">
         <v>311</v>
@@ -14455,7 +14755,7 @@
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1144" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B1144" t="s">
         <v>311</v>
@@ -14463,7 +14763,7 @@
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1145" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B1145" t="s">
         <v>311</v>
@@ -14471,7 +14771,7 @@
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1146" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B1146" t="s">
         <v>311</v>
@@ -14479,7 +14779,7 @@
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1147" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B1147" t="s">
         <v>311</v>
@@ -14487,7 +14787,7 @@
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1148" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B1148" t="s">
         <v>311</v>
@@ -14495,7 +14795,7 @@
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1149" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1149" t="s">
         <v>311</v>
@@ -14503,7 +14803,7 @@
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1150" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B1150" t="s">
         <v>311</v>
@@ -14511,7 +14811,7 @@
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1151" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B1151" t="s">
         <v>311</v>
@@ -14519,7 +14819,7 @@
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1152" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B1152" t="s">
         <v>311</v>
@@ -14527,7 +14827,7 @@
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1153" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B1153" t="s">
         <v>311</v>
@@ -14535,7 +14835,7 @@
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1154" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1154" t="s">
         <v>311</v>
@@ -14543,7 +14843,7 @@
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1155" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1155" t="s">
         <v>311</v>
@@ -14551,7 +14851,7 @@
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1156" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B1156" t="s">
         <v>311</v>
@@ -14559,7 +14859,7 @@
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1157" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B1157" t="s">
         <v>311</v>
@@ -14567,7 +14867,7 @@
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1158" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B1158" t="s">
         <v>311</v>
@@ -14575,7 +14875,7 @@
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1159" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B1159" t="s">
         <v>311</v>
@@ -14583,7 +14883,7 @@
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1160" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B1160" t="s">
         <v>311</v>
@@ -14591,7 +14891,7 @@
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1161" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1161" t="s">
         <v>311</v>
@@ -14599,7 +14899,7 @@
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1162" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B1162" t="s">
         <v>311</v>
@@ -14607,7 +14907,7 @@
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1163" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B1163" t="s">
         <v>311</v>
@@ -14615,7 +14915,7 @@
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1164" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1164" t="s">
         <v>311</v>
@@ -14623,7 +14923,7 @@
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1165" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1165" t="s">
         <v>3</v>
@@ -14631,7 +14931,7 @@
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1166" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1166" t="s">
         <v>3</v>
@@ -14639,7 +14939,7 @@
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1167" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1167" t="s">
         <v>3</v>
@@ -14647,7 +14947,7 @@
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1168" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1168" t="s">
         <v>3</v>
@@ -14655,7 +14955,7 @@
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1169" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1169" t="s">
         <v>3</v>
@@ -14663,7 +14963,7 @@
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1170" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B1170" t="s">
         <v>3</v>
@@ -14671,7 +14971,7 @@
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1171" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1171" t="s">
         <v>3</v>
@@ -14679,7 +14979,7 @@
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1172" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B1172" t="s">
         <v>3</v>
@@ -14687,7 +14987,7 @@
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1173" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1173" t="s">
         <v>3</v>
@@ -14695,7 +14995,7 @@
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1174" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1174" t="s">
         <v>3</v>
@@ -14703,7 +15003,7 @@
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1175" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B1175" t="s">
         <v>3</v>
@@ -14711,7 +15011,7 @@
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1176" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1176" t="s">
         <v>3</v>
@@ -14719,7 +15019,7 @@
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1177" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1177" t="s">
         <v>3</v>
@@ -14727,7 +15027,7 @@
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1178" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B1178" t="s">
         <v>3</v>
@@ -14735,7 +15035,7 @@
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1179" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1179" t="s">
         <v>3</v>
@@ -14743,7 +15043,7 @@
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1180" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1180" t="s">
         <v>3</v>
@@ -14751,7 +15051,7 @@
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1181" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1181" t="s">
         <v>3</v>
@@ -14759,7 +15059,7 @@
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1182" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1182" t="s">
         <v>3</v>
@@ -14767,7 +15067,7 @@
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1183" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1183" t="s">
         <v>3</v>
@@ -14775,7 +15075,7 @@
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1184" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1184" t="s">
         <v>3</v>
@@ -14783,7 +15083,7 @@
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1185" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B1185" t="s">
         <v>160</v>
@@ -14791,7 +15091,7 @@
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1186" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B1186" t="s">
         <v>160</v>
@@ -14799,7 +15099,7 @@
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1187" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B1187" t="s">
         <v>160</v>
@@ -14807,7 +15107,7 @@
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1188" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B1188" t="s">
         <v>160</v>
@@ -14815,7 +15115,7 @@
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1189" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1189" t="s">
         <v>160</v>
@@ -14823,7 +15123,7 @@
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1190" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1190" t="s">
         <v>160</v>
@@ -14831,7 +15131,7 @@
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1191" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1191" t="s">
         <v>160</v>
@@ -14839,7 +15139,7 @@
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1192" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B1192" t="s">
         <v>160</v>
@@ -14847,7 +15147,7 @@
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1193" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B1193" t="s">
         <v>160</v>
@@ -14855,7 +15155,7 @@
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1194" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1194" t="s">
         <v>160</v>
@@ -14863,7 +15163,7 @@
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1195" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1195" t="s">
         <v>160</v>
@@ -14871,7 +15171,7 @@
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1196" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1196" t="s">
         <v>160</v>
@@ -14879,7 +15179,7 @@
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1197" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1197" t="s">
         <v>160</v>
@@ -14887,7 +15187,7 @@
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1198" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1198" t="s">
         <v>160</v>
@@ -14895,7 +15195,7 @@
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1199" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1199" t="s">
         <v>160</v>
@@ -14903,7 +15203,7 @@
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1200" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1200" t="s">
         <v>160</v>
@@ -14911,7 +15211,7 @@
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1201" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1201" t="s">
         <v>160</v>
@@ -14919,7 +15219,7 @@
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1202" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1202" t="s">
         <v>160</v>
@@ -14927,7 +15227,7 @@
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1203" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1203" t="s">
         <v>160</v>
@@ -14935,7 +15235,7 @@
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1204" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1204" t="s">
         <v>160</v>
@@ -14943,7 +15243,7 @@
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1205" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1205" t="s">
         <v>311</v>
@@ -14951,7 +15251,7 @@
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1206" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1206" t="s">
         <v>311</v>
@@ -14959,7 +15259,7 @@
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1207" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1207" t="s">
         <v>311</v>
@@ -14967,7 +15267,7 @@
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1208" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1208" t="s">
         <v>311</v>
@@ -14975,7 +15275,7 @@
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1209" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B1209" t="s">
         <v>311</v>
@@ -14983,7 +15283,7 @@
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1210" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1210" t="s">
         <v>311</v>
@@ -14991,7 +15291,7 @@
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1211" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B1211" t="s">
         <v>311</v>
@@ -14999,7 +15299,7 @@
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1212" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1212" t="s">
         <v>311</v>
@@ -15007,7 +15307,7 @@
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1213" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1213" t="s">
         <v>311</v>
@@ -15015,7 +15315,7 @@
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1214" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1214" t="s">
         <v>311</v>
@@ -15023,7 +15323,7 @@
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1215" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1215" t="s">
         <v>311</v>
@@ -15031,7 +15331,7 @@
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1216" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1216" t="s">
         <v>311</v>
@@ -15039,7 +15339,7 @@
     </row>
     <row r="1217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1217" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B1217" t="s">
         <v>311</v>
@@ -15047,7 +15347,7 @@
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1218" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1218" t="s">
         <v>311</v>
@@ -15055,7 +15355,7 @@
     </row>
     <row r="1219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1219" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B1219" t="s">
         <v>311</v>
@@ -15063,7 +15363,7 @@
     </row>
     <row r="1220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1220" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1220" t="s">
         <v>311</v>
@@ -15071,7 +15371,7 @@
     </row>
     <row r="1221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1221" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1221" t="s">
         <v>311</v>
@@ -15079,7 +15379,7 @@
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1222" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1222" t="s">
         <v>311</v>
@@ -15087,7 +15387,7 @@
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1223" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1223" t="s">
         <v>311</v>
@@ -15095,7 +15395,7 @@
     </row>
     <row r="1224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1224" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1224" t="s">
         <v>311</v>
@@ -15103,7 +15403,7 @@
     </row>
     <row r="1225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1225" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1225" t="s">
         <v>290</v>
@@ -15111,7 +15411,7 @@
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1226" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1226" t="s">
         <v>290</v>
@@ -15119,7 +15419,7 @@
     </row>
     <row r="1227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1227" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1227" t="s">
         <v>290</v>
@@ -15127,7 +15427,7 @@
     </row>
     <row r="1228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1228" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1228" t="s">
         <v>290</v>
@@ -15135,7 +15435,7 @@
     </row>
     <row r="1229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1229" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1229" t="s">
         <v>290</v>
@@ -15143,7 +15443,7 @@
     </row>
     <row r="1230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1230" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1230" t="s">
         <v>290</v>
@@ -15151,7 +15451,7 @@
     </row>
     <row r="1231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1231" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B1231" t="s">
         <v>290</v>
@@ -15160,7 +15460,7 @@
     </row>
     <row r="1232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1232" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1232" t="s">
         <v>290</v>
@@ -15168,7 +15468,7 @@
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1233" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1233" t="s">
         <v>290</v>
@@ -15176,7 +15476,7 @@
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1234" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1234" t="s">
         <v>290</v>
@@ -15184,7 +15484,7 @@
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1235" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B1235" t="s">
         <v>290</v>
@@ -15192,7 +15492,7 @@
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1236" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B1236" t="s">
         <v>290</v>
@@ -15200,7 +15500,7 @@
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1237" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1237" t="s">
         <v>290</v>
@@ -15208,7 +15508,7 @@
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1238" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1238" t="s">
         <v>290</v>
@@ -15216,7 +15516,7 @@
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1239" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1239" t="s">
         <v>290</v>
@@ -15224,7 +15524,7 @@
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1240" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1240" t="s">
         <v>290</v>
@@ -15232,7 +15532,7 @@
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1241" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1241" t="s">
         <v>290</v>
@@ -15240,7 +15540,7 @@
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1242" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1242" t="s">
         <v>290</v>
@@ -15248,7 +15548,7 @@
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1243" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1243" t="s">
         <v>290</v>
@@ -15256,7 +15556,7 @@
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1244" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B1244" t="s">
         <v>290</v>
@@ -15264,7 +15564,7 @@
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1245" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1245" t="s">
         <v>3</v>
@@ -15272,7 +15572,7 @@
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1246" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B1246" t="s">
         <v>3</v>
@@ -15280,7 +15580,7 @@
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1247" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1247" t="s">
         <v>3</v>
@@ -15288,7 +15588,7 @@
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1248" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1248" t="s">
         <v>3</v>
@@ -15296,7 +15596,7 @@
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1249" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1249" t="s">
         <v>3</v>
@@ -15304,7 +15604,7 @@
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1250" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1250" t="s">
         <v>3</v>
@@ -15312,7 +15612,7 @@
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1251" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B1251" t="s">
         <v>3</v>
@@ -15320,7 +15620,7 @@
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1252" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1252" t="s">
         <v>3</v>
@@ -15328,7 +15628,7 @@
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1253" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1253" t="s">
         <v>3</v>
@@ -15336,7 +15636,7 @@
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1254" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1254" t="s">
         <v>3</v>
@@ -15344,7 +15644,7 @@
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1255" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1255" t="s">
         <v>3</v>
@@ -15352,7 +15652,7 @@
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1256" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1256" t="s">
         <v>3</v>
@@ -15360,7 +15660,7 @@
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1257" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1257" t="s">
         <v>3</v>
@@ -15368,7 +15668,7 @@
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1258" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1258" t="s">
         <v>3</v>
@@ -15376,7 +15676,7 @@
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1259" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1259" t="s">
         <v>3</v>
@@ -15384,7 +15684,7 @@
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1260" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1260" t="s">
         <v>3</v>
@@ -15392,7 +15692,7 @@
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1261" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1261" t="s">
         <v>3</v>
@@ -15400,7 +15700,7 @@
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1262" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1262" t="s">
         <v>3</v>
@@ -15408,7 +15708,7 @@
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1263" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1263" t="s">
         <v>3</v>
@@ -15416,7 +15716,7 @@
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1264" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1264" t="s">
         <v>3</v>
@@ -15424,7 +15724,7 @@
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1265" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1265" t="s">
         <v>3</v>
@@ -15432,7 +15732,7 @@
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1266" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1266" t="s">
         <v>3</v>
@@ -15440,7 +15740,7 @@
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1267" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1267" t="s">
         <v>3</v>
@@ -15448,7 +15748,7 @@
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1268" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1268" t="s">
         <v>3</v>
@@ -15456,7 +15756,7 @@
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1269" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1269" t="s">
         <v>3</v>
@@ -15464,7 +15764,7 @@
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1270" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1270" t="s">
         <v>3</v>
@@ -15472,7 +15772,7 @@
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1271" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1271" t="s">
         <v>3</v>
@@ -15480,7 +15780,7 @@
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1272" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1272" t="s">
         <v>3</v>
@@ -15488,7 +15788,7 @@
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1273" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1273" t="s">
         <v>3</v>
@@ -15496,7 +15796,7 @@
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1274" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1274" t="s">
         <v>3</v>
@@ -15504,7 +15804,7 @@
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1275" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1275" t="s">
         <v>3</v>
@@ -15512,7 +15812,7 @@
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1276" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1276" t="s">
         <v>3</v>
@@ -15520,7 +15820,7 @@
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1277" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1277" t="s">
         <v>3</v>
@@ -15528,7 +15828,7 @@
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1278" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1278" t="s">
         <v>3</v>
@@ -15536,7 +15836,7 @@
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1279" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1279" t="s">
         <v>3</v>
@@ -15544,7 +15844,7 @@
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1280" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1280" t="s">
         <v>3</v>
@@ -15552,7 +15852,7 @@
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1281" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1281" t="s">
         <v>3</v>
@@ -15560,7 +15860,7 @@
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1282" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1282" t="s">
         <v>3</v>
@@ -15568,7 +15868,7 @@
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1283" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1283" t="s">
         <v>3</v>
@@ -15576,7 +15876,7 @@
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1284" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1284" t="s">
         <v>3</v>
@@ -15584,7 +15884,7 @@
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1285" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1285" t="s">
         <v>3</v>
@@ -15592,7 +15892,7 @@
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1286" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1286" t="s">
         <v>3</v>
@@ -15600,7 +15900,7 @@
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1287" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1287" t="s">
         <v>3</v>
@@ -15608,7 +15908,7 @@
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1288" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1288" t="s">
         <v>3</v>
@@ -15616,7 +15916,7 @@
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1289" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1289" t="s">
         <v>3</v>
@@ -15624,7 +15924,7 @@
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1290" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1290" t="s">
         <v>3</v>
@@ -15632,7 +15932,7 @@
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1291" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1291" t="s">
         <v>3</v>
@@ -15640,7 +15940,7 @@
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1292" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1292" t="s">
         <v>3</v>
@@ -15648,7 +15948,7 @@
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1293" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1293" t="s">
         <v>3</v>
@@ -15656,7 +15956,7 @@
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1294" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1294" t="s">
         <v>3</v>
@@ -15664,7 +15964,7 @@
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1295" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1295" t="s">
         <v>3</v>
@@ -15672,7 +15972,7 @@
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1296" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1296" t="s">
         <v>3</v>
@@ -15680,7 +15980,7 @@
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1297" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B1297" t="s">
         <v>3</v>
@@ -15688,7 +15988,7 @@
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1298" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1298" t="s">
         <v>3</v>
@@ -15696,7 +15996,7 @@
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1299" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1299" t="s">
         <v>3</v>
@@ -15704,7 +16004,7 @@
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1300" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1300" t="s">
         <v>3</v>
@@ -15712,7 +16012,7 @@
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1301" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1301" t="s">
         <v>3</v>
@@ -15720,7 +16020,7 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1302" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1302" t="s">
         <v>3</v>
@@ -15728,7 +16028,7 @@
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1303" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1303" t="s">
         <v>3</v>
@@ -15736,7 +16036,7 @@
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1304" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1304" t="s">
         <v>3</v>
@@ -15744,7 +16044,7 @@
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1305" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1305" t="s">
         <v>3</v>
@@ -15752,7 +16052,7 @@
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1306" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1306" t="s">
         <v>3</v>
@@ -15760,7 +16060,7 @@
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1307" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1307" t="s">
         <v>3</v>
@@ -15768,7 +16068,7 @@
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1308" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B1308" t="s">
         <v>3</v>
@@ -15776,7 +16076,7 @@
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1309" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1309" t="s">
         <v>3</v>
@@ -15784,7 +16084,7 @@
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1310" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1310" t="s">
         <v>3</v>
@@ -15792,7 +16092,7 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1311" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1311" t="s">
         <v>3</v>
@@ -15800,7 +16100,7 @@
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1312" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1312" t="s">
         <v>3</v>
@@ -15808,7 +16108,7 @@
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1313" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1313" t="s">
         <v>3</v>
@@ -15816,7 +16116,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1314" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1314" t="s">
         <v>3</v>
@@ -15824,7 +16124,7 @@
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1315" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1315" t="s">
         <v>3</v>
@@ -15832,7 +16132,7 @@
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1316" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1316" t="s">
         <v>3</v>
@@ -15840,7 +16140,7 @@
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1317" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1317" t="s">
         <v>3</v>
@@ -15848,7 +16148,7 @@
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1318" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1318" t="s">
         <v>3</v>
@@ -15856,7 +16156,7 @@
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1319" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1319" t="s">
         <v>3</v>
@@ -15864,7 +16164,7 @@
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1320" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1320" t="s">
         <v>3</v>
@@ -15872,7 +16172,7 @@
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1321" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1321" t="s">
         <v>3</v>
@@ -15880,7 +16180,7 @@
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1322" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1322" t="s">
         <v>3</v>
@@ -15888,7 +16188,7 @@
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1323" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1323" t="s">
         <v>3</v>
@@ -15896,7 +16196,7 @@
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1324" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1324" t="s">
         <v>3</v>
@@ -15904,7 +16204,7 @@
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1325" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1325" t="s">
         <v>3</v>
@@ -15912,7 +16212,7 @@
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1326" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1326" t="s">
         <v>3</v>
@@ -15920,7 +16220,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1327" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1327" t="s">
         <v>3</v>
@@ -15928,7 +16228,7 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1328" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1328" t="s">
         <v>3</v>
@@ -15936,7 +16236,7 @@
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1329" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1329" t="s">
         <v>3</v>
@@ -15944,7 +16244,7 @@
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1330" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1330" t="s">
         <v>3</v>
@@ -15952,7 +16252,7 @@
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1331" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1331" t="s">
         <v>3</v>
@@ -15960,7 +16260,7 @@
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1332" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1332" t="s">
         <v>3</v>
@@ -15968,7 +16268,7 @@
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1333" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1333" t="s">
         <v>3</v>
@@ -15976,7 +16276,7 @@
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1334" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1334" t="s">
         <v>3</v>
@@ -15984,7 +16284,7 @@
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1335" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1335" t="s">
         <v>3</v>
@@ -15992,7 +16292,7 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1336" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1336" t="s">
         <v>3</v>
@@ -16000,7 +16300,7 @@
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1337" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1337" t="s">
         <v>160</v>
@@ -16008,7 +16308,7 @@
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1338" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1338" t="s">
         <v>160</v>
@@ -16016,7 +16316,7 @@
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1339" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1339" t="s">
         <v>160</v>
@@ -16024,7 +16324,7 @@
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1340" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1340" t="s">
         <v>160</v>
@@ -16032,7 +16332,7 @@
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1341" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1341" t="s">
         <v>160</v>
@@ -16040,7 +16340,7 @@
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1342" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1342" t="s">
         <v>160</v>
@@ -16048,7 +16348,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1343" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1343" t="s">
         <v>160</v>
@@ -16056,7 +16356,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1344" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1344" t="s">
         <v>160</v>
@@ -16064,7 +16364,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1345" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1345" t="s">
         <v>160</v>
@@ -16072,7 +16372,7 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1346" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1346" t="s">
         <v>160</v>
@@ -16080,7 +16380,7 @@
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1347" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1347" t="s">
         <v>160</v>
@@ -16088,7 +16388,7 @@
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1348" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1348" t="s">
         <v>160</v>
@@ -16096,7 +16396,7 @@
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1349" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1349" t="s">
         <v>160</v>
@@ -16104,7 +16404,7 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1350" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1350" t="s">
         <v>160</v>
@@ -16112,7 +16412,7 @@
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1351" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1351" t="s">
         <v>160</v>
@@ -16120,7 +16420,7 @@
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1352" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1352" t="s">
         <v>160</v>
@@ -16128,7 +16428,7 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1353" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1353" t="s">
         <v>160</v>
@@ -16136,7 +16436,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1354" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1354" t="s">
         <v>160</v>
@@ -16144,7 +16444,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1355" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1355" t="s">
         <v>160</v>
@@ -16152,7 +16452,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1356" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B1356" t="s">
         <v>160</v>
@@ -16160,7 +16460,7 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1357" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1357" t="s">
         <v>160</v>
@@ -16168,7 +16468,7 @@
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1358" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B1358" t="s">
         <v>160</v>
@@ -16176,7 +16476,7 @@
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1359" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1359" t="s">
         <v>160</v>
@@ -16184,7 +16484,7 @@
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1360" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1360" t="s">
         <v>160</v>
@@ -16192,7 +16492,7 @@
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1361" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1361" t="s">
         <v>160</v>
@@ -16200,7 +16500,7 @@
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1362" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1362" t="s">
         <v>160</v>
@@ -16208,7 +16508,7 @@
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1363" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1363" t="s">
         <v>160</v>
@@ -16216,7 +16516,7 @@
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1364" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1364" t="s">
         <v>160</v>
@@ -16224,7 +16524,7 @@
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1365" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1365" t="s">
         <v>160</v>
@@ -16232,7 +16532,7 @@
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1366" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1366" t="s">
         <v>160</v>
@@ -16240,7 +16540,7 @@
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1367" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1367" t="s">
         <v>160</v>
@@ -16248,7 +16548,7 @@
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1368" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1368" t="s">
         <v>160</v>
@@ -16256,7 +16556,7 @@
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1369" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1369" t="s">
         <v>160</v>
@@ -16264,7 +16564,7 @@
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1370" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1370" t="s">
         <v>160</v>
@@ -16272,7 +16572,7 @@
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1371" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1371" t="s">
         <v>160</v>
@@ -16280,7 +16580,7 @@
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1372" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1372" t="s">
         <v>160</v>
@@ -16288,7 +16588,7 @@
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1373" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B1373" t="s">
         <v>160</v>
@@ -16296,7 +16596,7 @@
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1374" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B1374" t="s">
         <v>160</v>
@@ -16304,7 +16604,7 @@
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1375" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1375" t="s">
         <v>160</v>
@@ -16312,7 +16612,7 @@
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1376" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1376" t="s">
         <v>160</v>
@@ -16320,7 +16620,7 @@
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1377" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1377" t="s">
         <v>160</v>
@@ -16328,7 +16628,7 @@
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1378" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1378" t="s">
         <v>160</v>
@@ -16336,7 +16636,7 @@
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1379" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B1379" t="s">
         <v>160</v>
@@ -16344,7 +16644,7 @@
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1380" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1380" t="s">
         <v>160</v>
@@ -16352,7 +16652,7 @@
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1381" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B1381" t="s">
         <v>160</v>
@@ -16360,7 +16660,7 @@
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1382" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1382" t="s">
         <v>160</v>
@@ -16368,7 +16668,7 @@
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1383" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1383" t="s">
         <v>160</v>
@@ -16376,7 +16676,7 @@
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1384" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1384" t="s">
         <v>160</v>
@@ -16384,7 +16684,7 @@
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1385" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B1385" t="s">
         <v>160</v>
@@ -16392,7 +16692,7 @@
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1386" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1386" t="s">
         <v>160</v>
@@ -16400,7 +16700,7 @@
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1387" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1387" t="s">
         <v>160</v>
@@ -16408,7 +16708,7 @@
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1388" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1388" t="s">
         <v>160</v>
@@ -16416,7 +16716,7 @@
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1389" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1389" t="s">
         <v>160</v>
@@ -16424,7 +16724,7 @@
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1390" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1390" t="s">
         <v>160</v>
@@ -16432,7 +16732,7 @@
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1391" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1391" t="s">
         <v>160</v>
@@ -16440,7 +16740,7 @@
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1392" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1392" t="s">
         <v>160</v>
@@ -16448,7 +16748,7 @@
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1393" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1393" t="s">
         <v>160</v>
@@ -16456,7 +16756,7 @@
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1394" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1394" t="s">
         <v>160</v>
@@ -16464,7 +16764,7 @@
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1395" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1395" t="s">
         <v>160</v>
@@ -16472,7 +16772,7 @@
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1396" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1396" t="s">
         <v>160</v>
@@ -16480,7 +16780,7 @@
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1397" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1397" t="s">
         <v>160</v>
@@ -16488,7 +16788,7 @@
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1398" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1398" t="s">
         <v>160</v>
@@ -16496,7 +16796,7 @@
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1399" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1399" t="s">
         <v>160</v>
@@ -16504,7 +16804,7 @@
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1400" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1400" t="s">
         <v>160</v>
@@ -16512,7 +16812,7 @@
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1401" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1401" t="s">
         <v>160</v>
@@ -16520,7 +16820,7 @@
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1402" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1402" t="s">
         <v>160</v>
@@ -16528,7 +16828,7 @@
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1403" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B1403" t="s">
         <v>160</v>
@@ -16536,7 +16836,7 @@
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1404" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1404" t="s">
         <v>160</v>
@@ -16544,7 +16844,7 @@
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1405" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1405" t="s">
         <v>160</v>
@@ -16552,7 +16852,7 @@
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1406" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1406" t="s">
         <v>160</v>
@@ -16560,7 +16860,7 @@
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1407" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1407" t="s">
         <v>160</v>
@@ -16568,7 +16868,7 @@
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1408" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1408" t="s">
         <v>160</v>
@@ -16576,7 +16876,7 @@
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1409" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1409" t="s">
         <v>160</v>
@@ -16584,7 +16884,7 @@
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1410" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1410" t="s">
         <v>160</v>
@@ -16592,7 +16892,7 @@
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1411" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1411" t="s">
         <v>160</v>
@@ -16600,7 +16900,7 @@
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1412" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1412" t="s">
         <v>160</v>
@@ -16608,7 +16908,7 @@
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1413" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1413" t="s">
         <v>160</v>
@@ -16616,7 +16916,7 @@
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1414" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1414" t="s">
         <v>160</v>
@@ -16624,7 +16924,7 @@
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1415" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1415" t="s">
         <v>160</v>
@@ -16632,7 +16932,7 @@
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1416" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1416" t="s">
         <v>160</v>
@@ -16640,7 +16940,7 @@
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1417" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B1417" t="s">
         <v>160</v>
@@ -16648,7 +16948,7 @@
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1418" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1418" t="s">
         <v>160</v>
@@ -16656,7 +16956,7 @@
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1419" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1419" t="s">
         <v>160</v>
@@ -16664,7 +16964,7 @@
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1420" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1420" t="s">
         <v>160</v>
@@ -16672,7 +16972,7 @@
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1421" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1421" t="s">
         <v>160</v>
@@ -16680,7 +16980,7 @@
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1422" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1422" t="s">
         <v>160</v>
@@ -16688,7 +16988,7 @@
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1423" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1423" t="s">
         <v>160</v>
@@ -16696,7 +16996,7 @@
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1424" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1424" t="s">
         <v>160</v>
@@ -16704,7 +17004,7 @@
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1425" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1425" t="s">
         <v>160</v>
@@ -16712,7 +17012,7 @@
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1426" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1426" t="s">
         <v>160</v>
@@ -16720,7 +17020,7 @@
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1427" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B1427" t="s">
         <v>160</v>
@@ -16728,7 +17028,7 @@
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1428" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1428" t="s">
         <v>160</v>
@@ -16736,7 +17036,7 @@
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1429" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1429" t="s">
         <v>160</v>
@@ -16744,7 +17044,7 @@
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1430" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1430" t="s">
         <v>160</v>
@@ -16752,7 +17052,7 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1431" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B1431" t="s">
         <v>160</v>
@@ -16760,7 +17060,7 @@
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1432" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1432" t="s">
         <v>160</v>
@@ -16768,7 +17068,7 @@
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1433" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1433" t="s">
         <v>311</v>
@@ -16776,7 +17076,7 @@
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1434" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B1434" t="s">
         <v>311</v>
@@ -16784,7 +17084,7 @@
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1435" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B1435" t="s">
         <v>311</v>
@@ -16792,7 +17092,7 @@
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1436" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B1436" t="s">
         <v>311</v>
@@ -16800,7 +17100,7 @@
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1437" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B1437" t="s">
         <v>311</v>
@@ -16808,7 +17108,7 @@
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1438" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B1438" t="s">
         <v>311</v>
@@ -16816,7 +17116,7 @@
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1439" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B1439" t="s">
         <v>311</v>
@@ -16824,7 +17124,7 @@
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1440" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B1440" t="s">
         <v>311</v>
@@ -16832,7 +17132,7 @@
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1441" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B1441" t="s">
         <v>311</v>
@@ -16840,7 +17140,7 @@
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1442" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1442" t="s">
         <v>311</v>
@@ -16848,7 +17148,7 @@
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1443" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1443" t="s">
         <v>311</v>
@@ -16856,7 +17156,7 @@
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1444" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B1444" t="s">
         <v>311</v>
@@ -16864,7 +17164,7 @@
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1445" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1445" t="s">
         <v>311</v>
@@ -16872,7 +17172,7 @@
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1446" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1446" t="s">
         <v>311</v>
@@ -16880,7 +17180,7 @@
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1447" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1447" t="s">
         <v>311</v>
@@ -16888,7 +17188,7 @@
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1448" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B1448" t="s">
         <v>311</v>
@@ -16896,7 +17196,7 @@
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1449" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B1449" t="s">
         <v>311</v>
@@ -16904,7 +17204,7 @@
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1450" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B1450" t="s">
         <v>311</v>
@@ -16912,7 +17212,7 @@
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1451" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B1451" t="s">
         <v>311</v>
@@ -16920,7 +17220,7 @@
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1452" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B1452" t="s">
         <v>311</v>
@@ -16928,7 +17228,7 @@
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1453" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1453" t="s">
         <v>311</v>
@@ -16936,7 +17236,7 @@
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1454" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B1454" t="s">
         <v>311</v>
@@ -16944,7 +17244,7 @@
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1455" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B1455" t="s">
         <v>311</v>
@@ -16952,7 +17252,7 @@
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1456" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B1456" t="s">
         <v>311</v>
@@ -16960,7 +17260,7 @@
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1457" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B1457" t="s">
         <v>311</v>
@@ -16968,7 +17268,7 @@
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1458" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B1458" t="s">
         <v>311</v>
@@ -16976,7 +17276,7 @@
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1459" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B1459" t="s">
         <v>311</v>
@@ -16984,7 +17284,7 @@
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1460" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B1460" t="s">
         <v>311</v>
@@ -16992,7 +17292,7 @@
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1461" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1461" t="s">
         <v>311</v>
@@ -17000,7 +17300,7 @@
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1462" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B1462" t="s">
         <v>311</v>
@@ -17008,7 +17308,7 @@
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1463" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B1463" t="s">
         <v>311</v>
@@ -17016,7 +17316,7 @@
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1464" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B1464" t="s">
         <v>311</v>
@@ -17024,7 +17324,7 @@
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1465" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1465" t="s">
         <v>311</v>
@@ -17032,7 +17332,7 @@
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1466" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B1466" t="s">
         <v>311</v>
@@ -17040,7 +17340,7 @@
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1467" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1467" t="s">
         <v>311</v>
@@ -17048,7 +17348,7 @@
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1468" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1468" t="s">
         <v>311</v>
@@ -17056,7 +17356,7 @@
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1469" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1469" t="s">
         <v>311</v>
@@ -17064,7 +17364,7 @@
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1470" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1470" t="s">
         <v>311</v>
@@ -17072,7 +17372,7 @@
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1471" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1471" t="s">
         <v>311</v>
@@ -17080,7 +17380,7 @@
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1472" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B1472" t="s">
         <v>311</v>
@@ -17088,7 +17388,7 @@
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1473" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B1473" t="s">
         <v>311</v>
@@ -17096,7 +17396,7 @@
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1474" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B1474" t="s">
         <v>311</v>
@@ -17104,7 +17404,7 @@
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1475" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B1475" t="s">
         <v>311</v>
@@ -17112,7 +17412,7 @@
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1476" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B1476" t="s">
         <v>311</v>
@@ -17120,7 +17420,7 @@
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1477" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B1477" t="s">
         <v>311</v>
@@ -17128,7 +17428,7 @@
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1478" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B1478" t="s">
         <v>311</v>
@@ -17136,7 +17436,7 @@
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1479" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B1479" t="s">
         <v>311</v>
@@ -17144,7 +17444,7 @@
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1480" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B1480" t="s">
         <v>311</v>
@@ -17152,7 +17452,7 @@
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1481" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1481" t="s">
         <v>311</v>
@@ -17160,7 +17460,7 @@
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1482" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1482" t="s">
         <v>311</v>
@@ -17168,7 +17468,7 @@
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1483" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1483" t="s">
         <v>311</v>
@@ -17176,7 +17476,7 @@
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1484" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1484" t="s">
         <v>311</v>
@@ -17184,7 +17484,7 @@
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1485" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B1485" t="s">
         <v>311</v>
@@ -17192,7 +17492,7 @@
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1486" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1486" t="s">
         <v>311</v>
@@ -17200,7 +17500,7 @@
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1487" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1487" t="s">
         <v>311</v>
@@ -17208,7 +17508,7 @@
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1488" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B1488" t="s">
         <v>311</v>
@@ -17216,7 +17516,7 @@
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1489" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B1489" t="s">
         <v>311</v>
@@ -17224,7 +17524,7 @@
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1490" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B1490" t="s">
         <v>311</v>
@@ -17232,7 +17532,7 @@
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1491" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B1491" t="s">
         <v>311</v>
@@ -17240,7 +17540,7 @@
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1492" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B1492" t="s">
         <v>311</v>
@@ -17248,7 +17548,7 @@
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1493" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B1493" t="s">
         <v>311</v>
@@ -17256,7 +17556,7 @@
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1494" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1494" t="s">
         <v>311</v>
@@ -17264,7 +17564,7 @@
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1495" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1495" t="s">
         <v>311</v>
@@ -17272,7 +17572,7 @@
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1496" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1496" t="s">
         <v>311</v>
@@ -17280,7 +17580,7 @@
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1497" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B1497" t="s">
         <v>311</v>
@@ -17288,7 +17588,7 @@
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1498" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B1498" t="s">
         <v>311</v>
@@ -17296,7 +17596,7 @@
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1499" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B1499" t="s">
         <v>311</v>
@@ -17304,7 +17604,7 @@
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1500" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1500" t="s">
         <v>311</v>
@@ -17312,7 +17612,7 @@
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1501" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1501" t="s">
         <v>311</v>
@@ -17320,7 +17620,7 @@
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1502" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1502" t="s">
         <v>311</v>
@@ -17328,7 +17628,7 @@
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1503" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1503" t="s">
         <v>311</v>
@@ -17336,7 +17636,7 @@
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1504" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1504" t="s">
         <v>311</v>
@@ -17344,7 +17644,7 @@
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1505" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B1505" t="s">
         <v>311</v>
@@ -17352,7 +17652,7 @@
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1506" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B1506" t="s">
         <v>311</v>
@@ -17360,7 +17660,7 @@
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1507" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B1507" t="s">
         <v>311</v>
@@ -17368,7 +17668,7 @@
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1508" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1508" t="s">
         <v>311</v>
@@ -17376,7 +17676,7 @@
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1509" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1509" t="s">
         <v>311</v>
@@ -17384,7 +17684,7 @@
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1510" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B1510" t="s">
         <v>311</v>
@@ -17392,7 +17692,7 @@
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1511" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B1511" t="s">
         <v>311</v>
@@ -17400,7 +17700,7 @@
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1512" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1512" t="s">
         <v>311</v>
@@ -17408,7 +17708,7 @@
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1513" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1513" t="s">
         <v>311</v>
@@ -17416,7 +17716,7 @@
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1514" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B1514" t="s">
         <v>311</v>
@@ -17424,7 +17724,7 @@
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1515" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B1515" t="s">
         <v>311</v>
@@ -17432,7 +17732,7 @@
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1516" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B1516" t="s">
         <v>311</v>
@@ -17440,7 +17740,7 @@
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1517" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B1517" t="s">
         <v>311</v>
@@ -17448,7 +17748,7 @@
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1518" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1518" t="s">
         <v>311</v>
@@ -17456,7 +17756,7 @@
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1519" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B1519" t="s">
         <v>311</v>
@@ -17464,7 +17764,7 @@
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1520" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1520" t="s">
         <v>311</v>
@@ -17472,7 +17772,7 @@
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1521" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B1521" t="s">
         <v>311</v>
@@ -17480,7 +17780,7 @@
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1522" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1522" t="s">
         <v>311</v>
@@ -17488,7 +17788,7 @@
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1523" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1523" t="s">
         <v>311</v>
@@ -17496,7 +17796,7 @@
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1524" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B1524" t="s">
         <v>311</v>
@@ -17504,7 +17804,7 @@
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1525" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B1525" t="s">
         <v>311</v>
@@ -17512,7 +17812,7 @@
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1526" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B1526" t="s">
         <v>311</v>
@@ -17520,7 +17820,7 @@
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1527" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B1527" t="s">
         <v>311</v>
@@ -17528,7 +17828,7 @@
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1528" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B1528" t="s">
         <v>311</v>
@@ -17536,7 +17836,7 @@
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1529" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B1529" t="s">
         <v>311</v>
@@ -17544,7 +17844,7 @@
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1530" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1530" t="s">
         <v>311</v>
@@ -17552,7 +17852,7 @@
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1531" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B1531" t="s">
         <v>311</v>
@@ -17560,7 +17860,7 @@
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1532" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B1532" t="s">
         <v>311</v>
@@ -17568,7 +17868,7 @@
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1533" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B1533" t="s">
         <v>290</v>
@@ -17576,7 +17876,7 @@
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1534" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1534" t="s">
         <v>290</v>
@@ -17584,7 +17884,7 @@
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1535" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1535" t="s">
         <v>290</v>
@@ -17592,7 +17892,7 @@
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1536" t="s">
-        <v>1537</v>
+        <v>1632</v>
       </c>
       <c r="B1536" t="s">
         <v>290</v>
@@ -17600,7 +17900,7 @@
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1537" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B1537" t="s">
         <v>290</v>
@@ -17608,7 +17908,7 @@
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1538" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B1538" t="s">
         <v>290</v>
@@ -17616,7 +17916,7 @@
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1539" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B1539" t="s">
         <v>290</v>
@@ -17624,7 +17924,7 @@
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1540" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B1540" t="s">
         <v>290</v>
@@ -17632,7 +17932,7 @@
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1541" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B1541" t="s">
         <v>290</v>
@@ -17640,7 +17940,7 @@
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1542" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B1542" t="s">
         <v>290</v>
@@ -17648,7 +17948,7 @@
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1543" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B1543" t="s">
         <v>290</v>
@@ -17656,7 +17956,7 @@
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1544" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B1544" t="s">
         <v>290</v>
@@ -17664,7 +17964,7 @@
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1545" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B1545" t="s">
         <v>290</v>
@@ -17672,7 +17972,7 @@
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1546" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B1546" t="s">
         <v>290</v>
@@ -17680,7 +17980,7 @@
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1547" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B1547" t="s">
         <v>290</v>
@@ -17688,7 +17988,7 @@
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1548" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B1548" t="s">
         <v>290</v>
@@ -17696,7 +17996,7 @@
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1549" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B1549" t="s">
         <v>290</v>
@@ -17704,7 +18004,7 @@
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1550" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B1550" t="s">
         <v>290</v>
@@ -17712,7 +18012,7 @@
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1551" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B1551" t="s">
         <v>290</v>
@@ -17720,7 +18020,7 @@
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1552" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B1552" t="s">
         <v>290</v>
@@ -17728,7 +18028,7 @@
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1553" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B1553" t="s">
         <v>290</v>
@@ -17736,7 +18036,7 @@
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1554" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B1554" t="s">
         <v>290</v>
@@ -17744,7 +18044,7 @@
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1555" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B1555" t="s">
         <v>290</v>
@@ -17752,7 +18052,7 @@
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1556" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B1556" t="s">
         <v>290</v>
@@ -17760,7 +18060,7 @@
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1557" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B1557" t="s">
         <v>290</v>
@@ -17768,7 +18068,7 @@
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1558" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B1558" t="s">
         <v>290</v>
@@ -17776,7 +18076,7 @@
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1559" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B1559" t="s">
         <v>290</v>
@@ -17784,7 +18084,7 @@
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1560" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B1560" t="s">
         <v>290</v>
@@ -17792,7 +18092,7 @@
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1561" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B1561" t="s">
         <v>290</v>
@@ -17800,7 +18100,7 @@
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1562" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B1562" t="s">
         <v>290</v>
@@ -17808,7 +18108,7 @@
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1563" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B1563" t="s">
         <v>290</v>
@@ -17816,7 +18116,7 @@
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1564" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B1564" t="s">
         <v>290</v>
@@ -17824,7 +18124,7 @@
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1565" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B1565" t="s">
         <v>290</v>
@@ -17832,7 +18132,7 @@
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1566" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B1566" t="s">
         <v>290</v>
@@ -17840,7 +18140,7 @@
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1567" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B1567" t="s">
         <v>290</v>
@@ -17848,7 +18148,7 @@
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1568" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B1568" t="s">
         <v>290</v>
@@ -17856,7 +18156,7 @@
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1569" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B1569" t="s">
         <v>290</v>
@@ -17864,7 +18164,7 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1570" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B1570" t="s">
         <v>290</v>
@@ -17872,7 +18172,7 @@
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1571" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B1571" t="s">
         <v>290</v>
@@ -17880,7 +18180,7 @@
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1572" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B1572" t="s">
         <v>290</v>
@@ -17888,7 +18188,7 @@
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1573" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B1573" t="s">
         <v>290</v>
@@ -17896,7 +18196,7 @@
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1574" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B1574" t="s">
         <v>290</v>
@@ -17904,7 +18204,7 @@
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1575" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B1575" t="s">
         <v>290</v>
@@ -17912,7 +18212,7 @@
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1576" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B1576" t="s">
         <v>290</v>
@@ -17920,7 +18220,7 @@
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1577" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B1577" t="s">
         <v>290</v>
@@ -17928,7 +18228,7 @@
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1578" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B1578" t="s">
         <v>290</v>
@@ -17936,7 +18236,7 @@
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1579" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B1579" t="s">
         <v>290</v>
@@ -17944,7 +18244,7 @@
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1580" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B1580" t="s">
         <v>290</v>
@@ -17952,7 +18252,7 @@
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1581" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B1581" t="s">
         <v>290</v>
@@ -17960,7 +18260,7 @@
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1582" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B1582" t="s">
         <v>290</v>
@@ -17968,7 +18268,7 @@
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1583" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B1583" t="s">
         <v>290</v>
@@ -17976,7 +18276,7 @@
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1584" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B1584" t="s">
         <v>290</v>
@@ -17984,7 +18284,7 @@
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1585" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B1585" t="s">
         <v>290</v>
@@ -17992,7 +18292,7 @@
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1586" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B1586" t="s">
         <v>290</v>
@@ -18000,7 +18300,7 @@
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1587" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B1587" t="s">
         <v>290</v>
@@ -18008,7 +18308,7 @@
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1588" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B1588" t="s">
         <v>290</v>
@@ -18016,7 +18316,7 @@
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1589" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B1589" t="s">
         <v>290</v>
@@ -18024,7 +18324,7 @@
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1590" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B1590" t="s">
         <v>290</v>
@@ -18032,7 +18332,7 @@
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1591" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B1591" t="s">
         <v>290</v>
@@ -18040,7 +18340,7 @@
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1592" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B1592" t="s">
         <v>290</v>
@@ -18048,7 +18348,7 @@
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1593" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B1593" t="s">
         <v>290</v>
@@ -18056,7 +18356,7 @@
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1594" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B1594" t="s">
         <v>290</v>
@@ -18064,7 +18364,7 @@
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1595" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B1595" t="s">
         <v>290</v>
@@ -18072,7 +18372,7 @@
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1596" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B1596" t="s">
         <v>290</v>
@@ -18080,7 +18380,7 @@
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1597" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B1597" t="s">
         <v>290</v>
@@ -18088,7 +18388,7 @@
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1598" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B1598" t="s">
         <v>290</v>
@@ -18096,7 +18396,7 @@
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1599" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B1599" t="s">
         <v>290</v>
@@ -18104,7 +18404,7 @@
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1600" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B1600" t="s">
         <v>290</v>
@@ -18112,7 +18412,7 @@
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1601" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B1601" t="s">
         <v>290</v>
@@ -18120,7 +18420,7 @@
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1602" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B1602" t="s">
         <v>290</v>
@@ -18128,7 +18428,7 @@
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1603" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B1603" t="s">
         <v>290</v>
@@ -18136,7 +18436,7 @@
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1604" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B1604" t="s">
         <v>290</v>
@@ -18144,7 +18444,7 @@
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1605" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B1605" t="s">
         <v>290</v>
@@ -18152,7 +18452,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1606" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B1606" t="s">
         <v>290</v>
@@ -18160,7 +18460,7 @@
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1607" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B1607" t="s">
         <v>290</v>
@@ -18168,7 +18468,7 @@
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1608" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B1608" t="s">
         <v>290</v>
@@ -18176,7 +18476,7 @@
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1609" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B1609" t="s">
         <v>290</v>
@@ -18184,7 +18484,7 @@
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1610" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B1610" t="s">
         <v>290</v>
@@ -18192,7 +18492,7 @@
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1611" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B1611" t="s">
         <v>290</v>
@@ -18200,7 +18500,7 @@
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1612" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B1612" t="s">
         <v>290</v>
@@ -18208,7 +18508,7 @@
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1613" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B1613" t="s">
         <v>290</v>
@@ -18216,7 +18516,7 @@
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1614" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B1614" t="s">
         <v>290</v>
@@ -18224,7 +18524,7 @@
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1615" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B1615" t="s">
         <v>290</v>
@@ -18232,137 +18532,938 @@
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1616" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1617" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1618" t="s">
         <v>1617</v>
       </c>
-      <c r="B1616" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1617" t="s">
+      <c r="B1618" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1619" t="s">
         <v>1618</v>
       </c>
-      <c r="B1617" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1618" t="s">
+      <c r="B1619" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1620" t="s">
         <v>1619</v>
       </c>
-      <c r="B1618" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1619" t="s">
+      <c r="B1620" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1621" t="s">
         <v>1620</v>
       </c>
-      <c r="B1619" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1620" t="s">
+      <c r="B1621" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1622" t="s">
         <v>1621</v>
       </c>
-      <c r="B1620" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1621" t="s">
+      <c r="B1622" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1623" t="s">
         <v>1622</v>
       </c>
-      <c r="B1621" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1622" t="s">
+      <c r="B1623" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1624" t="s">
         <v>1623</v>
       </c>
-      <c r="B1622" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1623" t="s">
+      <c r="B1624" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1624" s="2"/>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1625" t="s">
         <v>1624</v>
       </c>
-      <c r="B1623" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1624" t="s">
+      <c r="B1625" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1626" t="s">
         <v>1625</v>
       </c>
-      <c r="B1624" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1625" t="s">
+      <c r="B1626" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1627" t="s">
         <v>1626</v>
       </c>
-      <c r="B1625" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1626" t="s">
+      <c r="B1627" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1628" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1629" t="s">
         <v>1627</v>
       </c>
-      <c r="B1626" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1627" t="s">
+      <c r="B1629" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1630" t="s">
         <v>1628</v>
       </c>
-      <c r="B1627" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1628" t="s">
+      <c r="B1630" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1631" t="s">
         <v>1629</v>
       </c>
-      <c r="B1628" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1629" t="s">
+      <c r="B1631" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1632" t="s">
         <v>1630</v>
       </c>
-      <c r="B1629" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1630" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B1630" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1631" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B1631" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1632" t="s">
-        <v>1633</v>
-      </c>
       <c r="B1632" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1633" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1634" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1635" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1636" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1637" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1638" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1639" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1640" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1641" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1642" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1643" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1644" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1645" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1646" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1647" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1648" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1649" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1650" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1651" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1652" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1653" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1654" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1655" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1656" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1657" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1658" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1659" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1660" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1661" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1662" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1663" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1664" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1665" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1666" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1667" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1668" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1669" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1670" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1671" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1672" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1673" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1674" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1675" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1676" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1677" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1678" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1679" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1680" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1681" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1682" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1683" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1684" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1685" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1686" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1687" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1688" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1689" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1690" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1691" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1692" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1693" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1694" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1695" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1696" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1697" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1698" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1699" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1700" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1701" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1702" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1703" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1704" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1705" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1706" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1707" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1708" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1709" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1710" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1711" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1712" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1713" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1714" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1715" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1716" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1717" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1718" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1719" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1720" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1721" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1722" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1723" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1724" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1725" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1726" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1727" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1728" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1729" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1730" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1731" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1732" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1732" t="s">
         <v>290</v>
       </c>
     </row>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$911</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="2134">
   <si>
     <t>frase</t>
   </si>
@@ -5176,9 +5176,6 @@
     <t>O local não era como imaginei, estou muito triste.</t>
   </si>
   <si>
-    <t>Meu pai não pode vir, sinto falta dele demais.</t>
-  </si>
-  <si>
     <t>A chuva estragou tudo, que momento lastimável.</t>
   </si>
   <si>
@@ -5218,13 +5215,1216 @@
     <t>Encontrei uma carta antiga, grande nostalgia do passado.</t>
   </si>
   <si>
-    <t>O souvenir quebrou, sinto-me triste pela perda.</t>
-  </si>
-  <si>
-    <t>Não sei o que fazer, sinto-me perdida e desanimada.</t>
-  </si>
-  <si>
     <t>A comida não estava boa, grande decepção culinária.</t>
+  </si>
+  <si>
+    <t>Não sei o que fazer, estou perdida e desanimada.</t>
+  </si>
+  <si>
+    <t>O souvenir quebrou, fico triste pela perda.</t>
+  </si>
+  <si>
+    <t>Meu pai não pode vir, a falta que ele faz é demais.</t>
+  </si>
+  <si>
+    <t>O show abriu meu dia com energia contagiante e leveza.</t>
+  </si>
+  <si>
+    <t>A plateia vibrou e a música elevou meu mundo inteiro.</t>
+  </si>
+  <si>
+    <t>A exposição trouxe cores que iluminaram minha mente.</t>
+  </si>
+  <si>
+    <t>O teatro entregou risadas que renovaram minha semana inteira.</t>
+  </si>
+  <si>
+    <t>O filme trouxe uma alegria inesperada na última cena.</t>
+  </si>
+  <si>
+    <t>O musical explodiu em luz e deixou tudo radiante.</t>
+  </si>
+  <si>
+    <t>A apresentação encheu o ambiente de entusiasmo vibrante.</t>
+  </si>
+  <si>
+    <t>O espetáculo trouxe uma surpresa boa logo na abertura.</t>
+  </si>
+  <si>
+    <t>A dança no palco brilhou como festa dentro de mim.</t>
+  </si>
+  <si>
+    <t>A orquestra transformou a noite em um momento precioso.</t>
+  </si>
+  <si>
+    <t>O festival deixou meu coração cheio de animação pura.</t>
+  </si>
+  <si>
+    <t>O cinema trouxe aquela leveza que muda qualquer dia.</t>
+  </si>
+  <si>
+    <t>A peça derramou humor inteligente em cada fala.</t>
+  </si>
+  <si>
+    <t>O show iluminou meu fim de semana com boa vibração.</t>
+  </si>
+  <si>
+    <t>A exposição entregou detalhes que produziram alegria genuína.</t>
+  </si>
+  <si>
+    <t>O concerto trouxe aquela energia que faz tudo valer.</t>
+  </si>
+  <si>
+    <t>A arte exposta reacendeu uma felicidade adormecida.</t>
+  </si>
+  <si>
+    <t>O enredo divertido levantou meu espírito rapidamente.</t>
+  </si>
+  <si>
+    <t>A banda trouxe um clima festivo irresistível.</t>
+  </si>
+  <si>
+    <t>O palco inteiro parecia celebrar a vida junto comigo.</t>
+  </si>
+  <si>
+    <t>A trilha sonora me encheu de entusiasmo brilhante.</t>
+  </si>
+  <si>
+    <t>A coreografia coloriu o ambiente com puro prazer.</t>
+  </si>
+  <si>
+    <t>A sessão de cinema virou um momento leve e radiante.</t>
+  </si>
+  <si>
+    <t>O festival surpreendeu com momentos alegres e espontâneos.</t>
+  </si>
+  <si>
+    <t>A performance artística ampliou meu bom humor instantaneamente.</t>
+  </si>
+  <si>
+    <t>A direção criativa produziu cenas cheias de alegria.</t>
+  </si>
+  <si>
+    <t>O público vibrando criou uma atmosfera deliciosamente feliz.</t>
+  </si>
+  <si>
+    <t>A comédia trouxe um riso fácil e libertador.</t>
+  </si>
+  <si>
+    <t>A arte urbana da exposição deixou tudo mais animado.</t>
+  </si>
+  <si>
+    <t>O show final brilhou com euforia contagiante.</t>
+  </si>
+  <si>
+    <t>A luz do palco reforçou toda a vibração positiva.</t>
+  </si>
+  <si>
+    <t>A narrativa leve espalhou felicidade pelo teatro.</t>
+  </si>
+  <si>
+    <t>O festival inteiro transbordou animação e diversão.</t>
+  </si>
+  <si>
+    <t>O concerto gerou uma sensação luminosa e reconfortante.</t>
+  </si>
+  <si>
+    <t>A apresentação musical ativou uma alegria espontânea.</t>
+  </si>
+  <si>
+    <t>O teatro mostrou cenas que despertaram pura satisfação.</t>
+  </si>
+  <si>
+    <t>A estreia trouxe uma energia renovadora para minha semana.</t>
+  </si>
+  <si>
+    <t>A exposição interativa despertou um entusiasmo delicioso.</t>
+  </si>
+  <si>
+    <t>O show surpresa entregou momentos inesquecíveis e felizes.</t>
+  </si>
+  <si>
+    <t>A arte do evento deixou o ambiente cheio de brilho.</t>
+  </si>
+  <si>
+    <t>O teatro escuro trouxe uma tensão que dominou o ambiente.</t>
+  </si>
+  <si>
+    <t>O suspense do filme criou um clima perigoso na sala.</t>
+  </si>
+  <si>
+    <t>A trilha grave do show gerou um receio constante.</t>
+  </si>
+  <si>
+    <t>A performance sombria espalhou insegurança pelo público.</t>
+  </si>
+  <si>
+    <t>A exposição macabra transmitiu um ar de ameaça silenciosa.</t>
+  </si>
+  <si>
+    <t>A cena final carregou um risco que travou minha respiração.</t>
+  </si>
+  <si>
+    <t>A iluminação vermelha do espetáculo provocou sensação de perigo.</t>
+  </si>
+  <si>
+    <t>O som abrupto no cinema aumentou a atmosfera assustadora.</t>
+  </si>
+  <si>
+    <t>O enredo obscuro deixou tudo envolto em incerteza.</t>
+  </si>
+  <si>
+    <t>A peça trouxe momentos de pavor intenso e inesperado.</t>
+  </si>
+  <si>
+    <t>A narrativa sinistra do filme criou hesitação em todos.</t>
+  </si>
+  <si>
+    <t>O show utilizou efeitos que ampliaram a sensação de ameaça.</t>
+  </si>
+  <si>
+    <t>A máscara do ator transmitiu um medo instintivo.</t>
+  </si>
+  <si>
+    <t>A exposição de criaturas estranhas gerou desconforto crescente.</t>
+  </si>
+  <si>
+    <t>O teatro de sombras formou imagens assustadoras no palco.</t>
+  </si>
+  <si>
+    <t>A música tensa do concerto provocou inquietação profunda.</t>
+  </si>
+  <si>
+    <t>O ambiente escuro do cinema reforçou o clima perigoso.</t>
+  </si>
+  <si>
+    <t>O ator surgiu de repente criando um susto inevitável.</t>
+  </si>
+  <si>
+    <t>A peça investigativa espalhou desconfiança por toda a plateia.</t>
+  </si>
+  <si>
+    <t>O festival apresentou uma instalação com atmosfera perturbadora.</t>
+  </si>
+  <si>
+    <t>O show de luzes rápidas criou sensação de desorientação.</t>
+  </si>
+  <si>
+    <t>A trama cheia de riscos manteve o público em alerta.</t>
+  </si>
+  <si>
+    <t>A aparição súbita no palco desencadeou um medo seco.</t>
+  </si>
+  <si>
+    <t>O filme usou silêncio prolongado como ameaça invisível.</t>
+  </si>
+  <si>
+    <t>A performance ritualística causou receio generalizado.</t>
+  </si>
+  <si>
+    <t>O teatro experimental projetou sombras inquietantes.</t>
+  </si>
+  <si>
+    <t>A estética sombria do evento produziu clima de perigo.</t>
+  </si>
+  <si>
+    <t>O suspense prolongado deixou a sala repleta de tensão.</t>
+  </si>
+  <si>
+    <t>O grito no palco espalhou uma inquietação imediata.</t>
+  </si>
+  <si>
+    <t>A máscara iluminada provocou sensação de ameaça.</t>
+  </si>
+  <si>
+    <t>A exposição trazia objetos com clima de risco constante.</t>
+  </si>
+  <si>
+    <t>O filme utilizou corredores escuros para gerar medo.</t>
+  </si>
+  <si>
+    <t>A trilha pulsante reforçou cada momento ameaçador.</t>
+  </si>
+  <si>
+    <t>O ator apareceu atrás do público criando pânico leve.</t>
+  </si>
+  <si>
+    <t>O show apresentou uma cena que sugeria perigo real.</t>
+  </si>
+  <si>
+    <t>A peça trouxe mistério carregado de insegurança.</t>
+  </si>
+  <si>
+    <t>A instalação artística simulava ambientes perigosos.</t>
+  </si>
+  <si>
+    <t>A narrativa do filme projetou uma tensão sufocante.</t>
+  </si>
+  <si>
+    <t>A atuação intensa provocou receio até no final.</t>
+  </si>
+  <si>
+    <t>O palco tremulando criou impressão de colapso iminente.</t>
+  </si>
+  <si>
+    <t>A fila enorme no show gerou um aborrecimento imediato.</t>
+  </si>
+  <si>
+    <t>O atraso do espetáculo causou irritação generalizada.</t>
+  </si>
+  <si>
+    <t>O cinema lotado trouxe frustração logo na entrada.</t>
+  </si>
+  <si>
+    <t>O som falhando no show provocou indignação no público.</t>
+  </si>
+  <si>
+    <t>A peça começou tarde e deixou todos revoltados.</t>
+  </si>
+  <si>
+    <t>O artista ignorou críticas e criou contrariedade na plateia.</t>
+  </si>
+  <si>
+    <t>A organização ruim do evento produziu irritação forte.</t>
+  </si>
+  <si>
+    <t>A troca de horário no teatro gerou aborrecimento coletivo.</t>
+  </si>
+  <si>
+    <t>O ingresso caro resultou em frustração durante o show.</t>
+  </si>
+  <si>
+    <t>O calor na sala do cinema provocou irritação crescente.</t>
+  </si>
+  <si>
+    <t>O barulho excessivo atrapalhou e gerou incômodo forte.</t>
+  </si>
+  <si>
+    <t>A performance mal planejada causou revolta no público.</t>
+  </si>
+  <si>
+    <t>A mudança repentina no setlist deixou muitos irritados.</t>
+  </si>
+  <si>
+    <t>A fila desorganizada criou uma raiva imediata.</t>
+  </si>
+  <si>
+    <t>A falha no telão gerou frustração no meio do filme.</t>
+  </si>
+  <si>
+    <t>A peça sem intervalo provocou aborrecimento geral.</t>
+  </si>
+  <si>
+    <t>O artista sendo arrogante causou indignação na plateia.</t>
+  </si>
+  <si>
+    <t>A iluminação ruim irritou todos no teatro.</t>
+  </si>
+  <si>
+    <t>O atraso exagerado virou motivo de raiva coletiva.</t>
+  </si>
+  <si>
+    <t>O som distorcido deixou a apresentação frustrante.</t>
+  </si>
+  <si>
+    <t>A história confusa criou contrariedade no cinema.</t>
+  </si>
+  <si>
+    <t>A produção tratou o público com descaso revoltante.</t>
+  </si>
+  <si>
+    <t>A falta de organização gerou aborrecimento constante.</t>
+  </si>
+  <si>
+    <t>A cadeira desconfortável aumentou a irritação da plateia.</t>
+  </si>
+  <si>
+    <t>O funcionário rude provocou frustração logo na entrada.</t>
+  </si>
+  <si>
+    <t>A troca inesperada do elenco irritou muitos espectadores.</t>
+  </si>
+  <si>
+    <t>O show mal estruturado provocou indignação direta.</t>
+  </si>
+  <si>
+    <t>A exposição sem orientação adequada gerou contrariedade.</t>
+  </si>
+  <si>
+    <t>O festival com filas intermináveis causou aborrecimento intenso.</t>
+  </si>
+  <si>
+    <t>O atraso repetido virou motivo de irritação profunda.</t>
+  </si>
+  <si>
+    <t>A narrativa arrastada deixou o cinema cheio de impaciência.</t>
+  </si>
+  <si>
+    <t>A apresentação curta demais causou frustração imediata.</t>
+  </si>
+  <si>
+    <t>O palco mal montado provocou irritação constante.</t>
+  </si>
+  <si>
+    <t>A organização confusa gerou um clima revoltante.</t>
+  </si>
+  <si>
+    <t>A falta de acessibilidade criou indignação legítima.</t>
+  </si>
+  <si>
+    <t>A troca de salas no cinema irritou todo o grupo.</t>
+  </si>
+  <si>
+    <t>O preço abusivo dos ingressos gerou aborrecimento forte.</t>
+  </si>
+  <si>
+    <t>A sujeira no espaço do show causou frustração evidente.</t>
+  </si>
+  <si>
+    <t>A falta de segurança no evento produziu revolta geral.</t>
+  </si>
+  <si>
+    <t>A propaganda enganosa resultou em irritação coletiva.</t>
+  </si>
+  <si>
+    <t>O filme tratou perdas antigas que machucaram minha memória.</t>
+  </si>
+  <si>
+    <t>A peça reviveu lembranças que abriram um vazio silencioso.</t>
+  </si>
+  <si>
+    <t>A exposição trouxe imagens que reacenderam antigas saudades.</t>
+  </si>
+  <si>
+    <t>O teatro mostrou histórias que reacenderam dores esquecidas.</t>
+  </si>
+  <si>
+    <t>A sala escura ampliou o peso de lembranças difíceis.</t>
+  </si>
+  <si>
+    <t>O show apresentou músicas que tocaram feridas antigas.</t>
+  </si>
+  <si>
+    <t>A narrativa melancólica espalhou um clima pesado pela noite.</t>
+  </si>
+  <si>
+    <t>O enredo triste dialogou com memórias que ainda doem.</t>
+  </si>
+  <si>
+    <t>A performance despertou um silêncio carregado de nostalgia.</t>
+  </si>
+  <si>
+    <t>A fotografia exposta trouxe recordações amargas e profundas.</t>
+  </si>
+  <si>
+    <t>O final do filme abriu um vazio impossível de ignorar.</t>
+  </si>
+  <si>
+    <t>A trilha suave destacou um clima de melancolia constante.</t>
+  </si>
+  <si>
+    <t>O espetáculo refletiu perdas que marcaram minha história.</t>
+  </si>
+  <si>
+    <t>A cena final trouxe um peso difícil de carregar.</t>
+  </si>
+  <si>
+    <t>A música lenta ativou lembranças que ainda machucam.</t>
+  </si>
+  <si>
+    <t>O teatro inteiro parecia mergulhado em tristeza sutil.</t>
+  </si>
+  <si>
+    <t>A galeria expôs temas que reacenderam memórias dolorosas.</t>
+  </si>
+  <si>
+    <t>O drama abordou despedidas que deixaram cicatrizes invisíveis.</t>
+  </si>
+  <si>
+    <t>A última cena caiu como um golpe emocional profundo.</t>
+  </si>
+  <si>
+    <t>O filme apresentou ausências que abriram novas saudades.</t>
+  </si>
+  <si>
+    <t>A fotografia sombria reforçou um clima interno desolador.</t>
+  </si>
+  <si>
+    <t>O monólogo trouxe palavras que escureceram minha noite.</t>
+  </si>
+  <si>
+    <t>A montagem expôs perdas que ecoaram dentro de mim.</t>
+  </si>
+  <si>
+    <t>O documentário destacou realidades que machucaram silenciosamente.</t>
+  </si>
+  <si>
+    <t>A coreografia triste retratou vazios difíceis de compreender.</t>
+  </si>
+  <si>
+    <t>O teatro explorou temas que despertaram antigos pesares.</t>
+  </si>
+  <si>
+    <t>A exposição cinzenta espalhou um ar de desalento.</t>
+  </si>
+  <si>
+    <t>O musical tragou memórias que carregam dor profunda.</t>
+  </si>
+  <si>
+    <t>A trama dramática reacendeu feridas que nunca fecharam.</t>
+  </si>
+  <si>
+    <t>O figurino apagado colaborou com o clima melancólico.</t>
+  </si>
+  <si>
+    <t>A iluminação suave reforçou o tom emocional pesado.</t>
+  </si>
+  <si>
+    <t>A história trabalhada transmitiu um vazio crescente e real.</t>
+  </si>
+  <si>
+    <t>A performance trouxe despedidas que sangraram por dentro.</t>
+  </si>
+  <si>
+    <t>O roteiro apresentou rupturas que abriram espaço para dor.</t>
+  </si>
+  <si>
+    <t>A galeria exibiu retratos que despertaram profunda tristeza.</t>
+  </si>
+  <si>
+    <t>A canção final puxou lembranças sombrias e persistentes.</t>
+  </si>
+  <si>
+    <t>O filme retratou vidas partidas que ecoaram profundamente.</t>
+  </si>
+  <si>
+    <t>A peça abordou carências que escureceram meu pensamento.</t>
+  </si>
+  <si>
+    <t>A montagem usou silêncios que pesaram como despedidas.</t>
+  </si>
+  <si>
+    <t>A arte exposta revelou ausências que ampliaram minha melancolia</t>
+  </si>
+  <si>
+    <t>Bônus inesperado elevou minha motivação financeira hoje</t>
+  </si>
+  <si>
+    <t>Pagamento antecipado trouxe grande entusiasmo ao mês</t>
+  </si>
+  <si>
+    <t>Desconto alto no mercado garantiu felicidade imediata</t>
+  </si>
+  <si>
+    <t>Economia acumulada aumentou minha satisfação pessoal</t>
+  </si>
+  <si>
+    <t>Consegui quitar parcelas e celebro essa conquista</t>
+  </si>
+  <si>
+    <t>Promoção salarial ampliou minha animação profissional</t>
+  </si>
+  <si>
+    <t>Investimento rendeu acima do previsto, pura satisfação</t>
+  </si>
+  <si>
+    <t>Ganhei vale-compras e aproveitei com leveza</t>
+  </si>
+  <si>
+    <t>Planejamento financeiro funcionou e comemoro cada passo</t>
+  </si>
+  <si>
+    <t>Consegui comprar meu item desejado com alegria</t>
+  </si>
+  <si>
+    <t>Mercado reduziu preços e aproveitei a vantagem felizmente</t>
+  </si>
+  <si>
+    <t>Mesada aumentou e meus planos ficaram mais possíveis</t>
+  </si>
+  <si>
+    <t>Fiz boa negociação e celebro resultado positivo</t>
+  </si>
+  <si>
+    <t>Aprovado em bolsa de estudos, vivi orgulho enorme</t>
+  </si>
+  <si>
+    <t>Recebi gorjeta generosa e fiquei cheio de entusiasmo</t>
+  </si>
+  <si>
+    <t>Fatura veio baixa e comemorarei o alívio total</t>
+  </si>
+  <si>
+    <t>Promoções online tornaram meu dia mais divertido</t>
+  </si>
+  <si>
+    <t>Fechei venda lucrativa e vibrei com o retorno</t>
+  </si>
+  <si>
+    <t>Recebi reembolso rápido e celebrei o alívio</t>
+  </si>
+  <si>
+    <t>Paguei todas as contas sem aperto, pura alegria</t>
+  </si>
+  <si>
+    <t>Consegui poupar mais este mês com entusiasmo real</t>
+  </si>
+  <si>
+    <t>Conquista financeira reforçou minha autoconfiança hoje</t>
+  </si>
+  <si>
+    <t>Fechei orçamento perfeito e senti vitória plena</t>
+  </si>
+  <si>
+    <t>Ganhei sorteio simples e usufruí da leve euforia</t>
+  </si>
+  <si>
+    <t>Finalizei dívidas antigas e vibrei com libertação</t>
+  </si>
+  <si>
+    <t>Preço promocional descomplicou minha compra feliz</t>
+  </si>
+  <si>
+    <t>Fatura controlada garantiu meu dia radiante</t>
+  </si>
+  <si>
+    <t>Meta de economia alcançada trouxe realização profunda</t>
+  </si>
+  <si>
+    <t>Recebi presente em dinheiro e aproveitei calmamente</t>
+  </si>
+  <si>
+    <t>Ajustei gastos e comemorei meu progresso consciente</t>
+  </si>
+  <si>
+    <t>Queda brusca no saldo acendeu alerta imediato</t>
+  </si>
+  <si>
+    <t>Dívida crescente trouxe forte insegurança financeira</t>
+  </si>
+  <si>
+    <t>Atraso salarial gerou receio profundo nesta semana</t>
+  </si>
+  <si>
+    <t>Contas acumuladas criaram ambiente de risco evidente</t>
+  </si>
+  <si>
+    <t>Mercado instável provocou grande hesitação nas decisões</t>
+  </si>
+  <si>
+    <t>Perda no investimento despertou temor constante</t>
+  </si>
+  <si>
+    <t>Orçamento apertado aumentou minha sensação de perigo</t>
+  </si>
+  <si>
+    <t>Possível corte de salário criou tensão inquietante</t>
+  </si>
+  <si>
+    <t>Crédito recusado instalou medo silencioso</t>
+  </si>
+  <si>
+    <t>Falta de reservas tornou o futuro incerto demais</t>
+  </si>
+  <si>
+    <t>Fatura inesperada surgiu e gerou preocupação intensa</t>
+  </si>
+  <si>
+    <t>Cadastro negativado provocou receio prolongado</t>
+  </si>
+  <si>
+    <t>Dívida judicial aproximou risco financeiro grave</t>
+  </si>
+  <si>
+    <t>Troca monetária instável trouxe desconfiança total</t>
+  </si>
+  <si>
+    <t>Saque emergencial reduziu segurança e aumentou ansiedade</t>
+  </si>
+  <si>
+    <t>Falha na transferência acendeu alerta desconfortável</t>
+  </si>
+  <si>
+    <t>Imprevisto caro representou ameaça real ao mês</t>
+  </si>
+  <si>
+    <t>Instabilidade no emprego alimentou medo financeiro</t>
+  </si>
+  <si>
+    <t>Renda irregular criou cenário de perigo constante</t>
+  </si>
+  <si>
+    <t>Erro bancário inesperado abalou minha segurança</t>
+  </si>
+  <si>
+    <t>Taxas elevadas pressionaram meu planejamento incerto</t>
+  </si>
+  <si>
+    <t>Inflação crescente ampliou preocupação diária</t>
+  </si>
+  <si>
+    <t>Possível multa instaurou receio imediato</t>
+  </si>
+  <si>
+    <t>Cálculo errado no orçamento trouxe insegurança forte</t>
+  </si>
+  <si>
+    <t>Atraso em pagamento gerou tensão ameaçadora</t>
+  </si>
+  <si>
+    <t>Notificação de cobrança ativou medo instantâneo</t>
+  </si>
+  <si>
+    <t>Endividamento progressivo tornou o cenário assustador</t>
+  </si>
+  <si>
+    <t>Aumento de juros intensificou risco financeiro</t>
+  </si>
+  <si>
+    <t>Perda de carteira gerou pavor de prejuízo</t>
+  </si>
+  <si>
+    <t>Redução na renda provocou temor contínuo</t>
+  </si>
+  <si>
+    <t>Cobrança indevida despertou irritação imediata</t>
+  </si>
+  <si>
+    <t>Juros abusivos causaram revolta intensa</t>
+  </si>
+  <si>
+    <t>Atraso no reembolso deixou tudo profundamente frustrante</t>
+  </si>
+  <si>
+    <t>Taxas inesperadas arruinaram meu planejamento e irritaram</t>
+  </si>
+  <si>
+    <t>Aumento injusto no aluguel acendeu grande indignação</t>
+  </si>
+  <si>
+    <t>Compra duplicada no cartão gerou aborrecimento forte</t>
+  </si>
+  <si>
+    <t>Erro bancário repetido provocou contrariedade pesada</t>
+  </si>
+  <si>
+    <t>Atendimento financeiro negligente aumentou minha raiva</t>
+  </si>
+  <si>
+    <t>Promessa de desconto quebrada deixou tudo revoltante</t>
+  </si>
+  <si>
+    <t>Fatura alterada sem aviso trouxe enorme irritação</t>
+  </si>
+  <si>
+    <t>Preço enganoso no aplicativo gerou revolta imediata</t>
+  </si>
+  <si>
+    <t>Burocracia financeira interminável me deixou furioso hoje</t>
+  </si>
+  <si>
+    <t>Prazo descumprido na entrega causou frustração intensa</t>
+  </si>
+  <si>
+    <t>Sistema bancário fora do ar provocou irritação pesada</t>
+  </si>
+  <si>
+    <t>Multa injusta despertou raiva incontida</t>
+  </si>
+  <si>
+    <t>Negociação desonesta resultou em aborrecimento real</t>
+  </si>
+  <si>
+    <t>Preço inflado nas compras criou indignação forte</t>
+  </si>
+  <si>
+    <t>Taxa surpresa destruiu minha paciência</t>
+  </si>
+  <si>
+    <t>Retorno financeiro baixo gerou frustração explosiva</t>
+  </si>
+  <si>
+    <t>Falha no pagamento automático irritou profundamente</t>
+  </si>
+  <si>
+    <t>Bloqueio injustificado do cartão causou raiva direta</t>
+  </si>
+  <si>
+    <t>Falta de transparência financeira me deixou revoltado</t>
+  </si>
+  <si>
+    <t>Atraso na liberação do crédito trouxe contrariedade enorme</t>
+  </si>
+  <si>
+    <t>Compra cancelada sem explicação causou frustração</t>
+  </si>
+  <si>
+    <t>Propaganda enganosa desencadeou irritação seca</t>
+  </si>
+  <si>
+    <t>Erro no boleto elevou meu nível de raiva</t>
+  </si>
+  <si>
+    <t>Saída de dinheiro desconhecida gerou indignação séria</t>
+  </si>
+  <si>
+    <t>Fila bancária interminável me deixou indignado</t>
+  </si>
+  <si>
+    <t>Falta de suporte financeiro provocou irritação nítida</t>
+  </si>
+  <si>
+    <t>Aumento repentino de tarifas acendeu revolta direta</t>
+  </si>
+  <si>
+    <t>Perda financeira recente deixou meu dia melancólico</t>
+  </si>
+  <si>
+    <t>Economia baixa trouxe vazio difícil de ignorar</t>
+  </si>
+  <si>
+    <t>Falta de dinheiro ampliou meu desânimo profundo</t>
+  </si>
+  <si>
+    <t>Dívida antiga carrega peso doloroso demais</t>
+  </si>
+  <si>
+    <t>Falha no planejamento gera tristeza constante</t>
+  </si>
+  <si>
+    <t>Gasto inesperado reduziu meu ânimo silenciosamente</t>
+  </si>
+  <si>
+    <t>Mesada cortada criou clima de desalento</t>
+  </si>
+  <si>
+    <t>Prejuízo no investimento trouxe nostalgia amarga</t>
+  </si>
+  <si>
+    <t>Corte no orçamento deixou tudo mais cinzento</t>
+  </si>
+  <si>
+    <t>Conta alta apagou parte da minha esperança</t>
+  </si>
+  <si>
+    <t>Compras adiadas reforçaram minha sensação de perda</t>
+  </si>
+  <si>
+    <t>Saldo baixo mantém minha semana apagada</t>
+  </si>
+  <si>
+    <t>Falta de oportunidades financeiras gera desalento</t>
+  </si>
+  <si>
+    <t>Renda reduzida obscureceu meu horizonte</t>
+  </si>
+  <si>
+    <t>Negativa de crédito trouxe abatimento profundo</t>
+  </si>
+  <si>
+    <t>Dificuldade para juntar dinheiro deixou tudo pesado</t>
+  </si>
+  <si>
+    <t>Dívidas recentes criaram ambiente triste em casa</t>
+  </si>
+  <si>
+    <t>Finanças apertadas drenaram minha motivação</t>
+  </si>
+  <si>
+    <t>Cancelamento de compra desejada trouxe frustração triste</t>
+  </si>
+  <si>
+    <t>Custos elevados enfraqueceram meu ânimo</t>
+  </si>
+  <si>
+    <t>Falta de progresso financeiro criou desolação</t>
+  </si>
+  <si>
+    <t>Mercado desfavorável trouxe melancolia imensa</t>
+  </si>
+  <si>
+    <t>Incerteza monetária apagou minha expectativa</t>
+  </si>
+  <si>
+    <t>Falta de reserva emergencial deixou vazio desconfortável</t>
+  </si>
+  <si>
+    <t>Redução na renda trouxe abatimento imediato</t>
+  </si>
+  <si>
+    <t>Compra necessária adiada gerou tristeza persistente</t>
+  </si>
+  <si>
+    <t>Contas atrasadas carregam amargura constante</t>
+  </si>
+  <si>
+    <t>Prejuízo inesperado enfraqueceu meu espírito</t>
+  </si>
+  <si>
+    <t>Queda nos ganhos trouxe sensação de perda</t>
+  </si>
+  <si>
+    <t>Custo elevado inviabilizou sonhos e trouxe melancolia</t>
+  </si>
+  <si>
+    <t>Som estranho na mata gerou alerta imediato</t>
+  </si>
+  <si>
+    <t>Escuridão na trilha ampliou meu estado de risco</t>
+  </si>
+  <si>
+    <t>Passos desconhecidos atrás criaram insegurança séria</t>
+  </si>
+  <si>
+    <t>Barulho inesperado no matagal indicou possível perigo</t>
+  </si>
+  <si>
+    <t>Tempestade repentina trouxe forte sensação de ameaça</t>
+  </si>
+  <si>
+    <t>Céu escuro aproximou clima tenso e incerto</t>
+  </si>
+  <si>
+    <t>Relâmpagos na montanha produziram receio crescente</t>
+  </si>
+  <si>
+    <t>Animal desconhecido movimentou arbustos com ameaça</t>
+  </si>
+  <si>
+    <t>Ventania forte provocou insegurança em terreno aberto</t>
+  </si>
+  <si>
+    <t>Penhasco alto evocou risco alarmante</t>
+  </si>
+  <si>
+    <t>Floresta densa criou ambiente de hesitação profunda</t>
+  </si>
+  <si>
+    <t>Névoa espessa tornou o caminho perigoso</t>
+  </si>
+  <si>
+    <t>Sombra atrás da árvore gerou desconfiança imediata</t>
+  </si>
+  <si>
+    <t>Ruído noturno no campo ativou meu alerta</t>
+  </si>
+  <si>
+    <t>Mar agitado apresentou perigo evidente</t>
+  </si>
+  <si>
+    <t>Trovões próximos despertaram medo direto</t>
+  </si>
+  <si>
+    <t>Canoas instáveis causaram receio real</t>
+  </si>
+  <si>
+    <t>Fenda na trilha representou risco grave</t>
+  </si>
+  <si>
+    <t>Trilho escorregadio trouxe ameaça iminente</t>
+  </si>
+  <si>
+    <t>Noite sem luz aumentou sensação de vulnerabilidade</t>
+  </si>
+  <si>
+    <t>Movimento abrupto no lago sugeriu perigo</t>
+  </si>
+  <si>
+    <t>Céu carregado intensificou o clima ameaçador</t>
+  </si>
+  <si>
+    <t>Insetos desconhecidos criaram apreensão forte</t>
+  </si>
+  <si>
+    <t>Terreno irregular provocou receio constante</t>
+  </si>
+  <si>
+    <t>Sons longos da floresta geraram inquietação</t>
+  </si>
+  <si>
+    <t>Silêncio profundo aumentou risco percebido</t>
+  </si>
+  <si>
+    <t>Trilho abandonado aumentou sensação de incerteza</t>
+  </si>
+  <si>
+    <t>Raízes expostas criaram risco real de queda</t>
+  </si>
+  <si>
+    <t>Onda gigantesca revelou perigo iminente</t>
+  </si>
+  <si>
+    <t>Clarão súbito atrás das árvores levantou ameaça</t>
+  </si>
+  <si>
+    <t>Lixo espalhado na praia provocou indignação imediata</t>
+  </si>
+  <si>
+    <t>Fogo criminoso na mata despertou revolta intensa</t>
+  </si>
+  <si>
+    <t>Desmatamento local gerou contrariedade profunda</t>
+  </si>
+  <si>
+    <t>Caça ilegal elevou minha irritação no momento</t>
+  </si>
+  <si>
+    <t>Poluição do rio desencadeou aborrecimento marcante</t>
+  </si>
+  <si>
+    <t>Trilha bloqueada injustamente criou raiva direta</t>
+  </si>
+  <si>
+    <t>Som alto no parque irritou profundamente</t>
+  </si>
+  <si>
+    <t>Descuido ambiental repetido provocou indignação</t>
+  </si>
+  <si>
+    <t>Pisotearam flores recém-plantadas e geraram revolta</t>
+  </si>
+  <si>
+    <t>Queimada irregular aumentou minha fúria controlada</t>
+  </si>
+  <si>
+    <t>Pesca predatória despertou forte contrariedade</t>
+  </si>
+  <si>
+    <t>Vandalismo no jardim público trouxe frustração intensa</t>
+  </si>
+  <si>
+    <t>Caminho destruído por negligência causou irritação seca</t>
+  </si>
+  <si>
+    <t>Barulho excessivo na reserva gerou indignação imediata</t>
+  </si>
+  <si>
+    <t>Garrafas jogadas na mata acenderam minha irritação</t>
+  </si>
+  <si>
+    <t>Falta de cuidado com animais provocou revolta</t>
+  </si>
+  <si>
+    <t>Danos ao parque criaram raiva contínua</t>
+  </si>
+  <si>
+    <t>Derramamento de óleo irritou minha consciência ambiental</t>
+  </si>
+  <si>
+    <t>Trator destruiu vegetação e despertou indignação</t>
+  </si>
+  <si>
+    <t>Turistas desrespeitosos causaram forte aborrecimento</t>
+  </si>
+  <si>
+    <t>Estrada esburacada no campo gerou irritação crescente</t>
+  </si>
+  <si>
+    <t>Falta de preservação criou contrariedade elevada</t>
+  </si>
+  <si>
+    <t>Lama tóxica no rio aumentou minha revolta</t>
+  </si>
+  <si>
+    <t>Pisaram em ninho frágil e isso provocou ira</t>
+  </si>
+  <si>
+    <t>Vegetação arrancada gerou aborrecimento imediato</t>
+  </si>
+  <si>
+    <t>Som de motos na trilha trouxe grande irritação</t>
+  </si>
+  <si>
+    <t>Danificaram bancos do parque e despertaram raiva</t>
+  </si>
+  <si>
+    <t>Descaso com reciclagem causou contrariedade intensa</t>
+  </si>
+  <si>
+    <t>Falta de respeito à fauna elevou minha indignação</t>
+  </si>
+  <si>
+    <t>Sujeira acumulada no bosque intensificou minha irritação</t>
+  </si>
+  <si>
+    <t>Árvore caída trouxe um vazio silencioso</t>
+  </si>
+  <si>
+    <t>Mata destruída deixou minha manhã apagada</t>
+  </si>
+  <si>
+    <t>Rio poluído criou um clima melancólico</t>
+  </si>
+  <si>
+    <t>Céu cinzento espalhou desânimo pelo caminho</t>
+  </si>
+  <si>
+    <t>Flor murcha ampliou minha sensação de perda</t>
+  </si>
+  <si>
+    <t>Paisagem apagada carregou uma melancolia discreta</t>
+  </si>
+  <si>
+    <t>Jardim abandonado trouxe um peso nostálgico</t>
+  </si>
+  <si>
+    <t>Campo seco projetou tristeza evidente</t>
+  </si>
+  <si>
+    <t>Floresta silenciosa reforçou minha sensação de solidão</t>
+  </si>
+  <si>
+    <t>Folhas caídas criaram um ambiente melancólico</t>
+  </si>
+  <si>
+    <t>Horizonte nublado deixou minha percepção mais sombria</t>
+  </si>
+  <si>
+    <t>Trilha abandonada gerou uma atmosfera triste</t>
+  </si>
+  <si>
+    <t>Mar sem brilho trouxe um sentimento vazio</t>
+  </si>
+  <si>
+    <t>Estação seca ampliou meu desânimo profundo</t>
+  </si>
+  <si>
+    <t>Lago turvo expressou uma quietude triste</t>
+  </si>
+  <si>
+    <t>Mudança brusca do clima apagou qualquer entusiasmo</t>
+  </si>
+  <si>
+    <t>Céu sem cores trouxe abatimento suave</t>
+  </si>
+  <si>
+    <t>Galhos quebrados espalharam uma nostalgia amarga</t>
+  </si>
+  <si>
+    <t>Colina escura transmitiu uma melancolia inevitável</t>
+  </si>
+  <si>
+    <t>Pássaros ausentes criaram uma sensação de perda</t>
+  </si>
+  <si>
+    <t>Chuvisco fraco reforçou um tom desanimado</t>
+  </si>
+  <si>
+    <t>Bosque silencioso deixou tudo pesado</t>
+  </si>
+  <si>
+    <t>Campo vazio trouxe uma tristeza prolongada</t>
+  </si>
+  <si>
+    <t>Árvores nuas evocaram nostalgia profunda</t>
+  </si>
+  <si>
+    <t>Névoa fria espalhou um clima desolado</t>
+  </si>
+  <si>
+    <t>Praia deserta transmitiu uma melancolia lenta</t>
+  </si>
+  <si>
+    <t>Vegetação cinzenta revelou uma tristeza crescente</t>
+  </si>
+  <si>
+    <t>Noite sem estrelas ampliou o desânimo</t>
+  </si>
+  <si>
+    <t>Paisagem apagada criou uma sensação de vazio</t>
+  </si>
+  <si>
+    <t>Natureza triste pintou meu dia em tons escuros</t>
+  </si>
+  <si>
+    <t>Céu aberto iluminou meu dia com leveza vibrante</t>
+  </si>
+  <si>
+    <t>Flores desabrochando criaram uma atmosfera radiante</t>
+  </si>
+  <si>
+    <t>Caminhada na mata trouxe energia cheia de luz</t>
+  </si>
+  <si>
+    <t>Rio cristalino despertou entusiasmo natural imediato</t>
+  </si>
+  <si>
+    <t>Brisa suave ampliou minha alegria na trilha</t>
+  </si>
+  <si>
+    <t>Canto dos pássaros transformou minha manhã em celebração</t>
+  </si>
+  <si>
+    <t>Jardim colorido elevou minha motivação profundamente</t>
+  </si>
+  <si>
+    <t>Sol quente trouxe vivacidade irresistível ao passeio</t>
+  </si>
+  <si>
+    <t>Paisagem verde renovou minha animação por completo</t>
+  </si>
+  <si>
+    <t>Nuvens rosadas no pôr do sol trouxeram euforia calma</t>
+  </si>
+  <si>
+    <t>Praia tranquila encheu meu corpo de brilho</t>
+  </si>
+  <si>
+    <t>Montanhas claras inspiraram alegria genuína</t>
+  </si>
+  <si>
+    <t>Floresta aberta estimulou minha disposição otimista</t>
+  </si>
+  <si>
+    <t>Céu estrelado criou um clima de pura encantação</t>
+  </si>
+  <si>
+    <t>Mar transparente reforçou meu sentimento de vitória</t>
+  </si>
+  <si>
+    <t>Trilha florida trouxe entusiasmo contagiante</t>
+  </si>
+  <si>
+    <t>Ar puro intensificou meu humor iluminado</t>
+  </si>
+  <si>
+    <t>Cachoeira forte despertou empolgação imediata</t>
+  </si>
+  <si>
+    <t>Campo ensolarado ampliou minha sensação de celebração</t>
+  </si>
+  <si>
+    <t>Horizonte dourado trouxe uma alegria crescente</t>
+  </si>
+  <si>
+    <t>Estação das flores elevou meu espírito vibrante</t>
+  </si>
+  <si>
+    <t>Pôr do sol laranja trouxe animação profunda</t>
+  </si>
+  <si>
+    <t>Águas calmas criaram um momento radiante</t>
+  </si>
+  <si>
+    <t>Bosque aberto inspirou leveza e entusiasmo</t>
+  </si>
+  <si>
+    <t>Céu limpo reforçou minha vivacidade hoje</t>
+  </si>
+  <si>
+    <t>Raio de sol iluminou meu humor com força</t>
+  </si>
+  <si>
+    <t>Ar fresco ativou minha energia positiva</t>
+  </si>
+  <si>
+    <t>Tarde ensolarada criou uma vibração feliz</t>
+  </si>
+  <si>
+    <t>Vento quente trouxe entusiasmo suave</t>
+  </si>
+  <si>
+    <t>Estrelas brilhantes despertaram uma alegria serena</t>
   </si>
 </sst>
 </file>
@@ -5597,10 +6797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1732"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1716" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1733" sqref="A1733"/>
+    <sheetView tabSelected="1" topLeftCell="A2091" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2104" sqref="F2104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19333,7 +20533,7 @@
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1716" t="s">
-        <v>1717</v>
+        <v>1733</v>
       </c>
       <c r="B1716" t="s">
         <v>290</v>
@@ -19341,7 +20541,7 @@
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1717" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B1717" t="s">
         <v>290</v>
@@ -19349,7 +20549,7 @@
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1718" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1718" t="s">
         <v>290</v>
@@ -19357,7 +20557,7 @@
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1719" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B1719" t="s">
         <v>290</v>
@@ -19365,7 +20565,7 @@
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1720" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B1720" t="s">
         <v>290</v>
@@ -19373,7 +20573,7 @@
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1721" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1721" t="s">
         <v>290</v>
@@ -19381,7 +20581,7 @@
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1722" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B1722" t="s">
         <v>290</v>
@@ -19389,7 +20589,7 @@
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1723" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B1723" t="s">
         <v>290</v>
@@ -19397,7 +20597,7 @@
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1724" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B1724" t="s">
         <v>290</v>
@@ -19405,7 +20605,7 @@
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1725" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B1725" t="s">
         <v>290</v>
@@ -19413,7 +20613,7 @@
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1726" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B1726" t="s">
         <v>290</v>
@@ -19421,7 +20621,7 @@
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1727" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B1727" t="s">
         <v>290</v>
@@ -19429,7 +20629,7 @@
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1728" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B1728" t="s">
         <v>290</v>
@@ -19437,7 +20637,7 @@
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1729" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B1729" t="s">
         <v>290</v>
@@ -19445,7 +20645,7 @@
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1730" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1730" t="s">
         <v>290</v>
@@ -19453,7 +20653,7 @@
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1731" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B1731" t="s">
         <v>290</v>
@@ -19461,10 +20661,3211 @@
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1732" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B1732" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1733" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1734" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1735" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1736" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1737" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1738" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1739" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1740" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1741" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1742" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1743" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1744" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1745" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1746" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1747" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1748" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1749" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1750" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1751" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1752" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1753" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1754" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1755" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1756" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1757" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1758" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1759" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1760" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1761" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1762" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1763" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1764" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1765" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1766" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1767" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1768" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1769" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1770" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1771" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1772" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1773" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1774" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1775" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1776" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1777" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1778" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1779" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1780" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1781" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1782" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1783" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1784" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1785" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1786" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1787" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1788" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1789" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1790" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1791" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1792" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1793" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1794" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1795" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1796" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1797" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1798" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1799" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1800" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1801" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1802" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1803" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1804" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1805" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1806" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1807" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1808" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1809" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1810" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1811" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1812" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1813" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1814" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1815" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1816" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1817" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1818" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1819" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1820" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1821" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1822" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1823" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1824" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1825" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1826" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1827" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1828" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1829" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1830" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1831" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1832" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1833" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1834" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1835" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1836" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1837" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1838" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1839" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1840" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1841" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1842" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1843" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1844" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1845" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1846" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1847" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1848" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1849" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1850" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1851" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1852" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1853" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1854" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1855" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1856" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1857" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1858" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1859" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1860" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1861" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1862" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1863" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1864" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1865" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1866" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1867" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1868" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1869" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1870" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1871" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1872" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1873" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1874" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1875" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1876" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1877" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1878" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1879" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1880" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1881" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1882" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1883" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1884" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1885" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1886" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1887" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1888" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1889" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1890" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1891" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1892" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1893" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1894" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1895" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1896" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1897" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1898" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1899" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1900" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1901" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1902" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1903" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1904" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1905" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1906" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1907" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1908" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1909" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1910" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1911" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1912" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1913" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1914" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1915" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1916" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1917" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1918" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1919" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1920" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1921" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1922" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1923" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1924" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1925" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1926" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1927" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1928" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1929" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1930" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1931" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1932" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1933" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1934" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1935" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1936" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1937" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1938" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1939" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1940" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1941" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1942" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1943" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1944" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1945" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1946" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1947" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1948" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1949" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1950" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1951" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1952" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1953" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1954" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1955" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1956" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1957" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1958" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1959" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1960" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1961" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1962" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1963" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1964" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1965" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1966" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1967" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1968" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1969" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1970" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1971" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1972" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1973" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1974" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1975" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1976" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1977" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1978" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1979" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1980" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1981" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1982" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1983" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1984" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1985" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1986" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1987" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1988" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1989" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1990" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1991" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1992" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1993" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1994" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1995" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1996" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1997" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1998" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1999" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2000" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2001" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2002" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2003" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2004" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2005" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2006" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2007" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2008" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2009" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2010" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2011" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2012" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2013" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2014" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2015" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2016" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2017" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2018" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2019" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2020" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2021" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2022" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2023" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2024" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2025" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2026" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2027" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2028" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2029" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2030" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2031" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2032" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2033" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2034" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2035" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2036" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2037" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2038" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2039" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2040" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2041" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2042" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2043" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2044" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2045" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2046" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2047" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2048" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2049" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2050" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2051" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2052" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2053" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2054" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2055" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2056" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2057" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2058" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2059" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2060" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2061" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2062" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2063" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2064" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2065" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2066" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2067" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2068" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2069" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2070" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2071" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2072" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2073" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2074" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2075" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2076" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2077" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2078" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2079" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2080" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2081" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2082" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2083" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2084" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2085" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2086" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2087" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2088" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2089" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2090" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2091" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2092" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2093" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2094" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2095" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2096" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2097" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2098" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2099" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2100" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2101" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2102" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2103" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2104" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2104" s="2"/>
+    </row>
+    <row r="2105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2105" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2106" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2107" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2108" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2109" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2110" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2111" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2112" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2113" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2114" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2115" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2116" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2117" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2118" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2119" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2120" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2121" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2122" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2123" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2124" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2125" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2126" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2127" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2128" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2129" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2130" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2131" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2132" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -18,11 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$911</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="2134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="2423">
   <si>
     <t>frase</t>
   </si>
@@ -6425,6 +6426,873 @@
   </si>
   <si>
     <t>Estrelas brilhantes despertaram uma alegria serena</t>
+  </si>
+  <si>
+    <t>A professora ignorou completamente o esforço da menina e isso me deixou furioso</t>
+  </si>
+  <si>
+    <t>Os colegas riram do desenho do garoto e isso provocou um incômodo enorme</t>
+  </si>
+  <si>
+    <t>O coordenador tratou o aluno com descaso e gerou uma irritação geral na sala</t>
+  </si>
+  <si>
+    <t>Ver o menino culpado por algo que não fez despertou uma revolta forte em mim</t>
+  </si>
+  <si>
+    <t>A bagunça no corredor durante a troca de aula deixou todo mundo indignado</t>
+  </si>
+  <si>
+    <t>O garoto empurrou a menina e ninguém tomou providência, o que causou grande irritação</t>
+  </si>
+  <si>
+    <t>Fiquei contrariado quando o professor esqueceu de corrigir o trabalho do grupo</t>
+  </si>
+  <si>
+    <t>O barulho constante no pátio transformou a manhã em um tormento</t>
+  </si>
+  <si>
+    <t>A injustiça com a criança nova desencadeou uma fúria silenciosa</t>
+  </si>
+  <si>
+    <t>A falta de respeito entre os alunos provocou um ambiente tenso e exasperante</t>
+  </si>
+  <si>
+    <t>O menino ficou cabisbaixo quando viu que o lanche dele tinha desaparecido</t>
+  </si>
+  <si>
+    <t>A menina voltou da aula silenciosa, com os olhos brilhando de decepção</t>
+  </si>
+  <si>
+    <t>O garoto caminhou devagar pelo corredor, carregando uma melancolia evidente</t>
+  </si>
+  <si>
+    <t>A criança chorou baixinho quando percebeu que ninguém a escolheu para o grupo</t>
+  </si>
+  <si>
+    <t>A ausência da professora favorita criou um vazio no clima da sala</t>
+  </si>
+  <si>
+    <t>O desenho rasgado no caderno deixou o aluno abatido pelo resto do dia</t>
+  </si>
+  <si>
+    <t>A menina guardou o material com uma expressão de desalento</t>
+  </si>
+  <si>
+    <t>A bronca injusta deixou o garoto profundamente desanimado</t>
+  </si>
+  <si>
+    <t>A solidão no recreio pesou no olhar da criança nova</t>
+  </si>
+  <si>
+    <t>O silêncio do estudante revelou uma tristeza difícil de esconder</t>
+  </si>
+  <si>
+    <t>O aluno hesitou antes de entrar na sala, tomado por uma apreensão silenciosa</t>
+  </si>
+  <si>
+    <t>A criança recuou quando ouviu a discussão no corredor</t>
+  </si>
+  <si>
+    <t>O garoto tremeu ao ser chamado para apresentar o trabalho</t>
+  </si>
+  <si>
+    <t>A menina encolheu os ombros ao notar a aproximação do grupo que sempre provoca</t>
+  </si>
+  <si>
+    <t>O barulho alto na quadra fez a estudante se encolher de susto</t>
+  </si>
+  <si>
+    <t>O clima tenso da prova gerou um pavor crescente no aluno mais novo</t>
+  </si>
+  <si>
+    <t>A ameaça dos colegas deixou o menino em estado de alerta constante</t>
+  </si>
+  <si>
+    <t>A criança segurou firme o caderno, dominada por uma angústia silenciosa</t>
+  </si>
+  <si>
+    <t>A luz falhando no corredor despertou um receio imediato</t>
+  </si>
+  <si>
+    <t>O professor rígido provocava um temor evidente em toda a turma</t>
+  </si>
+  <si>
+    <t>A menina sorriu radiante ao ver que tinha acertado todas as questões</t>
+  </si>
+  <si>
+    <t>O menino saiu da sala saltitando depois de ganhar um elogio inesperado</t>
+  </si>
+  <si>
+    <t>O grupo comemorou em festa quando finalizou o projeto da feira de ciências</t>
+  </si>
+  <si>
+    <t>A criança correu pelo pátio com uma empolgação contagiante</t>
+  </si>
+  <si>
+    <t>A chegada do recreio trouxe uma leveza luminosa para os alunos</t>
+  </si>
+  <si>
+    <t>O garoto riu alto ao receber um bilhete engraçado da amiga</t>
+  </si>
+  <si>
+    <t>A turma vibrou quando descobriu que teria aula de artes</t>
+  </si>
+  <si>
+    <t>A atividade em grupo gerou um entusiasmo espontâneo na sala</t>
+  </si>
+  <si>
+    <t>O abraço da colega iluminou o rosto da menina tímida</t>
+  </si>
+  <si>
+    <t>A brincadeira no pátio despertou uma felicidade vibrante nas crianças</t>
+  </si>
+  <si>
+    <t>Recreio cheio de risadas deixou o pátio mais leve</t>
+  </si>
+  <si>
+    <t>Crianças correndo pelo corredor criaram um clima animado</t>
+  </si>
+  <si>
+    <t>Sala cheia de conversa boa deu vida à manhã</t>
+  </si>
+  <si>
+    <t>Desenhos coloridos espalhados na mesa tornaram tudo mais divertido</t>
+  </si>
+  <si>
+    <t>Cantinho da leitura virou palco de pequenas descobertas</t>
+  </si>
+  <si>
+    <t>Rodinha de histórias trouxe empolgação imediata</t>
+  </si>
+  <si>
+    <t>Risadas soltas no pátio deram ritmo ao dia</t>
+  </si>
+  <si>
+    <t>Corrida improvisada no gramado rendeu momentos brilhantes</t>
+  </si>
+  <si>
+    <t>Brincadeira de estátua transformou o intervalo em festa</t>
+  </si>
+  <si>
+    <t>Grupo estudando junto criou uma energia contagiante</t>
+  </si>
+  <si>
+    <t>Jogo de perguntas deixou a aula mais dinâmica</t>
+  </si>
+  <si>
+    <t>Crianças ajudando umas às outras iluminaram a sala</t>
+  </si>
+  <si>
+    <t>Mesa cheia de lápis de cor trouxe um clima vibrante</t>
+  </si>
+  <si>
+    <t>Caminhada até a biblioteca rendeu conversas leves</t>
+  </si>
+  <si>
+    <t>Mural escolar enfeitado gerou entusiasmo geral</t>
+  </si>
+  <si>
+    <t>Música na aula de artes deixou todos mais soltos</t>
+  </si>
+  <si>
+    <t>Primeira resposta certa da turma arrancou sorrisos coletivos</t>
+  </si>
+  <si>
+    <t>Piquenique escolar no jardim criou uma manhã radiante</t>
+  </si>
+  <si>
+    <t>Brincadeira de adedonha despertou uma animação suave</t>
+  </si>
+  <si>
+    <t>Alunos organizando a sala criaram um ambiente acolhedor</t>
+  </si>
+  <si>
+    <t>Chá da tarde com a turma rendeu momentos calorosos</t>
+  </si>
+  <si>
+    <t>Leitura dramatizada levantou o astral da classe</t>
+  </si>
+  <si>
+    <t>Desenhos no quadro viraram ponto alto do dia</t>
+  </si>
+  <si>
+    <t>Caminhada até o laboratório trouxe curiosidade animada</t>
+  </si>
+  <si>
+    <t>Oficina de reciclagem deixou o dia mais colorido</t>
+  </si>
+  <si>
+    <t>Turma unida no trabalho em grupo criou uma atmosfera leve</t>
+  </si>
+  <si>
+    <t>Jogo de tabuleiro educativo animou a última aula</t>
+  </si>
+  <si>
+    <t>Cartazes feitos pela turma espalharam boas vibrações</t>
+  </si>
+  <si>
+    <t>Atividade ao ar livre transformou a tarde em celebração</t>
+  </si>
+  <si>
+    <t>Corrida de saco improvisada levantou gargalhadas</t>
+  </si>
+  <si>
+    <t>Sala decorada surpreendeu todo mundo pela manhã</t>
+  </si>
+  <si>
+    <t>Experimento de ciências trouxe uma energia brilhante</t>
+  </si>
+  <si>
+    <t>Rodinha de conversa incentivou uma alegria discreta</t>
+  </si>
+  <si>
+    <t>Brincadeiras no parquinho deixaram tudo mais iluminado</t>
+  </si>
+  <si>
+    <t>Primeira vitória no xadrez arrancou entusiasmos espontâneos</t>
+  </si>
+  <si>
+    <t>Ajuda coletiva na tarefa criou um clima amistoso</t>
+  </si>
+  <si>
+    <t>Atividade com massinha causou empolgação imediata</t>
+  </si>
+  <si>
+    <t>Apresentação improvisada virou destaque do dia</t>
+  </si>
+  <si>
+    <t>Pátio ensolarado deu ritmo alegre ao intervalo</t>
+  </si>
+  <si>
+    <t>Hora da pintura trouxe uma leve animação</t>
+  </si>
+  <si>
+    <t>Grupo cantando junto tornou a aula especial</t>
+  </si>
+  <si>
+    <t>Mini gincana movimentou a tarde escolar</t>
+  </si>
+  <si>
+    <t>Novo projeto da turma gerou uma vibração positiva</t>
+  </si>
+  <si>
+    <t>Histórias inventadas pelas crianças criaram momentos encantadores</t>
+  </si>
+  <si>
+    <t>Chegada do professor preferido aqueceu o início da aula</t>
+  </si>
+  <si>
+    <t>Festa de aniversários do mês trouxe celebração suave</t>
+  </si>
+  <si>
+    <t>Plantinhas da horta escolar animaram o começo da manhã</t>
+  </si>
+  <si>
+    <t>Turma inteira participando animou até os mais quietos</t>
+  </si>
+  <si>
+    <t>Lanches compartilhados no recreio deixaram tudo mais gostoso</t>
+  </si>
+  <si>
+    <t>Pequena vitória da equipe espalhou satisfação pelo corredor</t>
+  </si>
+  <si>
+    <t>Sala silenciosa trouxe um vazio discreto pela manhã</t>
+  </si>
+  <si>
+    <t>Caderno esquecido na mesa deixou a atividade sem brilho</t>
+  </si>
+  <si>
+    <t>Despedida no portão deixou a atmosfera apagada</t>
+  </si>
+  <si>
+    <t>Brinquedo quebrado no recreio criou um clima murcho</t>
+  </si>
+  <si>
+    <t>Falta de companhia no pátio trouxe um silêncio pesado</t>
+  </si>
+  <si>
+    <t>Lanche intocado na mesa marcou um momento apagado</t>
+  </si>
+  <si>
+    <t>Quadro sem desenhos pareceu mais frio hoje</t>
+  </si>
+  <si>
+    <t>Canto vazio da biblioteca carregou um ar desbotado</t>
+  </si>
+  <si>
+    <t>Pátio nublado deixou o intervalo sem cor</t>
+  </si>
+  <si>
+    <t>Conversa interrompida trouxe uma sensação miúda</t>
+  </si>
+  <si>
+    <t>Falta de ânimo da turma deixou a sala opaca</t>
+  </si>
+  <si>
+    <t>Lugar vazio na roda tornou o momento mais parado</t>
+  </si>
+  <si>
+    <t>Jogo cancelado tirou a energia do grupo</t>
+  </si>
+  <si>
+    <t>Brincadeira que não deu certo deixou um ar lento</t>
+  </si>
+  <si>
+    <t>Caminho até a escola pareceu meio arrastado</t>
+  </si>
+  <si>
+    <t>Chuva no recreio deixou o pátio sem vida</t>
+  </si>
+  <si>
+    <t>Desenho amassado no chão criou um clima apagado</t>
+  </si>
+  <si>
+    <t>Troca de turma deixou o corredor sem o mesmo som</t>
+  </si>
+  <si>
+    <t>Balão estourado tirou o encanto da sala</t>
+  </si>
+  <si>
+    <t>Livro rasgado no canto trouxe uma sensação cinzenta</t>
+  </si>
+  <si>
+    <t>Risos distantes soaram meio vazios hoje</t>
+  </si>
+  <si>
+    <t>Lousa apagada deixou a aula sem muita cor</t>
+  </si>
+  <si>
+    <t>Faltas na turma tornaram o ambiente mais parado</t>
+  </si>
+  <si>
+    <t>Aviso inesperado deixou a sala silenciosa</t>
+  </si>
+  <si>
+    <t>Jogo sem participantes perdeu o brilho usual</t>
+  </si>
+  <si>
+    <t>Caderno fechado sobre a mesa criou um ar lento</t>
+  </si>
+  <si>
+    <t>Conversa baixa no fundo pareceu sem força</t>
+  </si>
+  <si>
+    <t>Brincadeira interrompida tirou o ritmo do grupo</t>
+  </si>
+  <si>
+    <t>Arquibancada vazia no ginásio deixou o espaço frio</t>
+  </si>
+  <si>
+    <t>Foto caída no mural criou um momento pálido</t>
+  </si>
+  <si>
+    <t>Caminho até o pátio pareceu comprido demais</t>
+  </si>
+  <si>
+    <t>Decoração retirada da sala deixou tudo sem cor</t>
+  </si>
+  <si>
+    <t>Mesa vazia na biblioteca trouxe um silêncio frio</t>
+  </si>
+  <si>
+    <t>Bola parada no canto destacou um ar monótono</t>
+  </si>
+  <si>
+    <t>História contada sem atenção perdeu o encanto</t>
+  </si>
+  <si>
+    <t>Tarde nublada tirou a vibração da gincana</t>
+  </si>
+  <si>
+    <t>Grupo disperso deixou a atividade sem calor</t>
+  </si>
+  <si>
+    <t>Plantinha murcha da horta trouxe um ar desbotado</t>
+  </si>
+  <si>
+    <t>Pátio meio vazio perdeu a alegria habitual</t>
+  </si>
+  <si>
+    <t>Encerramento rápido tirou a graça do recreio</t>
+  </si>
+  <si>
+    <t>Tarefa não finalizada ficou com um peso discreto</t>
+  </si>
+  <si>
+    <t>Som distante da quadra soou meio apagado</t>
+  </si>
+  <si>
+    <t>Quadro com poucas cores deixou a aula arrastada</t>
+  </si>
+  <si>
+    <t>Bancos vazios no parquinho criaram um silêncio grande</t>
+  </si>
+  <si>
+    <t>Papel rasgado no mural trouxe uma sensação fria</t>
+  </si>
+  <si>
+    <t>Equipe desfalcada deixou o jogo monótono</t>
+  </si>
+  <si>
+    <t>Falta de conversa no caminho até a sala criou um ar lento</t>
+  </si>
+  <si>
+    <t>Estante bagunçada na biblioteca pareceu cansada</t>
+  </si>
+  <si>
+    <t>Pátio escurecendo cedo deixou a tarde opaca</t>
+  </si>
+  <si>
+    <t>Encerramento do dia escolar caiu num silêncio sem cor</t>
+  </si>
+  <si>
+    <t>Barulho exagerado na sala deixou o clima pesado</t>
+  </si>
+  <si>
+    <t>Discussão na fila do lanche gerou irritação imediata</t>
+  </si>
+  <si>
+    <t>Brincadeira agressiva no pátio terminou em puro desgaste</t>
+  </si>
+  <si>
+    <t>Falta de cuidado com o material coletivo causou contrariedade</t>
+  </si>
+  <si>
+    <t>Bagunça no armário da turma trouxe um incômodo forte</t>
+  </si>
+  <si>
+    <t>Respostas atravessadas durante a atividade criaram tensão</t>
+  </si>
+  <si>
+    <t>Interrupções constantes na explicação deixaram o ambiente tenso</t>
+  </si>
+  <si>
+    <t>Papel jogado no chão provocou aborrecimento geral</t>
+  </si>
+  <si>
+    <t>Comentários maldosos no recreio despertaram um incômodo áspero</t>
+  </si>
+  <si>
+    <t>Falta de organização no grupo trouxe frustração imediata</t>
+  </si>
+  <si>
+    <t>Gritaria perto da biblioteca criou um incômodo seco</t>
+  </si>
+  <si>
+    <t>Atitude desrespeitosa na fila irritou até os pacientes</t>
+  </si>
+  <si>
+    <t>Pichação no banheiro escolar gerou indignação coletiva</t>
+  </si>
+  <si>
+    <t>Risadinhas durante a apresentação causaram desconforto intenso</t>
+  </si>
+  <si>
+    <t>Desatenção da turma inteira deixou a aula truncada</t>
+  </si>
+  <si>
+    <t>Perda do material emprestado provocou irritação silenciosa</t>
+  </si>
+  <si>
+    <t>Correria sem necessidade trouxe um incômodo forte</t>
+  </si>
+  <si>
+    <t>Reclamações repetidas durante o trabalho geraram desgaste</t>
+  </si>
+  <si>
+    <t>Brincadeira sem limite criou um ambiente pesado</t>
+  </si>
+  <si>
+    <t>Comentário irônico de colega trouxe uma irritação seca</t>
+  </si>
+  <si>
+    <t>Falta de respeito ao turno de fala elevou a tensão</t>
+  </si>
+  <si>
+    <t>Discussão sobre lugar na mesa rendeu contrariedade</t>
+  </si>
+  <si>
+    <t>Bagunça deixada no final da aula gerou aborrecimento</t>
+  </si>
+  <si>
+    <t>Chamado desnecessário do professor irritou parte da turma</t>
+  </si>
+  <si>
+    <t>Mural rabiscado levantou indignação entre os alunos</t>
+  </si>
+  <si>
+    <t>Brinquedo quebrado no parquinho trouxe revolta silenciosa</t>
+  </si>
+  <si>
+    <t>Pego da liderança da atividade causou incômodo forte</t>
+  </si>
+  <si>
+    <t>Demora para começar o trabalho criou impaciência</t>
+  </si>
+  <si>
+    <t>Acusações sem prova geraram um desconforto ríspido</t>
+  </si>
+  <si>
+    <t>Falta de atenção nas regras irritou o grupo</t>
+  </si>
+  <si>
+    <t>Risos provocativos no corredor criaram tensão fria</t>
+  </si>
+  <si>
+    <t>Puxão de braço durante a brincadeira trouxe aborrecimento</t>
+  </si>
+  <si>
+    <t>Competição injusta na gincana causou indignação imediata</t>
+  </si>
+  <si>
+    <t>Interrupção na hora da leitura deixou o ambiente truncado</t>
+  </si>
+  <si>
+    <t>Falta de cuidado com a fila gerou contrariedade discreta</t>
+  </si>
+  <si>
+    <t>Comentários comparando alunos criaram irritação</t>
+  </si>
+  <si>
+    <t>Recusa em ajudar o grupo trouxe desgaste nítido</t>
+  </si>
+  <si>
+    <t>Disputa por um jogo no recreio gerou incômodo forte</t>
+  </si>
+  <si>
+    <t>Desorganização na entrega de tarefas criou impaciência</t>
+  </si>
+  <si>
+    <t>Conversas maldosas perto do pátio criaram atrito</t>
+  </si>
+  <si>
+    <t>Quebra da regra de silêncio irritou até quem tentava manter calma</t>
+  </si>
+  <si>
+    <t>Empurrões perto da escada elevaram a tensão geral</t>
+  </si>
+  <si>
+    <t>Fila quebrada no lanche causou contrariedade imediata</t>
+  </si>
+  <si>
+    <t>Interferência desnecessária na atividade trouxe desgaste</t>
+  </si>
+  <si>
+    <t>Falta de cuidado com a horta escolar gerou indignação</t>
+  </si>
+  <si>
+    <t>Barulho durante a prova trouxe irritação difusa</t>
+  </si>
+  <si>
+    <t>Competição exagerada no jogo criou um clima seco</t>
+  </si>
+  <si>
+    <t>Pedido ignorado de ajuda causou aborrecimento discreto</t>
+  </si>
+  <si>
+    <t>Brincadeira inconveniente durante a aula levantou tensão imediata</t>
+  </si>
+  <si>
+    <t>Tenho um ódio quando alguém mexe nas minhas coisas sem pedir</t>
+  </si>
+  <si>
+    <t>Fico com raiva na hora quando vejo gente empurrando no corredor</t>
+  </si>
+  <si>
+    <t>Eu detesto quando faço o trabalho inteiro e o grupo nem ajuda</t>
+  </si>
+  <si>
+    <t>Dá um ódio quando a pessoa finge que não te ouviu</t>
+  </si>
+  <si>
+    <t>É irritante ver gente rindo enquanto o outro apresenta</t>
+  </si>
+  <si>
+    <t>Tenho uma raiva enorme de gente que joga sujeira no chão do nada</t>
+  </si>
+  <si>
+    <t>Fico de cara quando alguém culpa outra pessoa só pra se livrar</t>
+  </si>
+  <si>
+    <t>Odiei quando mexeram no meu material do nada</t>
+  </si>
+  <si>
+    <t>Morro de raiva quando interrompem a aula à toa</t>
+  </si>
+  <si>
+    <t>Detesto quando puxam assunto só pra provocar</t>
+  </si>
+  <si>
+    <t>Dá um ódio ver gente falando alto na biblioteca</t>
+  </si>
+  <si>
+    <t>Fico irritado quando combinam algo e ninguém cumpre</t>
+  </si>
+  <si>
+    <t>Não suporto quando fazem piadinha sem graça com alguém</t>
+  </si>
+  <si>
+    <t>Sobe um ódio quando vejo alguém sendo maldoso só pra aparecer</t>
+  </si>
+  <si>
+    <t>Detesto quando ficam comparando os alunos entre si</t>
+  </si>
+  <si>
+    <t>Tenho pavio curto com gente que não respeita fila</t>
+  </si>
+  <si>
+    <t>Me dá uma raiva forte quando respondem com arrogância</t>
+  </si>
+  <si>
+    <t>Fico possesso quando jogam a culpa em mim por coisa que não fiz</t>
+  </si>
+  <si>
+    <t>Me irrita profundamente quando alguém zoa o esforço dos outros</t>
+  </si>
+  <si>
+    <t>Dá um ódio ver gente empurrando só pra passar na frente</t>
+  </si>
+  <si>
+    <t>Não consigo lidar com quem fala alto no meio da explicação</t>
+  </si>
+  <si>
+    <t>Fico furioso quando desmancham algo que eu acabei de arrumar</t>
+  </si>
+  <si>
+    <t>Tenho ódio quando alguém pega meu lugar só pra provocar</t>
+  </si>
+  <si>
+    <t>Me irrita quando fazem drama por coisa pequena</t>
+  </si>
+  <si>
+    <t>Sinto uma raiva absurda quando prometem ajudar e somem</t>
+  </si>
+  <si>
+    <t>Detesto quando o professor chama atenção do nada sem motivo</t>
+  </si>
+  <si>
+    <t>Dá um ódio quando inventam história sobre você</t>
+  </si>
+  <si>
+    <t>Fico revoltado quando ignoram o esforço da turma inteira</t>
+  </si>
+  <si>
+    <t>Tenho raiva quando tratam o trabalho em grupo como brincadeira</t>
+  </si>
+  <si>
+    <t>Não suporto gente que fala pelas costas e na frente muda o tom</t>
+  </si>
+  <si>
+    <t>Dá um incômodo enorme quando alguém debocha de quem está nervoso</t>
+  </si>
+  <si>
+    <t>Fico indignado quando alguém passa a perna só pra ganhar ponto</t>
+  </si>
+  <si>
+    <t>Tenho ódio quando deixam tudo bagunçado e saem como se nada</t>
+  </si>
+  <si>
+    <t>Me irrita quando esquecem de combinar direito a atividade</t>
+  </si>
+  <si>
+    <t>Detesto quando alguém pede seu material e devolve quebrado</t>
+  </si>
+  <si>
+    <t>Dá uma raiva quando fazem você repetir a mesma coisa mil vezes</t>
+  </si>
+  <si>
+    <t>Fico furioso quando zombam do erro de alguém</t>
+  </si>
+  <si>
+    <t>Tenho ódio quando ficam disputando por coisa boba</t>
+  </si>
+  <si>
+    <t>Me irrita ver gente que não aceita perder na gincana</t>
+  </si>
+  <si>
+    <t>Detesto quando gritam só pra chamar atenção</t>
+  </si>
+  <si>
+    <t>Dá raiva demais quando cortam você no meio da fala</t>
+  </si>
+  <si>
+    <t>Não aguento quando fazem confusão por pura teimosia</t>
+  </si>
+  <si>
+    <t>Fico revoltado com quem não respeita as regras mais básicas</t>
+  </si>
+  <si>
+    <t>Tenho ódio quando ficam provocando até você perder a paciência</t>
+  </si>
+  <si>
+    <t>Me irrita quando tratam o outro mal só porque é quieto</t>
+  </si>
+  <si>
+    <t>Fico de saco cheio quando ninguém colabora</t>
+  </si>
+  <si>
+    <t>Tenho raiva quando fazem graça em hora séria</t>
+  </si>
+  <si>
+    <t>Dá um ódio quando alguém finge inocência depois de causar problema</t>
+  </si>
+  <si>
+    <t>Fico indignado quando mudam tudo em cima da hora</t>
+  </si>
+  <si>
+    <t>Não suporto quando desmerecem algo que você se esforçou pra fazer</t>
+  </si>
+  <si>
+    <t>O barulho no corredor me deixou apreensivo de imediato</t>
+  </si>
+  <si>
+    <t>Fiquei com medo quando a porta bateu sozinha na sala vazia</t>
+  </si>
+  <si>
+    <t>A discussão perto da escada me deixou em alerta</t>
+  </si>
+  <si>
+    <t>Senti um frio na barriga quando chamaram meu nome na diretoria</t>
+  </si>
+  <si>
+    <t>Fiquei receoso ao ver o grupo que sempre provoca se aproximando</t>
+  </si>
+  <si>
+    <t>A luz piscando no corredor me deixou inquieto</t>
+  </si>
+  <si>
+    <t>Tive um aperto no peito quando vi todo mundo olhando pra mim</t>
+  </si>
+  <si>
+    <t>A ideia de apresentar o trabalho me deixou nervoso na hora</t>
+  </si>
+  <si>
+    <t>Fiquei tenso quando ouvi passos atrás de mim no pátio vazio</t>
+  </si>
+  <si>
+    <t>A sala escura depois da aula sempre me deixa desconfortável</t>
+  </si>
+  <si>
+    <t>O silêncio repentino da turma me deu um receio estranho</t>
+  </si>
+  <si>
+    <t>Fiquei com medo de errar quando começaram a cochichar</t>
+  </si>
+  <si>
+    <t>A bronca do professor me deixou paralisado por alguns segundos</t>
+  </si>
+  <si>
+    <t>O jeito que o colega me encarou causou um medo imediato</t>
+  </si>
+  <si>
+    <t>A confusão perto da quadra me fez recuar sem pensar</t>
+  </si>
+  <si>
+    <t>Fiquei inseguro ao perceber que tinha perdido meu grupo na atividade</t>
+  </si>
+  <si>
+    <t>O barulho forte do lado de fora me pegou totalmente desprevenido</t>
+  </si>
+  <si>
+    <t>Fiquei com receio quando vi que a porta da sala não abria</t>
+  </si>
+  <si>
+    <t>O tumulto na fila me deixou com medo de cair</t>
+  </si>
+  <si>
+    <t>As luzes apagadas no pátio me deram um arrepio estranho</t>
+  </si>
+  <si>
+    <t>Fiquei nervoso quando pediram minha vez de falar</t>
+  </si>
+  <si>
+    <t>O comentário agressivo me deixou em alerta por horas</t>
+  </si>
+  <si>
+    <t>O professor rígido andando pela sala aumentou minha tensão</t>
+  </si>
+  <si>
+    <t>Fiquei com medo de mostrar meu desenho depois das risadinhas</t>
+  </si>
+  <si>
+    <t>O grito no corredor me deixou travado por um momento</t>
+  </si>
+  <si>
+    <t>A movimentação atrás da porta me deixou inquieto</t>
+  </si>
+  <si>
+    <t>O clima pesado da sala causou um receio silencioso em mim</t>
+  </si>
+  <si>
+    <t>Fiquei inseguro quando chamaram meu nome e ninguém explicou o motivo</t>
+  </si>
+  <si>
+    <t>O susto com a bola batendo na parede me fez gelar</t>
+  </si>
+  <si>
+    <t>Fiquei receoso com o tom da conversa no fundo da sala</t>
+  </si>
+  <si>
+    <t>O aviso de última hora sobre prova me deixou tenso</t>
+  </si>
+  <si>
+    <t>A ameaça de tirar ponto deixou todo mundo nervoso</t>
+  </si>
+  <si>
+    <t>Fiquei apavorado quando o colega começou a gritar do nada</t>
+  </si>
+  <si>
+    <t>A possibilidade de errar na leitura me deixou travado</t>
+  </si>
+  <si>
+    <t>O ambiente muito silencioso fez meu coração acelerar</t>
+  </si>
+  <si>
+    <t>Fiquei com medo de decepcionar o grupo no trabalho final</t>
+  </si>
+  <si>
+    <t>A sombra perto da janela me deixou inquieto por minutos</t>
+  </si>
+  <si>
+    <t>A conversa séria da coordenação deixou o ar pesado</t>
+  </si>
+  <si>
+    <t>Fiquei apreensivo quando a professora pediu para conversar depois da aula</t>
+  </si>
+  <si>
+    <t>O barulho vindo do banheiro vazio me deu um receio súbito</t>
+  </si>
+  <si>
+    <t>Tive medo de entrar no laboratório escuro sozinho</t>
+  </si>
+  <si>
+    <t>A possibilidade de perder o prazo me deixou ansioso demais</t>
+  </si>
+  <si>
+    <t>Fiquei inseguro quando percebi que todos me observavam</t>
+  </si>
+  <si>
+    <t>O olhar sério do professor me deixou desconfortável</t>
+  </si>
+  <si>
+    <t>A troca de turma me trouxe uma sensação estranha de incerteza</t>
+  </si>
+  <si>
+    <t>Fiquei com medo de não entender nada na explicação</t>
+  </si>
+  <si>
+    <t>O vento forte batendo na porta me assustou</t>
+  </si>
+  <si>
+    <t>A caminhada até a sala vazia me deixou inquieto</t>
+  </si>
+  <si>
+    <t>O suspense antes de receber a nota me deixou tenso</t>
+  </si>
+  <si>
+    <t>Fiquei apreensivo quando vi que meu nome estava na lista de chamados</t>
   </si>
 </sst>
 </file>
@@ -6488,13 +7356,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6797,10 +7671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2091" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2104" sqref="F2104"/>
+    <sheetView tabSelected="1" topLeftCell="A2362" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D2376" sqref="D2376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23868,6 +24742,2326 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2133" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2134" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2135" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2136" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2137" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2138" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2139" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2140" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2141" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2142" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2143" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2144" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2145" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2146" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2147" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2148" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2149" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2150" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2151" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2152" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2153" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2154" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2155" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2156" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B2156" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2157" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2158" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2159" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2160" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2161" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2162" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2163" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2164" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2165" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2166" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2167" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2168" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2169" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2170" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2171" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2172" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2173" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2174" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2175" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2176" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2177" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2178" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2179" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2180" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2181" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2182" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2183" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2184" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2185" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2186" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2187" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2188" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2189" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2190" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2191" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2192" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2193" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2194" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2195" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2196" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2197" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2198" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2199" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2200" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2201" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2202" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2203" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2204" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2205" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2206" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2207" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2208" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2209" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2210" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2211" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2212" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2213" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2214" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2215" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2216" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2217" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2218" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2219" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2220" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2221" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2222" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2223" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2224" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2225" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2226" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2227" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2228" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2229" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2230" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2231" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2232" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2233" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2234" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2235" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2236" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2237" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2238" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2239" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2240" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2241" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2242" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2243" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2244" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2245" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2246" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2247" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2248" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2249" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2250" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2251" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2252" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2253" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2254" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2255" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2256" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2257" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2258" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2259" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2260" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2261" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2262" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2263" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2264" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2265" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2266" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2267" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2268" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2269" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2270" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2271" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2272" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2273" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2274" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2275" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2276" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2277" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2278" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2279" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2280" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2281" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2282" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2283" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2284" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2285" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2286" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2287" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2288" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2289" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2290" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2291" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2292" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2293" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2294" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2295" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2296" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2297" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2298" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2299" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2300" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2301" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2302" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2303" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2304" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2305" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2306" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2307" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2308" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2309" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2310" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2311" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2312" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2313" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2314" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2315" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2316" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2317" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2318" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2319" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2320" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2321" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2322" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2323" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2324" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2325" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2326" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2327" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2328" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2329" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2330" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2331" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2332" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2333" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2334" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2335" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2336" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2337" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2338" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2339" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2340" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2341" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2342" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2343" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2344" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2345" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2346" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2347" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2348" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2349" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2350" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2351" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2352" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2353" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2354" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2355" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2356" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2357" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2358" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2359" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2360" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2361" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2362" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2363" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2364" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2365" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2366" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2367" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2368" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2369" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2370" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2371" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2372" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2373" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2374" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2375" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2376" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2377" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2378" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2379" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2380" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2381" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2382" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2383" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2384" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2385" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2386" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2387" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2388" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2389" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2390" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2391" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2392" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2393" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2394" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2395" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2396" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2397" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2398" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2399" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2400" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2401" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2402" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2403" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2404" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2405" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2406" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2407" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2408" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2409" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2410" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2411" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2412" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2413" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2414" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2415" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2416" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2417" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2418" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2419" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2420" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2421" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2422" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6416" uniqueCount="3210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6022" uniqueCount="3013">
   <si>
     <t>frase</t>
   </si>
@@ -9062,597 +9062,6 @@
   </si>
   <si>
     <t>A sensação de algo fora do lugar não saiu de mim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei muito feliz quando vi meu boletim melhorando esse semestre. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foi uma surpresa boa ver aquela nota alta que eu não estava esperando. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu esforço finalmente apareceu nas estatísticas da turma, fiquei orgulhoso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A professora elogiou meu desempenho e isso fez meu dia. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receber aquele dez na prova foi a melhor sensação da semana. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adorei ver que eu subi no ranking da sala, deu até um gás para estudar mais. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minha média fechou acima do que eu imaginava, estou radiante. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quando abri o boletim e vi tudo verde, sorri na hora. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consegui a nota que eu queria e me deu uma sensação boa demais. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A aprovação veio com louvor, estou realmente feliz. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminar o trimestre com média alta me deixou leve. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minha evolução na estatística da escola me deixou motivado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gostei de ver meu nome na lista dos melhores desempenhos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passei por média e isso melhorou completamente meu humor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota do trabalho saiu ótima, fiquei todo bobo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu boletim veio impecável e eu fiquei muito satisfeito. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subi dois pontos na média e isso tornou meu dia mais alegre. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recebi parabéns pelo desempenho e fiquei emocionado de alegria. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquela nota alta foi o presente que eu precisava. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver minhas estatísticas de estudo melhorando me deixou animado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminei o bimestre com orgulho do meu esforço. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu gráfico de notas ficou lindo, até tirei print. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A média final veio maior que o esperado e isso me fez sorrir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O boletim veio bem melhor que o do ano passado, fiquei muito contente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passei direto e meu coração ficou leve. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receber aquele nove foi um alívio gostoso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A professora disse que meu progresso foi excelente e fiquei iluminado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me senti bem demais vendo meu boletim arrumado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depois de tanto estudar, ver aquela nota alta foi uma alegria enorme. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fechei a média com tranquilidade e fiquei feliz demais. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O gráfico do meu desempenho subiu e me deixou animado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de ver tudo acima da média foi maravilhosa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu boletim veio perfeito, parecia até mentira. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A escola divulgou as estatísticas e eu fiquei entre os melhores, vibrei. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu trabalho recebeu nota máxima e isso me deu um orgulho gigante. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota da recuperação veio ótima e me senti renascido. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foi incrível ver meu progresso registrado no boletim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quando vi a média final, eu comemorei sozinho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu desempenho foi elogiado na reunião e fiquei feliz. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As estatísticas mostraram que melhorei muito e isso me animou. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei contente por não ter nenhuma pendência no boletim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota saiu melhor do que o previsto e fiquei muito satisfeito. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu gráfico de desempenho subiu lindo, fiquei todo feliz. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A coordenação me parabenizou e fiquei radiante. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminei o semestre com orgulho real de mim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de ver notas altas é indescritível. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei feliz quando vi minha média subir no sistema. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu boletim veio só com coisas boas, fiquei animado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subi na estatística da turma e fiquei muito alegre. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu boletim veio cheio de notas baixas e isso me deixou para baixo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver aquela média despencando me deu uma sensação ruim demais. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei triste quando vi que meu esforço não apareceu no boletim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota baixa me deixou com um aperto no peito. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de ficar abaixo da média é dolorosa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu gráfico de desempenho caiu e isso mexeu comigo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver que eu piorei nas estatísticas me deixou desanimado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei chateado ao ver meu boletim cheio de vermelho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A média final ficou muito abaixo do que eu esperava e isso me abalou. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu nome não apareceu entre os aprovados e isso doeu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A professora comentou que meu desempenho caiu e eu me senti pequeno. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudar tanto e tirar nota baixa machuca. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O boletim veio pior do que o do ano passado e isso me deixou abatido. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senti um vazio ao ver aquela reprovação. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota mínima escapou por pouco e isso me deixou triste. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu rendimento caiu e eu não sei como melhorar, isso pesa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As estatísticas mostraram minha queda e eu perdi o ânimo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei realmente triste por não ter atingido a média. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu gráfico de notas só desceu e isso me desmotivou. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver aquela nota vermelha mexeu com meu emocional. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei mal quando vi que fiquei entre os piores desempenhos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu boletim me deu uma sensação de fracasso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A avaliação final me tirou totalmente a esperança. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu desempenho caiu demais e isso me fez sentir incapaz. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota ruim estragou meu dia. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A correção veio dura e me deixou abatido. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu boletim virou um lembrete da minha dificuldade. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O feedback negativo me deixou triste. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de ficar de recuperação é horrível. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senti um aperto quando vi meu nome na lista dos reprovados. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A estatística da turma mostrou meu desempenho fraco e isso me doeu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu gráfico caiu tanto que fiquei desanimado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não consegui atingir o que queria e isso partiu meu coração. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei triste por perder pontos bobos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu boletim me fez sentir que eu não sou suficiente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota destruída arruinou minha motivação. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu rendimento está caindo e isso me deixa mal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei devastado com a média final. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O peso das notas baixas me deixou sem forças. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de fracasso veio forte quando abri o boletim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu desempenho despencou e isso mexeu comigo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota baixa me tirou completamente a alegria. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei muito triste ao ver minha situação no sistema. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu gráfico negativo foi como uma pancada. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não atingir a meta foi doloroso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver o boletim cheio de erros me desanimou muito. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu rendimento ruim me fez perder a vontade. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A média baixa me deixou desolado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senti tristeza profunda ao ver o resultado final. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As estatísticas me colocaram entre os piores e isso doeu demais. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com muita raiva quando vi que corrigiram minha prova errado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquela nota injusta me deixou fervendo de irritação. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu boletim veio completamente errado e isso me tirou do sério. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei furioso porque a professora descontou ponto sem motivo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bagunça nas estatísticas da escola me deixou indignado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota foi lançada errada de novo, que raiva disso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me deu ódio ver que jogaram minha média lá embaixo por descuido. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A inconsistência na correção me irritou profundamente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei revoltado quando vi aquele erro no sistema. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A demora para atualizar minhas notas me deixou irritado o dia inteiro. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O boletim veio com falhas absurdas, fiquei indignado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A injustiça daquela avaliação me deixou furioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver aquela correção absurda me deu raiva real. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bagunça nas estatísticas da turma me tirou a paciência. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu gráfico despencou por erro deles e isso me deixou irritado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A coordenadora ignorou minha reclamação e fiquei furioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foi revoltante ver que mudaram minha nota sem explicação. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A plataforma caiu bem na hora da prova, fiquei irritado demais. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com raiva quando vi que somaram meus pontos errado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A forma como avaliaram o trabalho foi ridícula e irritante. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota injusta estragou meu humor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei irritado com a desorganização do boletim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu desempenho despencou por erro deles, isso me deu muita raiva. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A avaliação toda foi uma piada de tão mal feita. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei revoltado ao ver que revisaram minha prova por cima. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A demora para liberar as notas me deixou indignado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortaram ponto sem explicação e eu fiquei furioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A confusão no sistema tirou minha paciência. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota veio errada pela terceira vez, que inferno. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com raiva porque ignoraram minha dúvida na correção. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A forma injusta como avaliaram a turma me deixou irritado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mudança repentina na média mínima me deixou furioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei irritado porque não calcularam minha nota direito. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O boletim veio completamente bagunçado, que ódio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A avaliação sem critério algum me tirou do sério. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu nome apareceu como reprovado por erro deles, fiquei furioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As estatísticas estavam totalmente erradas e isso me irritou. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A média final foi calculada errado e me deixou revoltado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema travou na hora que eu ia enviar o trabalho, fiquei com raiva. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A desorganização do processo me deixou indignado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foi irritante ver que não atualizaram minhas notas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A injustiça daquela correção me deixou furioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me deu raiva ver que ignoraram meu pedido de revisão. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atrapalharam meu desempenho por descuido e isso me irritou. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O erro no boletim foi ridículo e me deixou revoltado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei impaciente com a demora da escola. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota absurda que colocaram mexeu com minha paciência. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema apagou meu trabalho e isso me deu ódio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A forma ineficiente de lançar notas me deixou indignado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com medo de abrir o boletim e ver nota baixa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ansiedade bateu forte quando divulgaram as estatísticas da turma. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive receio de descobrir que fiquei abaixo da média. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei apreensivo esperando a nota sair. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de não saber se passei me deixou tenso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com medo de reprovar por causa daquela prova difícil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A incerteza da média final me deixou nervoso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive medo de ver meu nome na lista dos reprovados. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A expectativa pela nota me deixou inquieto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei receoso porque não sei se fui bem. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A estatística da sala me deixou preocupado com meu desempenho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tremei quando informaram que o boletim estava disponível. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com medo de abrir o sistema e ver tudo vermelho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A insegurança tomou conta enquanto esperava a correção. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me deu medo quando vi que a recuperação seria difícil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com receio da nova média mínima. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A professora avisou que a prova foi difícil e fiquei tenso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A incerteza da nota me deixou com medo de decepcionar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive receio de perder a vaga por causa da média. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A possibilidade de reprovar me deixou assustado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei aflito enquanto atualizava a página das notas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A estatística do meu desempenho me deixou inseguro. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive medo de não atingir o mínimo exigido. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O silêncio da escola sobre as notas me deixou nervoso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A falta de transparência nas estatísticas me deixou apreensivo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com medo de abrir o relatório final. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A expectativa pela prova de recuperação me deixou ansioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive medo de descobrir que fiquei em último na sala. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O gráfico de desempenho me deixou preocupado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei apreensivo com o resultado da última avaliação. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A possibilidade de ter ido mal me deixou inquieto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive receio da reunião de pais, por causa das notas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com medo de ser reprovado no final. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A falta de informação sobre a média me deixou inseguro. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A incerteza sobre o boletim final me assustou. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei tenso esperando o sistema atualizar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nota do trabalho me deixou nervoso antes mesmo de ver. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei com medo de que o erro no sistema derrubasse minha média. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A possibilidade de perder a aprovação me deixou ansioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive receio porque não consegui responder tudo na prova. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A espera pela nota final foi assustadora. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei inquieto com as estatísticas mostrando queda no meu desempenho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A incerteza sobre a correção me deixou apreensivo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive medo de abrir o boletim sozinho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de que fiz uma prova ruim me deixou ansioso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei nervoso quando falaram que a turma foi mal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tive receio de não alcançar a média por pouco. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiquei preocupado porque a prova valia muito. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tensão da semana de notas me deixou aflito. </t>
   </si>
 </sst>
 </file>
@@ -10031,10 +9440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3208"/>
+  <dimension ref="A1:I3166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3061" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B3043" sqref="B3043"/>
+    <sheetView tabSelected="1" topLeftCell="A3000" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B3011" sqref="B3011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34135,1582 +33544,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3012" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3012" t="s">
-        <v>3013</v>
-      </c>
-      <c r="B3012" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3013" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3013" t="s">
-        <v>3014</v>
-      </c>
-      <c r="B3013" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3014" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3014" t="s">
-        <v>3015</v>
-      </c>
-      <c r="B3014" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3015" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3015" t="s">
-        <v>3016</v>
-      </c>
-      <c r="B3015" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3016" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3016" t="s">
-        <v>3017</v>
-      </c>
-      <c r="B3016" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3017" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3017" t="s">
-        <v>3018</v>
-      </c>
-      <c r="B3017" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3018" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3018" t="s">
-        <v>3019</v>
-      </c>
-      <c r="B3018" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3019" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3019" t="s">
-        <v>3020</v>
-      </c>
-      <c r="B3019" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3020" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3020" t="s">
-        <v>3021</v>
-      </c>
-      <c r="B3020" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3021" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3021" t="s">
-        <v>3022</v>
-      </c>
-      <c r="B3021" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3022" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3022" t="s">
-        <v>3023</v>
-      </c>
-      <c r="B3022" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3023" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3023" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B3023" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3024" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3024" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B3024" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3025" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3025" t="s">
-        <v>3026</v>
-      </c>
-      <c r="B3025" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3026" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3026" t="s">
-        <v>3027</v>
-      </c>
-      <c r="B3026" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3027" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3027" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B3027" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3028" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3028" t="s">
-        <v>3029</v>
-      </c>
-      <c r="B3028" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3029" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3029" t="s">
-        <v>3030</v>
-      </c>
-      <c r="B3029" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3030" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3030" t="s">
-        <v>3031</v>
-      </c>
-      <c r="B3030" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3031" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3031" t="s">
-        <v>3032</v>
-      </c>
-      <c r="B3031" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3032" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3032" t="s">
-        <v>3033</v>
-      </c>
-      <c r="B3032" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3033" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3033" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B3033" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3034" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3034" t="s">
-        <v>3035</v>
-      </c>
-      <c r="B3034" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3035" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3035" t="s">
-        <v>3036</v>
-      </c>
-      <c r="B3035" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3036" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3036" t="s">
-        <v>3037</v>
-      </c>
-      <c r="B3036" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3037" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3037" t="s">
-        <v>3038</v>
-      </c>
-      <c r="B3037" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3038" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3038" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B3038" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3039" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3039" t="s">
-        <v>3040</v>
-      </c>
-      <c r="B3039" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3040" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3040" t="s">
-        <v>3041</v>
-      </c>
-      <c r="B3040" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3041" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3041" t="s">
-        <v>3042</v>
-      </c>
-      <c r="B3041" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3042" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3042" t="s">
-        <v>3043</v>
-      </c>
-      <c r="B3042" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3043" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3043" t="s">
-        <v>3044</v>
-      </c>
-      <c r="B3043" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3044" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3044" t="s">
-        <v>3045</v>
-      </c>
-      <c r="B3044" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3045" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3045" t="s">
-        <v>3046</v>
-      </c>
-      <c r="B3045" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3046" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3046" t="s">
-        <v>3047</v>
-      </c>
-      <c r="B3046" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3047" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3047" t="s">
-        <v>3048</v>
-      </c>
-      <c r="B3047" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3048" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3048" t="s">
-        <v>3049</v>
-      </c>
-      <c r="B3048" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3049" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3049" t="s">
-        <v>3050</v>
-      </c>
-      <c r="B3049" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3050" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3050" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B3050" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3051" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3051" t="s">
-        <v>3052</v>
-      </c>
-      <c r="B3051" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3052" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3052" t="s">
-        <v>3053</v>
-      </c>
-      <c r="B3052" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3053" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3053" t="s">
-        <v>3054</v>
-      </c>
-      <c r="B3053" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3054" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3054" t="s">
-        <v>3055</v>
-      </c>
-      <c r="B3054" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3055" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3055" t="s">
-        <v>3056</v>
-      </c>
-      <c r="B3055" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3056" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3056" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B3056" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3057" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3057" t="s">
-        <v>3058</v>
-      </c>
-      <c r="B3057" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3058" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3058" t="s">
-        <v>3059</v>
-      </c>
-      <c r="B3058" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3059" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3059" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B3059" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3060" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3060" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B3060" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3061" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3061" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B3061" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3062" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3062" t="s">
-        <v>3063</v>
-      </c>
-      <c r="B3062" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3063" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3063" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B3063" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3064" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3064" t="s">
-        <v>3065</v>
-      </c>
-      <c r="B3064" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3065" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3065" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B3065" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3066" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3066" t="s">
-        <v>3067</v>
-      </c>
-      <c r="B3066" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3067" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3067" t="s">
-        <v>3068</v>
-      </c>
-      <c r="B3067" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3068" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3068" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B3068" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3069" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3069" t="s">
-        <v>3070</v>
-      </c>
-      <c r="B3069" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3070" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3070" t="s">
-        <v>3071</v>
-      </c>
-      <c r="B3070" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3071" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3071" t="s">
-        <v>3072</v>
-      </c>
-      <c r="B3071" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3072" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3072" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B3072" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3073" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3073" t="s">
-        <v>3074</v>
-      </c>
-      <c r="B3073" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3074" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3074" t="s">
-        <v>3075</v>
-      </c>
-      <c r="B3074" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3075" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3075" t="s">
-        <v>3076</v>
-      </c>
-      <c r="B3075" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3076" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3076" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B3076" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3077" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3077" t="s">
-        <v>3078</v>
-      </c>
-      <c r="B3077" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3078" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3078" t="s">
-        <v>3079</v>
-      </c>
-      <c r="B3078" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3079" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3079" t="s">
-        <v>3080</v>
-      </c>
-      <c r="B3079" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3080" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3080" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B3080" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3081" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3081" t="s">
-        <v>3082</v>
-      </c>
-      <c r="B3081" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3082" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3082" t="s">
-        <v>3083</v>
-      </c>
-      <c r="B3082" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3083" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3083" t="s">
-        <v>3084</v>
-      </c>
-      <c r="B3083" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3084" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3084" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B3084" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3085" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3085" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B3085" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3086" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3086" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B3086" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3087" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3087" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B3087" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3088" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3088" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B3088" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3089" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3089" t="s">
-        <v>3090</v>
-      </c>
-      <c r="B3089" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3090" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3090" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B3090" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3091" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3091" t="s">
-        <v>3092</v>
-      </c>
-      <c r="B3091" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3092" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3092" t="s">
-        <v>3093</v>
-      </c>
-      <c r="B3092" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3093" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3093" t="s">
-        <v>3094</v>
-      </c>
-      <c r="B3093" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3094" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3094" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B3094" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3095" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3095" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B3095" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3096" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3096" t="s">
-        <v>3097</v>
-      </c>
-      <c r="B3096" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3097" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3097" t="s">
-        <v>3098</v>
-      </c>
-      <c r="B3097" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3098" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3098" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B3098" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3099" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3099" t="s">
-        <v>3100</v>
-      </c>
-      <c r="B3099" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3100" t="s">
-        <v>3101</v>
-      </c>
-      <c r="B3100" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3101" t="s">
-        <v>3102</v>
-      </c>
-      <c r="B3101" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3102" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B3102" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3103" t="s">
-        <v>3104</v>
-      </c>
-      <c r="B3103" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3104" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B3104" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3105" t="s">
-        <v>3106</v>
-      </c>
-      <c r="B3105" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3106" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B3106" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3107" t="s">
-        <v>3108</v>
-      </c>
-      <c r="B3107" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3108" t="s">
-        <v>3109</v>
-      </c>
-      <c r="B3108" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3109" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B3109" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3110" t="s">
-        <v>3111</v>
-      </c>
-      <c r="B3110" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3111" t="s">
-        <v>3112</v>
-      </c>
-      <c r="B3111" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3112" t="s">
-        <v>3113</v>
-      </c>
-      <c r="B3112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3113" t="s">
-        <v>3114</v>
-      </c>
-      <c r="B3113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3114" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B3114" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3115" t="s">
-        <v>3116</v>
-      </c>
-      <c r="B3115" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3116" t="s">
-        <v>3117</v>
-      </c>
-      <c r="B3116" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3117" t="s">
-        <v>3118</v>
-      </c>
-      <c r="B3117" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3118" t="s">
-        <v>3119</v>
-      </c>
-      <c r="B3118" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3119" t="s">
-        <v>3120</v>
-      </c>
-      <c r="B3119" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3120" t="s">
-        <v>3121</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3121" t="s">
-        <v>3122</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3122" t="s">
-        <v>3123</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3123" t="s">
-        <v>3124</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3124" t="s">
-        <v>3125</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3125" t="s">
-        <v>3126</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3126" t="s">
-        <v>3127</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3127" t="s">
-        <v>3128</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3128" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3129" t="s">
-        <v>3130</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3130" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3131" t="s">
-        <v>3132</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3132" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3133" t="s">
-        <v>3134</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3134" t="s">
-        <v>3135</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3135" t="s">
-        <v>3136</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3136" t="s">
-        <v>3137</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3137" t="s">
-        <v>3138</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3138" t="s">
-        <v>3139</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3139" t="s">
-        <v>3140</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3140" t="s">
-        <v>3141</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3141" t="s">
-        <v>3142</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3142" t="s">
-        <v>3143</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3143" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3144" t="s">
-        <v>3145</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3145" t="s">
-        <v>3146</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3146" t="s">
-        <v>3147</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3147" t="s">
-        <v>3148</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3148" t="s">
-        <v>3149</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3149" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3150" t="s">
-        <v>3151</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3151" t="s">
-        <v>3152</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3152" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3153" t="s">
-        <v>3154</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3154" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3155" t="s">
-        <v>3156</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3156" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3157" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3158" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3159" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3160" t="s">
-        <v>3161</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3161" t="s">
-        <v>3162</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3162" t="s">
-        <v>3163</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3163" t="s">
-        <v>3164</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3164" t="s">
-        <v>3165</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3165" t="s">
-        <v>3166</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3166" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>159</v>
-      </c>
+    <row r="3166" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D3166" s="2"/>
-    </row>
-    <row r="3167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3167" t="s">
-        <v>3168</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3168" t="s">
-        <v>3169</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3169" t="s">
-        <v>3170</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3170" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3171" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3172" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3173" t="s">
-        <v>3174</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3174" t="s">
-        <v>3175</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3175" t="s">
-        <v>3176</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3176" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3177" t="s">
-        <v>3178</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3178" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3179" t="s">
-        <v>3180</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3180" t="s">
-        <v>3181</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3181" t="s">
-        <v>3182</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3182" t="s">
-        <v>3183</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3183" t="s">
-        <v>3184</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3184" t="s">
-        <v>3185</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3185" t="s">
-        <v>3186</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3186" t="s">
-        <v>3187</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3187" t="s">
-        <v>3188</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3188" t="s">
-        <v>3189</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3189" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3190" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3191" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3192" t="s">
-        <v>3193</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3193" t="s">
-        <v>3194</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3194" t="s">
-        <v>3195</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3195" t="s">
-        <v>3196</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3196" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3197" t="s">
-        <v>3198</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3198" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3199" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3200" t="s">
-        <v>3201</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3201" t="s">
-        <v>3202</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3202" t="s">
-        <v>3203</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3203" t="s">
-        <v>3204</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3204" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3205" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3206" t="s">
-        <v>3207</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3207" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3208" t="s">
-        <v>3209</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>159</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6022" uniqueCount="3013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4942" uniqueCount="2473">
   <si>
     <t>frase</t>
   </si>
@@ -7442,1626 +7442,6 @@
   </si>
   <si>
     <t>Cada gesto parece mais distante do que costumava ser</t>
-  </si>
-  <si>
-    <t>Cada palavra dele soou como faísca prestes a virar incêndio</t>
-  </si>
-  <si>
-    <t>A paciência evaporou antes que eu pudesse segurar</t>
-  </si>
-  <si>
-    <t>Meu sangue ferveu com a arrogância daquela resposta</t>
-  </si>
-  <si>
-    <t>A injustiça dessa situação me queimou por dentro</t>
-  </si>
-  <si>
-    <t>A forma como me trataram acendeu um incômodo imediato</t>
-  </si>
-  <si>
-    <t>As provocações foram empilhadas até virarem explosão</t>
-  </si>
-  <si>
-    <t>O desrespeito foi tão claro que quase iluminou o ambiente</t>
-  </si>
-  <si>
-    <t>Minha vontade era cortar aquela conversa pela raiz</t>
-  </si>
-  <si>
-    <t>A sensação de ser passado para trás me atingiu em cheio</t>
-  </si>
-  <si>
-    <t>A atitude dele foi tão absurda que meu corpo endureceu</t>
-  </si>
-  <si>
-    <t>A frustração transbordou antes que eu organizasse meus pensamentos</t>
-  </si>
-  <si>
-    <t>Falaram como se eu não tivesse voz, e isso queimou</t>
-  </si>
-  <si>
-    <t>A grosseria me atravessou como uma lâmina sem aviso</t>
-  </si>
-  <si>
-    <t>Cada gesto daquela pessoa parecia um convite ao confronto</t>
-  </si>
-  <si>
-    <t>Me controlei para não dizer tudo que subiu à garganta</t>
-  </si>
-  <si>
-    <t>A falta de respeito ali era quase palpável</t>
-  </si>
-  <si>
-    <t>A hipocrisia do discurso despertou uma fúria imediata</t>
-  </si>
-  <si>
-    <t>O descaso deles me deixou em ponto de ebulição</t>
-  </si>
-  <si>
-    <t>A provocação gratuita merecia uma resposta dura</t>
-  </si>
-  <si>
-    <t>A cara de pau foi tamanha que não deu para disfarçar o incômodo</t>
-  </si>
-  <si>
-    <t>O abuso de autoridade acendeu uma revolta legítima</t>
-  </si>
-  <si>
-    <t>A conversa tomou um rumo tão absurdo que perdi o ar</t>
-  </si>
-  <si>
-    <t>A mentira que contaram me acertou como um soco</t>
-  </si>
-  <si>
-    <t>A falta de responsabilidade deles me enfureceu</t>
-  </si>
-  <si>
-    <t>Segurei firme para não explodir no meio da discussão</t>
-  </si>
-  <si>
-    <t>A atitude infantil ali irritaria até um santo</t>
-  </si>
-  <si>
-    <t>Parecia que estavam jogando gasolina na minha paciência</t>
-  </si>
-  <si>
-    <t>O deboche dele bateu como tapa no rosto</t>
-  </si>
-  <si>
-    <t>A situação inteira gritava desrespeito</t>
-  </si>
-  <si>
-    <t>A acusação injusta me inflamou na hora</t>
-  </si>
-  <si>
-    <t>Cada interrupção era um golpe no meu limite</t>
-  </si>
-  <si>
-    <t>A falta de consideração virou o estopim da confusão</t>
-  </si>
-  <si>
-    <t>A arrogância daquele sorriso foi provocação pura</t>
-  </si>
-  <si>
-    <t>O tom autoritário acendeu uma chama imediata</t>
-  </si>
-  <si>
-    <t>Minha calma rachou com aquele comentário</t>
-  </si>
-  <si>
-    <t>O caos que criaram me tirou do eixo</t>
-  </si>
-  <si>
-    <t>A grosseria continuada era uma tortura sonora</t>
-  </si>
-  <si>
-    <t>A negligência deles foi a gota d’água</t>
-  </si>
-  <si>
-    <t>A discussão virou um campo minado em segundos</t>
-  </si>
-  <si>
-    <t>O sarcasmo usado ali era veneno direto</t>
-  </si>
-  <si>
-    <t>O abuso emocional deles bateu forte e rápido</t>
-  </si>
-  <si>
-    <t>O descontrole deles puxou o meu</t>
-  </si>
-  <si>
-    <t>A crítica injusta ativou um impulso quente no peito</t>
-  </si>
-  <si>
-    <t>A prepotência daquela atitude provocou um choque interno</t>
-  </si>
-  <si>
-    <t>O deboche se acumulou até virar tempestade</t>
-  </si>
-  <si>
-    <t>A invasão do meu espaço estourou minhas barreiras</t>
-  </si>
-  <si>
-    <t>A conversa virou confronto sem aviso</t>
-  </si>
-  <si>
-    <t>O desprezo explícito deles mexeu com meus limites</t>
-  </si>
-  <si>
-    <t>A situação era tão absurda que me incendiou por completo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma onda boa atravessou meu dia de ponta a ponta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O riso veio fácil, quase espontâneo demais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A energia ao meu redor parecia dançar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Até as pequenas coisas brilharam mais que o normal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A luz da manhã entrou como um abraço </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O ar parecia mais leve, como se colaborasse comigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A música que tocou combinou exatamente com meu humor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A conversa fluiu tão bem que virou lembrança imediata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sol bateu no rosto e acendeu algo dentro de mim </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A vida parecia em ritmo acelerado, mas de um jeito bom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma vontade de viver mais forte tomou conta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sorriso escapou antes que eu percebesse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O ambiente parecia iluminado de dentro para fora </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de pertencimento me acompanhou o dia inteiro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O encontro inesperado virou momento especial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O mundo parecia alinhado aos meus passos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O café parecia mais saboroso do que de costume </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rua parecia cantar enquanto eu caminhava </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A paz no peito se espalhou devagar, mas firme </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O toque da brisa soou como um convite para aproveitar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tudo cooperou para que o clima ficasse harmônico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A conversa leve me deixou radiante </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os detalhes da paisagem pareceram mais nítidos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O riso de alguém ao lado me contagiou </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O dia ganhou ritmo próprio, quase festivo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu corpo parecia sincronizado com o momento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algo bom floresceu sem motivo específico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A saudade de ontem virou encanto no presente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O movimento da cidade parecia uma coreografia bonita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma tranquilidade quente percorreu todo meu peito </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O céu aberto parecia um sinal positivo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus pensamentos caminharam em harmonia incomum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O reencontro iluminou meu humor instantaneamente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A espontaneidade tomou conta da minha fala </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A leveza do ambiente fez tudo ficar mais simples </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A presença das pessoas queridas elevou meu ânimo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma sensação de conquista pairou no ar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tudo pareceu se encaixar com precisão </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A espontaneidade do momento virou piada interna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O clima amistoso tornou a conversa deliciosa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O barulho da rua soou como trilha sonora perfeita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Até o vento parecia cooperar comigo hoje </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O brilho das cores chamou minha atenção de imediato </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A caminhada rendeu pensamentos positivos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A troca de olhares rendeu um sorriso involuntário </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu corpo vibrou com uma energia renovada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de acolhimento apareceu sem convite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O encontro improvisado salvou meu dia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A animação tomou conta sem esforço </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A vida parecia pulsar de um jeito bonito demais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um arrepio percorreu minhas costas sem explicação clara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de estar sendo observado me deixou em alerta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O barulho inesperado fez meu coração disparar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As sombras no corredor pareciam se mover </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O silêncio repentino da casa me inquietou </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rua vazia soava como promessa de perigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A porta rangendo soou como aviso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O vento batendo parecia uma presença tentando entrar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A escuridão tornou cada passo mais difícil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O relógio marcava horas estranhas enquanto eu esperava </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualquer som pequeno parecia gigante no meu ouvido </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de que algo estava errado não saiu do meu corpo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os ruídos distantes ativaram meu instinto de defesa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A luz piscando deixou o ambiente ameaçador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O corredor longo demais ampliava a tensão </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O coração batia tão rápido que parecia denunciar minha posição </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de perseguição cresceu sem motivo aparente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O eco dos meus passos não parecia meu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A porta entreaberta criou mil cenários na minha cabeça </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A respiração ficou curta sem eu querer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As janelas tremiam como se alguém tentasse entrar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A noite estava silenciosa demais para ser comum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O farfalhar das folhas pareceu um aviso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O caminho escuro parecia dobrar de tamanho </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rua deserta me obrigou a acelerar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As luzes apagadas criaram sombras perturbadoras </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada estalo no chão soou como ameaça </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de perigo iminente não me deixou raciocinar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O clima pesado do lugar pressionou meu peito </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus passos hesitaram ao ouvir aquele som distante </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um instinto estranho me fez recuar imediatamente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A presença invisível parecia acompanhar cada movimento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O ambiente parecia respirar comigo, num ritmo desconfortável </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A porta fechada atrás de mim ecoou como sentença </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O vento forte fez a casa tremer como se estivesse viva </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sensação de risco tomou conta antes de eu entender a causa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O breu tornou tudo desconhecido </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada objeto parecia estar fora do lugar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A expectativa de algo ruim apertou meu estômago </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os ruídos repetidos criaram uma tensão insuportável </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A escuridão parecia esconder algo à espreita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A incerteza do próximo passo paralisou minhas pernas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O clima estranho do momento ativou meus instintos de proteção </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O corredor iluminado demais parecia um palco de susto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O silêncio absoluto deu a impressão de emboscada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O vento contra as portas parecia alguém batendo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A noite inteira trouxe uma sensação de risco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A atmosfera pesada me deixou completamente alerta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O som metálico ecoou como ameaça direta </t>
-  </si>
-  <si>
-    <t>Fico indignado de ver a rua sempre escura e ninguém resolver</t>
-  </si>
-  <si>
-    <t>A polícia passou direto enquanto o cara corria com a mochila</t>
-  </si>
-  <si>
-    <t>Me irrita ter que andar com medo todo dia</t>
-  </si>
-  <si>
-    <t>Ver gente sendo assaltada e nada mudar me revolta</t>
-  </si>
-  <si>
-    <t>O bairro vive largado e ninguém se responsabiliza</t>
-  </si>
-  <si>
-    <t>A notícia de outro roubo me deixou furioso</t>
-  </si>
-  <si>
-    <t>É revoltante ver a mesma quadrilha agindo e nada acontecer</t>
-  </si>
-  <si>
-    <t>Onda de assaltos e todo mundo finge que tá tudo bem</t>
-  </si>
-  <si>
-    <t>O buraco na rua virou ponto pra ladrão e ninguém arruma</t>
-  </si>
-  <si>
-    <t>A falta de respeito com quem trabalha me deixa possesso</t>
-  </si>
-  <si>
-    <t>É absurdo ver idosos sendo alvo desses caras</t>
-  </si>
-  <si>
-    <t>Aqui a gente paga imposto e não recebe segurança nenhuma</t>
-  </si>
-  <si>
-    <t>A prefeitura promete iluminação e não entrega</t>
-  </si>
-  <si>
-    <t>A sensação de abandono público me deixa irritado demais</t>
-  </si>
-  <si>
-    <t>Já cansei dessa palhaçada de assalto toda semana</t>
-  </si>
-  <si>
-    <t>É revoltante saber que o cara roubou e saiu ileso</t>
-  </si>
-  <si>
-    <t>A falta de patrulha na região me tira do sério</t>
-  </si>
-  <si>
-    <t>Sempre avisam que vão reforçar a segurança e nada muda</t>
-  </si>
-  <si>
-    <t>Ver câmeras quebradas me deixa indignado</t>
-  </si>
-  <si>
-    <t>A demora pra atender ocorrência é ridícula</t>
-  </si>
-  <si>
-    <t>Essa sensação de descaso com o bairro é insuportável</t>
-  </si>
-  <si>
-    <t>Quando ouvi que roubaram de novo na esquina, explodi por dentro</t>
-  </si>
-  <si>
-    <t>É revoltante ver o comércio sofrendo sem apoio nenhum</t>
-  </si>
-  <si>
-    <t>Qualquer um vê que a rua precisa de policiamento, menos quem decide</t>
-  </si>
-  <si>
-    <t>As autoridades só aparecem quando interessa</t>
-  </si>
-  <si>
-    <t>O cara roubou em plena luz do dia e ninguém fez nada</t>
-  </si>
-  <si>
-    <t>Fico indignado quando falam que “é normal”</t>
-  </si>
-  <si>
-    <t>A sensação de impunidade me consome</t>
-  </si>
-  <si>
-    <t>Fico irritado com a falta de empatia das autoridades</t>
-  </si>
-  <si>
-    <t>A rua cheia de mato virou esconderijo pra ladrão</t>
-  </si>
-  <si>
-    <t>Essa negligência toda com a segurança é revoltante</t>
-  </si>
-  <si>
-    <t>Ver gente sofrendo e o governo parado me tira do sério</t>
-  </si>
-  <si>
-    <t>Os furtos na região aumentam e nada é feito</t>
-  </si>
-  <si>
-    <t>A postura de “não dá pra fazer nada” me irrita profundamente</t>
-  </si>
-  <si>
-    <t>Ouvir que “é só evitar sair à noite” me deixa furioso</t>
-  </si>
-  <si>
-    <t>Já estou cansado dessa sensação de abandono estatal</t>
-  </si>
-  <si>
-    <t>Ver a viatura passar sem abordar ninguém me irrita</t>
-  </si>
-  <si>
-    <t>É revoltante como tratam a segurança como último plano</t>
-  </si>
-  <si>
-    <t>A cidade está largada e ninguém assume culpa</t>
-  </si>
-  <si>
-    <t>Fico irritado com a demora nas investigações</t>
-  </si>
-  <si>
-    <t>Alguns locais parecem feitos pra dar errado</t>
-  </si>
-  <si>
-    <t>A quantidade de roubo no transporte público é absurda</t>
-  </si>
-  <si>
-    <t>Todo mundo sabe onde acontecem os assaltos e ninguém age</t>
-  </si>
-  <si>
-    <t>Essas promessas vazias de melhora me cansam</t>
-  </si>
-  <si>
-    <t>A sensação de que estamos largados à própria sorte me revolta</t>
-  </si>
-  <si>
-    <t>Roubaram o comércio da esquina de novo e eu fiquei indignado</t>
-  </si>
-  <si>
-    <t>As câmeras nunca estão funcionando quando precisa</t>
-  </si>
-  <si>
-    <t>O total descaso com a população é absurdo</t>
-  </si>
-  <si>
-    <t>Me irrita ver que a gente precisa se virar sempre sozinho</t>
-  </si>
-  <si>
-    <t>Ver meu bairro ficando perigoso tirou a graça das caminhadas</t>
-  </si>
-  <si>
-    <t>A notícia do assalto no ponto me desanimou por completo</t>
-  </si>
-  <si>
-    <t>A sensação de insegurança apagou meu ânimo</t>
-  </si>
-  <si>
-    <t>Quando ouvi que roubaram o mercado, bateu um desânimo profundo</t>
-  </si>
-  <si>
-    <t>A rua que eu gostava virou um lugar evitado</t>
-  </si>
-  <si>
-    <t>Fiquei mal depois de saber que levaram o celular do menino</t>
-  </si>
-  <si>
-    <t>O clima da vizinhança mudou e isso dói</t>
-  </si>
-  <si>
-    <t>As conversas sobre assalto deixaram o dia pesado</t>
-  </si>
-  <si>
-    <t>Me abalou saber que a moça passou por aquilo</t>
-  </si>
-  <si>
-    <t>A praça perdeu o brilho por causa dos furtos</t>
-  </si>
-  <si>
-    <t>O bairro parece mais cinza depois do aumento da violência</t>
-  </si>
-  <si>
-    <t>A sensação de perda tomou conta quando fecharam o comércio</t>
-  </si>
-  <si>
-    <t>O medo constante tirou parte da minha alegria</t>
-  </si>
-  <si>
-    <t>O roubo na rua de casa deixou todo mundo pra baixo</t>
-  </si>
-  <si>
-    <t>O clima pesado do bairro toca fundo</t>
-  </si>
-  <si>
-    <t>A violência repetida desgasta qualquer um</t>
-  </si>
-  <si>
-    <t>Saber que nada melhorou me deixa abatido</t>
-  </si>
-  <si>
-    <t>A cada notícia ruim, parece que o bairro se encolhe</t>
-  </si>
-  <si>
-    <t>Ver pessoas queridas assustadas machuca</t>
-  </si>
-  <si>
-    <t>O aumento dos furtos acabou com a leveza das noites</t>
-  </si>
-  <si>
-    <t>O brilho da região sumiu aos poucos</t>
-  </si>
-  <si>
-    <t>A sensação de impotência pesa demais</t>
-  </si>
-  <si>
-    <t>O clima tenso da rua faz tudo parecer mais frio</t>
-  </si>
-  <si>
-    <t>A rotina perdeu cor depois dos últimos casos</t>
-  </si>
-  <si>
-    <t>As conversas sobre violência deixam tudo mais duro</t>
-  </si>
-  <si>
-    <t>Perder o costume de andar tranquilo me entristece</t>
-  </si>
-  <si>
-    <t>O bairro parece carregar um peso novo</t>
-  </si>
-  <si>
-    <t>As mudanças na vizinhança afetam o coração</t>
-  </si>
-  <si>
-    <t>Cada assalto deixa uma marca silenciosa</t>
-  </si>
-  <si>
-    <t>As histórias de violência tiram o calor das pessoas</t>
-  </si>
-  <si>
-    <t>O clima triste tomou conta da rua</t>
-  </si>
-  <si>
-    <t>A violência tira o conforto de casa</t>
-  </si>
-  <si>
-    <t>Fico mal ao ver a praça abandonada</t>
-  </si>
-  <si>
-    <t>A rua antes movimentada parece vazia de vida</t>
-  </si>
-  <si>
-    <t>As pessoas evitam sair e isso corta o coração</t>
-  </si>
-  <si>
-    <t>A sensação de abandono deixa tudo mais nublado</t>
-  </si>
-  <si>
-    <t>A perda da tranquilidade pesa mais do que parece</t>
-  </si>
-  <si>
-    <t>O comércio fechado deixa a rua sem alma</t>
-  </si>
-  <si>
-    <t>O som das pessoas conversando diminuiu muito</t>
-  </si>
-  <si>
-    <t>A região ficou mais silenciosa e dolorida</t>
-  </si>
-  <si>
-    <t>A sensação de desânimo circula pelo bairro</t>
-  </si>
-  <si>
-    <t>As histórias de violência drenam a energia geral</t>
-  </si>
-  <si>
-    <t>A alegria da vizinhança se perdeu pelo caminho</t>
-  </si>
-  <si>
-    <t>Dói ver a rua cheia de portas fechadas</t>
-  </si>
-  <si>
-    <t>O bairro parece nunca mais voltar ao que era</t>
-  </si>
-  <si>
-    <t>As notícias ruins acumulam e machucam</t>
-  </si>
-  <si>
-    <t>O aumento da violência rouba a paz do dia</t>
-  </si>
-  <si>
-    <t>A sensação de insegurança transforma tudo em peso</t>
-  </si>
-  <si>
-    <t>Ver os vizinhos assustados parte o peito</t>
-  </si>
-  <si>
-    <t>A rua ganhou postes novos e o clima ficou animado</t>
-  </si>
-  <si>
-    <t>Hoje a patrulha passou cedo e trouxe um alívio bom</t>
-  </si>
-  <si>
-    <t>A presença da viatura deixou o comércio mais vivo</t>
-  </si>
-  <si>
-    <t>Ver a praça cheia novamente deu uma energia ótima</t>
-  </si>
-  <si>
-    <t>O bairro ficou mais movimentado e isso trouxe leveza</t>
-  </si>
-  <si>
-    <t>A ronda constante deixou o dia mais tranquilo</t>
-  </si>
-  <si>
-    <t>A iluminação nova deixou a rua com cara de retomada</t>
-  </si>
-  <si>
-    <t>Ter gente conversando na porta animou o fim de tarde</t>
-  </si>
-  <si>
-    <t>O clima leve voltou quando arrumaram as câmeras</t>
-  </si>
-  <si>
-    <t>A sensação de segurança renovou o ânimo de todo mundo</t>
-  </si>
-  <si>
-    <t>Os vizinhos riram juntos quando o portão voltou a funcionar</t>
-  </si>
-  <si>
-    <t>A praça ganhou vida depois da reforma</t>
-  </si>
-  <si>
-    <t>A presença de famílias na rua trouxe um ar mais acolhedor</t>
-  </si>
-  <si>
-    <t>O comércio abriu as portas e deixou o dia vibrante</t>
-  </si>
-  <si>
-    <t>A movimentação alegre voltou ao bairro</t>
-  </si>
-  <si>
-    <t>O evento na praça deixou tudo cheio de cor</t>
-  </si>
-  <si>
-    <t>A nova iluminação trouxe um clima bom pro fim de tarde</t>
-  </si>
-  <si>
-    <t>O sorriso dos vizinhos deixou o dia mais leve</t>
-  </si>
-  <si>
-    <t>A conversa na calçada fez o bairro parecer vivo de novo</t>
-  </si>
-  <si>
-    <t>Hoje a rua estava cheia e isso animou geral</t>
-  </si>
-  <si>
-    <t>Aquele movimento saudável na manhã deixou tudo fluindo</t>
-  </si>
-  <si>
-    <t>Uma energia boa circulou pelo bairro hoje</t>
-  </si>
-  <si>
-    <t>A sensação de retomada elevou o astral da vizinhança</t>
-  </si>
-  <si>
-    <t>Os novos postes deram um brilho diferente à rua</t>
-  </si>
-  <si>
-    <t>Ver crianças brincando devolveu o clima alegre</t>
-  </si>
-  <si>
-    <t>A praça cheia trouxe uma vibração boa</t>
-  </si>
-  <si>
-    <t>A revitalização deixou tudo mais bonito</t>
-  </si>
-  <si>
-    <t>A presença da ronda animou os moradores</t>
-  </si>
-  <si>
-    <t>O comércio movimentado trouxe vida pra rua</t>
-  </si>
-  <si>
-    <t>Hoje o bairro parecia sorrir de novo</t>
-  </si>
-  <si>
-    <t>A movimentação leve deixou a manhã gostosa</t>
-  </si>
-  <si>
-    <t>O barulho bom de gente conversando animou o ambiente</t>
-  </si>
-  <si>
-    <t>O clima descontraído voltou com força</t>
-  </si>
-  <si>
-    <t>O novo projeto de segurança renovou o humor geral</t>
-  </si>
-  <si>
-    <t>A rua iluminada trouxe aquele conforto bom</t>
-  </si>
-  <si>
-    <t>Os moradores comemoraram juntos a melhora</t>
-  </si>
-  <si>
-    <t>A sensação de proteção deixou o dia mais brilhante</t>
-  </si>
-  <si>
-    <t>A volta do fluxo normal trouxe uma energia ótima</t>
-  </si>
-  <si>
-    <t>Hoje parecia que tudo estava encaixando bem</t>
-  </si>
-  <si>
-    <t>O clima leve tomou conta da comunidade</t>
-  </si>
-  <si>
-    <t>A rua ficou mais viva e deu um ânimo extra</t>
-  </si>
-  <si>
-    <t>A presença de mais gente na calçada trouxe leveza</t>
-  </si>
-  <si>
-    <t>O bairro parecia celebrar a própria melhora</t>
-  </si>
-  <si>
-    <t>A movimentação tranquila deixou o ambiente agradável</t>
-  </si>
-  <si>
-    <t>A rua ganhou um ar renovado que fez bem a todo mundo</t>
-  </si>
-  <si>
-    <t>O patrulhamento constante trouxe um brilho novo ao bairro</t>
-  </si>
-  <si>
-    <t>A sensação de tranquilidade elevou o humor do dia</t>
-  </si>
-  <si>
-    <t>Hoje o ar parecia mais suave</t>
-  </si>
-  <si>
-    <t>O clima de melhora contagiou todo mundo</t>
-  </si>
-  <si>
-    <t>Passei pela rua e o cara atrás de mim acelerou o passo</t>
-  </si>
-  <si>
-    <t>O barulho do portão batendo me fez congelar</t>
-  </si>
-  <si>
-    <t>Quando vi dois caras parados na esquina, meu corpo travou</t>
-  </si>
-  <si>
-    <t>O motoqueiro desacelerou do meu lado e meu coração disparou</t>
-  </si>
-  <si>
-    <t>Fiquei olhando pra trás toda hora achando que alguém vinha</t>
-  </si>
-  <si>
-    <t>A rua vazia me deixou com a respiração presa</t>
-  </si>
-  <si>
-    <t>Quando o carro diminuiu perto de mim, pensei que fosse me abordar</t>
-  </si>
-  <si>
-    <t>Do nada o clima ficou estranho e eu mudei de caminho</t>
-  </si>
-  <si>
-    <t>O portão do vizinho abriu devagar e eu gelei</t>
-  </si>
-  <si>
-    <t>A mochila parecia mais pesada só de imaginar alguém puxando</t>
-  </si>
-  <si>
-    <t>Fiquei com a chave na mão pronta pra correr</t>
-  </si>
-  <si>
-    <t>Vi um movimento rápido e meu corpo deu um salto</t>
-  </si>
-  <si>
-    <t>A sombra atrás de mim ficou grande demais</t>
-  </si>
-  <si>
-    <t>O olhar do cara que passou não me deixou tranquilo</t>
-  </si>
-  <si>
-    <t>A rua mal iluminada parecia maior que o normal</t>
-  </si>
-  <si>
-    <t>Quando o alarme disparou, quase perdi o ar</t>
-  </si>
-  <si>
-    <t>O silêncio do beco me deixou em alerta total</t>
-  </si>
-  <si>
-    <t>Do nada senti que tinha alguém me observando</t>
-  </si>
-  <si>
-    <t>Passei pelo ponto e três caras olharam junto</t>
-  </si>
-  <si>
-    <t>A moto vindo devagar me deixou travado</t>
-  </si>
-  <si>
-    <t>O carro ficou muito tempo atrás do meu</t>
-  </si>
-  <si>
-    <t>O rapaz torcendo o cabo da moto me fez acelerar o passo</t>
-  </si>
-  <si>
-    <t>O clima na rua mudou quando vi dois caras cochichando</t>
-  </si>
-  <si>
-    <t>Ouvi passos rápidos chegando perto</t>
-  </si>
-  <si>
-    <t>O movimento do cara botando a mão no bolso me assustou</t>
-  </si>
-  <si>
-    <t>Quando a luz acabou no bairro, fiquei paralisado</t>
-  </si>
-  <si>
-    <t>O portão eletrônico parou no meio e me apavorei</t>
-  </si>
-  <si>
-    <t>Do nada uma moto passou lenta demais perto de mim</t>
-  </si>
-  <si>
-    <t>Parei de mexer no celular achando que iam puxar</t>
-  </si>
-  <si>
-    <t>O ônibus quebrou num lugar vazio e me deixou tenso</t>
-  </si>
-  <si>
-    <t>Meu coração acelerou quando alguém bateu no vidro do carro</t>
-  </si>
-  <si>
-    <t>O porteiro demorou a abrir e eu travei</t>
-  </si>
-  <si>
-    <t>A presença de uma dupla me fez atravessar a rua</t>
-  </si>
-  <si>
-    <t>Ouvimos barulho no corredor e todo mundo ficou quieto</t>
-  </si>
-  <si>
-    <t>A luz do sensor acendeu sem ninguém passar</t>
-  </si>
-  <si>
-    <t>O rapaz encapuzado me fez mudar de direção</t>
-  </si>
-  <si>
-    <t>Quando o carro parou do meu lado, minhas pernas endureceram</t>
-  </si>
-  <si>
-    <t>A sensação de que algo ia acontecer não me soltava</t>
-  </si>
-  <si>
-    <t>Um grito na rua deixou todo mundo parado</t>
-  </si>
-  <si>
-    <t>A sirene tocando perto me deixou agoniado</t>
-  </si>
-  <si>
-    <t>A porta batendo forte no vento me assustou</t>
-  </si>
-  <si>
-    <t>Alguém correu atrás de mim e eu acelerei sem pensar</t>
-  </si>
-  <si>
-    <t>A moto fazendo retorno me deixou inquieto</t>
-  </si>
-  <si>
-    <t>Quando o cara olhou direto pro meu bolso, meu corpo travou</t>
-  </si>
-  <si>
-    <t>Um carro estranho passou devagar demais pela rua</t>
-  </si>
-  <si>
-    <t>A campainha tocou tarde e meu peito apertou</t>
-  </si>
-  <si>
-    <t>O prédio ficou sem luz e ninguém queria ir no corredor</t>
-  </si>
-  <si>
-    <t>A movimentação estranha perto do mercado me deixou apreensivo</t>
-  </si>
-  <si>
-    <t>Tive a impressão de que o cara ia vir pra cima</t>
-  </si>
-  <si>
-    <t>O aniversário de ontem me deixou animado o dia inteiro.</t>
-  </si>
-  <si>
-    <t>A festa acabou me dando uma energia que eu nem sabia que tinha.</t>
-  </si>
-  <si>
-    <t>O Natal desse ano trouxe um clima gostoso na casa toda.</t>
-  </si>
-  <si>
-    <t>Foi bom demais reencontrar o pessoal depois de tanto tempo.</t>
-  </si>
-  <si>
-    <t>O bolo ficou tão bom que já virou assunto da família.</t>
-  </si>
-  <si>
-    <t>A comemoração surpresa me arrancou um sorriso na hora.</t>
-  </si>
-  <si>
-    <t>A música da festa deixou o ambiente leve de um jeito especial.</t>
-  </si>
-  <si>
-    <t>Ganhei um presente simples, mas que iluminou meu dia.</t>
-  </si>
-  <si>
-    <t>A gente riu tanto ontem que minha barriga tá doendo até agora.</t>
-  </si>
-  <si>
-    <t>Foi bonito ver todo mundo reunido sem pressa de ir embora.</t>
-  </si>
-  <si>
-    <t>A decoração de Natal trouxe um brilho diferente pra sala.</t>
-  </si>
-  <si>
-    <t>A foto da festa ficou tão espontânea que virou minha favorita.</t>
-  </si>
-  <si>
-    <t>A noite terminou num clima tão bom que eu queria repetir.</t>
-  </si>
-  <si>
-    <t>O parabéns saiu desafinado, mas foi o mais divertido possível.</t>
-  </si>
-  <si>
-    <t>O abraço que recebi na festa fez tudo valer a pena.</t>
-  </si>
-  <si>
-    <t>O clima de Ano Novo sempre me dá aquela esperança boa.</t>
-  </si>
-  <si>
-    <t>A conversa despreocupada com meus amigos foi o ponto alto da noite.</t>
-  </si>
-  <si>
-    <t>Aquele brinde deixou todo mundo animado.</t>
-  </si>
-  <si>
-    <t>A mesa cheia deixou o ambiente com cara de ceia mesmo.</t>
-  </si>
-  <si>
-    <t>Foi legal ver o pessoal entrando no espírito da comemoração.</t>
-  </si>
-  <si>
-    <t>A playlist da festa fez todo mundo se soltar.</t>
-  </si>
-  <si>
-    <t>A surpresa me pegou totalmente, mas de um jeito bom.</t>
-  </si>
-  <si>
-    <t>A comida ficou tão saborosa que todo mundo elogiou.</t>
-  </si>
-  <si>
-    <t>A chegada do pessoal deixou tudo mais vivo.</t>
-  </si>
-  <si>
-    <t>A luz das velas no bolo deixou a cena mais bonita ainda.</t>
-  </si>
-  <si>
-    <t>A sensação de estar cercado por gente querida me deixou leve.</t>
-  </si>
-  <si>
-    <t>O amigo oculto rendeu umas risadas ótimas.</t>
-  </si>
-  <si>
-    <t>A noite foi cheia de histórias engraçadas.</t>
-  </si>
-  <si>
-    <t>O clima de festa deixou minha mente tranquila.</t>
-  </si>
-  <si>
-    <t>As crianças correndo pela sala trouxeram uma alegria boa.</t>
-  </si>
-  <si>
-    <t>A conversa na varanda foi melhor do que eu esperava.</t>
-  </si>
-  <si>
-    <t>Fiquei empolgado com a ideia de organizar outra festa.</t>
-  </si>
-  <si>
-    <t>A ceia desse ano ficou muito aconchegante.</t>
-  </si>
-  <si>
-    <t>O reencontro de fim de ano me renovou.</t>
-  </si>
-  <si>
-    <t>Ganhar aquele cartão escrito à mão aqueceu meu coração.</t>
-  </si>
-  <si>
-    <t>As luzes de Natal criaram um clima mágico na rua.</t>
-  </si>
-  <si>
-    <t>O pessoal dançando sem vergonha nenhuma me deixou feliz.</t>
-  </si>
-  <si>
-    <t>O aniversariante ficou tão emocionado que todo mundo se animou junto.</t>
-  </si>
-  <si>
-    <t>Aquele momento do parabéns foi divertido demais.</t>
-  </si>
-  <si>
-    <t>Ver todo mundo sorrindo me deu um conforto enorme.</t>
-  </si>
-  <si>
-    <t>O clima festivo me deixou mais solto do que o normal.</t>
-  </si>
-  <si>
-    <t>As brincadeiras da festa animaram o ambiente.</t>
-  </si>
-  <si>
-    <t>A mesa farta deu aquela sensação boa de união.</t>
-  </si>
-  <si>
-    <t>O fim da festa teve um gostinho bom de alegria tranquila.</t>
-  </si>
-  <si>
-    <t>O cheiro da comida de Natal trouxe lembranças boas.</t>
-  </si>
-  <si>
-    <t>A noite passou rápido porque estava realmente boa.</t>
-  </si>
-  <si>
-    <t>Fiquei feliz de ver todo mundo relaxado na comemoração.</t>
-  </si>
-  <si>
-    <t>A foto do grupo me fez reviver o momento.</t>
-  </si>
-  <si>
-    <t>A chegada do bolo trouxe aquele clima leve.</t>
-  </si>
-  <si>
-    <t>A festa terminou com a sensação de que valeu muito a pena.</t>
-  </si>
-  <si>
-    <t>O aniversário aconteceu e, mesmo com gente por perto, me senti distante.</t>
-  </si>
-  <si>
-    <t>A festa passou e a sensação de vazio continuou ali.</t>
-  </si>
-  <si>
-    <t>O Natal desse ano ficou silencioso demais pra mim.</t>
-  </si>
-  <si>
-    <t>Mesmo com a mesa cheia, faltava algo que não sei explicar.</t>
-  </si>
-  <si>
-    <t>A comemoração terminou e eu fiquei parado, sem rumo.</t>
-  </si>
-  <si>
-    <t>O barulho da festa não preencheu o que estava faltando.</t>
-  </si>
-  <si>
-    <t>O parabéns soou meio apagado pra mim.</t>
-  </si>
-  <si>
-    <t>A foto da noite me deu uma sensação estranha, como se eu não estivesse ali.</t>
-  </si>
-  <si>
-    <t>Mesmo rodeado de gente, a solidão encostou em mim.</t>
-  </si>
-  <si>
-    <t>A ceia terminou, mas a sensação pesada permaneceu.</t>
-  </si>
-  <si>
-    <t>O abraço que recebi parecia distante, como se não chegasse de verdade.</t>
-  </si>
-  <si>
-    <t>A música da festa parecia longe, como se fosse de outro lugar.</t>
-  </si>
-  <si>
-    <t>O natal passou e deixou um silêncio difícil de lidar.</t>
-  </si>
-  <si>
-    <t>As luzes da rua não conseguiram iluminar o que estava aqui dentro.</t>
-  </si>
-  <si>
-    <t>A mesa cheia não trouxe o calor que eu esperava.</t>
-  </si>
-  <si>
-    <t>A reunião de família me lembrou o que está faltando.</t>
-  </si>
-  <si>
-    <t>O fim da festa deixou um gosto amargo na noite.</t>
-  </si>
-  <si>
-    <t>A despedida do pessoal me deixou meio perdido.</t>
-  </si>
-  <si>
-    <t>A conversa parecia boa, mas eu não conseguia me conectar.</t>
-  </si>
-  <si>
-    <t>O bolo estava bom, mas a noite não encaixou pra mim.</t>
-  </si>
-  <si>
-    <t>A celebração aconteceu e eu senti que estava apenas assistindo.</t>
-  </si>
-  <si>
-    <t>O clima festivo não conseguiu me alcançar.</t>
-  </si>
-  <si>
-    <t>A risada do pessoal parecia distante.</t>
-  </si>
-  <si>
-    <t>O ano virou, mas meu coração continuou preso.</t>
-  </si>
-  <si>
-    <t>O amigo oculto passou e não senti muita graça.</t>
-  </si>
-  <si>
-    <t>O brinde de meia-noite me bateu de um jeito melancólico.</t>
-  </si>
-  <si>
-    <t>O som da festa me deixou mais quieto do que o normal.</t>
-  </si>
-  <si>
-    <t>Mesmo com música alta, meu peito ficou pesado.</t>
-  </si>
-  <si>
-    <t>A presença das pessoas não afastou a sensação de falta.</t>
-  </si>
-  <si>
-    <t>A ceia parecia bonita, mas não me tocou.</t>
-  </si>
-  <si>
-    <t>As luzes piscando não despertaram nada em mim.</t>
-  </si>
-  <si>
-    <t>O sorriso do aniversariante me lembrou que eu não me sinto igual.</t>
-  </si>
-  <si>
-    <t>A sala cheia não trouxe o calor que eu esperava.</t>
-  </si>
-  <si>
-    <t>A conversa rolava, mas eu estava em outro lugar por dentro.</t>
-  </si>
-  <si>
-    <t>O momento do parabéns me deixou mais introspectivo ainda.</t>
-  </si>
-  <si>
-    <t>O fim da comemoração trouxe um silêncio pesado comigo.</t>
-  </si>
-  <si>
-    <t>Nada na festa conseguiu aliviar o que estava aqui dentro.</t>
-  </si>
-  <si>
-    <t>As lembranças do ano me apertaram no meio da celebração.</t>
-  </si>
-  <si>
-    <t>O clima de festa contrastou demais com o que eu sentia.</t>
-  </si>
-  <si>
-    <t>O sorriso geral não chegou até mim.</t>
-  </si>
-  <si>
-    <t>O Natal terminou com uma sensação de falta difícil de ignorar.</t>
-  </si>
-  <si>
-    <t>A chegada do bolo não despertou muito em mim.</t>
-  </si>
-  <si>
-    <t>A foto do grupo me deixou com um aperto que não esperava.</t>
-  </si>
-  <si>
-    <t>A noite passou arrastada, mesmo com festa rolando.</t>
-  </si>
-  <si>
-    <t>A música alta só deixou meu peito mais apertado.</t>
-  </si>
-  <si>
-    <t>A comemoração não encaixou com o meu estado.</t>
-  </si>
-  <si>
-    <t>As crianças correndo pela sala só me lembraram do que perdi.</t>
-  </si>
-  <si>
-    <t>O fim da noite me trouxe um peso difícil de explicar.</t>
-  </si>
-  <si>
-    <t>Mesmo com luzes e cores, a sensação cinza continuou.</t>
-  </si>
-  <si>
-    <t>O barulho da festa me deixou irritado logo no começo.</t>
-  </si>
-  <si>
-    <t>O aniversário virou uma confusão que me tirou do sério.</t>
-  </si>
-  <si>
-    <t>O parabéns saiu atropelado e já me estressou.</t>
-  </si>
-  <si>
-    <t>A música alta estava tão descontrolada que me deu raiva.</t>
-  </si>
-  <si>
-    <t>O pessoal empurrando na hora do bolo foi revoltante.</t>
-  </si>
-  <si>
-    <t>A decoração estava bonita, mas a bagunça estragou tudo.</t>
-  </si>
-  <si>
-    <t>A gritaria na festa passou do limite rapidamente.</t>
-  </si>
-  <si>
-    <t>A conversa atravessada que recebi já cortou meu clima.</t>
-  </si>
-  <si>
-    <t>A falta de organização me deixou de cara.</t>
-  </si>
-  <si>
-    <t>O Natal virou uma zona que eu não tinha paciência pra lidar.</t>
-  </si>
-  <si>
-    <t>Aquele comentário no meio da ceia me deu um embrulho imediato.</t>
-  </si>
-  <si>
-    <t>O amigo oculto virou motivo de briga à toa.</t>
-  </si>
-  <si>
-    <t>A falta de respeito de alguns ali foi absurda.</t>
-  </si>
-  <si>
-    <t>A provocação na hora do brinde já me acendeu.</t>
-  </si>
-  <si>
-    <t>O atraso do pessoal me irritou além da conta.</t>
-  </si>
-  <si>
-    <t>A insistência em tocar música alta foi cansativa demais.</t>
-  </si>
-  <si>
-    <t>A desorganização da festa me deixou estressado o tempo todo.</t>
-  </si>
-  <si>
-    <t>A conversa invasiva que recebi arruinou a noite.</t>
-  </si>
-  <si>
-    <t>Aquele comentário sarcástico estragou o clima inteiro.</t>
-  </si>
-  <si>
-    <t>A fila para pegar comida parecia um teste de paciência.</t>
-  </si>
-  <si>
-    <t>O tempo todo alguém me cutucando foi insuportável.</t>
-  </si>
-  <si>
-    <t>A falta de noção do pessoal me deixou tenso.</t>
-  </si>
-  <si>
-    <t>O caos na sala foi irritante demais pra mim.</t>
-  </si>
-  <si>
-    <t>A brincadeira sem graça que fizeram comigo só me deu raiva.</t>
-  </si>
-  <si>
-    <t>O empurra-empurra na pista me estressou rápido.</t>
-  </si>
-  <si>
-    <t>A falta de cuidado com as crianças me indignou.</t>
-  </si>
-  <si>
-    <t>A repetição da mesma piada me deu um ranço imediato.</t>
-  </si>
-  <si>
-    <t>O cheiro forte da comida queimou meu humor.</t>
-  </si>
-  <si>
-    <t>A disputa boba durante o brinde foi ridícula.</t>
-  </si>
-  <si>
-    <t>A conversa atravessada no meio da ceia me tirou a paciência.</t>
-  </si>
-  <si>
-    <t>A música alta no final da noite só me irritou mais.</t>
-  </si>
-  <si>
-    <t>A atitude grossa de um convidado destruiu o clima.</t>
-  </si>
-  <si>
-    <t>A insistência para eu participar me deixou de mau humor.</t>
-  </si>
-  <si>
-    <t>O exagero do pessoal me cansou completamente.</t>
-  </si>
-  <si>
-    <t>A bagunça espalhada pela casa me revoltou.</t>
-  </si>
-  <si>
-    <t>O jeito como me interromperam me irritou na hora.</t>
-  </si>
-  <si>
-    <t>O atraso para começar a festa já foi irritante.</t>
-  </si>
-  <si>
-    <t>O tom debochado que usaram comigo me deu raiva instantânea.</t>
-  </si>
-  <si>
-    <t>A confusão para organizar a ceia foi absurda.</t>
-  </si>
-  <si>
-    <t>A falta de bom senso ali me deixou indignado.</t>
-  </si>
-  <si>
-    <t>O calor da festa me deixou completamente irritado.</t>
-  </si>
-  <si>
-    <t>A desatenção de alguns me tirou o humor.</t>
-  </si>
-  <si>
-    <t>A discussão desnecessária no meio da noite foi ridícula.</t>
-  </si>
-  <si>
-    <t>A falta de higiene no buffet me incomodou muito.</t>
-  </si>
-  <si>
-    <t>A brincadeira pesada que fizeram não teve graça nenhuma.</t>
-  </si>
-  <si>
-    <t>O tumulto durante o parabéns foi irritante.</t>
-  </si>
-  <si>
-    <t>A gritaria no fim da festa acabou com minha paciência.</t>
-  </si>
-  <si>
-    <t>A pessoa querendo aparecer o tempo todo me cansou.</t>
-  </si>
-  <si>
-    <t>A festa estava tão cheia que fiquei receoso de ficar ali muito tempo.</t>
-  </si>
-  <si>
-    <t>O barulho dos fogos sempre me deixa alerta.</t>
-  </si>
-  <si>
-    <t>A aglomeração no aniversário me deixou desconfortável.</t>
-  </si>
-  <si>
-    <t>Tive medo de perder alguém na multidão da festa.</t>
-  </si>
-  <si>
-    <t>O clima da rua no Natal me deixou apreensivo.</t>
-  </si>
-  <si>
-    <t>A discussão no canto da sala me deixou tenso.</t>
-  </si>
-  <si>
-    <t>O movimento estranho perto da porta me assustou um pouco.</t>
-  </si>
-  <si>
-    <t>As luzes apagando de repente me deixaram nervoso.</t>
-  </si>
-  <si>
-    <t>A entrada escura do salão me deu um aperto.</t>
-  </si>
-  <si>
-    <t>O tumulto no brinde me deu uma sensação estranha.</t>
-  </si>
-  <si>
-    <t>O barulho alto na madrugada me deixou inquieto.</t>
-  </si>
-  <si>
-    <t>A movimentação exagerada na festa me deixou em alerta.</t>
-  </si>
-  <si>
-    <t>Senti medo de acontecer algo no meio daquela confusão.</t>
-  </si>
-  <si>
-    <t>A fumaça dos fogos me fez recuar.</t>
-  </si>
-  <si>
-    <t>A gritaria inesperada me assustou por instinto.</t>
-  </si>
-  <si>
-    <t>A rua vazia depois da festa me deixou inseguro.</t>
-  </si>
-  <si>
-    <t>A presença de gente desconhecida me deixou na defensiva.</t>
-  </si>
-  <si>
-    <t>A porta abrindo sozinha com o vento me assustou.</t>
-  </si>
-  <si>
-    <t>A luz piscando no corredor me deixou preocupado.</t>
-  </si>
-  <si>
-    <t>O clima estranho no meio da comemoração me incomodou.</t>
-  </si>
-  <si>
-    <t>A sensação de estar sendo observado me acompanhou a noite inteira.</t>
-  </si>
-  <si>
-    <t>O tom agressivo de uma conversa próxima me deixou tenso.</t>
-  </si>
-  <si>
-    <t>Aquela explosão de fogos me fez gelar.</t>
-  </si>
-  <si>
-    <t>O barulho vindo da rua me deixou desconfiado.</t>
-  </si>
-  <si>
-    <t>A falta de iluminação na saída da festa me deixou inseguro.</t>
-  </si>
-  <si>
-    <t>O clima instável da festa me manteve cauteloso.</t>
-  </si>
-  <si>
-    <t>A agitação repentina me deixou sem reação.</t>
-  </si>
-  <si>
-    <t>O estrondo no meio do parabéns me fez pular.</t>
-  </si>
-  <si>
-    <t>A sombra passando rápido pela janela me assustou.</t>
-  </si>
-  <si>
-    <t>Fiquei com medo de alguém se machucar com tanta bagunça.</t>
-  </si>
-  <si>
-    <t>O ambiente apertado do salão me deixou inquieto.</t>
-  </si>
-  <si>
-    <t>A porta batendo sozinha me deu um susto.</t>
-  </si>
-  <si>
-    <t>O tom elevado de algumas conversas me deixou preocupado.</t>
-  </si>
-  <si>
-    <t>A escuridão na varanda me fez recuar.</t>
-  </si>
-  <si>
-    <t>A movimentação inesperada atrás de mim me assustou.</t>
-  </si>
-  <si>
-    <t>A entrada do prédio estava estranha e fiquei tenso.</t>
-  </si>
-  <si>
-    <t>A sensação de perigo não saiu de mim a noite inteira.</t>
-  </si>
-  <si>
-    <t>O barulho de passos no corredor me deixou alerta.</t>
-  </si>
-  <si>
-    <t>O clima pesado no meio da festa me deixou nervoso.</t>
-  </si>
-  <si>
-    <t>Tive medo de perder alguém no tumulto.</t>
-  </si>
-  <si>
-    <t>A mudança brusca de energia na festa me assustou.</t>
-  </si>
-  <si>
-    <t>Os fogos estourando perto demais me deram calafrios.</t>
-  </si>
-  <si>
-    <t>A luz apagando no momento errado me deixou inquieto.</t>
-  </si>
-  <si>
-    <t>A rua deserta depois do evento me deixou receoso.</t>
-  </si>
-  <si>
-    <t>O som metálico vindo do portão me assustou.</t>
-  </si>
-  <si>
-    <t>Fiquei preocupado com a falta de controle da situação.</t>
-  </si>
-  <si>
-    <t>O empurra-empurra no final me deixou apreensivo.</t>
-  </si>
-  <si>
-    <t>A festa tomou um rumo estranho rápido demais.</t>
-  </si>
-  <si>
-    <t>A sensação de algo fora do lugar não saiu de mim.</t>
   </si>
 </sst>
 </file>
@@ -9440,10 +7820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3166"/>
+  <dimension ref="A1:I2471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3000" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B3011" sqref="B3011"/>
+    <sheetView tabSelected="1" topLeftCell="A2314" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B2473" sqref="B2473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29224,4329 +27604,6 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2472" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2472" s="4" t="s">
-        <v>2473</v>
-      </c>
-      <c r="B2472" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2473" t="s">
-        <v>2474</v>
-      </c>
-      <c r="B2473" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2474" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2474" t="s">
-        <v>2475</v>
-      </c>
-      <c r="B2474" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2475" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2475" t="s">
-        <v>2476</v>
-      </c>
-      <c r="B2475" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2476" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2476" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B2476" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2477" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2477" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B2477" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2478" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2478" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B2478" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2479" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2479" t="s">
-        <v>2480</v>
-      </c>
-      <c r="B2479" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2480" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2480" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B2480" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2481" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2481" t="s">
-        <v>2482</v>
-      </c>
-      <c r="B2481" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2482" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2482" t="s">
-        <v>2483</v>
-      </c>
-      <c r="B2482" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2483" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2483" t="s">
-        <v>2484</v>
-      </c>
-      <c r="B2483" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2484" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2484" t="s">
-        <v>2485</v>
-      </c>
-      <c r="B2484" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2485" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2485" t="s">
-        <v>2486</v>
-      </c>
-      <c r="B2485" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2486" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B2486" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2487" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2487" t="s">
-        <v>2488</v>
-      </c>
-      <c r="B2487" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2488" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2488" t="s">
-        <v>2489</v>
-      </c>
-      <c r="B2488" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2489" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2489" t="s">
-        <v>2490</v>
-      </c>
-      <c r="B2489" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2490" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2490" t="s">
-        <v>2491</v>
-      </c>
-      <c r="B2490" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2491" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2491" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B2491" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2492" t="s">
-        <v>2493</v>
-      </c>
-      <c r="B2492" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2493" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2493" t="s">
-        <v>2494</v>
-      </c>
-      <c r="B2493" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2494" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2494" t="s">
-        <v>2495</v>
-      </c>
-      <c r="B2494" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2495" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2495" t="s">
-        <v>2496</v>
-      </c>
-      <c r="B2495" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2496" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2496" t="s">
-        <v>2497</v>
-      </c>
-      <c r="B2496" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2497" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2497" t="s">
-        <v>2498</v>
-      </c>
-      <c r="B2497" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2498" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2498" t="s">
-        <v>2499</v>
-      </c>
-      <c r="B2498" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2499" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2499" t="s">
-        <v>2500</v>
-      </c>
-      <c r="B2499" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2500" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2500" t="s">
-        <v>2501</v>
-      </c>
-      <c r="B2500" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2501" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2501" t="s">
-        <v>2502</v>
-      </c>
-      <c r="B2501" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2502" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2502" t="s">
-        <v>2503</v>
-      </c>
-      <c r="B2502" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2503" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2503" t="s">
-        <v>2504</v>
-      </c>
-      <c r="B2503" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2504" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2504" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B2504" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2505" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2505" t="s">
-        <v>2506</v>
-      </c>
-      <c r="B2505" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2506" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2506" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B2506" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2507" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2507" t="s">
-        <v>2508</v>
-      </c>
-      <c r="B2507" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2508" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2508" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B2508" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2509" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2509" t="s">
-        <v>2510</v>
-      </c>
-      <c r="B2509" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2510" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2510" t="s">
-        <v>2511</v>
-      </c>
-      <c r="B2510" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2511" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2511" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B2511" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2512" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2512" t="s">
-        <v>2513</v>
-      </c>
-      <c r="B2512" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2513" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2513" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B2513" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2514" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2514" t="s">
-        <v>2515</v>
-      </c>
-      <c r="B2514" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2515" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2515" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B2515" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2516" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2516" t="s">
-        <v>2517</v>
-      </c>
-      <c r="B2516" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2517" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2517" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B2517" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2518" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2518" t="s">
-        <v>2519</v>
-      </c>
-      <c r="B2518" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2519" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2519" t="s">
-        <v>2520</v>
-      </c>
-      <c r="B2519" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2520" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2520" t="s">
-        <v>2521</v>
-      </c>
-      <c r="B2520" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2521" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2521" t="s">
-        <v>2522</v>
-      </c>
-      <c r="B2521" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2522" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2522" t="s">
-        <v>2523</v>
-      </c>
-      <c r="B2522" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2523" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2523" t="s">
-        <v>2524</v>
-      </c>
-      <c r="B2523" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2524" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2524" t="s">
-        <v>2525</v>
-      </c>
-      <c r="B2524" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2525" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2525" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B2525" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2526" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2526" t="s">
-        <v>2527</v>
-      </c>
-      <c r="B2526" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2527" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2527" t="s">
-        <v>2528</v>
-      </c>
-      <c r="B2527" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2528" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2528" t="s">
-        <v>2529</v>
-      </c>
-      <c r="B2528" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2529" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2529" t="s">
-        <v>2530</v>
-      </c>
-      <c r="B2529" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2530" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2530" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B2530" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2531" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2531" t="s">
-        <v>2532</v>
-      </c>
-      <c r="B2531" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2532" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2532" t="s">
-        <v>2533</v>
-      </c>
-      <c r="B2532" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2533" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2533" t="s">
-        <v>2534</v>
-      </c>
-      <c r="B2533" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2534" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2534" t="s">
-        <v>2535</v>
-      </c>
-      <c r="B2534" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2535" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2535" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B2535" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2536" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2536" t="s">
-        <v>2537</v>
-      </c>
-      <c r="B2536" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2537" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2537" t="s">
-        <v>2538</v>
-      </c>
-      <c r="B2537" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2538" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2538" t="s">
-        <v>2539</v>
-      </c>
-      <c r="B2538" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2539" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2539" t="s">
-        <v>2540</v>
-      </c>
-      <c r="B2539" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2540" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2540" t="s">
-        <v>2541</v>
-      </c>
-      <c r="B2540" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2541" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2541" t="s">
-        <v>2542</v>
-      </c>
-      <c r="B2541" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2542" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2542" t="s">
-        <v>2543</v>
-      </c>
-      <c r="B2542" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2543" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2543" t="s">
-        <v>2544</v>
-      </c>
-      <c r="B2543" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2544" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2544" t="s">
-        <v>2545</v>
-      </c>
-      <c r="B2544" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2545" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2545" t="s">
-        <v>2546</v>
-      </c>
-      <c r="B2545" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2546" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2546" t="s">
-        <v>2547</v>
-      </c>
-      <c r="B2546" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2547" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2547" t="s">
-        <v>2548</v>
-      </c>
-      <c r="B2547" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2548" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2548" t="s">
-        <v>2549</v>
-      </c>
-      <c r="B2548" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2549" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2549" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B2549" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2550" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2550" t="s">
-        <v>2551</v>
-      </c>
-      <c r="B2550" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2551" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2551" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B2551" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2552" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2552" t="s">
-        <v>2553</v>
-      </c>
-      <c r="B2552" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2553" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2553" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2553" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2554" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2554" t="s">
-        <v>2555</v>
-      </c>
-      <c r="B2554" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2555" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2555" t="s">
-        <v>2556</v>
-      </c>
-      <c r="B2555" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2556" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2556" t="s">
-        <v>2557</v>
-      </c>
-      <c r="B2556" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2557" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2557" t="s">
-        <v>2558</v>
-      </c>
-      <c r="B2557" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2558" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2558" t="s">
-        <v>2559</v>
-      </c>
-      <c r="B2558" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2559" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2559" t="s">
-        <v>2560</v>
-      </c>
-      <c r="B2559" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2560" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2560" t="s">
-        <v>2561</v>
-      </c>
-      <c r="B2560" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2561" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2561" t="s">
-        <v>2562</v>
-      </c>
-      <c r="B2561" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2562" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2562" t="s">
-        <v>2563</v>
-      </c>
-      <c r="B2562" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2563" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2563" t="s">
-        <v>2564</v>
-      </c>
-      <c r="B2563" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2564" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2564" t="s">
-        <v>2565</v>
-      </c>
-      <c r="B2564" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2565" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2565" t="s">
-        <v>2566</v>
-      </c>
-      <c r="B2565" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2566" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2566" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B2566" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2567" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2567" t="s">
-        <v>2568</v>
-      </c>
-      <c r="B2567" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2568" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2568" t="s">
-        <v>2569</v>
-      </c>
-      <c r="B2568" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2569" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2569" t="s">
-        <v>2570</v>
-      </c>
-      <c r="B2569" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2570" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2570" t="s">
-        <v>2571</v>
-      </c>
-      <c r="B2570" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2571" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2571" t="s">
-        <v>2572</v>
-      </c>
-      <c r="B2571" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2572" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2572" t="s">
-        <v>2573</v>
-      </c>
-      <c r="B2572" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2573" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2573" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B2573" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2574" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2574" t="s">
-        <v>2575</v>
-      </c>
-      <c r="B2574" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2575" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2575" t="s">
-        <v>2576</v>
-      </c>
-      <c r="B2575" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2576" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2576" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B2576" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2577" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2577" t="s">
-        <v>2578</v>
-      </c>
-      <c r="B2577" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2578" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2578" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B2578" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2579" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2579" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B2579" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2580" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2580" t="s">
-        <v>2581</v>
-      </c>
-      <c r="B2580" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2581" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2581" t="s">
-        <v>2582</v>
-      </c>
-      <c r="B2581" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2582" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2582" t="s">
-        <v>2583</v>
-      </c>
-      <c r="B2582" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2583" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2583" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B2583" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2584" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2584" t="s">
-        <v>2585</v>
-      </c>
-      <c r="B2584" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2585" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2585" t="s">
-        <v>2586</v>
-      </c>
-      <c r="B2585" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2586" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2586" t="s">
-        <v>2587</v>
-      </c>
-      <c r="B2586" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2587" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2587" t="s">
-        <v>2588</v>
-      </c>
-      <c r="B2587" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2588" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2588" t="s">
-        <v>2589</v>
-      </c>
-      <c r="B2588" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2589" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2589" t="s">
-        <v>2590</v>
-      </c>
-      <c r="B2589" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2590" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2590" t="s">
-        <v>2591</v>
-      </c>
-      <c r="B2590" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2591" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2591" t="s">
-        <v>2592</v>
-      </c>
-      <c r="B2591" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2592" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2592" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B2592" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2593" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2593" t="s">
-        <v>2594</v>
-      </c>
-      <c r="B2593" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2594" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2594" t="s">
-        <v>2595</v>
-      </c>
-      <c r="B2594" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2595" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2595" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B2595" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2596" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2596" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B2596" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2597" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2597" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B2597" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2598" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2598" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B2598" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2599" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2599" t="s">
-        <v>2600</v>
-      </c>
-      <c r="B2599" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2600" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2600" t="s">
-        <v>2601</v>
-      </c>
-      <c r="B2600" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2601" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2601" t="s">
-        <v>2602</v>
-      </c>
-      <c r="B2601" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2602" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2602" t="s">
-        <v>2603</v>
-      </c>
-      <c r="B2602" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2603" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2603" t="s">
-        <v>2604</v>
-      </c>
-      <c r="B2603" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2604" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2604" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B2604" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2605" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2605" t="s">
-        <v>2606</v>
-      </c>
-      <c r="B2605" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2606" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2606" t="s">
-        <v>2607</v>
-      </c>
-      <c r="B2606" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2607" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2607" t="s">
-        <v>2608</v>
-      </c>
-      <c r="B2607" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2608" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2608" t="s">
-        <v>2609</v>
-      </c>
-      <c r="B2608" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2609" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2609" t="s">
-        <v>2610</v>
-      </c>
-      <c r="B2609" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2610" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2610" t="s">
-        <v>2611</v>
-      </c>
-      <c r="B2610" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2611" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2611" t="s">
-        <v>2612</v>
-      </c>
-      <c r="B2611" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2612" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2612" t="s">
-        <v>2613</v>
-      </c>
-      <c r="B2612" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2613" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2613" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B2613" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2614" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2614" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B2614" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2615" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2615" t="s">
-        <v>2616</v>
-      </c>
-      <c r="B2615" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2616" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2616" t="s">
-        <v>2617</v>
-      </c>
-      <c r="B2616" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2617" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2617" t="s">
-        <v>2618</v>
-      </c>
-      <c r="B2617" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2618" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2618" t="s">
-        <v>2619</v>
-      </c>
-      <c r="B2618" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2619" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2619" t="s">
-        <v>2620</v>
-      </c>
-      <c r="B2619" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2620" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2620" t="s">
-        <v>2621</v>
-      </c>
-      <c r="B2620" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2621" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2621" t="s">
-        <v>2622</v>
-      </c>
-      <c r="B2621" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2622" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2622" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B2622" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2623" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2623" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B2623" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2624" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2624" t="s">
-        <v>2625</v>
-      </c>
-      <c r="B2624" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2625" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2625" t="s">
-        <v>2626</v>
-      </c>
-      <c r="B2625" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2626" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2626" t="s">
-        <v>2627</v>
-      </c>
-      <c r="B2626" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2627" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2627" t="s">
-        <v>2628</v>
-      </c>
-      <c r="B2627" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2628" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2628" t="s">
-        <v>2629</v>
-      </c>
-      <c r="B2628" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2629" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2629" t="s">
-        <v>2630</v>
-      </c>
-      <c r="B2629" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2630" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2630" t="s">
-        <v>2631</v>
-      </c>
-      <c r="B2630" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2631" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2631" t="s">
-        <v>2632</v>
-      </c>
-      <c r="B2631" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2632" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2632" t="s">
-        <v>2633</v>
-      </c>
-      <c r="B2632" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2633" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2633" t="s">
-        <v>2634</v>
-      </c>
-      <c r="B2633" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2634" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2634" t="s">
-        <v>2635</v>
-      </c>
-      <c r="B2634" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2635" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2635" t="s">
-        <v>2636</v>
-      </c>
-      <c r="B2635" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2636" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2636" t="s">
-        <v>2637</v>
-      </c>
-      <c r="B2636" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2637" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2637" t="s">
-        <v>2638</v>
-      </c>
-      <c r="B2637" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2638" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2638" t="s">
-        <v>2639</v>
-      </c>
-      <c r="B2638" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2639" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2639" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B2639" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2640" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2640" t="s">
-        <v>2641</v>
-      </c>
-      <c r="B2640" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2641" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2641" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B2641" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2642" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2642" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B2642" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2643" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2643" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B2643" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2644" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2644" t="s">
-        <v>2645</v>
-      </c>
-      <c r="B2644" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2645" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2645" t="s">
-        <v>2646</v>
-      </c>
-      <c r="B2645" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2646" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2646" t="s">
-        <v>2647</v>
-      </c>
-      <c r="B2646" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2647" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2647" t="s">
-        <v>2648</v>
-      </c>
-      <c r="B2647" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2648" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2648" t="s">
-        <v>2649</v>
-      </c>
-      <c r="B2648" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2649" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2649" t="s">
-        <v>2650</v>
-      </c>
-      <c r="B2649" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2650" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2650" t="s">
-        <v>2651</v>
-      </c>
-      <c r="B2650" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2651" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2651" t="s">
-        <v>2652</v>
-      </c>
-      <c r="B2651" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2652" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2652" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B2652" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2653" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2653" t="s">
-        <v>2654</v>
-      </c>
-      <c r="B2653" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2654" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2654" t="s">
-        <v>2655</v>
-      </c>
-      <c r="B2654" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2655" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2655" t="s">
-        <v>2656</v>
-      </c>
-      <c r="B2655" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2656" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2656" t="s">
-        <v>2657</v>
-      </c>
-      <c r="B2656" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2657" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2657" t="s">
-        <v>2658</v>
-      </c>
-      <c r="B2657" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2658" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2658" t="s">
-        <v>2659</v>
-      </c>
-      <c r="B2658" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2659" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2659" t="s">
-        <v>2660</v>
-      </c>
-      <c r="B2659" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2660" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2660" t="s">
-        <v>2661</v>
-      </c>
-      <c r="B2660" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2661" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2661" t="s">
-        <v>2662</v>
-      </c>
-      <c r="B2661" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2662" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2662" t="s">
-        <v>2663</v>
-      </c>
-      <c r="B2662" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2663" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2663" t="s">
-        <v>2664</v>
-      </c>
-      <c r="B2663" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2664" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2664" t="s">
-        <v>2665</v>
-      </c>
-      <c r="B2664" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2665" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2665" t="s">
-        <v>2666</v>
-      </c>
-      <c r="B2665" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2666" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2666" t="s">
-        <v>2667</v>
-      </c>
-      <c r="B2666" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2667" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2667" t="s">
-        <v>2668</v>
-      </c>
-      <c r="B2667" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2668" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2668" t="s">
-        <v>2669</v>
-      </c>
-      <c r="B2668" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2669" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2669" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B2669" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2670" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2670" t="s">
-        <v>2671</v>
-      </c>
-      <c r="B2670" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2671" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2671" t="s">
-        <v>2672</v>
-      </c>
-      <c r="B2671" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2672" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2672" t="s">
-        <v>2673</v>
-      </c>
-      <c r="B2672" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2673" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2673" t="s">
-        <v>2674</v>
-      </c>
-      <c r="B2673" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2674" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2674" t="s">
-        <v>2675</v>
-      </c>
-      <c r="B2674" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2675" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2675" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B2675" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2676" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2676" t="s">
-        <v>2677</v>
-      </c>
-      <c r="B2676" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2677" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2677" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B2677" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2678" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2678" t="s">
-        <v>2679</v>
-      </c>
-      <c r="B2678" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2679" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2679" t="s">
-        <v>2680</v>
-      </c>
-      <c r="B2679" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2680" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2680" t="s">
-        <v>2681</v>
-      </c>
-      <c r="B2680" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2681" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2681" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B2681" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2682" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2682" t="s">
-        <v>2683</v>
-      </c>
-      <c r="B2682" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2683" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2683" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B2683" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2684" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2684" t="s">
-        <v>2685</v>
-      </c>
-      <c r="B2684" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2685" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2685" t="s">
-        <v>2686</v>
-      </c>
-      <c r="B2685" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2686" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2686" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B2686" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2687" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2687" t="s">
-        <v>2688</v>
-      </c>
-      <c r="B2687" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2688" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2688" t="s">
-        <v>2689</v>
-      </c>
-      <c r="B2688" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2689" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2689" t="s">
-        <v>2690</v>
-      </c>
-      <c r="B2689" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2690" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2690" t="s">
-        <v>2691</v>
-      </c>
-      <c r="B2690" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2691" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2691" t="s">
-        <v>2692</v>
-      </c>
-      <c r="B2691" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2692" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2692" t="s">
-        <v>2693</v>
-      </c>
-      <c r="B2692" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2693" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2693" t="s">
-        <v>2694</v>
-      </c>
-      <c r="B2693" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2694" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2694" t="s">
-        <v>2695</v>
-      </c>
-      <c r="B2694" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2695" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2695" t="s">
-        <v>2696</v>
-      </c>
-      <c r="B2695" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2696" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2696" t="s">
-        <v>2697</v>
-      </c>
-      <c r="B2696" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2697" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2697" t="s">
-        <v>2698</v>
-      </c>
-      <c r="B2697" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2698" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2698" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B2698" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2699" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2699" t="s">
-        <v>2700</v>
-      </c>
-      <c r="B2699" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2700" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2700" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B2700" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2701" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2701" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B2701" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2702" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2702" t="s">
-        <v>2703</v>
-      </c>
-      <c r="B2702" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2703" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2703" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B2703" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2704" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2704" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B2704" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2705" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2705" t="s">
-        <v>2706</v>
-      </c>
-      <c r="B2705" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2706" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2706" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B2706" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2707" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2707" t="s">
-        <v>2708</v>
-      </c>
-      <c r="B2707" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2708" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2708" t="s">
-        <v>2709</v>
-      </c>
-      <c r="B2708" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2709" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2709" t="s">
-        <v>2710</v>
-      </c>
-      <c r="B2709" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2710" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2710" t="s">
-        <v>2711</v>
-      </c>
-      <c r="B2710" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2711" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2711" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B2711" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2712" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2712" t="s">
-        <v>2713</v>
-      </c>
-      <c r="B2712" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2713" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2713" t="s">
-        <v>2714</v>
-      </c>
-      <c r="B2713" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2714" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2714" t="s">
-        <v>2715</v>
-      </c>
-      <c r="B2714" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2715" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2715" t="s">
-        <v>2716</v>
-      </c>
-      <c r="B2715" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2716" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2716" t="s">
-        <v>2717</v>
-      </c>
-      <c r="B2716" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2717" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2717" t="s">
-        <v>2718</v>
-      </c>
-      <c r="B2717" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2718" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2718" t="s">
-        <v>2719</v>
-      </c>
-      <c r="B2718" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2719" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2719" t="s">
-        <v>2720</v>
-      </c>
-      <c r="B2719" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2720" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2720" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B2720" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2721" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2721" t="s">
-        <v>2722</v>
-      </c>
-      <c r="B2721" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2722" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2722" t="s">
-        <v>2723</v>
-      </c>
-      <c r="B2722" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2723" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2723" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B2723" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2724" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2724" t="s">
-        <v>2725</v>
-      </c>
-      <c r="B2724" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2725" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2725" t="s">
-        <v>2726</v>
-      </c>
-      <c r="B2725" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2726" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2726" t="s">
-        <v>2727</v>
-      </c>
-      <c r="B2726" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2727" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2727" t="s">
-        <v>2728</v>
-      </c>
-      <c r="B2727" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2728" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2728" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B2728" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2729" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2729" t="s">
-        <v>2730</v>
-      </c>
-      <c r="B2729" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2730" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2730" t="s">
-        <v>2731</v>
-      </c>
-      <c r="B2730" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2731" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2731" t="s">
-        <v>2732</v>
-      </c>
-      <c r="B2731" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2732" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2732" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B2732" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2733" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2733" t="s">
-        <v>2734</v>
-      </c>
-      <c r="B2733" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2734" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2734" t="s">
-        <v>2735</v>
-      </c>
-      <c r="B2734" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2735" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2735" t="s">
-        <v>2736</v>
-      </c>
-      <c r="B2735" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2736" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2736" t="s">
-        <v>2737</v>
-      </c>
-      <c r="B2736" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2737" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2737" t="s">
-        <v>2738</v>
-      </c>
-      <c r="B2737" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2738" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2738" t="s">
-        <v>2739</v>
-      </c>
-      <c r="B2738" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2739" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2739" t="s">
-        <v>2740</v>
-      </c>
-      <c r="B2739" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2740" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2740" t="s">
-        <v>2741</v>
-      </c>
-      <c r="B2740" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2741" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2741" t="s">
-        <v>2742</v>
-      </c>
-      <c r="B2741" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2742" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2742" t="s">
-        <v>2743</v>
-      </c>
-      <c r="B2742" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2743" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2743" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B2743" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2744" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2744" t="s">
-        <v>2745</v>
-      </c>
-      <c r="B2744" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2745" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2745" t="s">
-        <v>2746</v>
-      </c>
-      <c r="B2745" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2746" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2746" t="s">
-        <v>2747</v>
-      </c>
-      <c r="B2746" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2747" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2747" t="s">
-        <v>2748</v>
-      </c>
-      <c r="B2747" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2748" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2748" t="s">
-        <v>2749</v>
-      </c>
-      <c r="B2748" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2749" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2749" t="s">
-        <v>2750</v>
-      </c>
-      <c r="B2749" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2750" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2750" t="s">
-        <v>2751</v>
-      </c>
-      <c r="B2750" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2751" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2751" t="s">
-        <v>2752</v>
-      </c>
-      <c r="B2751" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2752" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2752" t="s">
-        <v>2753</v>
-      </c>
-      <c r="B2752" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2753" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2753" t="s">
-        <v>2754</v>
-      </c>
-      <c r="B2753" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2754" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2754" t="s">
-        <v>2755</v>
-      </c>
-      <c r="B2754" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2755" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2755" t="s">
-        <v>2756</v>
-      </c>
-      <c r="B2755" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2756" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2756" t="s">
-        <v>2757</v>
-      </c>
-      <c r="B2756" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2757" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2757" t="s">
-        <v>2758</v>
-      </c>
-      <c r="B2757" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2758" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2758" t="s">
-        <v>2759</v>
-      </c>
-      <c r="B2758" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2759" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2759" t="s">
-        <v>2760</v>
-      </c>
-      <c r="B2759" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2760" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2760" t="s">
-        <v>2761</v>
-      </c>
-      <c r="B2760" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2761" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2761" t="s">
-        <v>2762</v>
-      </c>
-      <c r="B2761" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2762" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2762" t="s">
-        <v>2763</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2763" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2763" t="s">
-        <v>2764</v>
-      </c>
-      <c r="B2763" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2764" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2764" t="s">
-        <v>2765</v>
-      </c>
-      <c r="B2764" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2765" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2765" t="s">
-        <v>2766</v>
-      </c>
-      <c r="B2765" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2766" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2766" t="s">
-        <v>2767</v>
-      </c>
-      <c r="B2766" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2767" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2767" t="s">
-        <v>2768</v>
-      </c>
-      <c r="B2767" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2768" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2768" t="s">
-        <v>2769</v>
-      </c>
-      <c r="B2768" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2769" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2769" t="s">
-        <v>2770</v>
-      </c>
-      <c r="B2769" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2770" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2770" t="s">
-        <v>2771</v>
-      </c>
-      <c r="B2770" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2771" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2771" t="s">
-        <v>2772</v>
-      </c>
-      <c r="B2771" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2772" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2772" t="s">
-        <v>2773</v>
-      </c>
-      <c r="B2772" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2773" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2773" t="s">
-        <v>2774</v>
-      </c>
-      <c r="B2773" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2774" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2774" t="s">
-        <v>2775</v>
-      </c>
-      <c r="B2774" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2775" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2775" t="s">
-        <v>2776</v>
-      </c>
-      <c r="B2775" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2776" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2776" t="s">
-        <v>2777</v>
-      </c>
-      <c r="B2776" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2777" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2777" t="s">
-        <v>2778</v>
-      </c>
-      <c r="B2777" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2778" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2778" t="s">
-        <v>2779</v>
-      </c>
-      <c r="B2778" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2779" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2779" t="s">
-        <v>2780</v>
-      </c>
-      <c r="B2779" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2780" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2780" t="s">
-        <v>2781</v>
-      </c>
-      <c r="B2780" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2781" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2781" t="s">
-        <v>2782</v>
-      </c>
-      <c r="B2781" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2782" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2782" t="s">
-        <v>2783</v>
-      </c>
-      <c r="B2782" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2783" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2783" t="s">
-        <v>2784</v>
-      </c>
-      <c r="B2783" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2784" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2784" t="s">
-        <v>2785</v>
-      </c>
-      <c r="B2784" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2785" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2785" t="s">
-        <v>2786</v>
-      </c>
-      <c r="B2785" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2786" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2786" t="s">
-        <v>2787</v>
-      </c>
-      <c r="B2786" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2787" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2787" t="s">
-        <v>2788</v>
-      </c>
-      <c r="B2787" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2788" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2788" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B2788" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2789" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2789" t="s">
-        <v>2790</v>
-      </c>
-      <c r="B2789" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2790" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2790" t="s">
-        <v>2791</v>
-      </c>
-      <c r="B2790" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2791" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2791" t="s">
-        <v>2792</v>
-      </c>
-      <c r="B2791" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2792" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2792" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B2792" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2793" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2793" t="s">
-        <v>2794</v>
-      </c>
-      <c r="B2793" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2794" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2794" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B2794" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2795" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2795" t="s">
-        <v>2796</v>
-      </c>
-      <c r="B2795" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2796" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2796" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B2796" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2797" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2797" t="s">
-        <v>2798</v>
-      </c>
-      <c r="B2797" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2798" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2798" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B2798" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2799" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2799" t="s">
-        <v>2800</v>
-      </c>
-      <c r="B2799" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2800" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2800" t="s">
-        <v>2801</v>
-      </c>
-      <c r="B2800" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2801" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2801" t="s">
-        <v>2802</v>
-      </c>
-      <c r="B2801" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2802" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2802" t="s">
-        <v>2803</v>
-      </c>
-      <c r="B2802" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2803" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2803" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B2803" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2804" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2804" t="s">
-        <v>2805</v>
-      </c>
-      <c r="B2804" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2805" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2805" t="s">
-        <v>2806</v>
-      </c>
-      <c r="B2805" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2806" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2806" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B2806" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2807" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2807" t="s">
-        <v>2808</v>
-      </c>
-      <c r="B2807" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2808" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2808" t="s">
-        <v>2809</v>
-      </c>
-      <c r="B2808" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2809" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2809" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B2809" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2810" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2810" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B2810" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2811" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2811" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B2811" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2812" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2812" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2812" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2813" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2813" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B2813" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2814" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2814" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B2814" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2815" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2815" t="s">
-        <v>2816</v>
-      </c>
-      <c r="B2815" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2816" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2816" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B2816" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2817" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2817" t="s">
-        <v>2818</v>
-      </c>
-      <c r="B2817" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2818" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2818" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B2818" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2819" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2819" t="s">
-        <v>2820</v>
-      </c>
-      <c r="B2819" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2820" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2820" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B2820" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2821" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2821" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B2821" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2822" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2822" t="s">
-        <v>2823</v>
-      </c>
-      <c r="B2822" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2823" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2823" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B2823" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2824" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2824" t="s">
-        <v>2825</v>
-      </c>
-      <c r="B2824" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2825" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2825" t="s">
-        <v>2826</v>
-      </c>
-      <c r="B2825" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2826" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2826" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B2826" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2827" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2827" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B2827" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2828" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2828" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B2828" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2829" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2829" t="s">
-        <v>2830</v>
-      </c>
-      <c r="B2829" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2830" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2830" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B2830" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2831" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2831" t="s">
-        <v>2832</v>
-      </c>
-      <c r="B2831" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2832" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2832" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B2832" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2833" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2833" t="s">
-        <v>2834</v>
-      </c>
-      <c r="B2833" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2834" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2834" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B2834" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2835" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2835" t="s">
-        <v>2836</v>
-      </c>
-      <c r="B2835" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2836" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2836" t="s">
-        <v>2837</v>
-      </c>
-      <c r="B2836" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2837" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2837" t="s">
-        <v>2838</v>
-      </c>
-      <c r="B2837" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2838" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2838" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B2838" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2839" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2839" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B2839" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2840" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2840" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B2840" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2841" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2841" t="s">
-        <v>2842</v>
-      </c>
-      <c r="B2841" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2842" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2842" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B2842" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2843" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2843" t="s">
-        <v>2844</v>
-      </c>
-      <c r="B2843" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2844" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2844" t="s">
-        <v>2845</v>
-      </c>
-      <c r="B2844" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2845" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2845" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B2845" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2846" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2846" t="s">
-        <v>2847</v>
-      </c>
-      <c r="B2846" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2847" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2847" t="s">
-        <v>2848</v>
-      </c>
-      <c r="B2847" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2848" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2848" t="s">
-        <v>2849</v>
-      </c>
-      <c r="B2848" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2849" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2849" t="s">
-        <v>2850</v>
-      </c>
-      <c r="B2849" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2850" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2850" t="s">
-        <v>2851</v>
-      </c>
-      <c r="B2850" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2851" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2851" t="s">
-        <v>2852</v>
-      </c>
-      <c r="B2851" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2852" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2852" t="s">
-        <v>2853</v>
-      </c>
-      <c r="B2852" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2853" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2853" t="s">
-        <v>2854</v>
-      </c>
-      <c r="B2853" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2854" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2854" t="s">
-        <v>2855</v>
-      </c>
-      <c r="B2854" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2855" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2855" t="s">
-        <v>2856</v>
-      </c>
-      <c r="B2855" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2856" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2856" t="s">
-        <v>2857</v>
-      </c>
-      <c r="B2856" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2857" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2857" t="s">
-        <v>2858</v>
-      </c>
-      <c r="B2857" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2858" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2858" t="s">
-        <v>2859</v>
-      </c>
-      <c r="B2858" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2859" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2859" t="s">
-        <v>2860</v>
-      </c>
-      <c r="B2859" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2860" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2860" t="s">
-        <v>2861</v>
-      </c>
-      <c r="B2860" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2861" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2861" t="s">
-        <v>2862</v>
-      </c>
-      <c r="B2861" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2862" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2862" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B2862" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2863" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2863" t="s">
-        <v>2864</v>
-      </c>
-      <c r="B2863" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2864" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2864" t="s">
-        <v>2865</v>
-      </c>
-      <c r="B2864" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2865" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2865" t="s">
-        <v>2866</v>
-      </c>
-      <c r="B2865" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2866" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2866" t="s">
-        <v>2867</v>
-      </c>
-      <c r="B2866" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2867" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2867" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B2867" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2868" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2868" t="s">
-        <v>2869</v>
-      </c>
-      <c r="B2868" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2869" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2869" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B2869" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2870" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2870" t="s">
-        <v>2871</v>
-      </c>
-      <c r="B2870" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2871" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2871" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B2871" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2872" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2872" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B2872" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2873" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2873" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B2873" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2874" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2874" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B2874" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2875" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2875" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B2875" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2876" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2876" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B2876" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2877" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2877" t="s">
-        <v>2878</v>
-      </c>
-      <c r="B2877" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2878" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2878" t="s">
-        <v>2879</v>
-      </c>
-      <c r="B2878" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2879" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2879" t="s">
-        <v>2880</v>
-      </c>
-      <c r="B2879" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2880" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2880" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B2880" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2881" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2881" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B2881" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2882" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2882" t="s">
-        <v>2883</v>
-      </c>
-      <c r="B2882" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2883" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2883" t="s">
-        <v>2884</v>
-      </c>
-      <c r="B2883" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2884" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2884" t="s">
-        <v>2885</v>
-      </c>
-      <c r="B2884" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2885" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2885" t="s">
-        <v>2886</v>
-      </c>
-      <c r="B2885" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2886" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2886" t="s">
-        <v>2887</v>
-      </c>
-      <c r="B2886" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2887" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2887" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B2887" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2888" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2888" t="s">
-        <v>2889</v>
-      </c>
-      <c r="B2888" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2889" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2889" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B2889" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2890" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2890" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B2890" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2891" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2891" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B2891" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2892" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2892" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B2892" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2893" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2893" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B2893" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2894" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2894" t="s">
-        <v>2895</v>
-      </c>
-      <c r="B2894" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2895" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2895" t="s">
-        <v>2896</v>
-      </c>
-      <c r="B2895" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2896" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2896" t="s">
-        <v>2897</v>
-      </c>
-      <c r="B2896" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2897" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2897" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B2897" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2898" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2898" t="s">
-        <v>2899</v>
-      </c>
-      <c r="B2898" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2899" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2899" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B2899" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2900" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2900" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B2900" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2901" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2901" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B2901" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2902" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2902" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B2902" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2903" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2903" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B2903" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2904" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2904" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B2904" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2905" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2905" t="s">
-        <v>2906</v>
-      </c>
-      <c r="B2905" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2906" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2906" t="s">
-        <v>2907</v>
-      </c>
-      <c r="B2906" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2907" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2907" t="s">
-        <v>2908</v>
-      </c>
-      <c r="B2907" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2908" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2908" t="s">
-        <v>2909</v>
-      </c>
-      <c r="B2908" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2909" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2909" t="s">
-        <v>2910</v>
-      </c>
-      <c r="B2909" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2910" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2910" t="s">
-        <v>2911</v>
-      </c>
-      <c r="B2910" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2911" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2911" t="s">
-        <v>2912</v>
-      </c>
-      <c r="B2911" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2912" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2912" t="s">
-        <v>2913</v>
-      </c>
-      <c r="B2912" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2913" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2913" t="s">
-        <v>2914</v>
-      </c>
-      <c r="B2913" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2914" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2914" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B2914" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2915" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2915" t="s">
-        <v>2916</v>
-      </c>
-      <c r="B2915" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2916" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2916" t="s">
-        <v>2917</v>
-      </c>
-      <c r="B2916" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2917" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2917" t="s">
-        <v>2918</v>
-      </c>
-      <c r="B2917" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2918" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2918" t="s">
-        <v>2919</v>
-      </c>
-      <c r="B2918" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2919" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2919" t="s">
-        <v>2920</v>
-      </c>
-      <c r="B2919" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2920" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2920" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B2920" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2921" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2921" t="s">
-        <v>2922</v>
-      </c>
-      <c r="B2921" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2922" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2922" t="s">
-        <v>2923</v>
-      </c>
-      <c r="B2922" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2923" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2923" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B2923" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2924" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2924" t="s">
-        <v>2925</v>
-      </c>
-      <c r="B2924" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2925" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2925" t="s">
-        <v>2926</v>
-      </c>
-      <c r="B2925" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2926" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2926" t="s">
-        <v>2927</v>
-      </c>
-      <c r="B2926" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2927" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2927" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B2927" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2928" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2928" t="s">
-        <v>2929</v>
-      </c>
-      <c r="B2928" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2929" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2929" t="s">
-        <v>2930</v>
-      </c>
-      <c r="B2929" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2930" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2930" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B2930" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2931" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2931" t="s">
-        <v>2932</v>
-      </c>
-      <c r="B2931" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2932" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2932" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B2932" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2933" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2933" t="s">
-        <v>2934</v>
-      </c>
-      <c r="B2933" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2934" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2934" t="s">
-        <v>2935</v>
-      </c>
-      <c r="B2934" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2935" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2935" t="s">
-        <v>2936</v>
-      </c>
-      <c r="B2935" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2936" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2936" t="s">
-        <v>2937</v>
-      </c>
-      <c r="B2936" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2937" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2937" t="s">
-        <v>2938</v>
-      </c>
-      <c r="B2937" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2938" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2938" t="s">
-        <v>2939</v>
-      </c>
-      <c r="B2938" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2939" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2939" t="s">
-        <v>2940</v>
-      </c>
-      <c r="B2939" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2940" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2940" t="s">
-        <v>2941</v>
-      </c>
-      <c r="B2940" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2941" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2941" t="s">
-        <v>2942</v>
-      </c>
-      <c r="B2941" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2942" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2942" t="s">
-        <v>2943</v>
-      </c>
-      <c r="B2942" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2943" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2943" t="s">
-        <v>2944</v>
-      </c>
-      <c r="B2943" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2944" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2944" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B2944" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2945" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2945" t="s">
-        <v>2946</v>
-      </c>
-      <c r="B2945" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2946" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2946" t="s">
-        <v>2947</v>
-      </c>
-      <c r="B2946" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2947" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2947" t="s">
-        <v>2948</v>
-      </c>
-      <c r="B2947" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2948" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2948" t="s">
-        <v>2949</v>
-      </c>
-      <c r="B2948" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2949" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2949" t="s">
-        <v>2950</v>
-      </c>
-      <c r="B2949" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2950" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2950" t="s">
-        <v>2951</v>
-      </c>
-      <c r="B2950" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2951" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2951" t="s">
-        <v>2952</v>
-      </c>
-      <c r="B2951" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2952" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2952" t="s">
-        <v>2953</v>
-      </c>
-      <c r="B2952" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2953" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2953" t="s">
-        <v>2954</v>
-      </c>
-      <c r="B2953" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2954" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2954" t="s">
-        <v>2955</v>
-      </c>
-      <c r="B2954" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2955" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2955" t="s">
-        <v>2956</v>
-      </c>
-      <c r="B2955" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2956" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2956" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B2956" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2957" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2957" t="s">
-        <v>2958</v>
-      </c>
-      <c r="B2957" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2958" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2958" t="s">
-        <v>2959</v>
-      </c>
-      <c r="B2958" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2959" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2959" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B2959" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2960" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2960" t="s">
-        <v>2961</v>
-      </c>
-      <c r="B2960" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2961" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2961" t="s">
-        <v>2962</v>
-      </c>
-      <c r="B2961" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2962" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2962" t="s">
-        <v>2963</v>
-      </c>
-      <c r="B2962" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2963" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2963" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B2963" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2964" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2964" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B2964" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2965" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2965" t="s">
-        <v>2966</v>
-      </c>
-      <c r="B2965" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2966" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2966" t="s">
-        <v>2967</v>
-      </c>
-      <c r="B2966" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2967" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2967" t="s">
-        <v>2968</v>
-      </c>
-      <c r="B2967" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2968" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2968" t="s">
-        <v>2969</v>
-      </c>
-      <c r="B2968" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2969" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2969" t="s">
-        <v>2970</v>
-      </c>
-      <c r="B2969" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2970" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2970" t="s">
-        <v>2971</v>
-      </c>
-      <c r="B2970" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2971" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2971" t="s">
-        <v>2972</v>
-      </c>
-      <c r="B2971" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2972" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2972" t="s">
-        <v>2973</v>
-      </c>
-      <c r="B2972" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2973" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2973" t="s">
-        <v>2974</v>
-      </c>
-      <c r="B2973" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2974" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2974" t="s">
-        <v>2975</v>
-      </c>
-      <c r="B2974" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2975" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2975" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B2975" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2976" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2976" t="s">
-        <v>2977</v>
-      </c>
-      <c r="B2976" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2977" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2977" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B2977" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2978" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2978" t="s">
-        <v>2979</v>
-      </c>
-      <c r="B2978" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2979" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2979" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B2979" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2980" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2980" t="s">
-        <v>2981</v>
-      </c>
-      <c r="B2980" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2981" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2981" t="s">
-        <v>2982</v>
-      </c>
-      <c r="B2981" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2982" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2982" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B2982" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2983" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2983" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B2983" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2984" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2984" t="s">
-        <v>2985</v>
-      </c>
-      <c r="B2984" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2985" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2985" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B2985" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2986" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2986" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B2986" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2987" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2987" t="s">
-        <v>2988</v>
-      </c>
-      <c r="B2987" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2988" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2988" t="s">
-        <v>2989</v>
-      </c>
-      <c r="B2988" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2989" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2989" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B2989" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2990" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2990" t="s">
-        <v>2991</v>
-      </c>
-      <c r="B2990" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2991" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2991" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B2991" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2992" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2992" t="s">
-        <v>2993</v>
-      </c>
-      <c r="B2992" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2993" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2993" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B2993" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2994" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2994" t="s">
-        <v>2995</v>
-      </c>
-      <c r="B2994" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2995" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2995" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B2995" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2996" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2996" t="s">
-        <v>2997</v>
-      </c>
-      <c r="B2996" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2997" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2997" t="s">
-        <v>2998</v>
-      </c>
-      <c r="B2997" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2998" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2998" t="s">
-        <v>2999</v>
-      </c>
-      <c r="B2998" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2999" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2999" t="s">
-        <v>3000</v>
-      </c>
-      <c r="B2999" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3000" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3000" t="s">
-        <v>3001</v>
-      </c>
-      <c r="B3000" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3001" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3001" t="s">
-        <v>3002</v>
-      </c>
-      <c r="B3001" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3002" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3002" t="s">
-        <v>3003</v>
-      </c>
-      <c r="B3002" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3003" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3003" t="s">
-        <v>3004</v>
-      </c>
-      <c r="B3003" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3004" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3004" t="s">
-        <v>3005</v>
-      </c>
-      <c r="B3004" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3005" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3005" t="s">
-        <v>3006</v>
-      </c>
-      <c r="B3005" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3006" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3006" t="s">
-        <v>3007</v>
-      </c>
-      <c r="B3006" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3007" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3007" t="s">
-        <v>3008</v>
-      </c>
-      <c r="B3007" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3008" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3008" t="s">
-        <v>3009</v>
-      </c>
-      <c r="B3008" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3009" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3009" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B3009" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3010" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3010" t="s">
-        <v>3011</v>
-      </c>
-      <c r="B3010" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3011" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3011" t="s">
-        <v>3012</v>
-      </c>
-      <c r="B3011" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3166" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D3166" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4942" uniqueCount="2473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="2424">
   <si>
     <t>frase</t>
   </si>
@@ -7295,153 +7295,6 @@
   </si>
   <si>
     <t>Agora não tenho pressa, só quero aproveitar o momento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existe um cansaço emocional que invade até meus sonhos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As pequenas coisas não me alcançam como alcançavam antes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus planos estão guardados, esperando coragem para existir </t>
-  </si>
-  <si>
-    <t>O silêncio do quarto pesa como se fosse uma segunda pele</t>
-  </si>
-  <si>
-    <t>O brilho das coisas perdeu cor diante do que ficou para trás</t>
-  </si>
-  <si>
-    <t>A rotina continua, mas meu ânimo não acompanha</t>
-  </si>
-  <si>
-    <t>Os dias parecem ecoar um tipo estranho de saudade</t>
-  </si>
-  <si>
-    <t>O corpo segue, mas a alma caminha arrastada</t>
-  </si>
-  <si>
-    <t>O que antes era aconchego virou uma sombra permanente</t>
-  </si>
-  <si>
-    <t>Tudo à minha volta soa abafado, como se eu vivesse debaixo d’água</t>
-  </si>
-  <si>
-    <t>A vida segue, mas parece que não estou no mesmo ritmo</t>
-  </si>
-  <si>
-    <t>A lembrança que guardo parece um nó que não afrouxa</t>
-  </si>
-  <si>
-    <t>As horas passam lentas, como se arrastassem minha vontade junto</t>
-  </si>
-  <si>
-    <t>Há uma névoa emocional que cobre cada pensamento</t>
-  </si>
-  <si>
-    <t>O sorriso que tento forçar se desfaz antes de nascer</t>
-  </si>
-  <si>
-    <t>Carrego um peso discreto que ninguém nota, mas nunca some</t>
-  </si>
-  <si>
-    <t>As memórias antigas reaparecem como fantasmas educados</t>
-  </si>
-  <si>
-    <t>O tempo insiste em repetir ausências que eu não pedi</t>
-  </si>
-  <si>
-    <t>Há um cansaço que não vem do corpo, mas mora na intenção</t>
-  </si>
-  <si>
-    <t>A saudade pesa mais que qualquer objeto que carrego</t>
-  </si>
-  <si>
-    <t>A motivação evapora antes de amadurecer</t>
-  </si>
-  <si>
-    <t>O mundo parece distante mesmo estando perto</t>
-  </si>
-  <si>
-    <t>A alma parece andar descalça sobre pedras frias</t>
-  </si>
-  <si>
-    <t>Os pensamentos escurecem antes mesmo de surgirem</t>
-  </si>
-  <si>
-    <t>A noite chega com um silêncio que pesa</t>
-  </si>
-  <si>
-    <t>Há uma dor que não fere por fora, mas perfura por dentro</t>
-  </si>
-  <si>
-    <t>A vontade de conversar se dissolve antes de virar palavra</t>
-  </si>
-  <si>
-    <t>As emoções se escondem atrás de uma parede gelada</t>
-  </si>
-  <si>
-    <t>A esperança tropeça sempre que tento puxá-la</t>
-  </si>
-  <si>
-    <t>O mundo continua girando, mas não me sinto a bordo</t>
-  </si>
-  <si>
-    <t>Os dias passam, mas eu fico preso no mesmo ponto</t>
-  </si>
-  <si>
-    <t>As lembranças felizes soam distantes demais para tocar</t>
-  </si>
-  <si>
-    <t>O coração bate, mas não encontra motivo</t>
-  </si>
-  <si>
-    <t>As expectativas antigas se tornaram ruínas organizadas</t>
-  </si>
-  <si>
-    <t>Há um vazio que não faz barulho, mas ocupa tudo</t>
-  </si>
-  <si>
-    <t>O tempo não cura quando a ferida não fecha</t>
-  </si>
-  <si>
-    <t>As cores do dia parecem fugir quando me aproximo</t>
-  </si>
-  <si>
-    <t>Todo passo parece mais longo do que ontem</t>
-  </si>
-  <si>
-    <t>O ar parece pesado demais para uma respiração tranquila</t>
-  </si>
-  <si>
-    <t>A esperança tropeça antes de completar qualquer frase</t>
-  </si>
-  <si>
-    <t>É como se meu mundo interno estivesse fora de foco</t>
-  </si>
-  <si>
-    <t>As imagens que vejo carregam um filtro cinza inevitável</t>
-  </si>
-  <si>
-    <t>A vontade de existir está em modo silencioso</t>
-  </si>
-  <si>
-    <t>As manhãs chegam, mas não me encontram inteiro</t>
-  </si>
-  <si>
-    <t>As conversas soam vazias, por mais longas que sejam</t>
-  </si>
-  <si>
-    <t>O peito aperta como se algo estivesse por desabar</t>
-  </si>
-  <si>
-    <t>As coisas boas perderam o sabor sem aviso</t>
-  </si>
-  <si>
-    <t>A vida anda em tons menores, quase monocromática</t>
-  </si>
-  <si>
-    <t>Cada gesto parece mais distante do que costumava ser</t>
   </si>
 </sst>
 </file>
@@ -7820,10 +7673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2471"/>
+  <dimension ref="A1:I2422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2314" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B2473" sqref="B2473"/>
+    <sheetView tabSelected="1" topLeftCell="A2414" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B2418" sqref="B2418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27212,398 +27065,6 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2423" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2423" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B2423" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2424" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2424" t="s">
-        <v>2427</v>
-      </c>
-      <c r="B2424" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2425" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2425" t="s">
-        <v>2435</v>
-      </c>
-      <c r="B2425" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2426" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2426" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B2426" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2427" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2427" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B2427" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2428" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2428" t="s">
-        <v>2431</v>
-      </c>
-      <c r="B2428" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2429" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2429" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B2429" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2430" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2430" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B2430" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2431" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2431" t="s">
-        <v>2429</v>
-      </c>
-      <c r="B2431" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2432" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2432" t="s">
-        <v>2438</v>
-      </c>
-      <c r="B2432" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2433" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2433" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B2433" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2434" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2434" t="s">
-        <v>2440</v>
-      </c>
-      <c r="B2434" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2435" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2435" t="s">
-        <v>2441</v>
-      </c>
-      <c r="B2435" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2436" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2436" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B2436" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2437" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2437" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B2437" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2438" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2438" t="s">
-        <v>2471</v>
-      </c>
-      <c r="B2438" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2439" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2439" t="s">
-        <v>2470</v>
-      </c>
-      <c r="B2439" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2440" t="s">
-        <v>2469</v>
-      </c>
-      <c r="B2440" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2441" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2441" t="s">
-        <v>2468</v>
-      </c>
-      <c r="B2441" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2442" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2442" t="s">
-        <v>2467</v>
-      </c>
-      <c r="B2442" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2443" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2443" t="s">
-        <v>2466</v>
-      </c>
-      <c r="B2443" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2444" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2444" t="s">
-        <v>2465</v>
-      </c>
-      <c r="B2444" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2445" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2445" t="s">
-        <v>2464</v>
-      </c>
-      <c r="B2445" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2446" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2446" t="s">
-        <v>2463</v>
-      </c>
-      <c r="B2446" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2447" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2447" t="s">
-        <v>2462</v>
-      </c>
-      <c r="B2447" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2448" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2448" t="s">
-        <v>2461</v>
-      </c>
-      <c r="B2448" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2449" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2449" t="s">
-        <v>2424</v>
-      </c>
-      <c r="B2449" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2450" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2450" t="s">
-        <v>2460</v>
-      </c>
-      <c r="B2450" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2451" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2451" t="s">
-        <v>2459</v>
-      </c>
-      <c r="B2451" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2452" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2452" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B2452" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2453" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2453" t="s">
-        <v>2457</v>
-      </c>
-      <c r="B2453" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2454" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2454" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B2454" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2455" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2455" t="s">
-        <v>2455</v>
-      </c>
-      <c r="B2455" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2456" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2456" t="s">
-        <v>2454</v>
-      </c>
-      <c r="B2456" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2457" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2457" t="s">
-        <v>2453</v>
-      </c>
-      <c r="B2457" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2458" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2458" t="s">
-        <v>2452</v>
-      </c>
-      <c r="B2458" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2459" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2459" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B2459" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2460" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2460" t="s">
-        <v>2450</v>
-      </c>
-      <c r="B2460" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2461" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2461" t="s">
-        <v>2449</v>
-      </c>
-      <c r="B2461" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2462" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2462" t="s">
-        <v>2425</v>
-      </c>
-      <c r="B2462" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2463" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2463" t="s">
-        <v>2426</v>
-      </c>
-      <c r="B2463" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2464" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2464" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B2464" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2465" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2465" t="s">
-        <v>2447</v>
-      </c>
-      <c r="B2465" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2466" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2466" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B2466" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2467" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2467" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B2467" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2468" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2468" t="s">
-        <v>2444</v>
-      </c>
-      <c r="B2468" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2469" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2469" t="s">
-        <v>2443</v>
-      </c>
-      <c r="B2469" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2470" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2470" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B2470" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2471" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2471" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B2471" t="s">
-        <v>289</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="2424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="2134">
   <si>
     <t>frase</t>
   </si>
@@ -6416,876 +6416,6 @@
   </si>
   <si>
     <t>Estrelas brilhantes despertaram uma alegria serena</t>
-  </si>
-  <si>
-    <t>A professora ignorou completamente o esforço da menina e isso me deixou furioso</t>
-  </si>
-  <si>
-    <t>Os colegas riram do desenho do garoto e isso provocou um incômodo enorme</t>
-  </si>
-  <si>
-    <t>O coordenador tratou o aluno com descaso e gerou uma irritação geral na sala</t>
-  </si>
-  <si>
-    <t>Ver o menino culpado por algo que não fez despertou uma revolta forte em mim</t>
-  </si>
-  <si>
-    <t>A bagunça no corredor durante a troca de aula deixou todo mundo indignado</t>
-  </si>
-  <si>
-    <t>O garoto empurrou a menina e ninguém tomou providência, o que causou grande irritação</t>
-  </si>
-  <si>
-    <t>Fiquei contrariado quando o professor esqueceu de corrigir o trabalho do grupo</t>
-  </si>
-  <si>
-    <t>O barulho constante no pátio transformou a manhã em um tormento</t>
-  </si>
-  <si>
-    <t>A injustiça com a criança nova desencadeou uma fúria silenciosa</t>
-  </si>
-  <si>
-    <t>A falta de respeito entre os alunos provocou um ambiente tenso e exasperante</t>
-  </si>
-  <si>
-    <t>O menino ficou cabisbaixo quando viu que o lanche dele tinha desaparecido</t>
-  </si>
-  <si>
-    <t>A menina voltou da aula silenciosa, com os olhos brilhando de decepção</t>
-  </si>
-  <si>
-    <t>O garoto caminhou devagar pelo corredor, carregando uma melancolia evidente</t>
-  </si>
-  <si>
-    <t>A criança chorou baixinho quando percebeu que ninguém a escolheu para o grupo</t>
-  </si>
-  <si>
-    <t>A ausência da professora favorita criou um vazio no clima da sala</t>
-  </si>
-  <si>
-    <t>O desenho rasgado no caderno deixou o aluno abatido pelo resto do dia</t>
-  </si>
-  <si>
-    <t>A menina guardou o material com uma expressão de desalento</t>
-  </si>
-  <si>
-    <t>A bronca injusta deixou o garoto profundamente desanimado</t>
-  </si>
-  <si>
-    <t>A solidão no recreio pesou no olhar da criança nova</t>
-  </si>
-  <si>
-    <t>O silêncio do estudante revelou uma tristeza difícil de esconder</t>
-  </si>
-  <si>
-    <t>O aluno hesitou antes de entrar na sala, tomado por uma apreensão silenciosa</t>
-  </si>
-  <si>
-    <t>A criança recuou quando ouviu a discussão no corredor</t>
-  </si>
-  <si>
-    <t>O garoto tremeu ao ser chamado para apresentar o trabalho</t>
-  </si>
-  <si>
-    <t>A menina encolheu os ombros ao notar a aproximação do grupo que sempre provoca</t>
-  </si>
-  <si>
-    <t>O barulho alto na quadra fez a estudante se encolher de susto</t>
-  </si>
-  <si>
-    <t>O clima tenso da prova gerou um pavor crescente no aluno mais novo</t>
-  </si>
-  <si>
-    <t>A ameaça dos colegas deixou o menino em estado de alerta constante</t>
-  </si>
-  <si>
-    <t>A criança segurou firme o caderno, dominada por uma angústia silenciosa</t>
-  </si>
-  <si>
-    <t>A luz falhando no corredor despertou um receio imediato</t>
-  </si>
-  <si>
-    <t>O professor rígido provocava um temor evidente em toda a turma</t>
-  </si>
-  <si>
-    <t>A menina sorriu radiante ao ver que tinha acertado todas as questões</t>
-  </si>
-  <si>
-    <t>O menino saiu da sala saltitando depois de ganhar um elogio inesperado</t>
-  </si>
-  <si>
-    <t>O grupo comemorou em festa quando finalizou o projeto da feira de ciências</t>
-  </si>
-  <si>
-    <t>A criança correu pelo pátio com uma empolgação contagiante</t>
-  </si>
-  <si>
-    <t>A chegada do recreio trouxe uma leveza luminosa para os alunos</t>
-  </si>
-  <si>
-    <t>O garoto riu alto ao receber um bilhete engraçado da amiga</t>
-  </si>
-  <si>
-    <t>A turma vibrou quando descobriu que teria aula de artes</t>
-  </si>
-  <si>
-    <t>A atividade em grupo gerou um entusiasmo espontâneo na sala</t>
-  </si>
-  <si>
-    <t>O abraço da colega iluminou o rosto da menina tímida</t>
-  </si>
-  <si>
-    <t>A brincadeira no pátio despertou uma felicidade vibrante nas crianças</t>
-  </si>
-  <si>
-    <t>Recreio cheio de risadas deixou o pátio mais leve</t>
-  </si>
-  <si>
-    <t>Crianças correndo pelo corredor criaram um clima animado</t>
-  </si>
-  <si>
-    <t>Sala cheia de conversa boa deu vida à manhã</t>
-  </si>
-  <si>
-    <t>Desenhos coloridos espalhados na mesa tornaram tudo mais divertido</t>
-  </si>
-  <si>
-    <t>Cantinho da leitura virou palco de pequenas descobertas</t>
-  </si>
-  <si>
-    <t>Rodinha de histórias trouxe empolgação imediata</t>
-  </si>
-  <si>
-    <t>Risadas soltas no pátio deram ritmo ao dia</t>
-  </si>
-  <si>
-    <t>Corrida improvisada no gramado rendeu momentos brilhantes</t>
-  </si>
-  <si>
-    <t>Brincadeira de estátua transformou o intervalo em festa</t>
-  </si>
-  <si>
-    <t>Grupo estudando junto criou uma energia contagiante</t>
-  </si>
-  <si>
-    <t>Jogo de perguntas deixou a aula mais dinâmica</t>
-  </si>
-  <si>
-    <t>Crianças ajudando umas às outras iluminaram a sala</t>
-  </si>
-  <si>
-    <t>Mesa cheia de lápis de cor trouxe um clima vibrante</t>
-  </si>
-  <si>
-    <t>Caminhada até a biblioteca rendeu conversas leves</t>
-  </si>
-  <si>
-    <t>Mural escolar enfeitado gerou entusiasmo geral</t>
-  </si>
-  <si>
-    <t>Música na aula de artes deixou todos mais soltos</t>
-  </si>
-  <si>
-    <t>Primeira resposta certa da turma arrancou sorrisos coletivos</t>
-  </si>
-  <si>
-    <t>Piquenique escolar no jardim criou uma manhã radiante</t>
-  </si>
-  <si>
-    <t>Brincadeira de adedonha despertou uma animação suave</t>
-  </si>
-  <si>
-    <t>Alunos organizando a sala criaram um ambiente acolhedor</t>
-  </si>
-  <si>
-    <t>Chá da tarde com a turma rendeu momentos calorosos</t>
-  </si>
-  <si>
-    <t>Leitura dramatizada levantou o astral da classe</t>
-  </si>
-  <si>
-    <t>Desenhos no quadro viraram ponto alto do dia</t>
-  </si>
-  <si>
-    <t>Caminhada até o laboratório trouxe curiosidade animada</t>
-  </si>
-  <si>
-    <t>Oficina de reciclagem deixou o dia mais colorido</t>
-  </si>
-  <si>
-    <t>Turma unida no trabalho em grupo criou uma atmosfera leve</t>
-  </si>
-  <si>
-    <t>Jogo de tabuleiro educativo animou a última aula</t>
-  </si>
-  <si>
-    <t>Cartazes feitos pela turma espalharam boas vibrações</t>
-  </si>
-  <si>
-    <t>Atividade ao ar livre transformou a tarde em celebração</t>
-  </si>
-  <si>
-    <t>Corrida de saco improvisada levantou gargalhadas</t>
-  </si>
-  <si>
-    <t>Sala decorada surpreendeu todo mundo pela manhã</t>
-  </si>
-  <si>
-    <t>Experimento de ciências trouxe uma energia brilhante</t>
-  </si>
-  <si>
-    <t>Rodinha de conversa incentivou uma alegria discreta</t>
-  </si>
-  <si>
-    <t>Brincadeiras no parquinho deixaram tudo mais iluminado</t>
-  </si>
-  <si>
-    <t>Primeira vitória no xadrez arrancou entusiasmos espontâneos</t>
-  </si>
-  <si>
-    <t>Ajuda coletiva na tarefa criou um clima amistoso</t>
-  </si>
-  <si>
-    <t>Atividade com massinha causou empolgação imediata</t>
-  </si>
-  <si>
-    <t>Apresentação improvisada virou destaque do dia</t>
-  </si>
-  <si>
-    <t>Pátio ensolarado deu ritmo alegre ao intervalo</t>
-  </si>
-  <si>
-    <t>Hora da pintura trouxe uma leve animação</t>
-  </si>
-  <si>
-    <t>Grupo cantando junto tornou a aula especial</t>
-  </si>
-  <si>
-    <t>Mini gincana movimentou a tarde escolar</t>
-  </si>
-  <si>
-    <t>Novo projeto da turma gerou uma vibração positiva</t>
-  </si>
-  <si>
-    <t>Histórias inventadas pelas crianças criaram momentos encantadores</t>
-  </si>
-  <si>
-    <t>Chegada do professor preferido aqueceu o início da aula</t>
-  </si>
-  <si>
-    <t>Festa de aniversários do mês trouxe celebração suave</t>
-  </si>
-  <si>
-    <t>Plantinhas da horta escolar animaram o começo da manhã</t>
-  </si>
-  <si>
-    <t>Turma inteira participando animou até os mais quietos</t>
-  </si>
-  <si>
-    <t>Lanches compartilhados no recreio deixaram tudo mais gostoso</t>
-  </si>
-  <si>
-    <t>Pequena vitória da equipe espalhou satisfação pelo corredor</t>
-  </si>
-  <si>
-    <t>Sala silenciosa trouxe um vazio discreto pela manhã</t>
-  </si>
-  <si>
-    <t>Caderno esquecido na mesa deixou a atividade sem brilho</t>
-  </si>
-  <si>
-    <t>Despedida no portão deixou a atmosfera apagada</t>
-  </si>
-  <si>
-    <t>Brinquedo quebrado no recreio criou um clima murcho</t>
-  </si>
-  <si>
-    <t>Falta de companhia no pátio trouxe um silêncio pesado</t>
-  </si>
-  <si>
-    <t>Lanche intocado na mesa marcou um momento apagado</t>
-  </si>
-  <si>
-    <t>Quadro sem desenhos pareceu mais frio hoje</t>
-  </si>
-  <si>
-    <t>Canto vazio da biblioteca carregou um ar desbotado</t>
-  </si>
-  <si>
-    <t>Pátio nublado deixou o intervalo sem cor</t>
-  </si>
-  <si>
-    <t>Conversa interrompida trouxe uma sensação miúda</t>
-  </si>
-  <si>
-    <t>Falta de ânimo da turma deixou a sala opaca</t>
-  </si>
-  <si>
-    <t>Lugar vazio na roda tornou o momento mais parado</t>
-  </si>
-  <si>
-    <t>Jogo cancelado tirou a energia do grupo</t>
-  </si>
-  <si>
-    <t>Brincadeira que não deu certo deixou um ar lento</t>
-  </si>
-  <si>
-    <t>Caminho até a escola pareceu meio arrastado</t>
-  </si>
-  <si>
-    <t>Chuva no recreio deixou o pátio sem vida</t>
-  </si>
-  <si>
-    <t>Desenho amassado no chão criou um clima apagado</t>
-  </si>
-  <si>
-    <t>Troca de turma deixou o corredor sem o mesmo som</t>
-  </si>
-  <si>
-    <t>Balão estourado tirou o encanto da sala</t>
-  </si>
-  <si>
-    <t>Livro rasgado no canto trouxe uma sensação cinzenta</t>
-  </si>
-  <si>
-    <t>Risos distantes soaram meio vazios hoje</t>
-  </si>
-  <si>
-    <t>Lousa apagada deixou a aula sem muita cor</t>
-  </si>
-  <si>
-    <t>Faltas na turma tornaram o ambiente mais parado</t>
-  </si>
-  <si>
-    <t>Aviso inesperado deixou a sala silenciosa</t>
-  </si>
-  <si>
-    <t>Jogo sem participantes perdeu o brilho usual</t>
-  </si>
-  <si>
-    <t>Caderno fechado sobre a mesa criou um ar lento</t>
-  </si>
-  <si>
-    <t>Conversa baixa no fundo pareceu sem força</t>
-  </si>
-  <si>
-    <t>Brincadeira interrompida tirou o ritmo do grupo</t>
-  </si>
-  <si>
-    <t>Arquibancada vazia no ginásio deixou o espaço frio</t>
-  </si>
-  <si>
-    <t>Foto caída no mural criou um momento pálido</t>
-  </si>
-  <si>
-    <t>Caminho até o pátio pareceu comprido demais</t>
-  </si>
-  <si>
-    <t>Decoração retirada da sala deixou tudo sem cor</t>
-  </si>
-  <si>
-    <t>Mesa vazia na biblioteca trouxe um silêncio frio</t>
-  </si>
-  <si>
-    <t>Bola parada no canto destacou um ar monótono</t>
-  </si>
-  <si>
-    <t>História contada sem atenção perdeu o encanto</t>
-  </si>
-  <si>
-    <t>Tarde nublada tirou a vibração da gincana</t>
-  </si>
-  <si>
-    <t>Grupo disperso deixou a atividade sem calor</t>
-  </si>
-  <si>
-    <t>Plantinha murcha da horta trouxe um ar desbotado</t>
-  </si>
-  <si>
-    <t>Pátio meio vazio perdeu a alegria habitual</t>
-  </si>
-  <si>
-    <t>Encerramento rápido tirou a graça do recreio</t>
-  </si>
-  <si>
-    <t>Tarefa não finalizada ficou com um peso discreto</t>
-  </si>
-  <si>
-    <t>Som distante da quadra soou meio apagado</t>
-  </si>
-  <si>
-    <t>Quadro com poucas cores deixou a aula arrastada</t>
-  </si>
-  <si>
-    <t>Bancos vazios no parquinho criaram um silêncio grande</t>
-  </si>
-  <si>
-    <t>Papel rasgado no mural trouxe uma sensação fria</t>
-  </si>
-  <si>
-    <t>Equipe desfalcada deixou o jogo monótono</t>
-  </si>
-  <si>
-    <t>Falta de conversa no caminho até a sala criou um ar lento</t>
-  </si>
-  <si>
-    <t>Estante bagunçada na biblioteca pareceu cansada</t>
-  </si>
-  <si>
-    <t>Pátio escurecendo cedo deixou a tarde opaca</t>
-  </si>
-  <si>
-    <t>Encerramento do dia escolar caiu num silêncio sem cor</t>
-  </si>
-  <si>
-    <t>Brincadeira inconveniente durante a aula levantou tensão imediata</t>
-  </si>
-  <si>
-    <t>Tenho um ódio quando alguém mexe nas minhas coisas sem pedir</t>
-  </si>
-  <si>
-    <t>Fico com raiva na hora quando vejo gente empurrando no corredor</t>
-  </si>
-  <si>
-    <t>Eu detesto quando faço o trabalho inteiro e o grupo nem ajuda</t>
-  </si>
-  <si>
-    <t>Dá um ódio quando a pessoa finge que não te ouviu</t>
-  </si>
-  <si>
-    <t>É irritante ver gente rindo enquanto o outro apresenta</t>
-  </si>
-  <si>
-    <t>Tenho uma raiva enorme de gente que joga sujeira no chão do nada</t>
-  </si>
-  <si>
-    <t>Fico de cara quando alguém culpa outra pessoa só pra se livrar</t>
-  </si>
-  <si>
-    <t>Odiei quando mexeram no meu material do nada</t>
-  </si>
-  <si>
-    <t>Morro de raiva quando interrompem a aula à toa</t>
-  </si>
-  <si>
-    <t>Detesto quando puxam assunto só pra provocar</t>
-  </si>
-  <si>
-    <t>Dá um ódio ver gente falando alto na biblioteca</t>
-  </si>
-  <si>
-    <t>Fico irritado quando combinam algo e ninguém cumpre</t>
-  </si>
-  <si>
-    <t>Não suporto quando fazem piadinha sem graça com alguém</t>
-  </si>
-  <si>
-    <t>Sobe um ódio quando vejo alguém sendo maldoso só pra aparecer</t>
-  </si>
-  <si>
-    <t>Detesto quando ficam comparando os alunos entre si</t>
-  </si>
-  <si>
-    <t>Tenho pavio curto com gente que não respeita fila</t>
-  </si>
-  <si>
-    <t>Me dá uma raiva forte quando respondem com arrogância</t>
-  </si>
-  <si>
-    <t>Fico possesso quando jogam a culpa em mim por coisa que não fiz</t>
-  </si>
-  <si>
-    <t>Me irrita profundamente quando alguém zoa o esforço dos outros</t>
-  </si>
-  <si>
-    <t>Dá um ódio ver gente empurrando só pra passar na frente</t>
-  </si>
-  <si>
-    <t>Não consigo lidar com quem fala alto no meio da explicação</t>
-  </si>
-  <si>
-    <t>Fico furioso quando desmancham algo que eu acabei de arrumar</t>
-  </si>
-  <si>
-    <t>Tenho ódio quando alguém pega meu lugar só pra provocar</t>
-  </si>
-  <si>
-    <t>Me irrita quando fazem drama por coisa pequena</t>
-  </si>
-  <si>
-    <t>Sinto uma raiva absurda quando prometem ajudar e somem</t>
-  </si>
-  <si>
-    <t>Detesto quando o professor chama atenção do nada sem motivo</t>
-  </si>
-  <si>
-    <t>Dá um ódio quando inventam história sobre você</t>
-  </si>
-  <si>
-    <t>Fico revoltado quando ignoram o esforço da turma inteira</t>
-  </si>
-  <si>
-    <t>Tenho raiva quando tratam o trabalho em grupo como brincadeira</t>
-  </si>
-  <si>
-    <t>Não suporto gente que fala pelas costas e na frente muda o tom</t>
-  </si>
-  <si>
-    <t>Dá um incômodo enorme quando alguém debocha de quem está nervoso</t>
-  </si>
-  <si>
-    <t>Fico indignado quando alguém passa a perna só pra ganhar ponto</t>
-  </si>
-  <si>
-    <t>Tenho ódio quando deixam tudo bagunçado e saem como se nada</t>
-  </si>
-  <si>
-    <t>Me irrita quando esquecem de combinar direito a atividade</t>
-  </si>
-  <si>
-    <t>Detesto quando alguém pede seu material e devolve quebrado</t>
-  </si>
-  <si>
-    <t>Dá uma raiva quando fazem você repetir a mesma coisa mil vezes</t>
-  </si>
-  <si>
-    <t>Fico furioso quando zombam do erro de alguém</t>
-  </si>
-  <si>
-    <t>Tenho ódio quando ficam disputando por coisa boba</t>
-  </si>
-  <si>
-    <t>Me irrita ver gente que não aceita perder na gincana</t>
-  </si>
-  <si>
-    <t>Detesto quando gritam só pra chamar atenção</t>
-  </si>
-  <si>
-    <t>Dá raiva demais quando cortam você no meio da fala</t>
-  </si>
-  <si>
-    <t>Não aguento quando fazem confusão por pura teimosia</t>
-  </si>
-  <si>
-    <t>Fico revoltado com quem não respeita as regras mais básicas</t>
-  </si>
-  <si>
-    <t>Tenho ódio quando ficam provocando até você perder a paciência</t>
-  </si>
-  <si>
-    <t>Me irrita quando tratam o outro mal só porque é quieto</t>
-  </si>
-  <si>
-    <t>Fico de saco cheio quando ninguém colabora</t>
-  </si>
-  <si>
-    <t>Tenho raiva quando fazem graça em hora séria</t>
-  </si>
-  <si>
-    <t>Dá um ódio quando alguém finge inocência depois de causar problema</t>
-  </si>
-  <si>
-    <t>Fico indignado quando mudam tudo em cima da hora</t>
-  </si>
-  <si>
-    <t>Não suporto quando desmerecem algo que você se esforçou pra fazer</t>
-  </si>
-  <si>
-    <t>O barulho no corredor me deixou apreensivo de imediato</t>
-  </si>
-  <si>
-    <t>Fiquei com medo quando a porta bateu sozinha na sala vazia</t>
-  </si>
-  <si>
-    <t>A discussão perto da escada me deixou em alerta</t>
-  </si>
-  <si>
-    <t>Senti um frio na barriga quando chamaram meu nome na diretoria</t>
-  </si>
-  <si>
-    <t>Fiquei receoso ao ver o grupo que sempre provoca se aproximando</t>
-  </si>
-  <si>
-    <t>A luz piscando no corredor me deixou inquieto</t>
-  </si>
-  <si>
-    <t>Tive um aperto no peito quando vi todo mundo olhando pra mim</t>
-  </si>
-  <si>
-    <t>A ideia de apresentar o trabalho me deixou nervoso na hora</t>
-  </si>
-  <si>
-    <t>Fiquei tenso quando ouvi passos atrás de mim no pátio vazio</t>
-  </si>
-  <si>
-    <t>A sala escura depois da aula sempre me deixa desconfortável</t>
-  </si>
-  <si>
-    <t>O silêncio repentino da turma me deu um receio estranho</t>
-  </si>
-  <si>
-    <t>Fiquei com medo de errar quando começaram a cochichar</t>
-  </si>
-  <si>
-    <t>A bronca do professor me deixou paralisado por alguns segundos</t>
-  </si>
-  <si>
-    <t>O jeito que o colega me encarou causou um medo imediato</t>
-  </si>
-  <si>
-    <t>A confusão perto da quadra me fez recuar sem pensar</t>
-  </si>
-  <si>
-    <t>Fiquei inseguro ao perceber que tinha perdido meu grupo na atividade</t>
-  </si>
-  <si>
-    <t>O barulho forte do lado de fora me pegou totalmente desprevenido</t>
-  </si>
-  <si>
-    <t>Fiquei com receio quando vi que a porta da sala não abria</t>
-  </si>
-  <si>
-    <t>O tumulto na fila me deixou com medo de cair</t>
-  </si>
-  <si>
-    <t>As luzes apagadas no pátio me deram um arrepio estranho</t>
-  </si>
-  <si>
-    <t>Fiquei nervoso quando pediram minha vez de falar</t>
-  </si>
-  <si>
-    <t>O comentário agressivo me deixou em alerta por horas</t>
-  </si>
-  <si>
-    <t>O professor rígido andando pela sala aumentou minha tensão</t>
-  </si>
-  <si>
-    <t>Fiquei com medo de mostrar meu desenho depois das risadinhas</t>
-  </si>
-  <si>
-    <t>O grito no corredor me deixou travado por um momento</t>
-  </si>
-  <si>
-    <t>A movimentação atrás da porta me deixou inquieto</t>
-  </si>
-  <si>
-    <t>O clima pesado da sala causou um receio silencioso em mim</t>
-  </si>
-  <si>
-    <t>Fiquei inseguro quando chamaram meu nome e ninguém explicou o motivo</t>
-  </si>
-  <si>
-    <t>O susto com a bola batendo na parede me fez gelar</t>
-  </si>
-  <si>
-    <t>Fiquei receoso com o tom da conversa no fundo da sala</t>
-  </si>
-  <si>
-    <t>O aviso de última hora sobre prova me deixou tenso</t>
-  </si>
-  <si>
-    <t>A ameaça de tirar ponto deixou todo mundo nervoso</t>
-  </si>
-  <si>
-    <t>Fiquei apavorado quando o colega começou a gritar do nada</t>
-  </si>
-  <si>
-    <t>A possibilidade de errar na leitura me deixou travado</t>
-  </si>
-  <si>
-    <t>O ambiente muito silencioso fez meu coração acelerar</t>
-  </si>
-  <si>
-    <t>Fiquei com medo de decepcionar o grupo no trabalho final</t>
-  </si>
-  <si>
-    <t>A sombra perto da janela me deixou inquieto por minutos</t>
-  </si>
-  <si>
-    <t>A conversa séria da coordenação deixou o ar pesado</t>
-  </si>
-  <si>
-    <t>Fiquei apreensivo quando a professora pediu para conversar depois da aula</t>
-  </si>
-  <si>
-    <t>O barulho vindo do banheiro vazio me deu um receio súbito</t>
-  </si>
-  <si>
-    <t>Tive medo de entrar no laboratório escuro sozinho</t>
-  </si>
-  <si>
-    <t>A possibilidade de perder o prazo me deixou ansioso demais</t>
-  </si>
-  <si>
-    <t>Fiquei inseguro quando percebi que todos me observavam</t>
-  </si>
-  <si>
-    <t>O olhar sério do professor me deixou desconfortável</t>
-  </si>
-  <si>
-    <t>A troca de turma me trouxe uma sensação estranha de incerteza</t>
-  </si>
-  <si>
-    <t>Fiquei com medo de não entender nada na explicação</t>
-  </si>
-  <si>
-    <t>O vento forte batendo na porta me assustou</t>
-  </si>
-  <si>
-    <t>A caminhada até a sala vazia me deixou inquieto</t>
-  </si>
-  <si>
-    <t>O suspense antes de receber a nota me deixou tenso</t>
-  </si>
-  <si>
-    <t>Fiquei apreensivo quando vi que meu nome estava na lista de chamados</t>
-  </si>
-  <si>
-    <t>Coração apertado depois da conversa que não terminou bem</t>
-  </si>
-  <si>
-    <t>Mensagem visualizada sem resposta deixou um vazio enorme</t>
-  </si>
-  <si>
-    <t>Promessa quebrada ontem ainda pesa demais</t>
-  </si>
-  <si>
-    <t>Silêncio dele hoje machucou mais do que briga</t>
-  </si>
-  <si>
-    <t>Foto antiga juntos deixou o peito pesado</t>
-  </si>
-  <si>
-    <t>Falta de esforço no relacionamento trouxe uma dor seca</t>
-  </si>
-  <si>
-    <t>Despedida rápida demais deixou tudo sem cor</t>
-  </si>
-  <si>
-    <t>Jeito distante dela partiu meu dia no meio</t>
-  </si>
-  <si>
-    <t>Palavras curtas demais mostraram que algo esfriou</t>
-  </si>
-  <si>
-    <t>Esperar uma ligação que nunca veio tirou minha paz</t>
-  </si>
-  <si>
-    <t>Abraço que antes confortava hoje pareceu distante</t>
-  </si>
-  <si>
-    <t>Plano cancelado de última hora deixou um gosto amargo</t>
-  </si>
-  <si>
-    <t>Conversar sozinho no chat trouxe um aperto forte</t>
-  </si>
-  <si>
-    <t>Sorriso forçado dele hoje doeu mais do que eu esperava</t>
-  </si>
-  <si>
-    <t>Recordar o que fomos deixou uma melancolia funda</t>
-  </si>
-  <si>
-    <t>A cama fria doeu mais que o dia inteiro</t>
-  </si>
-  <si>
-    <t>Foto excluída sem aviso trouxe um peso enorme</t>
-  </si>
-  <si>
-    <t>Falta de carinho ultimamente me deixou apagado</t>
-  </si>
-  <si>
-    <t>Beijo rápido ontem soou meio vazio</t>
-  </si>
-  <si>
-    <t>Promessa de “a gente se acerta” nunca chegou</t>
-  </si>
-  <si>
-    <t>Olhar desviado hoje machucou demais</t>
-  </si>
-  <si>
-    <t>Sentir ela se afastando a cada dia trouxe um baque</t>
-  </si>
-  <si>
-    <t>Relembrar a nossa música deixou o dia cinzento</t>
-  </si>
-  <si>
-    <t>A conversa séria que ele evitou trouxe uma tristeza funda</t>
-  </si>
-  <si>
-    <t>Notar que não faço mais parte dos planos dela doeu forte</t>
-  </si>
-  <si>
-    <t>Sorriso dele para outra me deu um golpe mudo</t>
-  </si>
-  <si>
-    <t>Esperança quebrada hoje tornou tudo mais lento</t>
-  </si>
-  <si>
-    <t>Perceber que o brilho mudou no olhar dela trouxe um vazio</t>
-  </si>
-  <si>
-    <t>Palavras que antes eram doces hoje soam ocas</t>
-  </si>
-  <si>
-    <t>O abraço que não veio hoje pesou demais</t>
-  </si>
-  <si>
-    <t>Ver ela feliz sem mim trouxe um silêncio enorme</t>
-  </si>
-  <si>
-    <t>Mensagem curta demais soou como despedida</t>
-  </si>
-  <si>
-    <t>Toque frio de ontem deixou o coração desbotado</t>
-  </si>
-  <si>
-    <t>A falta de reciprocidade virou um peso constante</t>
-  </si>
-  <si>
-    <t>A sensação de ser opção machucou discretamente</t>
-  </si>
-  <si>
-    <t>Prometeram amor, entregaram ausência</t>
-  </si>
-  <si>
-    <t>A distância emocional criou um abismo silencioso</t>
-  </si>
-  <si>
-    <t>As lembranças boas hoje doem mais do que confortam</t>
-  </si>
-  <si>
-    <t>Ele evitou falar sobre nós e isso rasgou meu dia</t>
-  </si>
-  <si>
-    <t>O medo de perder virou puro cansaço</t>
-  </si>
-  <si>
-    <t>O romantismo dela desapareceu sem explicação</t>
-  </si>
-  <si>
-    <t>A falta de saudade dele destruiu meu entusiasmo</t>
-  </si>
-  <si>
-    <t>Senti minha mão vazia quando percebi que ele não tentou</t>
-  </si>
-  <si>
-    <t>O “estou ocupado” repetido demais virou ferida</t>
-  </si>
-  <si>
-    <t>Escutar um “tanto faz” dela deixou tudo pesado</t>
-  </si>
-  <si>
-    <t>Ela passou por mim sem olhar e isso cortou fundo</t>
-  </si>
-  <si>
-    <t>Os planos futuros se desfizeram sem barulho</t>
-  </si>
-  <si>
-    <t>O amor que antes preenchia agora só ocupa espaço</t>
-  </si>
-  <si>
-    <t>Perder o jeito carinhoso dele deixou o mundo opaco</t>
   </si>
   <si>
     <t>me sinto muito bem</t>
@@ -7673,10 +6803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2422"/>
+  <dimension ref="A1:I2273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2414" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B2418" sqref="B2418"/>
+    <sheetView tabSelected="1" topLeftCell="A2121" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D2134" sqref="D2134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8239,7 +7369,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>2421</v>
+        <v>2131</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -12287,7 +11417,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>2422</v>
+        <v>2132</v>
       </c>
       <c r="B576" t="s">
         <v>3</v>
@@ -12439,7 +11569,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>2423</v>
+        <v>2133</v>
       </c>
       <c r="B595" t="s">
         <v>3</v>
@@ -24745,2325 +23875,41 @@
       </c>
     </row>
     <row r="2133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2133" s="3" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B2133" t="s">
-        <v>310</v>
-      </c>
+      <c r="A2133" s="3"/>
     </row>
     <row r="2134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2134" s="3" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B2134" t="s">
-        <v>310</v>
-      </c>
+      <c r="A2134" s="3"/>
     </row>
     <row r="2135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2135" s="3" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B2135" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2136" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2136" s="4" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B2136" t="s">
-        <v>310</v>
-      </c>
+      <c r="A2135" s="3"/>
+    </row>
+    <row r="2136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2136" s="4"/>
     </row>
     <row r="2137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2137" s="3" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B2137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2138" s="4" t="s">
-        <v>2136</v>
-      </c>
-      <c r="B2138" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2139" s="4" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B2139" t="s">
-        <v>310</v>
-      </c>
+      <c r="A2137" s="3"/>
+    </row>
+    <row r="2138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2138" s="4"/>
+    </row>
+    <row r="2139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2139" s="4"/>
     </row>
     <row r="2140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2140" s="4" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B2140" t="s">
-        <v>310</v>
-      </c>
+      <c r="A2140" s="4"/>
     </row>
     <row r="2141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2141" s="4" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B2141" t="s">
-        <v>310</v>
-      </c>
+      <c r="A2141" s="4"/>
     </row>
     <row r="2142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2142" s="3" t="s">
-        <v>2140</v>
-      </c>
-      <c r="B2142" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2143" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B2143" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2144" t="s">
-        <v>2142</v>
-      </c>
-      <c r="B2144" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2145" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B2145" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2146" t="s">
-        <v>2144</v>
-      </c>
-      <c r="B2146" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2147" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B2147" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2148" t="s">
-        <v>2146</v>
-      </c>
-      <c r="B2148" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2149" t="s">
-        <v>2147</v>
-      </c>
-      <c r="B2149" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2150" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B2150" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2151" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B2151" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2152" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B2152" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2153" t="s">
-        <v>2151</v>
-      </c>
-      <c r="B2153" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2154" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B2154" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2155" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B2155" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2156" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2156" s="4" t="s">
-        <v>2154</v>
-      </c>
-      <c r="B2156" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2157" t="s">
-        <v>2155</v>
-      </c>
-      <c r="B2157" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2158" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B2158" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2159" t="s">
-        <v>2157</v>
-      </c>
-      <c r="B2159" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2160" t="s">
-        <v>2158</v>
-      </c>
-      <c r="B2160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2161" t="s">
-        <v>2159</v>
-      </c>
-      <c r="B2161" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2162" t="s">
-        <v>2160</v>
-      </c>
-      <c r="B2162" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2163" t="s">
-        <v>2161</v>
-      </c>
-      <c r="B2163" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2164" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B2164" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2165" t="s">
-        <v>2163</v>
-      </c>
-      <c r="B2165" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2166" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B2166" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2167" t="s">
-        <v>2165</v>
-      </c>
-      <c r="B2167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2168" t="s">
-        <v>2166</v>
-      </c>
-      <c r="B2168" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2169" t="s">
-        <v>2167</v>
-      </c>
-      <c r="B2169" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2170" t="s">
-        <v>2168</v>
-      </c>
-      <c r="B2170" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2171" t="s">
-        <v>2169</v>
-      </c>
-      <c r="B2171" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2172" t="s">
-        <v>2170</v>
-      </c>
-      <c r="B2172" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2173" t="s">
-        <v>2171</v>
-      </c>
-      <c r="B2173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2174" t="s">
-        <v>2172</v>
-      </c>
-      <c r="B2174" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2175" t="s">
-        <v>2173</v>
-      </c>
-      <c r="B2175" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2176" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B2176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2177" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B2177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2178" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B2178" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2179" t="s">
-        <v>2177</v>
-      </c>
-      <c r="B2179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2180" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B2180" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2181" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B2181" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2182" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B2182" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2183" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B2183" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2184" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B2184" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2185" t="s">
-        <v>2183</v>
-      </c>
-      <c r="B2185" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2186" t="s">
-        <v>2184</v>
-      </c>
-      <c r="B2186" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2187" t="s">
-        <v>2185</v>
-      </c>
-      <c r="B2187" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2188" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B2188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2189" t="s">
-        <v>2187</v>
-      </c>
-      <c r="B2189" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2190" t="s">
-        <v>2188</v>
-      </c>
-      <c r="B2190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2191" t="s">
-        <v>2189</v>
-      </c>
-      <c r="B2191" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2192" t="s">
-        <v>2190</v>
-      </c>
-      <c r="B2192" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2193" t="s">
-        <v>2191</v>
-      </c>
-      <c r="B2193" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2194" t="s">
-        <v>2192</v>
-      </c>
-      <c r="B2194" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2195" t="s">
-        <v>2193</v>
-      </c>
-      <c r="B2195" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2196" t="s">
-        <v>2194</v>
-      </c>
-      <c r="B2196" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2197" t="s">
-        <v>2195</v>
-      </c>
-      <c r="B2197" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2198" t="s">
-        <v>2196</v>
-      </c>
-      <c r="B2198" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2199" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B2199" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2200" t="s">
-        <v>2198</v>
-      </c>
-      <c r="B2200" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2201" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B2201" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2202" t="s">
-        <v>2200</v>
-      </c>
-      <c r="B2202" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2203" t="s">
-        <v>2201</v>
-      </c>
-      <c r="B2203" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2204" t="s">
-        <v>2202</v>
-      </c>
-      <c r="B2204" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2205" t="s">
-        <v>2203</v>
-      </c>
-      <c r="B2205" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2206" t="s">
-        <v>2204</v>
-      </c>
-      <c r="B2206" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2207" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B2207" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2208" t="s">
-        <v>2206</v>
-      </c>
-      <c r="B2208" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2209" t="s">
-        <v>2207</v>
-      </c>
-      <c r="B2209" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2210" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B2210" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2211" t="s">
-        <v>2209</v>
-      </c>
-      <c r="B2211" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2212" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B2212" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2213" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B2213" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2214" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B2214" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2215" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B2215" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2216" t="s">
-        <v>2214</v>
-      </c>
-      <c r="B2216" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2217" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B2217" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2218" t="s">
-        <v>2216</v>
-      </c>
-      <c r="B2218" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2219" t="s">
-        <v>2217</v>
-      </c>
-      <c r="B2219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2220" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B2220" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2221" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B2221" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2222" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B2222" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2223" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B2223" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2224" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B2224" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2225" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B2225" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2226" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2226" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2227" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B2227" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2228" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B2228" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2229" t="s">
-        <v>2227</v>
-      </c>
-      <c r="B2229" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2230" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B2230" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2231" t="s">
-        <v>2229</v>
-      </c>
-      <c r="B2231" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2232" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B2232" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2233" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B2233" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2234" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B2234" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2235" t="s">
-        <v>2233</v>
-      </c>
-      <c r="B2235" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2236" t="s">
-        <v>2234</v>
-      </c>
-      <c r="B2236" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2237" t="s">
-        <v>2235</v>
-      </c>
-      <c r="B2237" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2238" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B2238" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2239" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B2239" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2240" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2240" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2241" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B2241" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2242" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B2242" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2243" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B2243" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2244" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B2244" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2245" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B2245" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2246" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B2246" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2247" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B2247" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2248" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B2248" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2249" t="s">
-        <v>2247</v>
-      </c>
-      <c r="B2249" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2250" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B2250" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2251" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B2251" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2252" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B2252" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2253" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B2253" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2254" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B2254" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2255" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B2255" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2256" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B2256" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2257" t="s">
-        <v>2255</v>
-      </c>
-      <c r="B2257" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2258" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B2258" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2259" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B2259" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2260" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B2260" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2261" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B2261" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2262" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B2262" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2263" t="s">
-        <v>2261</v>
-      </c>
-      <c r="B2263" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2264" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B2264" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2265" t="s">
-        <v>2263</v>
-      </c>
-      <c r="B2265" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2266" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B2266" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2267" t="s">
-        <v>2265</v>
-      </c>
-      <c r="B2267" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2268" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B2268" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2269" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B2269" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2270" t="s">
-        <v>2268</v>
-      </c>
-      <c r="B2270" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2271" t="s">
-        <v>2269</v>
-      </c>
-      <c r="B2271" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2272" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B2272" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2273" t="s">
-        <v>2372</v>
-      </c>
-      <c r="B2273" t="s">
-        <v>289</v>
-      </c>
+      <c r="A2142" s="3"/>
+    </row>
+    <row r="2156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2156" s="4"/>
+      <c r="B2156" s="5"/>
+    </row>
+    <row r="2273" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C2273" s="2"/>
-    </row>
-    <row r="2274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2274" t="s">
-        <v>2373</v>
-      </c>
-      <c r="B2274" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2275" t="s">
-        <v>2374</v>
-      </c>
-      <c r="B2275" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2276" t="s">
-        <v>2375</v>
-      </c>
-      <c r="B2276" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2277" t="s">
-        <v>2376</v>
-      </c>
-      <c r="B2277" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2278" t="s">
-        <v>2377</v>
-      </c>
-      <c r="B2278" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2279" t="s">
-        <v>2378</v>
-      </c>
-      <c r="B2279" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2280" t="s">
-        <v>2379</v>
-      </c>
-      <c r="B2280" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2281" t="s">
-        <v>2380</v>
-      </c>
-      <c r="B2281" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2282" t="s">
-        <v>2381</v>
-      </c>
-      <c r="B2282" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2283" t="s">
-        <v>2382</v>
-      </c>
-      <c r="B2283" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2284" t="s">
-        <v>2383</v>
-      </c>
-      <c r="B2284" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2285" t="s">
-        <v>2384</v>
-      </c>
-      <c r="B2285" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2286" t="s">
-        <v>2385</v>
-      </c>
-      <c r="B2286" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2287" t="s">
-        <v>2386</v>
-      </c>
-      <c r="B2287" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2288" t="s">
-        <v>2387</v>
-      </c>
-      <c r="B2288" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2289" t="s">
-        <v>2388</v>
-      </c>
-      <c r="B2289" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2290" t="s">
-        <v>2389</v>
-      </c>
-      <c r="B2290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2291" t="s">
-        <v>2390</v>
-      </c>
-      <c r="B2291" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2292" t="s">
-        <v>2391</v>
-      </c>
-      <c r="B2292" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2293" t="s">
-        <v>2392</v>
-      </c>
-      <c r="B2293" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2294" t="s">
-        <v>2393</v>
-      </c>
-      <c r="B2294" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2295" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B2295" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2296" t="s">
-        <v>2395</v>
-      </c>
-      <c r="B2296" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2297" t="s">
-        <v>2396</v>
-      </c>
-      <c r="B2297" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2298" t="s">
-        <v>2397</v>
-      </c>
-      <c r="B2298" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2299" t="s">
-        <v>2398</v>
-      </c>
-      <c r="B2299" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2300" t="s">
-        <v>2399</v>
-      </c>
-      <c r="B2300" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2301" t="s">
-        <v>2400</v>
-      </c>
-      <c r="B2301" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2302" t="s">
-        <v>2401</v>
-      </c>
-      <c r="B2302" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2303" t="s">
-        <v>2402</v>
-      </c>
-      <c r="B2303" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2304" t="s">
-        <v>2403</v>
-      </c>
-      <c r="B2304" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2305" t="s">
-        <v>2404</v>
-      </c>
-      <c r="B2305" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2306" t="s">
-        <v>2405</v>
-      </c>
-      <c r="B2306" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2307" t="s">
-        <v>2406</v>
-      </c>
-      <c r="B2307" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2308" t="s">
-        <v>2407</v>
-      </c>
-      <c r="B2308" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2309" t="s">
-        <v>2408</v>
-      </c>
-      <c r="B2309" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2310" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B2310" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2311" t="s">
-        <v>2410</v>
-      </c>
-      <c r="B2311" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2312" t="s">
-        <v>2411</v>
-      </c>
-      <c r="B2312" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2313" t="s">
-        <v>2412</v>
-      </c>
-      <c r="B2313" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2314" t="s">
-        <v>2413</v>
-      </c>
-      <c r="B2314" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2315" t="s">
-        <v>2414</v>
-      </c>
-      <c r="B2315" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2316" t="s">
-        <v>2415</v>
-      </c>
-      <c r="B2316" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2317" t="s">
-        <v>2416</v>
-      </c>
-      <c r="B2317" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2318" t="s">
-        <v>2417</v>
-      </c>
-      <c r="B2318" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2319" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B2319" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2320" t="s">
-        <v>2419</v>
-      </c>
-      <c r="B2320" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2321" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B2321" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2322" t="s">
-        <v>2271</v>
-      </c>
-      <c r="B2322" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2323" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B2323" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2324" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B2324" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2325" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B2325" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2326" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B2326" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2327" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B2327" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2328" t="s">
-        <v>2277</v>
-      </c>
-      <c r="B2328" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2329" t="s">
-        <v>2278</v>
-      </c>
-      <c r="B2329" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2330" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B2330" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2331" t="s">
-        <v>2280</v>
-      </c>
-      <c r="B2331" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2332" t="s">
-        <v>2281</v>
-      </c>
-      <c r="B2332" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2333" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B2333" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2334" t="s">
-        <v>2283</v>
-      </c>
-      <c r="B2334" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2335" t="s">
-        <v>2284</v>
-      </c>
-      <c r="B2335" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2336" t="s">
-        <v>2285</v>
-      </c>
-      <c r="B2336" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2337" t="s">
-        <v>2286</v>
-      </c>
-      <c r="B2337" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2338" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B2338" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2339" t="s">
-        <v>2288</v>
-      </c>
-      <c r="B2339" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2340" t="s">
-        <v>2289</v>
-      </c>
-      <c r="B2340" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2341" t="s">
-        <v>2290</v>
-      </c>
-      <c r="B2341" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2342" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B2342" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2343" t="s">
-        <v>2292</v>
-      </c>
-      <c r="B2343" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2344" t="s">
-        <v>2293</v>
-      </c>
-      <c r="B2344" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2345" t="s">
-        <v>2294</v>
-      </c>
-      <c r="B2345" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2346" t="s">
-        <v>2295</v>
-      </c>
-      <c r="B2346" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2347" t="s">
-        <v>2296</v>
-      </c>
-      <c r="B2347" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2348" t="s">
-        <v>2297</v>
-      </c>
-      <c r="B2348" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2349" t="s">
-        <v>2298</v>
-      </c>
-      <c r="B2349" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2350" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B2350" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2351" t="s">
-        <v>2300</v>
-      </c>
-      <c r="B2351" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2352" t="s">
-        <v>2301</v>
-      </c>
-      <c r="B2352" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2353" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B2353" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2354" t="s">
-        <v>2303</v>
-      </c>
-      <c r="B2354" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2355" t="s">
-        <v>2304</v>
-      </c>
-      <c r="B2355" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2356" t="s">
-        <v>2305</v>
-      </c>
-      <c r="B2356" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2357" t="s">
-        <v>2306</v>
-      </c>
-      <c r="B2357" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2358" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2358" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B2358" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2359" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2359" t="s">
-        <v>2308</v>
-      </c>
-      <c r="B2359" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2360" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2360" t="s">
-        <v>2309</v>
-      </c>
-      <c r="B2360" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2361" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2361" t="s">
-        <v>2310</v>
-      </c>
-      <c r="B2361" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2362" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2362" t="s">
-        <v>2311</v>
-      </c>
-      <c r="B2362" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2363" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2363" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B2363" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2364" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2364" t="s">
-        <v>2313</v>
-      </c>
-      <c r="B2364" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2365" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2365" t="s">
-        <v>2314</v>
-      </c>
-      <c r="B2365" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2366" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2366" t="s">
-        <v>2315</v>
-      </c>
-      <c r="B2366" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2367" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2367" t="s">
-        <v>2316</v>
-      </c>
-      <c r="B2367" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2368" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2368" t="s">
-        <v>2317</v>
-      </c>
-      <c r="B2368" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2369" t="s">
-        <v>2318</v>
-      </c>
-      <c r="B2369" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2370" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2370" t="s">
-        <v>2319</v>
-      </c>
-      <c r="B2370" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2371" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2371" t="s">
-        <v>2320</v>
-      </c>
-      <c r="B2371" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2372" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2372" t="s">
-        <v>2321</v>
-      </c>
-      <c r="B2372" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2373" t="s">
-        <v>2322</v>
-      </c>
-      <c r="B2373" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2374" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2374" t="s">
-        <v>2323</v>
-      </c>
-      <c r="B2374" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2375" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2375" t="s">
-        <v>2324</v>
-      </c>
-      <c r="B2375" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2376" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2376" t="s">
-        <v>2325</v>
-      </c>
-      <c r="B2376" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2377" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2377" t="s">
-        <v>2326</v>
-      </c>
-      <c r="B2377" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2378" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2378" t="s">
-        <v>2327</v>
-      </c>
-      <c r="B2378" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2379" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2379" t="s">
-        <v>2328</v>
-      </c>
-      <c r="B2379" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2380" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2380" t="s">
-        <v>2329</v>
-      </c>
-      <c r="B2380" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2381" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2381" t="s">
-        <v>2330</v>
-      </c>
-      <c r="B2381" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2382" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2382" t="s">
-        <v>2331</v>
-      </c>
-      <c r="B2382" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2383" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2383" t="s">
-        <v>2332</v>
-      </c>
-      <c r="B2383" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2384" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2384" t="s">
-        <v>2333</v>
-      </c>
-      <c r="B2384" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2385" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2385" t="s">
-        <v>2334</v>
-      </c>
-      <c r="B2385" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2386" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2386" t="s">
-        <v>2335</v>
-      </c>
-      <c r="B2386" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2387" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2387" t="s">
-        <v>2336</v>
-      </c>
-      <c r="B2387" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2388" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2388" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B2388" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2389" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2389" t="s">
-        <v>2338</v>
-      </c>
-      <c r="B2389" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2390" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2390" t="s">
-        <v>2339</v>
-      </c>
-      <c r="B2390" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2391" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2391" t="s">
-        <v>2340</v>
-      </c>
-      <c r="B2391" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2392" t="s">
-        <v>2341</v>
-      </c>
-      <c r="B2392" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2393" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2393" t="s">
-        <v>2342</v>
-      </c>
-      <c r="B2393" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2394" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2394" t="s">
-        <v>2343</v>
-      </c>
-      <c r="B2394" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2395" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2395" t="s">
-        <v>2344</v>
-      </c>
-      <c r="B2395" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2396" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2396" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B2396" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2397" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2397" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B2397" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2398" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2398" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B2398" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2399" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2399" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B2399" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2400" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2400" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B2400" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2401" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2401" t="s">
-        <v>2350</v>
-      </c>
-      <c r="B2401" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2402" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2402" t="s">
-        <v>2351</v>
-      </c>
-      <c r="B2402" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2403" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2403" t="s">
-        <v>2352</v>
-      </c>
-      <c r="B2403" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2404" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2404" t="s">
-        <v>2353</v>
-      </c>
-      <c r="B2404" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2405" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2405" t="s">
-        <v>2354</v>
-      </c>
-      <c r="B2405" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2406" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2406" t="s">
-        <v>2355</v>
-      </c>
-      <c r="B2406" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2407" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2407" t="s">
-        <v>2356</v>
-      </c>
-      <c r="B2407" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2408" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2408" t="s">
-        <v>2357</v>
-      </c>
-      <c r="B2408" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2409" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2409" t="s">
-        <v>2358</v>
-      </c>
-      <c r="B2409" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2410" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2410" t="s">
-        <v>2359</v>
-      </c>
-      <c r="B2410" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2411" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2411" t="s">
-        <v>2360</v>
-      </c>
-      <c r="B2411" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2412" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2412" t="s">
-        <v>2361</v>
-      </c>
-      <c r="B2412" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2413" t="s">
-        <v>2362</v>
-      </c>
-      <c r="B2413" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2414" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2414" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B2414" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2415" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2415" t="s">
-        <v>2364</v>
-      </c>
-      <c r="B2415" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2416" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2416" t="s">
-        <v>2365</v>
-      </c>
-      <c r="B2416" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2417" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2417" t="s">
-        <v>2366</v>
-      </c>
-      <c r="B2417" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2418" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2418" t="s">
-        <v>2367</v>
-      </c>
-      <c r="B2418" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2419" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2419" t="s">
-        <v>2368</v>
-      </c>
-      <c r="B2419" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2420" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2420" t="s">
-        <v>2369</v>
-      </c>
-      <c r="B2420" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2421" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2421" t="s">
-        <v>2370</v>
-      </c>
-      <c r="B2421" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2422" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2422" t="s">
-        <v>2371</v>
-      </c>
-      <c r="B2422" t="s">
-        <v>159</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sentimentos1.xlsx
+++ b/sentimentos1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="2134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="2334">
   <si>
     <t>frase</t>
   </si>
@@ -3880,9 +3880,6 @@
     <t>Recebi reconhecimento pelo trabalho em equipe</t>
   </si>
   <si>
-    <t>Meu time fez um gol espetacular</t>
-  </si>
-  <si>
     <t>Ganhei elogios por minha apresentação</t>
   </si>
   <si>
@@ -6425,6 +6422,609 @@
   </si>
   <si>
     <t>O app deu erro justo agora, que ódio</t>
+  </si>
+  <si>
+    <t>Meu time fez um gol espetacular, que alegria</t>
+  </si>
+  <si>
+    <t>Senti meu coração pesado como uma pedra</t>
+  </si>
+  <si>
+    <t>As lágrimas escorriam silenciosas pelo meu rosto</t>
+  </si>
+  <si>
+    <t>O silêncio do quarto parecia gritar minha solidão</t>
+  </si>
+  <si>
+    <t>Tudo parecia cinza, mesmo com o sol brilhando</t>
+  </si>
+  <si>
+    <t>Um vazio profundo me acompanhava em cada passo</t>
+  </si>
+  <si>
+    <t>Lembrei de alguém que não posso mais ver e doeu</t>
+  </si>
+  <si>
+    <t>Senti-me perdido no próprio pensamento</t>
+  </si>
+  <si>
+    <t>Cada mensagem não respondida aumentava minha tristeza</t>
+  </si>
+  <si>
+    <t>Meu sorriso se apagou tão rapidamente quanto surgiu</t>
+  </si>
+  <si>
+    <t>A chuva parecia refletir meu estado de espírito</t>
+  </si>
+  <si>
+    <t>Senti que ninguém entendia o que eu sentia</t>
+  </si>
+  <si>
+    <t>A esperança parecia distante, quase impossível de alcançar</t>
+  </si>
+  <si>
+    <t>Meu coração apertava com lembranças dolorosas</t>
+  </si>
+  <si>
+    <t>Um dia comum se tornou pesado e cinzento</t>
+  </si>
+  <si>
+    <t>Me senti sozinho, mesmo cercado de pessoas</t>
+  </si>
+  <si>
+    <t>Cada lembrança feliz agora trazia nostalgia dolorosa</t>
+  </si>
+  <si>
+    <t>O peso do mundo parecia repousar sobre meus ombros</t>
+  </si>
+  <si>
+    <t>Me vi preso em pensamentos que não me davam descanso</t>
+  </si>
+  <si>
+    <t>Senti que tudo que amava estava fora do meu alcance</t>
+  </si>
+  <si>
+    <t>O sorriso alheio me lembrava da minha tristeza</t>
+  </si>
+  <si>
+    <t>Nada parecia fazer sentido naquele momento</t>
+  </si>
+  <si>
+    <t>A noite trouxe mais reflexão do que descanso</t>
+  </si>
+  <si>
+    <t>Me senti pequeno diante da vida e suas perdas</t>
+  </si>
+  <si>
+    <t>Um gesto de carinho perdido aumentou meu desânimo</t>
+  </si>
+  <si>
+    <t>O passado parecia me assombrar sem parar</t>
+  </si>
+  <si>
+    <t>Cada passo parecia custar mais do que eu podia suportar</t>
+  </si>
+  <si>
+    <t>Senti que minhas forças estavam desaparecendo lentamente</t>
+  </si>
+  <si>
+    <t>A solidão parecia minha única companhia</t>
+  </si>
+  <si>
+    <t>Uma lembrança triste trouxe lágrimas que não queria chorar</t>
+  </si>
+  <si>
+    <t>O tempo parecia arrastar-se enquanto meu coração doía</t>
+  </si>
+  <si>
+    <t>Tudo parecia distante, como se eu estivesse fora do mundo</t>
+  </si>
+  <si>
+    <t>Me senti incompreendido e isolado</t>
+  </si>
+  <si>
+    <t>As memórias boas agora pesavam como correntes</t>
+  </si>
+  <si>
+    <t>Senti meu coração vazio, mesmo rodeado de coisas e pessoas</t>
+  </si>
+  <si>
+    <t>Um adeus passado voltou à minha mente e doeu profundamente</t>
+  </si>
+  <si>
+    <t>Me senti incapaz de mudar minha própria situação</t>
+  </si>
+  <si>
+    <t>O mundo parecia continuar sem notar minha dor</t>
+  </si>
+  <si>
+    <t>Cada sorriso falso que forcei aumentava minha tristeza</t>
+  </si>
+  <si>
+    <t>A sensação de perda me acompanhava o dia todo</t>
+  </si>
+  <si>
+    <t>Senti que ninguém poderia preencher o vazio que eu sentia</t>
+  </si>
+  <si>
+    <t>Um pensamento triste se repetia sem parar</t>
+  </si>
+  <si>
+    <t>Me vi chorando sozinho no escuro</t>
+  </si>
+  <si>
+    <t>Cada esperança frustrada parecia esmagar meu coração</t>
+  </si>
+  <si>
+    <t>O frio da noite parecia refletir meu humor</t>
+  </si>
+  <si>
+    <t>Um simples olhar me fez perceber minha solidão</t>
+  </si>
+  <si>
+    <t>Senti meu coração se encolher diante da realidade</t>
+  </si>
+  <si>
+    <t>Tudo ao meu redor parecia distante e indiferente</t>
+  </si>
+  <si>
+    <t>Uma memória dolorosa voltou e não pude fugir dela</t>
+  </si>
+  <si>
+    <t>Me senti pequeno e vulnerável diante da vida</t>
+  </si>
+  <si>
+    <t>Cada suspiro parecia carregado de tristeza</t>
+  </si>
+  <si>
+    <t>Hoje acordei com um sorriso que não cabe no rosto</t>
+  </si>
+  <si>
+    <t>O pôr do sol me encheu de felicidade pura</t>
+  </si>
+  <si>
+    <t>Recebi uma notícia que iluminou meu dia inteiro</t>
+  </si>
+  <si>
+    <t>Senti borboletas no estômago de tanta alegria</t>
+  </si>
+  <si>
+    <t>Rimos até a barriga doer com aquela piada bobinha</t>
+  </si>
+  <si>
+    <t>Um abraço inesperado me fez sentir amado</t>
+  </si>
+  <si>
+    <t>Consegui realizar algo que pensei ser impossível</t>
+  </si>
+  <si>
+    <t>A música me trouxe uma felicidade contagiante</t>
+  </si>
+  <si>
+    <t>Senti meu coração leve como nunca antes</t>
+  </si>
+  <si>
+    <t>Ver meus amigos juntos trouxe uma alegria imensa</t>
+  </si>
+  <si>
+    <t>Comi meu prato favorito e fiquei radiante</t>
+  </si>
+  <si>
+    <t>A conquista foi minha e eu celebrei cada segundo</t>
+  </si>
+  <si>
+    <t>Dancei sozinho no quarto e me senti livre</t>
+  </si>
+  <si>
+    <t>O cheiro de café fresco me deixou feliz</t>
+  </si>
+  <si>
+    <t>Cada mensagem de carinho me fez sorrir sem parar</t>
+  </si>
+  <si>
+    <t>Um gesto simples transformou meu dia em alegria</t>
+  </si>
+  <si>
+    <t>Me senti abraçado pelo mundo inteiro</t>
+  </si>
+  <si>
+    <t>O sucesso de alguém querido me fez sorrir de emoção</t>
+  </si>
+  <si>
+    <t>Cantar minha música favorita trouxe felicidade instantânea</t>
+  </si>
+  <si>
+    <t>Me senti criança de novo, leve e feliz</t>
+  </si>
+  <si>
+    <t>Um momento de paz me fez agradecer a vida</t>
+  </si>
+  <si>
+    <t>Senti uma energia boa tomando conta de mim</t>
+  </si>
+  <si>
+    <t>Receber elogios sinceros me fez brilhar por dentro</t>
+  </si>
+  <si>
+    <t>Cada passo que dei hoje me fez sentir vitorioso</t>
+  </si>
+  <si>
+    <t>As cores do dia pareciam sorrir junto comigo</t>
+  </si>
+  <si>
+    <t>Um encontro inesperado trouxe alegria genuína</t>
+  </si>
+  <si>
+    <t>Senti gratidão profunda pelo que tenho</t>
+  </si>
+  <si>
+    <t>A sensação de liberdade me encheu de felicidade</t>
+  </si>
+  <si>
+    <t>Um presente simples me fez sorrir sem parar</t>
+  </si>
+  <si>
+    <t>Vi algo bonito e minha alma dançou de alegria</t>
+  </si>
+  <si>
+    <t>Meu coração se aqueceu com boas lembranças</t>
+  </si>
+  <si>
+    <t>A natureza hoje parecia sorrir para mim</t>
+  </si>
+  <si>
+    <t>Uma conquista pequena me fez gigante de felicidade</t>
+  </si>
+  <si>
+    <t>Senti meu espírito leve, flutuando de alegria</t>
+  </si>
+  <si>
+    <t>A risada de uma criança me fez sorrir de emoção</t>
+  </si>
+  <si>
+    <t>Recebi carinho inesperado e meu dia mudou</t>
+  </si>
+  <si>
+    <t>Me senti parte de algo bom e bonito</t>
+  </si>
+  <si>
+    <t>Um reencontro trouxe felicidade genuína</t>
+  </si>
+  <si>
+    <t>O calor de um abraço me fez sorrir sem esforço</t>
+  </si>
+  <si>
+    <t>Um ato de bondade me deixou radiante</t>
+  </si>
+  <si>
+    <t>Senti paz e alegria ao mesmo tempo</t>
+  </si>
+  <si>
+    <t>Uma conquista compartilhada me fez feliz</t>
+  </si>
+  <si>
+    <t>Um sonho realizado trouxe alegria pura</t>
+  </si>
+  <si>
+    <t>A empolgação do momento me contagiou</t>
+  </si>
+  <si>
+    <t>Vi alguém feliz e sorri junto involuntariamente</t>
+  </si>
+  <si>
+    <t>Me senti acolhido e amado de repente</t>
+  </si>
+  <si>
+    <t>O vento no rosto trouxe uma sensação de liberdade</t>
+  </si>
+  <si>
+    <t>Pequenos gestos transformaram meu humor em felicidade</t>
+  </si>
+  <si>
+    <t>Um momento de silêncio me fez sorrir por dentro</t>
+  </si>
+  <si>
+    <t>Senti-me invencível de tão feliz</t>
+  </si>
+  <si>
+    <t>Senti um frio intenso subir pela espinha</t>
+  </si>
+  <si>
+    <t>Meu coração disparou diante do desconhecido</t>
+  </si>
+  <si>
+    <t>Cada sombra parecia esconder algo perigoso</t>
+  </si>
+  <si>
+    <t>Meus passos ficaram hesitantes e lentos</t>
+  </si>
+  <si>
+    <t>Senti meu corpo congelar de medo</t>
+  </si>
+  <si>
+    <t>Cada som inesperado me deixou em alerta</t>
+  </si>
+  <si>
+    <t>Meu peito apertou como se fosse explodir</t>
+  </si>
+  <si>
+    <t>Senti uma ansiedade crescente sem motivo claro</t>
+  </si>
+  <si>
+    <t>Meus olhos vasculhavam cada canto da sala</t>
+  </si>
+  <si>
+    <t>Um arrepio percorreu minha espinha</t>
+  </si>
+  <si>
+    <t>Queria fugir, mas meus pés não se moviam</t>
+  </si>
+  <si>
+    <t>Meu corpo tremia involuntariamente</t>
+  </si>
+  <si>
+    <t>Senti que algo ruim estava prestes a acontecer</t>
+  </si>
+  <si>
+    <t>Cada barulho estranho fazia meu coração acelerar</t>
+  </si>
+  <si>
+    <t>Me senti vulnerável e impotente</t>
+  </si>
+  <si>
+    <t>O medo tomou conta da minha mente e do meu corpo</t>
+  </si>
+  <si>
+    <t>Queria me esconder de tudo ao redor</t>
+  </si>
+  <si>
+    <t>Meu estômago se contraiu de ansiedade</t>
+  </si>
+  <si>
+    <t>Cada passo parecia ecoar mais alto do que o normal</t>
+  </si>
+  <si>
+    <t>Senti um nó na garganta e dificuldade para respirar</t>
+  </si>
+  <si>
+    <t>Meu corpo todo estava tenso e alerta</t>
+  </si>
+  <si>
+    <t>A insegurança me deixou incapaz de agir</t>
+  </si>
+  <si>
+    <t>Meus olhos não conseguiam se afastar do perigo iminente</t>
+  </si>
+  <si>
+    <t>O silêncio parecia ameaçador</t>
+  </si>
+  <si>
+    <t>Cada sombra se transformava em ameaça na minha mente</t>
+  </si>
+  <si>
+    <t>Senti uma onda de pânico subindo</t>
+  </si>
+  <si>
+    <t>Queria gritar, mas não conseguia</t>
+  </si>
+  <si>
+    <t>Meu coração martelava de forma irregular</t>
+  </si>
+  <si>
+    <t>A sensação de perigo era avassaladora</t>
+  </si>
+  <si>
+    <t>Me senti observado e vulnerável</t>
+  </si>
+  <si>
+    <t>Cada respiração parecia difícil e pesada</t>
+  </si>
+  <si>
+    <t>A ansiedade tomava conta de cada pensamento</t>
+  </si>
+  <si>
+    <t>Meus músculos estavam rígidos de tensão</t>
+  </si>
+  <si>
+    <t>Senti um medo profundo que paralisava</t>
+  </si>
+  <si>
+    <t>Cada movimento parecia arriscado demais</t>
+  </si>
+  <si>
+    <t>Meu corpo reagia antes mesmo da mente pensar</t>
+  </si>
+  <si>
+    <t>Queria desaparecer de tanto medo</t>
+  </si>
+  <si>
+    <t>A sensação de perigo era real e iminente</t>
+  </si>
+  <si>
+    <t>Senti o coração apertar e o estômago embrulhar</t>
+  </si>
+  <si>
+    <t>Meus sentidos estavam hipersensíveis</t>
+  </si>
+  <si>
+    <t>Cada barulho parecia aumentar meu pavor</t>
+  </si>
+  <si>
+    <t>Senti-me encurralado e sem saída</t>
+  </si>
+  <si>
+    <t>A insegurança tomou conta do meu raciocínio</t>
+  </si>
+  <si>
+    <t>Meus olhos se arregalaram diante do desconhecido</t>
+  </si>
+  <si>
+    <t>Queria recuar, mas não havia para onde</t>
+  </si>
+  <si>
+    <t>Meu corpo inteiro reagia à ameaça invisível</t>
+  </si>
+  <si>
+    <t>Cada passo era tomado por cautela extrema</t>
+  </si>
+  <si>
+    <t>Senti-me pequeno diante do perigo percebido</t>
+  </si>
+  <si>
+    <t>O medo corria por minhas veias como eletricidade</t>
+  </si>
+  <si>
+    <t>Senti-me incapaz de controlar a situação</t>
+  </si>
+  <si>
+    <t>Senti uma explosão de irritação tomar conta de mim</t>
+  </si>
+  <si>
+    <t>Cada palavra errada me deixava mais furioso</t>
+  </si>
+  <si>
+    <t>O calor da raiva queimava meu peito</t>
+  </si>
+  <si>
+    <t>Não suportava mais aquela situação injusta</t>
+  </si>
+  <si>
+    <t>Queria gritar, mas me contive com dificuldade</t>
+  </si>
+  <si>
+    <t>Meu coração batia acelerado de tanta frustração</t>
+  </si>
+  <si>
+    <t>A indignação me fez perder a paciência instantaneamente</t>
+  </si>
+  <si>
+    <t>Cada erro me deixava mais irritado</t>
+  </si>
+  <si>
+    <t>Não suportava ver aquilo acontecer de novo</t>
+  </si>
+  <si>
+    <t>A raiva me consumia como fogo por dentro</t>
+  </si>
+  <si>
+    <t>Me senti traído e a raiva subiu sem aviso</t>
+  </si>
+  <si>
+    <t>Meu corpo inteiro tremia de frustração</t>
+  </si>
+  <si>
+    <t>Queria quebrar algo para aliviar minha ira</t>
+  </si>
+  <si>
+    <t>Cada injustiça parecia um golpe direto em mim</t>
+  </si>
+  <si>
+    <t>Senti-me impaciente e explosivo</t>
+  </si>
+  <si>
+    <t>A irritação me fez fechar os punhos involuntariamente</t>
+  </si>
+  <si>
+    <t>Não podia suportar aquela situação por mais um segundo</t>
+  </si>
+  <si>
+    <t>A frustração crescia a cada tentativa falha</t>
+  </si>
+  <si>
+    <t>Senti meus pensamentos se tornarem mais agressivos</t>
+  </si>
+  <si>
+    <t>A raiva transformou minha voz em algo cortante</t>
+  </si>
+  <si>
+    <t>Queria confrontar cada pessoa que me irritava</t>
+  </si>
+  <si>
+    <t>Meu rosto queimava de fúria contida</t>
+  </si>
+  <si>
+    <t>A injustiça me deixou sem controle momentâneo</t>
+  </si>
+  <si>
+    <t>Senti uma necessidade urgente de reagir</t>
+  </si>
+  <si>
+    <t>Cada comentário injusto me deixava mais tenso</t>
+  </si>
+  <si>
+    <t>O ódio crescia a cada olhar provocador</t>
+  </si>
+  <si>
+    <t>Senti meu peito apertado de raiva intensa</t>
+  </si>
+  <si>
+    <t>Cada falha alheia parecia atacar minha paciência</t>
+  </si>
+  <si>
+    <t>A irritação tomou conta dos meus gestos e palavras</t>
+  </si>
+  <si>
+    <t>Queria que tudo ao redor desaparecesse de tanto ódio</t>
+  </si>
+  <si>
+    <t>Me senti traído por aqueles que confiava</t>
+  </si>
+  <si>
+    <t>O calor da indignação queimava minha mente</t>
+  </si>
+  <si>
+    <t>A fúria me fez perder o controle momentaneamente</t>
+  </si>
+  <si>
+    <t>Queria corrigir cada erro com intensidade</t>
+  </si>
+  <si>
+    <t>A raiva transformou cada pensamento em um ataque</t>
+  </si>
+  <si>
+    <t>Senti minha paciência se esgotar completamente</t>
+  </si>
+  <si>
+    <t>Cada injustiça aumentava meu desespero e irritação</t>
+  </si>
+  <si>
+    <t>Meus punhos cerrados refletiam minha fúria interna</t>
+  </si>
+  <si>
+    <t>Queria que todos entendessem o quanto estava irritado</t>
+  </si>
+  <si>
+    <t>Senti uma onda de frustração percorrer meu corpo</t>
+  </si>
+  <si>
+    <t>Cada olhar crítico me deixava mais nervoso</t>
+  </si>
+  <si>
+    <t>A raiva tomou conta do meu raciocínio</t>
+  </si>
+  <si>
+    <t>Senti-me injustiçado e pronto para reagir</t>
+  </si>
+  <si>
+    <t>A tensão crescia dentro de mim a cada segundo</t>
+  </si>
+  <si>
+    <t>Meu coração acelerava de raiva contida</t>
+  </si>
+  <si>
+    <t>Queria expressar minha irritação sem filtros</t>
+  </si>
+  <si>
+    <t>Cada situação injusta me fazia tremer de frustração</t>
+  </si>
+  <si>
+    <t>Senti uma necessidade urgente de gritar</t>
+  </si>
+  <si>
+    <t>Meu corpo todo reagia à raiva que sentia</t>
+  </si>
+  <si>
+    <t>A frustração se transformou em fúria momentânea</t>
   </si>
 </sst>
 </file>
@@ -6488,19 +7088,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6803,10 +7397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2273"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1457" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A1474" sqref="A1474"/>
+    <sheetView tabSelected="1" topLeftCell="A2272" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F2287" sqref="F2287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7369,7 +7963,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -11417,7 +12011,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B576" t="s">
         <v>3</v>
@@ -11569,7 +12163,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B595" t="s">
         <v>3</v>
@@ -12737,7 +13331,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B741" t="s">
         <v>289</v>
@@ -14193,7 +14787,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B923" t="s">
         <v>310</v>
@@ -14241,7 +14835,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B929" t="s">
         <v>310</v>
@@ -17114,7 +17708,7 @@
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1288" t="s">
-        <v>1285</v>
+        <v>2133</v>
       </c>
       <c r="B1288" t="s">
         <v>3</v>
@@ -17122,7 +17716,7 @@
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1289" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1289" t="s">
         <v>3</v>
@@ -17130,7 +17724,7 @@
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1290" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1290" t="s">
         <v>3</v>
@@ -17138,7 +17732,7 @@
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1291" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1291" t="s">
         <v>3</v>
@@ -17146,7 +17740,7 @@
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1292" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1292" t="s">
         <v>3</v>
@@ -17154,7 +17748,7 @@
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1293" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1293" t="s">
         <v>3</v>
@@ -17162,7 +17756,7 @@
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1294" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1294" t="s">
         <v>3</v>
@@ -17170,7 +17764,7 @@
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1295" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1295" t="s">
         <v>3</v>
@@ -17178,7 +17772,7 @@
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1296" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1296" t="s">
         <v>3</v>
@@ -17186,7 +17780,7 @@
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1297" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1297" t="s">
         <v>3</v>
@@ -17194,7 +17788,7 @@
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1298" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1298" t="s">
         <v>3</v>
@@ -17202,7 +17796,7 @@
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1299" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1299" t="s">
         <v>3</v>
@@ -17210,7 +17804,7 @@
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1300" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1300" t="s">
         <v>3</v>
@@ -17218,7 +17812,7 @@
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1301" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1301" t="s">
         <v>3</v>
@@ -17226,7 +17820,7 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1302" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1302" t="s">
         <v>3</v>
@@ -17234,7 +17828,7 @@
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1303" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B1303" t="s">
         <v>3</v>
@@ -17242,7 +17836,7 @@
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1304" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1304" t="s">
         <v>3</v>
@@ -17250,7 +17844,7 @@
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1305" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1305" t="s">
         <v>3</v>
@@ -17258,7 +17852,7 @@
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1306" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1306" t="s">
         <v>3</v>
@@ -17266,7 +17860,7 @@
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1307" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1307" t="s">
         <v>3</v>
@@ -17274,7 +17868,7 @@
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1308" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1308" t="s">
         <v>3</v>
@@ -17290,7 +17884,7 @@
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1310" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1310" t="s">
         <v>3</v>
@@ -17298,7 +17892,7 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1311" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1311" t="s">
         <v>3</v>
@@ -17306,7 +17900,7 @@
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1312" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1312" t="s">
         <v>3</v>
@@ -17314,7 +17908,7 @@
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1313" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1313" t="s">
         <v>3</v>
@@ -17322,7 +17916,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1314" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1314" t="s">
         <v>3</v>
@@ -17330,7 +17924,7 @@
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1315" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B1315" t="s">
         <v>3</v>
@@ -17338,7 +17932,7 @@
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1316" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1316" t="s">
         <v>3</v>
@@ -17346,7 +17940,7 @@
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1317" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1317" t="s">
         <v>3</v>
@@ -17354,7 +17948,7 @@
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1318" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1318" t="s">
         <v>3</v>
@@ -17362,7 +17956,7 @@
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1319" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1319" t="s">
         <v>3</v>
@@ -17370,7 +17964,7 @@
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1320" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1320" t="s">
         <v>3</v>
@@ -17378,7 +17972,7 @@
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1321" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1321" t="s">
         <v>3</v>
@@ -17386,7 +17980,7 @@
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1322" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1322" t="s">
         <v>3</v>
@@ -17394,7 +17988,7 @@
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1323" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1323" t="s">
         <v>3</v>
@@ -17402,7 +17996,7 @@
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1324" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1324" t="s">
         <v>3</v>
@@ -17410,7 +18004,7 @@
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1325" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1325" t="s">
         <v>3</v>
@@ -17418,7 +18012,7 @@
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1326" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1326" t="s">
         <v>3</v>
@@ -17426,7 +18020,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1327" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1327" t="s">
         <v>3</v>
@@ -17434,7 +18028,7 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1328" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1328" t="s">
         <v>3</v>
@@ -17442,7 +18036,7 @@
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1329" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1329" t="s">
         <v>3</v>
@@ -17450,7 +18044,7 @@
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1330" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1330" t="s">
         <v>3</v>
@@ -17458,7 +18052,7 @@
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1331" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1331" t="s">
         <v>3</v>
@@ -17466,7 +18060,7 @@
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1332" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1332" t="s">
         <v>3</v>
@@ -17474,7 +18068,7 @@
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1333" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1333" t="s">
         <v>3</v>
@@ -17482,7 +18076,7 @@
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1334" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1334" t="s">
         <v>3</v>
@@ -17490,7 +18084,7 @@
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1335" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1335" t="s">
         <v>3</v>
@@ -17498,7 +18092,7 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1336" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1336" t="s">
         <v>3</v>
@@ -17506,7 +18100,7 @@
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1337" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1337" t="s">
         <v>159</v>
@@ -17514,7 +18108,7 @@
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1338" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1338" t="s">
         <v>159</v>
@@ -17522,7 +18116,7 @@
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1339" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1339" t="s">
         <v>159</v>
@@ -17530,7 +18124,7 @@
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1340" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1340" t="s">
         <v>159</v>
@@ -17538,7 +18132,7 @@
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1341" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1341" t="s">
         <v>159</v>
@@ -17546,7 +18140,7 @@
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1342" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1342" t="s">
         <v>159</v>
@@ -17554,7 +18148,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1343" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1343" t="s">
         <v>159</v>
@@ -17562,7 +18156,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1344" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1344" t="s">
         <v>159</v>
@@ -17570,7 +18164,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1345" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1345" t="s">
         <v>159</v>
@@ -17578,7 +18172,7 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1346" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1346" t="s">
         <v>159</v>
@@ -17586,7 +18180,7 @@
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1347" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1347" t="s">
         <v>159</v>
@@ -17594,7 +18188,7 @@
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1348" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1348" t="s">
         <v>159</v>
@@ -17602,7 +18196,7 @@
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1349" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1349" t="s">
         <v>159</v>
@@ -17610,7 +18204,7 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1350" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1350" t="s">
         <v>159</v>
@@ -17618,7 +18212,7 @@
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1351" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1351" t="s">
         <v>159</v>
@@ -17626,7 +18220,7 @@
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1352" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1352" t="s">
         <v>159</v>
@@ -17634,7 +18228,7 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1353" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1353" t="s">
         <v>159</v>
@@ -17642,7 +18236,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1354" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1354" t="s">
         <v>159</v>
@@ -17650,7 +18244,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1355" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1355" t="s">
         <v>159</v>
@@ -17658,7 +18252,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1356" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1356" t="s">
         <v>159</v>
@@ -17666,7 +18260,7 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1357" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1357" t="s">
         <v>159</v>
@@ -17674,7 +18268,7 @@
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1358" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1358" t="s">
         <v>159</v>
@@ -17682,7 +18276,7 @@
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1359" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1359" t="s">
         <v>159</v>
@@ -17690,7 +18284,7 @@
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1360" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1360" t="s">
         <v>159</v>
@@ -17698,7 +18292,7 @@
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1361" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1361" t="s">
         <v>159</v>
@@ -17706,7 +18300,7 @@
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1362" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B1362" t="s">
         <v>159</v>
@@ -17714,7 +18308,7 @@
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1363" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1363" t="s">
         <v>159</v>
@@ -17722,7 +18316,7 @@
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1364" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B1364" t="s">
         <v>159</v>
@@ -17730,7 +18324,7 @@
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1365" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1365" t="s">
         <v>159</v>
@@ -17738,7 +18332,7 @@
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1366" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1366" t="s">
         <v>159</v>
@@ -17746,7 +18340,7 @@
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1367" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1367" t="s">
         <v>159</v>
@@ -17754,7 +18348,7 @@
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1368" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1368" t="s">
         <v>159</v>
@@ -17762,7 +18356,7 @@
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1369" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1369" t="s">
         <v>159</v>
@@ -17770,7 +18364,7 @@
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1370" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1370" t="s">
         <v>159</v>
@@ -17778,7 +18372,7 @@
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1371" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1371" t="s">
         <v>159</v>
@@ -17786,7 +18380,7 @@
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1372" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1372" t="s">
         <v>159</v>
@@ -17794,7 +18388,7 @@
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1373" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1373" t="s">
         <v>159</v>
@@ -17802,7 +18396,7 @@
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1374" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1374" t="s">
         <v>159</v>
@@ -17810,7 +18404,7 @@
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1375" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1375" t="s">
         <v>159</v>
@@ -17818,7 +18412,7 @@
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1376" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1376" t="s">
         <v>159</v>
@@ -17826,7 +18420,7 @@
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1377" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1377" t="s">
         <v>159</v>
@@ -17834,7 +18428,7 @@
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1378" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1378" t="s">
         <v>159</v>
@@ -17842,7 +18436,7 @@
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1379" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B1379" t="s">
         <v>159</v>
@@ -17850,7 +18444,7 @@
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1380" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B1380" t="s">
         <v>159</v>
@@ -17858,7 +18452,7 @@
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1381" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1381" t="s">
         <v>159</v>
@@ -17866,7 +18460,7 @@
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1382" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1382" t="s">
         <v>159</v>
@@ -17874,7 +18468,7 @@
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1383" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1383" t="s">
         <v>159</v>
@@ -17882,7 +18476,7 @@
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1384" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1384" t="s">
         <v>159</v>
@@ -17890,7 +18484,7 @@
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1385" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B1385" t="s">
         <v>159</v>
@@ -17898,7 +18492,7 @@
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1386" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1386" t="s">
         <v>159</v>
@@ -17906,7 +18500,7 @@
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1387" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B1387" t="s">
         <v>159</v>
@@ -17914,7 +18508,7 @@
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1388" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1388" t="s">
         <v>159</v>
@@ -17922,7 +18516,7 @@
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1389" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1389" t="s">
         <v>159</v>
@@ -17930,7 +18524,7 @@
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1390" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1390" t="s">
         <v>159</v>
@@ -17938,7 +18532,7 @@
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1391" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B1391" t="s">
         <v>159</v>
@@ -17946,7 +18540,7 @@
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1392" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1392" t="s">
         <v>159</v>
@@ -17954,7 +18548,7 @@
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1393" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1393" t="s">
         <v>159</v>
@@ -17962,7 +18556,7 @@
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1394" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1394" t="s">
         <v>159</v>
@@ -17970,7 +18564,7 @@
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1395" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1395" t="s">
         <v>159</v>
@@ -17978,7 +18572,7 @@
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1396" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1396" t="s">
         <v>159</v>
@@ -17986,7 +18580,7 @@
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1397" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1397" t="s">
         <v>159</v>
@@ -17994,7 +18588,7 @@
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1398" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1398" t="s">
         <v>159</v>
@@ -18002,7 +18596,7 @@
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1399" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1399" t="s">
         <v>159</v>
@@ -18010,7 +18604,7 @@
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1400" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1400" t="s">
         <v>159</v>
@@ -18018,7 +18612,7 @@
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1401" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1401" t="s">
         <v>159</v>
@@ -18026,7 +18620,7 @@
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1402" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1402" t="s">
         <v>159</v>
@@ -18034,7 +18628,7 @@
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1403" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1403" t="s">
         <v>159</v>
@@ -18042,7 +18636,7 @@
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1404" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1404" t="s">
         <v>159</v>
@@ -18050,7 +18644,7 @@
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1405" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1405" t="s">
         <v>159</v>
@@ -18058,7 +18652,7 @@
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1406" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1406" t="s">
         <v>159</v>
@@ -18066,7 +18660,7 @@
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1407" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1407" t="s">
         <v>159</v>
@@ -18074,7 +18668,7 @@
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1408" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1408" t="s">
         <v>159</v>
@@ -18082,7 +18676,7 @@
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1409" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B1409" t="s">
         <v>159</v>
@@ -18090,7 +18684,7 @@
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1410" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1410" t="s">
         <v>159</v>
@@ -18098,7 +18692,7 @@
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1411" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1411" t="s">
         <v>159</v>
@@ -18106,7 +18700,7 @@
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1412" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1412" t="s">
         <v>159</v>
@@ -18114,7 +18708,7 @@
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1413" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1413" t="s">
         <v>159</v>
@@ -18122,7 +18716,7 @@
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1414" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1414" t="s">
         <v>159</v>
@@ -18130,7 +18724,7 @@
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1415" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1415" t="s">
         <v>159</v>
@@ -18138,7 +18732,7 @@
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1416" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1416" t="s">
         <v>159</v>
@@ -18146,7 +18740,7 @@
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1417" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1417" t="s">
         <v>159</v>
@@ -18154,7 +18748,7 @@
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1418" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1418" t="s">
         <v>159</v>
@@ -18162,7 +18756,7 @@
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1419" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1419" t="s">
         <v>159</v>
@@ -18170,7 +18764,7 @@
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1420" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1420" t="s">
         <v>159</v>
@@ -18178,7 +18772,7 @@
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1421" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1421" t="s">
         <v>159</v>
@@ -18186,7 +18780,7 @@
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1422" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1422" t="s">
         <v>159</v>
@@ -18194,7 +18788,7 @@
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1423" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B1423" t="s">
         <v>159</v>
@@ -18202,7 +18796,7 @@
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1424" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1424" t="s">
         <v>159</v>
@@ -18210,7 +18804,7 @@
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1425" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1425" t="s">
         <v>159</v>
@@ -18218,7 +18812,7 @@
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1426" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1426" t="s">
         <v>159</v>
@@ -18226,7 +18820,7 @@
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1427" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1427" t="s">
         <v>159</v>
@@ -18234,7 +18828,7 @@
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1428" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1428" t="s">
         <v>159</v>
@@ -18242,7 +18836,7 @@
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1429" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1429" t="s">
         <v>159</v>
@@ -18250,7 +18844,7 @@
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1430" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1430" t="s">
         <v>159</v>
@@ -18258,7 +18852,7 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1431" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1431" t="s">
         <v>159</v>
@@ -18266,7 +18860,7 @@
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1432" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1432" t="s">
         <v>159</v>
@@ -18274,7 +18868,7 @@
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1433" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1433" t="s">
         <v>310</v>
@@ -18282,7 +18876,7 @@
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1434" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B1434" t="s">
         <v>310</v>
@@ -18290,7 +18884,7 @@
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1435" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1435" t="s">
         <v>310</v>
@@ -18298,7 +18892,7 @@
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1436" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1436" t="s">
         <v>310</v>
@@ -18306,7 +18900,7 @@
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1437" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B1437" t="s">
         <v>310</v>
@@ -18314,7 +18908,7 @@
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1438" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1438" t="s">
         <v>310</v>
@@ -18322,7 +18916,7 @@
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1439" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B1439" t="s">
         <v>310</v>
@@ -18330,7 +18924,7 @@
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1440" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1440" t="s">
         <v>310</v>
@@ -18338,7 +18932,7 @@
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1441" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B1441" t="s">
         <v>310</v>
@@ -18346,7 +18940,7 @@
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1442" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B1442" t="s">
         <v>310</v>
@@ -18354,7 +18948,7 @@
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1443" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1443" t="s">
         <v>310</v>
@@ -18362,7 +18956,7 @@
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1444" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B1444" t="s">
         <v>310</v>
@@ -18370,7 +18964,7 @@
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1445" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B1445" t="s">
         <v>310</v>
@@ -18378,7 +18972,7 @@
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1446" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B1446" t="s">
         <v>310</v>
@@ -18386,7 +18980,7 @@
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1447" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B1447" t="s">
         <v>310</v>
@@ -18394,7 +18988,7 @@
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1448" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1448" t="s">
         <v>310</v>
@@ -18402,7 +18996,7 @@
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1449" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B1449" t="s">
         <v>310</v>
@@ -18410,7 +19004,7 @@
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1450" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B1450" t="s">
         <v>310</v>
@@ -18418,7 +19012,7 @@
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1451" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1451" t="s">
         <v>310</v>
@@ -18426,7 +19020,7 @@
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1452" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B1452" t="s">
         <v>310</v>
@@ -18434,7 +19028,7 @@
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1453" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B1453" t="s">
         <v>310</v>
@@ -18442,7 +19036,7 @@
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1454" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B1454" t="s">
         <v>310</v>
@@ -18450,7 +19044,7 @@
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1455" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B1455" t="s">
         <v>310</v>
@@ -18458,7 +19052,7 @@
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1456" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B1456" t="s">
         <v>310</v>
@@ -18466,7 +19060,7 @@
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1457" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B1457" t="s">
         <v>310</v>
@@ -18474,7 +19068,7 @@
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1458" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B1458" t="s">
         <v>310</v>
@@ -18482,7 +19076,7 @@
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1459" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B1459" t="s">
         <v>310</v>
@@ -18490,7 +19084,7 @@
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1460" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1460" t="s">
         <v>310</v>
@@ -18498,7 +19092,7 @@
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1461" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B1461" t="s">
         <v>310</v>
@@ -18506,7 +19100,7 @@
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1462" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B1462" t="s">
         <v>310</v>
@@ -18514,7 +19108,7 @@
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1463" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B1463" t="s">
         <v>310</v>
@@ -18522,7 +19116,7 @@
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1464" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1464" t="s">
         <v>310</v>
@@ -18530,7 +19124,7 @@
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1465" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B1465" t="s">
         <v>310</v>
@@ -18538,7 +19132,7 @@
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1466" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B1466" t="s">
         <v>310</v>
@@ -18546,7 +19140,7 @@
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1467" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1467" t="s">
         <v>310</v>
@@ -18554,7 +19148,7 @@
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1468" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1468" t="s">
         <v>310</v>
@@ -18562,7 +19156,7 @@
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1469" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1469" t="s">
         <v>310</v>
@@ -18570,7 +19164,7 @@
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1470" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1470" t="s">
         <v>310</v>
@@ -18578,7 +19172,7 @@
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1471" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1471" t="s">
         <v>310</v>
@@ -18586,7 +19180,7 @@
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1472" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1472" t="s">
         <v>310</v>
@@ -18594,7 +19188,7 @@
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1473" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1473" t="s">
         <v>310</v>
@@ -18602,7 +19196,7 @@
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1474" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1474" t="s">
         <v>310</v>
@@ -18610,7 +19204,7 @@
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1475" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1475" t="s">
         <v>310</v>
@@ -18618,7 +19212,7 @@
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1476" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1476" t="s">
         <v>310</v>
@@ -18626,7 +19220,7 @@
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1477" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1477" t="s">
         <v>310</v>
@@ -18634,7 +19228,7 @@
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1478" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B1478" t="s">
         <v>310</v>
@@ -18642,7 +19236,7 @@
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1479" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B1479" t="s">
         <v>310</v>
@@ -18650,7 +19244,7 @@
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1480" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B1480" t="s">
         <v>310</v>
@@ -18658,7 +19252,7 @@
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1481" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B1481" t="s">
         <v>310</v>
@@ -18666,7 +19260,7 @@
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1482" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1482" t="s">
         <v>310</v>
@@ -18674,7 +19268,7 @@
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1483" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B1483" t="s">
         <v>310</v>
@@ -18682,7 +19276,7 @@
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1484" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1484" t="s">
         <v>310</v>
@@ -18690,7 +19284,7 @@
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1485" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B1485" t="s">
         <v>310</v>
@@ -18698,7 +19292,7 @@
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1486" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1486" t="s">
         <v>310</v>
@@ -18706,7 +19300,7 @@
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1487" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B1487" t="s">
         <v>310</v>
@@ -18714,7 +19308,7 @@
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1488" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1488" t="s">
         <v>310</v>
@@ -18722,7 +19316,7 @@
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1489" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1489" t="s">
         <v>310</v>
@@ -18730,7 +19324,7 @@
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1490" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1490" t="s">
         <v>310</v>
@@ -18738,7 +19332,7 @@
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1491" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B1491" t="s">
         <v>310</v>
@@ -18746,7 +19340,7 @@
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1492" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1492" t="s">
         <v>310</v>
@@ -18754,7 +19348,7 @@
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1493" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1493" t="s">
         <v>310</v>
@@ -18762,7 +19356,7 @@
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1494" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1494" t="s">
         <v>310</v>
@@ -18770,7 +19364,7 @@
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1495" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1495" t="s">
         <v>310</v>
@@ -18778,7 +19372,7 @@
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1496" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1496" t="s">
         <v>310</v>
@@ -18786,7 +19380,7 @@
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1497" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1497" t="s">
         <v>310</v>
@@ -18794,7 +19388,7 @@
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1498" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1498" t="s">
         <v>310</v>
@@ -18802,7 +19396,7 @@
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1499" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1499" t="s">
         <v>310</v>
@@ -18810,7 +19404,7 @@
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1500" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1500" t="s">
         <v>310</v>
@@ -18818,7 +19412,7 @@
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1501" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1501" t="s">
         <v>310</v>
@@ -18826,7 +19420,7 @@
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1502" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1502" t="s">
         <v>310</v>
@@ -18834,7 +19428,7 @@
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1503" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1503" t="s">
         <v>310</v>
@@ -18842,7 +19436,7 @@
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1504" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1504" t="s">
         <v>310</v>
@@ -18850,7 +19444,7 @@
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1505" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1505" t="s">
         <v>310</v>
@@ -18858,7 +19452,7 @@
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1506" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1506" t="s">
         <v>310</v>
@@ -18866,7 +19460,7 @@
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1507" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1507" t="s">
         <v>310</v>
@@ -18874,7 +19468,7 @@
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1508" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1508" t="s">
         <v>310</v>
@@ -18882,7 +19476,7 @@
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1509" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1509" t="s">
         <v>310</v>
@@ -18890,7 +19484,7 @@
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1510" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1510" t="s">
         <v>310</v>
@@ -18898,7 +19492,7 @@
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1511" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1511" t="s">
         <v>310</v>
@@ -18906,7 +19500,7 @@
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1512" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1512" t="s">
         <v>310</v>
@@ -18914,7 +19508,7 @@
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1513" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1513" t="s">
         <v>310</v>
@@ -18922,7 +19516,7 @@
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1514" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B1514" t="s">
         <v>310</v>
@@ -18930,7 +19524,7 @@
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1515" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B1515" t="s">
         <v>310</v>
@@ -18938,7 +19532,7 @@
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1516" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B1516" t="s">
         <v>310</v>
@@ -18946,7 +19540,7 @@
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1517" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B1517" t="s">
         <v>310</v>
@@ -18954,7 +19548,7 @@
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1518" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B1518" t="s">
         <v>310</v>
@@ -18962,7 +19556,7 @@
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1519" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B1519" t="s">
         <v>310</v>
@@ -18970,7 +19564,7 @@
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1520" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B1520" t="s">
         <v>310</v>
@@ -18978,7 +19572,7 @@
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1521" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B1521" t="s">
         <v>310</v>
@@ -18986,7 +19580,7 @@
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1522" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B1522" t="s">
         <v>310</v>
@@ -18994,7 +19588,7 @@
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1523" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B1523" t="s">
         <v>310</v>
@@ -19002,7 +19596,7 @@
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1524" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B1524" t="s">
         <v>310</v>
@@ -19010,7 +19604,7 @@
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1525" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B1525" t="s">
         <v>310</v>
@@ -19018,7 +19612,7 @@
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1526" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B1526" t="s">
         <v>310</v>
@@ -19026,7 +19620,7 @@
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1527" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B1527" t="s">
         <v>310</v>
@@ -19034,7 +19628,7 @@
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1528" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B1528" t="s">
         <v>310</v>
@@ -19042,7 +19636,7 @@
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1529" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B1529" t="s">
         <v>310</v>
@@ -19050,7 +19644,7 @@
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1530" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B1530" t="s">
         <v>310</v>
@@ -19058,7 +19652,7 @@
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1531" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1531" t="s">
         <v>310</v>
@@ -19066,7 +19660,7 @@
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1532" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1532" t="s">
         <v>310</v>
@@ -19074,7 +19668,7 @@
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1533" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1533" t="s">
         <v>289</v>
@@ -19082,7 +19676,7 @@
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1534" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1534" t="s">
         <v>289</v>
@@ -19090,7 +19684,7 @@
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1535" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B1535" t="s">
         <v>289</v>
@@ -19098,7 +19692,7 @@
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1536" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B1536" t="s">
         <v>289</v>
@@ -19106,7 +19700,7 @@
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1537" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1537" t="s">
         <v>289</v>
@@ -19114,7 +19708,7 @@
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1538" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1538" t="s">
         <v>289</v>
@@ -19122,7 +19716,7 @@
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1539" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B1539" t="s">
         <v>289</v>
@@ -19130,7 +19724,7 @@
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1540" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B1540" t="s">
         <v>289</v>
@@ -19138,7 +19732,7 @@
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1541" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B1541" t="s">
         <v>289</v>
@@ -19146,7 +19740,7 @@
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1542" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B1542" t="s">
         <v>289</v>
@@ -19154,7 +19748,7 @@
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1543" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B1543" t="s">
         <v>289</v>
@@ -19162,7 +19756,7 @@
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1544" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B1544" t="s">
         <v>289</v>
@@ -19170,7 +19764,7 @@
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1545" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B1545" t="s">
         <v>289</v>
@@ -19178,7 +19772,7 @@
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1546" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B1546" t="s">
         <v>289</v>
@@ -19186,7 +19780,7 @@
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1547" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1547" t="s">
         <v>289</v>
@@ -19194,7 +19788,7 @@
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1548" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1548" t="s">
         <v>289</v>
@@ -19202,7 +19796,7 @@
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1549" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B1549" t="s">
         <v>289</v>
@@ -19210,7 +19804,7 @@
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1550" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1550" t="s">
         <v>289</v>
@@ -19218,7 +19812,7 @@
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1551" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1551" t="s">
         <v>289</v>
@@ -19226,7 +19820,7 @@
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1552" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1552" t="s">
         <v>289</v>
@@ -19234,7 +19828,7 @@
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1553" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B1553" t="s">
         <v>289</v>
@@ -19242,7 +19836,7 @@
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1554" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B1554" t="s">
         <v>289</v>
@@ -19250,7 +19844,7 @@
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1555" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B1555" t="s">
         <v>289</v>
@@ -19258,7 +19852,7 @@
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1556" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B1556" t="s">
         <v>289</v>
@@ -19266,7 +19860,7 @@
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1557" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B1557" t="s">
         <v>289</v>
@@ -19274,7 +19868,7 @@
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1558" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1558" t="s">
         <v>289</v>
@@ -19282,7 +19876,7 @@
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1559" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B1559" t="s">
         <v>289</v>
@@ -19290,7 +19884,7 @@
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1560" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B1560" t="s">
         <v>289</v>
@@ -19298,7 +19892,7 @@
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1561" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B1561" t="s">
         <v>289</v>
@@ -19306,7 +19900,7 @@
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1562" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B1562" t="s">
         <v>289</v>
@@ -19314,7 +19908,7 @@
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1563" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B1563" t="s">
         <v>289</v>
@@ -19322,7 +19916,7 @@
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1564" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B1564" t="s">
         <v>289</v>
@@ -19330,7 +19924,7 @@
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1565" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B1565" t="s">
         <v>289</v>
@@ -19338,7 +19932,7 @@
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1566" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1566" t="s">
         <v>289</v>
@@ -19346,7 +19940,7 @@
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1567" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B1567" t="s">
         <v>289</v>
@@ -19354,7 +19948,7 @@
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1568" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B1568" t="s">
         <v>289</v>
@@ -19362,7 +19956,7 @@
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1569" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B1569" t="s">
         <v>289</v>
@@ -19370,7 +19964,7 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1570" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1570" t="s">
         <v>289</v>
@@ -19378,7 +19972,7 @@
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1571" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B1571" t="s">
         <v>289</v>
@@ -19386,7 +19980,7 @@
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1572" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1572" t="s">
         <v>289</v>
@@ -19394,7 +19988,7 @@
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1573" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1573" t="s">
         <v>289</v>
@@ -19402,7 +19996,7 @@
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1574" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1574" t="s">
         <v>289</v>
@@ -19410,7 +20004,7 @@
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1575" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1575" t="s">
         <v>289</v>
@@ -19418,7 +20012,7 @@
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1576" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1576" t="s">
         <v>289</v>
@@ -19426,7 +20020,7 @@
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1577" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B1577" t="s">
         <v>289</v>
@@ -19434,7 +20028,7 @@
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1578" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B1578" t="s">
         <v>289</v>
@@ -19442,7 +20036,7 @@
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1579" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B1579" t="s">
         <v>289</v>
@@ -19450,7 +20044,7 @@
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1580" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B1580" t="s">
         <v>289</v>
@@ -19458,7 +20052,7 @@
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1581" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B1581" t="s">
         <v>289</v>
@@ -19466,7 +20060,7 @@
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1582" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B1582" t="s">
         <v>289</v>
@@ -19474,7 +20068,7 @@
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1583" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B1583" t="s">
         <v>289</v>
@@ -19482,7 +20076,7 @@
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1584" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B1584" t="s">
         <v>289</v>
@@ -19490,7 +20084,7 @@
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1585" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B1585" t="s">
         <v>289</v>
@@ -19498,7 +20092,7 @@
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1586" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1586" t="s">
         <v>289</v>
@@ -19506,7 +20100,7 @@
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1587" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1587" t="s">
         <v>289</v>
@@ -19514,7 +20108,7 @@
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1588" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1588" t="s">
         <v>289</v>
@@ -19522,7 +20116,7 @@
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1589" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1589" t="s">
         <v>289</v>
@@ -19530,7 +20124,7 @@
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1590" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B1590" t="s">
         <v>289</v>
@@ -19538,7 +20132,7 @@
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1591" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1591" t="s">
         <v>289</v>
@@ -19546,7 +20140,7 @@
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1592" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1592" t="s">
         <v>289</v>
@@ -19554,7 +20148,7 @@
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1593" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B1593" t="s">
         <v>289</v>
@@ -19562,7 +20156,7 @@
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1594" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B1594" t="s">
         <v>289</v>
@@ -19570,7 +20164,7 @@
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1595" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B1595" t="s">
         <v>289</v>
@@ -19578,7 +20172,7 @@
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1596" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B1596" t="s">
         <v>289</v>
@@ -19586,7 +20180,7 @@
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1597" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B1597" t="s">
         <v>289</v>
@@ -19594,7 +20188,7 @@
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1598" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B1598" t="s">
         <v>289</v>
@@ -19602,7 +20196,7 @@
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1599" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1599" t="s">
         <v>289</v>
@@ -19610,7 +20204,7 @@
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1600" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1600" t="s">
         <v>289</v>
@@ -19618,7 +20212,7 @@
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1601" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1601" t="s">
         <v>289</v>
@@ -19626,7 +20220,7 @@
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1602" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B1602" t="s">
         <v>289</v>
@@ -19634,7 +20228,7 @@
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1603" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B1603" t="s">
         <v>289</v>
@@ -19642,7 +20236,7 @@
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1604" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B1604" t="s">
         <v>289</v>
@@ -19650,7 +20244,7 @@
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1605" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1605" t="s">
         <v>289</v>
@@ -19658,7 +20252,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1606" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1606" t="s">
         <v>289</v>
@@ -19666,7 +20260,7 @@
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1607" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1607" t="s">
         <v>289</v>
@@ -19674,7 +20268,7 @@
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1608" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1608" t="s">
         <v>289</v>
@@ -19682,7 +20276,7 @@
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1609" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1609" t="s">
         <v>289</v>
@@ -19690,7 +20284,7 @@
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1610" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B1610" t="s">
         <v>289</v>
@@ -19698,7 +20292,7 @@
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1611" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B1611" t="s">
         <v>289</v>
@@ -19706,7 +20300,7 @@
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1612" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B1612" t="s">
         <v>289</v>
@@ -19714,7 +20308,7 @@
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1613" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1613" t="s">
         <v>289</v>
@@ -19722,7 +20316,7 @@
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1614" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1614" t="s">
         <v>289</v>
@@ -19730,7 +20324,7 @@
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1615" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B1615" t="s">
         <v>289</v>
@@ -19738,7 +20332,7 @@
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1616" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B1616" t="s">
         <v>289</v>
@@ -19746,7 +20340,7 @@
     </row>
     <row r="1617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1617" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1617" t="s">
         <v>289</v>
@@ -19754,7 +20348,7 @@
     </row>
     <row r="1618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1618" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1618" t="s">
         <v>289</v>
@@ -19762,7 +20356,7 @@
     </row>
     <row r="1619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1619" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B1619" t="s">
         <v>289</v>
@@ -19770,7 +20364,7 @@
     </row>
     <row r="1620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1620" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B1620" t="s">
         <v>289</v>
@@ -19778,7 +20372,7 @@
     </row>
     <row r="1621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1621" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B1621" t="s">
         <v>289</v>
@@ -19786,7 +20380,7 @@
     </row>
     <row r="1622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1622" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B1622" t="s">
         <v>289</v>
@@ -19794,7 +20388,7 @@
     </row>
     <row r="1623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1623" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1623" t="s">
         <v>289</v>
@@ -19802,7 +20396,7 @@
     </row>
     <row r="1624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1624" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B1624" t="s">
         <v>289</v>
@@ -19811,7 +20405,7 @@
     </row>
     <row r="1625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1625" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1625" t="s">
         <v>289</v>
@@ -19819,7 +20413,7 @@
     </row>
     <row r="1626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1626" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B1626" t="s">
         <v>289</v>
@@ -19827,7 +20421,7 @@
     </row>
     <row r="1627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1627" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1627" t="s">
         <v>289</v>
@@ -19835,7 +20429,7 @@
     </row>
     <row r="1628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1628" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B1628" t="s">
         <v>289</v>
@@ -19843,7 +20437,7 @@
     </row>
     <row r="1629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1629" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1629" t="s">
         <v>289</v>
@@ -19851,7 +20445,7 @@
     </row>
     <row r="1630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1630" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B1630" t="s">
         <v>289</v>
@@ -19859,7 +20453,7 @@
     </row>
     <row r="1631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1631" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B1631" t="s">
         <v>289</v>
@@ -19867,7 +20461,7 @@
     </row>
     <row r="1632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1632" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B1632" t="s">
         <v>289</v>
@@ -19875,7 +20469,7 @@
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1633" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1633" t="s">
         <v>159</v>
@@ -19883,7 +20477,7 @@
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1634" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B1634" t="s">
         <v>159</v>
@@ -19891,7 +20485,7 @@
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1635" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B1635" t="s">
         <v>159</v>
@@ -19899,7 +20493,7 @@
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1636" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B1636" t="s">
         <v>159</v>
@@ -19907,7 +20501,7 @@
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1637" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B1637" t="s">
         <v>159</v>
@@ -19915,7 +20509,7 @@
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1638" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1638" t="s">
         <v>159</v>
@@ -19923,7 +20517,7 @@
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1639" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1639" t="s">
         <v>159</v>
@@ -19931,7 +20525,7 @@
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1640" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B1640" t="s">
         <v>159</v>
@@ -19939,7 +20533,7 @@
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1641" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B1641" t="s">
         <v>159</v>
@@ -19947,7 +20541,7 @@
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1642" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B1642" t="s">
         <v>159</v>
@@ -19955,7 +20549,7 @@
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1643" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B1643" t="s">
         <v>159</v>
@@ -19963,7 +20557,7 @@
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1644" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B1644" t="s">
         <v>159</v>
@@ -19971,7 +20565,7 @@
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1645" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B1645" t="s">
         <v>159</v>
@@ -19979,7 +20573,7 @@
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1646" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B1646" t="s">
         <v>159</v>
@@ -19987,7 +20581,7 @@
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1647" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B1647" t="s">
         <v>159</v>
@@ -19995,7 +20589,7 @@
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1648" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B1648" t="s">
         <v>159</v>
@@ -20003,7 +20597,7 @@
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1649" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1649" t="s">
         <v>159</v>
@@ -20011,7 +20605,7 @@
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1650" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B1650" t="s">
         <v>159</v>
@@ -20019,7 +20613,7 @@
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1651" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B1651" t="s">
         <v>159</v>
@@ -20027,7 +20621,7 @@
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1652" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B1652" t="s">
         <v>159</v>
@@ -20035,7 +20629,7 @@
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1653" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B1653" t="s">
         <v>159</v>
@@ -20043,7 +20637,7 @@
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1654" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B1654" t="s">
         <v>159</v>
@@ -20051,7 +20645,7 @@
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1655" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B1655" t="s">
         <v>159</v>
@@ -20059,7 +20653,7 @@
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1656" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B1656" t="s">
         <v>159</v>
@@ -20067,7 +20661,7 @@
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1657" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B1657" t="s">
         <v>159</v>
@@ -20075,7 +20669,7 @@
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1658" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B1658" t="s">
         <v>3</v>
@@ -20083,7 +20677,7 @@
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1659" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B1659" t="s">
         <v>3</v>
@@ -20091,7 +20685,7 @@
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1660" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B1660" t="s">
         <v>3</v>
@@ -20099,7 +20693,7 @@
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1661" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B1661" t="s">
         <v>3</v>
@@ -20107,7 +20701,7 @@
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1662" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B1662" t="s">
         <v>3</v>
@@ -20115,7 +20709,7 @@
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1663" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B1663" t="s">
         <v>3</v>
@@ -20123,7 +20717,7 @@
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1664" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B1664" t="s">
         <v>3</v>
@@ -20131,7 +20725,7 @@
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1665" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B1665" t="s">
         <v>3</v>
@@ -20139,7 +20733,7 @@
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1666" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B1666" t="s">
         <v>3</v>
@@ -20147,7 +20741,7 @@
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1667" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B1667" t="s">
         <v>3</v>
@@ -20155,7 +20749,7 @@
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1668" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B1668" t="s">
         <v>3</v>
@@ -20163,7 +20757,7 @@
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1669" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B1669" t="s">
         <v>3</v>
@@ -20171,7 +20765,7 @@
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1670" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B1670" t="s">
         <v>3</v>
@@ -20179,7 +20773,7 @@
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1671" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B1671" t="s">
         <v>3</v>
@@ -20187,7 +20781,7 @@
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1672" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B1672" t="s">
         <v>3</v>
@@ -20195,7 +20789,7 @@
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1673" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B1673" t="s">
         <v>3</v>
@@ -20203,7 +20797,7 @@
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1674" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B1674" t="s">
         <v>3</v>
@@ -20211,7 +20805,7 @@
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1675" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B1675" t="s">
         <v>3</v>
@@ -20219,7 +20813,7 @@
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1676" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B1676" t="s">
         <v>3</v>
@@ -20227,7 +20821,7 @@
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1677" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B1677" t="s">
         <v>3</v>
@@ -20235,7 +20829,7 @@
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1678" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B1678" t="s">
         <v>3</v>
@@ -20243,7 +20837,7 @@
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1679" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B1679" t="s">
         <v>3</v>
@@ -20251,7 +20845,7 @@
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1680" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B1680" t="s">
         <v>3</v>
@@ -20259,7 +20853,7 @@
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1681" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B1681" t="s">
         <v>3</v>
@@ -20267,7 +20861,7 @@
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1682" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B1682" t="s">
         <v>3</v>
@@ -20275,7 +20869,7 @@
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1683" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B1683" t="s">
         <v>310</v>
@@ -20283,7 +20877,7 @@
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1684" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B1684" t="s">
         <v>310</v>
@@ -20291,7 +20885,7 @@
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1685" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B1685" t="s">
         <v>310</v>
@@ -20299,7 +20893,7 @@
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1686" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B1686" t="s">
         <v>310</v>
@@ -20307,7 +20901,7 @@
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1687" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B1687" t="s">
         <v>310</v>
@@ -20315,7 +20909,7 @@
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1688" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B1688" t="s">
         <v>310</v>
@@ -20323,7 +20917,7 @@
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1689" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B1689" t="s">
         <v>310</v>
@@ -20331,7 +20925,7 @@
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1690" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B1690" t="s">
         <v>310</v>
@@ -20339,7 +20933,7 @@
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1691" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B1691" t="s">
         <v>310</v>
@@ -20347,7 +20941,7 @@
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1692" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B1692" t="s">
         <v>310</v>
@@ -20355,7 +20949,7 @@
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1693" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B1693" t="s">
         <v>310</v>
@@ -20363,7 +20957,7 @@
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1694" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B1694" t="s">
         <v>310</v>
@@ -20371,7 +20965,7 @@
     </row>
     <row r="1695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1695" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B1695" t="s">
         <v>310</v>
@@ -20379,7 +20973,7 @@
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1696" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B1696" t="s">
         <v>310</v>
@@ -20387,7 +20981,7 @@
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1697" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B1697" t="s">
         <v>310</v>
@@ -20395,7 +20989,7 @@
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1698" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B1698" t="s">
         <v>310</v>
@@ -20403,7 +20997,7 @@
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1699" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B1699" t="s">
         <v>310</v>
@@ -20411,7 +21005,7 @@
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1700" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B1700" t="s">
         <v>310</v>
@@ -20419,7 +21013,7 @@
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1701" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B1701" t="s">
         <v>310</v>
@@ -20427,7 +21021,7 @@
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1702" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B1702" t="s">
         <v>310</v>
@@ -20435,7 +21029,7 @@
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1703" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B1703" t="s">
         <v>310</v>
@@ -20443,7 +21037,7 @@
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1704" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B1704" t="s">
         <v>310</v>
@@ -20451,7 +21045,7 @@
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1705" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B1705" t="s">
         <v>310</v>
@@ -20459,7 +21053,7 @@
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1706" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B1706" t="s">
         <v>310</v>
@@ -20467,7 +21061,7 @@
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1707" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B1707" t="s">
         <v>310</v>
@@ -20475,7 +21069,7 @@
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1708" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B1708" t="s">
         <v>289</v>
@@ -20483,7 +21077,7 @@
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1709" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B1709" t="s">
         <v>289</v>
@@ -20491,7 +21085,7 @@
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1710" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B1710" t="s">
         <v>289</v>
@@ -20499,7 +21093,7 @@
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1711" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B1711" t="s">
         <v>289</v>
@@ -20507,7 +21101,7 @@
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1712" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B1712" t="s">
         <v>289</v>
@@ -20515,7 +21109,7 @@
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1713" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B1713" t="s">
         <v>289</v>
@@ -20523,7 +21117,7 @@
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1714" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1714" t="s">
         <v>289</v>
@@ -20531,7 +21125,7 @@
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1715" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1715" t="s">
         <v>289</v>
@@ -20539,7 +21133,7 @@
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1716" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B1716" t="s">
         <v>289</v>
@@ -20547,7 +21141,7 @@
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1717" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1717" t="s">
         <v>289</v>
@@ -20555,7 +21149,7 @@
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1718" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B1718" t="s">
         <v>289</v>
@@ -20563,7 +21157,7 @@
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1719" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B1719" t="s">
         <v>289</v>
@@ -20571,7 +21165,7 @@
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1720" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B1720" t="s">
         <v>289</v>
@@ -20579,7 +21173,7 @@
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1721" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B1721" t="s">
         <v>289</v>
@@ -20587,7 +21181,7 @@
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1722" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B1722" t="s">
         <v>289</v>
@@ -20595,7 +21189,7 @@
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1723" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B1723" t="s">
         <v>289</v>
@@ -20603,7 +21197,7 @@
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1724" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B1724" t="s">
         <v>289</v>
@@ -20611,7 +21205,7 @@
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1725" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B1725" t="s">
         <v>289</v>
@@ -20619,7 +21213,7 @@
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1726" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B1726" t="s">
         <v>289</v>
@@ -20627,7 +21221,7 @@
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1727" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B1727" t="s">
         <v>289</v>
@@ -20635,7 +21229,7 @@
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1728" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B1728" t="s">
         <v>289</v>
@@ -20643,7 +21237,7 @@
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1729" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B1729" t="s">
         <v>289</v>
@@ -20651,7 +21245,7 @@
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1730" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B1730" t="s">
         <v>289</v>
@@ -20659,7 +21253,7 @@
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1731" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B1731" t="s">
         <v>289</v>
@@ -20667,7 +21261,7 @@
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1732" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B1732" t="s">
         <v>289</v>
@@ -20675,7 +21269,7 @@
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1733" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B1733" t="s">
         <v>3</v>
@@ -20683,7 +21277,7 @@
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1734" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B1734" t="s">
         <v>3</v>
@@ -20691,7 +21285,7 @@
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1735" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B1735" t="s">
         <v>3</v>
@@ -20699,7 +21293,7 @@
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1736" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B1736" t="s">
         <v>3</v>
@@ -20707,7 +21301,7 @@
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1737" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B1737" t="s">
         <v>3</v>
@@ -20715,7 +21309,7 @@
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1738" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B1738" t="s">
         <v>3</v>
@@ -20723,7 +21317,7 @@
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1739" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B1739" t="s">
         <v>3</v>
@@ -20731,7 +21325,7 @@
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1740" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B1740" t="s">
         <v>3</v>
@@ -20739,7 +21333,7 @@
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1741" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B1741" t="s">
         <v>3</v>
@@ -20747,7 +21341,7 @@
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1742" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B1742" t="s">
         <v>3</v>
@@ -20755,7 +21349,7 @@
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1743" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B1743" t="s">
         <v>3</v>
@@ -20763,7 +21357,7 @@
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1744" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B1744" t="s">
         <v>3</v>
@@ -20771,7 +21365,7 @@
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1745" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B1745" t="s">
         <v>3</v>
@@ -20779,7 +21373,7 @@
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1746" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B1746" t="s">
         <v>3</v>
@@ -20787,7 +21381,7 @@
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1747" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B1747" t="s">
         <v>3</v>
@@ -20795,7 +21389,7 @@
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1748" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B1748" t="s">
         <v>3</v>
@@ -20803,7 +21397,7 @@
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1749" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B1749" t="s">
         <v>3</v>
@@ -20811,7 +21405,7 @@
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1750" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B1750" t="s">
         <v>3</v>
@@ -20819,7 +21413,7 @@
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1751" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B1751" t="s">
         <v>3</v>
@@ -20827,7 +21421,7 @@
     </row>
     <row r="1752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1752" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B1752" t="s">
         <v>3</v>
@@ -20835,7 +21429,7 @@
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1753" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B1753" t="s">
         <v>3</v>
@@ -20843,7 +21437,7 @@
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1754" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B1754" t="s">
         <v>3</v>
@@ -20851,7 +21445,7 @@
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1755" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B1755" t="s">
         <v>3</v>
@@ -20859,7 +21453,7 @@
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1756" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B1756" t="s">
         <v>3</v>
@@ -20867,7 +21461,7 @@
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1757" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B1757" t="s">
         <v>3</v>
@@ -20875,7 +21469,7 @@
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1758" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B1758" t="s">
         <v>3</v>
@@ -20883,7 +21477,7 @@
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1759" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B1759" t="s">
         <v>3</v>
@@ -20891,7 +21485,7 @@
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1760" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B1760" t="s">
         <v>3</v>
@@ -20899,7 +21493,7 @@
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1761" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B1761" t="s">
         <v>3</v>
@@ -20907,7 +21501,7 @@
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1762" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B1762" t="s">
         <v>3</v>
@@ -20915,7 +21509,7 @@
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1763" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B1763" t="s">
         <v>3</v>
@@ -20923,7 +21517,7 @@
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1764" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B1764" t="s">
         <v>3</v>
@@ -20931,7 +21525,7 @@
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1765" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B1765" t="s">
         <v>3</v>
@@ -20939,7 +21533,7 @@
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1766" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B1766" t="s">
         <v>3</v>
@@ -20947,7 +21541,7 @@
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1767" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B1767" t="s">
         <v>3</v>
@@ -20955,7 +21549,7 @@
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1768" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B1768" t="s">
         <v>3</v>
@@ -20963,7 +21557,7 @@
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1769" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B1769" t="s">
         <v>3</v>
@@ -20971,7 +21565,7 @@
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1770" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B1770" t="s">
         <v>3</v>
@@ -20979,7 +21573,7 @@
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1771" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B1771" t="s">
         <v>3</v>
@@ -20987,7 +21581,7 @@
     </row>
     <row r="1772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1772" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B1772" t="s">
         <v>3</v>
@@ -20995,7 +21589,7 @@
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1773" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B1773" t="s">
         <v>159</v>
@@ -21003,7 +21597,7 @@
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1774" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B1774" t="s">
         <v>159</v>
@@ -21011,7 +21605,7 @@
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1775" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B1775" t="s">
         <v>159</v>
@@ -21019,7 +21613,7 @@
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1776" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B1776" t="s">
         <v>159</v>
@@ -21027,7 +21621,7 @@
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1777" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B1777" t="s">
         <v>159</v>
@@ -21035,7 +21629,7 @@
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1778" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B1778" t="s">
         <v>159</v>
@@ -21043,7 +21637,7 @@
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1779" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B1779" t="s">
         <v>159</v>
@@ -21051,7 +21645,7 @@
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1780" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B1780" t="s">
         <v>159</v>
@@ -21059,7 +21653,7 @@
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1781" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B1781" t="s">
         <v>159</v>
@@ -21067,7 +21661,7 @@
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1782" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B1782" t="s">
         <v>159</v>
@@ -21075,7 +21669,7 @@
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1783" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B1783" t="s">
         <v>159</v>
@@ -21083,7 +21677,7 @@
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1784" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B1784" t="s">
         <v>159</v>
@@ -21091,7 +21685,7 @@
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1785" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B1785" t="s">
         <v>159</v>
@@ -21099,7 +21693,7 @@
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1786" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B1786" t="s">
         <v>159</v>
@@ -21107,7 +21701,7 @@
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1787" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B1787" t="s">
         <v>159</v>
@@ -21115,7 +21709,7 @@
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1788" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B1788" t="s">
         <v>159</v>
@@ -21123,7 +21717,7 @@
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1789" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B1789" t="s">
         <v>159</v>
@@ -21131,7 +21725,7 @@
     </row>
     <row r="1790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1790" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B1790" t="s">
         <v>159</v>
@@ -21139,7 +21733,7 @@
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1791" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B1791" t="s">
         <v>159</v>
@@ -21147,7 +21741,7 @@
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1792" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B1792" t="s">
         <v>159</v>
@@ -21155,7 +21749,7 @@
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1793" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B1793" t="s">
         <v>159</v>
@@ -21163,7 +21757,7 @@
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1794" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B1794" t="s">
         <v>159</v>
@@ -21171,7 +21765,7 @@
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1795" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B1795" t="s">
         <v>159</v>
@@ -21179,7 +21773,7 @@
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1796" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B1796" t="s">
         <v>159</v>
@@ -21187,7 +21781,7 @@
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1797" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B1797" t="s">
         <v>159</v>
@@ -21195,7 +21789,7 @@
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1798" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B1798" t="s">
         <v>159</v>
@@ -21203,7 +21797,7 @@
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1799" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B1799" t="s">
         <v>159</v>
@@ -21211,7 +21805,7 @@
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1800" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B1800" t="s">
         <v>159</v>
@@ -21219,7 +21813,7 @@
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1801" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B1801" t="s">
         <v>159</v>
@@ -21227,7 +21821,7 @@
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1802" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B1802" t="s">
         <v>159</v>
@@ -21235,7 +21829,7 @@
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1803" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B1803" t="s">
         <v>159</v>
@@ -21243,7 +21837,7 @@
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1804" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B1804" t="s">
         <v>159</v>
@@ -21251,7 +21845,7 @@
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1805" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B1805" t="s">
         <v>159</v>
@@ -21259,7 +21853,7 @@
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1806" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B1806" t="s">
         <v>159</v>
@@ -21267,7 +21861,7 @@
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1807" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B1807" t="s">
         <v>159</v>
@@ -21275,7 +21869,7 @@
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1808" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B1808" t="s">
         <v>159</v>
@@ -21283,7 +21877,7 @@
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1809" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B1809" t="s">
         <v>159</v>
@@ -21291,7 +21885,7 @@
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1810" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B1810" t="s">
         <v>159</v>
@@ -21299,7 +21893,7 @@
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1811" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B1811" t="s">
         <v>159</v>
@@ -21307,7 +21901,7 @@
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1812" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B1812" t="s">
         <v>159</v>
@@ -21315,7 +21909,7 @@
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1813" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B1813" t="s">
         <v>310</v>
@@ -21323,7 +21917,7 @@
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1814" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B1814" t="s">
         <v>310</v>
@@ -21331,7 +21925,7 @@
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1815" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B1815" t="s">
         <v>310</v>
@@ -21339,7 +21933,7 @@
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1816" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B1816" t="s">
         <v>310</v>
@@ -21347,7 +21941,7 @@
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1817" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B1817" t="s">
         <v>310</v>
@@ -21355,7 +21949,7 @@
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1818" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B1818" t="s">
         <v>310</v>
@@ -21363,7 +21957,7 @@
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1819" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B1819" t="s">
         <v>310</v>
@@ -21371,7 +21965,7 @@
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1820" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B1820" t="s">
         <v>310</v>
@@ -21379,7 +21973,7 @@
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1821" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1821" t="s">
         <v>310</v>
@@ -21387,7 +21981,7 @@
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1822" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1822" t="s">
         <v>310</v>
@@ -21395,7 +21989,7 @@
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1823" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1823" t="s">
         <v>310</v>
@@ -21403,7 +21997,7 @@
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1824" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1824" t="s">
         <v>310</v>
@@ -21411,7 +22005,7 @@
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1825" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1825" t="s">
         <v>310</v>
@@ -21419,7 +22013,7 @@
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1826" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B1826" t="s">
         <v>310</v>
@@ -21427,7 +22021,7 @@
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1827" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B1827" t="s">
         <v>310</v>
@@ -21435,7 +22029,7 @@
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1828" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B1828" t="s">
         <v>310</v>
@@ -21443,7 +22037,7 @@
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1829" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B1829" t="s">
         <v>310</v>
@@ -21451,7 +22045,7 @@
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1830" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B1830" t="s">
         <v>310</v>
@@ -21459,7 +22053,7 @@
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1831" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B1831" t="s">
         <v>310</v>
@@ -21467,7 +22061,7 @@
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1832" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B1832" t="s">
         <v>310</v>
@@ -21475,7 +22069,7 @@
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1833" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B1833" t="s">
         <v>310</v>
@@ -21483,7 +22077,7 @@
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1834" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B1834" t="s">
         <v>310</v>
@@ -21491,7 +22085,7 @@
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1835" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B1835" t="s">
         <v>310</v>
@@ -21499,7 +22093,7 @@
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1836" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B1836" t="s">
         <v>310</v>
@@ -21507,7 +22101,7 @@
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1837" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1837" t="s">
         <v>310</v>
@@ -21515,7 +22109,7 @@
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1838" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B1838" t="s">
         <v>310</v>
@@ -21523,7 +22117,7 @@
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1839" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B1839" t="s">
         <v>310</v>
@@ -21531,7 +22125,7 @@
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1840" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1840" t="s">
         <v>310</v>
@@ -21539,7 +22133,7 @@
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1841" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B1841" t="s">
         <v>310</v>
@@ -21547,7 +22141,7 @@
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1842" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B1842" t="s">
         <v>310</v>
@@ -21555,7 +22149,7 @@
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1843" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1843" t="s">
         <v>310</v>
@@ -21563,7 +22157,7 @@
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1844" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B1844" t="s">
         <v>310</v>
@@ -21571,7 +22165,7 @@
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1845" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B1845" t="s">
         <v>310</v>
@@ -21579,7 +22173,7 @@
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1846" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B1846" t="s">
         <v>310</v>
@@ -21587,7 +22181,7 @@
     </row>
     <row r="1847" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1847" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1847" t="s">
         <v>310</v>
@@ -21595,7 +22189,7 @@
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1848" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B1848" t="s">
         <v>310</v>
@@ -21603,7 +22197,7 @@
     </row>
     <row r="1849" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1849" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B1849" t="s">
         <v>310</v>
@@ -21611,7 +22205,7 @@
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1850" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B1850" t="s">
         <v>310</v>
@@ -21619,7 +22213,7 @@
     </row>
     <row r="1851" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1851" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B1851" t="s">
         <v>310</v>
@@ -21627,7 +22221,7 @@
     </row>
     <row r="1852" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1852" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B1852" t="s">
         <v>310</v>
@@ -21635,7 +22229,7 @@
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1853" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B1853" t="s">
         <v>289</v>
@@ -21643,7 +22237,7 @@
     </row>
     <row r="1854" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1854" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B1854" t="s">
         <v>289</v>
@@ -21651,7 +22245,7 @@
     </row>
     <row r="1855" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1855" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B1855" t="s">
         <v>289</v>
@@ -21659,7 +22253,7 @@
     </row>
     <row r="1856" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1856" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B1856" t="s">
         <v>289</v>
@@ -21667,7 +22261,7 @@
     </row>
     <row r="1857" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1857" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B1857" t="s">
         <v>289</v>
@@ -21675,7 +22269,7 @@
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1858" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B1858" t="s">
         <v>289</v>
@@ -21683,7 +22277,7 @@
     </row>
     <row r="1859" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1859" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1859" t="s">
         <v>289</v>
@@ -21691,7 +22285,7 @@
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1860" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B1860" t="s">
         <v>289</v>
@@ -21699,7 +22293,7 @@
     </row>
     <row r="1861" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1861" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B1861" t="s">
         <v>289</v>
@@ -21707,7 +22301,7 @@
     </row>
     <row r="1862" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1862" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B1862" t="s">
         <v>289</v>
@@ -21715,7 +22309,7 @@
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1863" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B1863" t="s">
         <v>289</v>
@@ -21723,7 +22317,7 @@
     </row>
     <row r="1864" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1864" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B1864" t="s">
         <v>289</v>
@@ -21731,7 +22325,7 @@
     </row>
     <row r="1865" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1865" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B1865" t="s">
         <v>289</v>
@@ -21739,7 +22333,7 @@
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1866" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1866" t="s">
         <v>289</v>
@@ -21747,7 +22341,7 @@
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1867" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B1867" t="s">
         <v>289</v>
@@ -21755,7 +22349,7 @@
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1868" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B1868" t="s">
         <v>289</v>
@@ -21763,7 +22357,7 @@
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1869" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1869" t="s">
         <v>289</v>
@@ -21771,7 +22365,7 @@
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1870" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B1870" t="s">
         <v>289</v>
@@ -21779,7 +22373,7 @@
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1871" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B1871" t="s">
         <v>289</v>
@@ -21787,7 +22381,7 @@
     </row>
     <row r="1872" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1872" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B1872" t="s">
         <v>289</v>
@@ -21795,7 +22389,7 @@
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1873" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B1873" t="s">
         <v>289</v>
@@ -21803,7 +22397,7 @@
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1874" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B1874" t="s">
         <v>289</v>
@@ -21811,7 +22405,7 @@
     </row>
     <row r="1875" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1875" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B1875" t="s">
         <v>289</v>
@@ -21819,7 +22413,7 @@
     </row>
     <row r="1876" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1876" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B1876" t="s">
         <v>289</v>
@@ -21827,7 +22421,7 @@
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1877" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B1877" t="s">
         <v>289</v>
@@ -21835,7 +22429,7 @@
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1878" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B1878" t="s">
         <v>289</v>
@@ -21843,7 +22437,7 @@
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1879" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B1879" t="s">
         <v>289</v>
@@ -21851,7 +22445,7 @@
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1880" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B1880" t="s">
         <v>289</v>
@@ -21859,7 +22453,7 @@
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1881" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B1881" t="s">
         <v>289</v>
@@ -21867,7 +22461,7 @@
     </row>
     <row r="1882" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1882" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1882" t="s">
         <v>289</v>
@@ -21875,7 +22469,7 @@
     </row>
     <row r="1883" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1883" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B1883" t="s">
         <v>289</v>
@@ -21883,7 +22477,7 @@
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1884" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B1884" t="s">
         <v>289</v>
@@ -21891,7 +22485,7 @@
     </row>
     <row r="1885" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1885" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B1885" t="s">
         <v>289</v>
@@ -21899,7 +22493,7 @@
     </row>
     <row r="1886" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1886" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B1886" t="s">
         <v>289</v>
@@ -21907,7 +22501,7 @@
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1887" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B1887" t="s">
         <v>289</v>
@@ -21915,7 +22509,7 @@
     </row>
     <row r="1888" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1888" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B1888" t="s">
         <v>289</v>
@@ -21923,7 +22517,7 @@
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1889" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B1889" t="s">
         <v>289</v>
@@ -21931,7 +22525,7 @@
     </row>
     <row r="1890" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1890" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B1890" t="s">
         <v>289</v>
@@ -21939,7 +22533,7 @@
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1891" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B1891" t="s">
         <v>289</v>
@@ -21947,7 +22541,7 @@
     </row>
     <row r="1892" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1892" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1892" t="s">
         <v>289</v>
@@ -21955,7 +22549,7 @@
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1893" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B1893" t="s">
         <v>3</v>
@@ -21963,7 +22557,7 @@
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1894" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B1894" t="s">
         <v>3</v>
@@ -21971,7 +22565,7 @@
     </row>
     <row r="1895" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1895" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B1895" t="s">
         <v>3</v>
@@ -21979,7 +22573,7 @@
     </row>
     <row r="1896" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1896" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B1896" t="s">
         <v>3</v>
@@ -21987,7 +22581,7 @@
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1897" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B1897" t="s">
         <v>3</v>
@@ -21995,7 +22589,7 @@
     </row>
     <row r="1898" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1898" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B1898" t="s">
         <v>3</v>
@@ -22003,7 +22597,7 @@
     </row>
     <row r="1899" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1899" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B1899" t="s">
         <v>3</v>
@@ -22011,7 +22605,7 @@
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1900" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B1900" t="s">
         <v>3</v>
@@ -22019,7 +22613,7 @@
     </row>
     <row r="1901" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1901" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1901" t="s">
         <v>3</v>
@@ -22027,7 +22621,7 @@
     </row>
     <row r="1902" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1902" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B1902" t="s">
         <v>3</v>
@@ -22035,7 +22629,7 @@
     </row>
     <row r="1903" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1903" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B1903" t="s">
         <v>3</v>
@@ -22043,7 +22637,7 @@
     </row>
     <row r="1904" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1904" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B1904" t="s">
         <v>3</v>
@@ -22051,7 +22645,7 @@
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1905" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1905" t="s">
         <v>3</v>
@@ -22059,7 +22653,7 @@
     </row>
     <row r="1906" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1906" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1906" t="s">
         <v>3</v>
@@ -22067,7 +22661,7 @@
     </row>
     <row r="1907" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1907" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B1907" t="s">
         <v>3</v>
@@ -22075,7 +22669,7 @@
     </row>
     <row r="1908" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1908" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B1908" t="s">
         <v>3</v>
@@ -22083,7 +22677,7 @@
     </row>
     <row r="1909" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1909" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1909" t="s">
         <v>3</v>
@@ -22091,7 +22685,7 @@
     </row>
     <row r="1910" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1910" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1910" t="s">
         <v>3</v>
@@ -22099,7 +22693,7 @@
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1911" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B1911" t="s">
         <v>3</v>
@@ -22107,7 +22701,7 @@
     </row>
     <row r="1912" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1912" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1912" t="s">
         <v>3</v>
@@ -22115,7 +22709,7 @@
     </row>
     <row r="1913" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1913" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B1913" t="s">
         <v>3</v>
@@ -22123,7 +22717,7 @@
     </row>
     <row r="1914" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1914" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B1914" t="s">
         <v>3</v>
@@ -22131,7 +22725,7 @@
     </row>
     <row r="1915" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1915" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B1915" t="s">
         <v>3</v>
@@ -22139,7 +22733,7 @@
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1916" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B1916" t="s">
         <v>3</v>
@@ -22147,7 +22741,7 @@
     </row>
     <row r="1917" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1917" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B1917" t="s">
         <v>3</v>
@@ -22155,7 +22749,7 @@
     </row>
     <row r="1918" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1918" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B1918" t="s">
         <v>3</v>
@@ -22163,7 +22757,7 @@
     </row>
     <row r="1919" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1919" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B1919" t="s">
         <v>3</v>
@@ -22171,7 +22765,7 @@
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1920" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B1920" t="s">
         <v>3</v>
@@ -22179,7 +22773,7 @@
     </row>
     <row r="1921" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1921" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1921" t="s">
         <v>3</v>
@@ -22187,7 +22781,7 @@
     </row>
     <row r="1922" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1922" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B1922" t="s">
         <v>3</v>
@@ -22195,7 +22789,7 @@
     </row>
     <row r="1923" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1923" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B1923" t="s">
         <v>159</v>
@@ -22203,7 +22797,7 @@
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1924" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B1924" t="s">
         <v>159</v>
@@ -22211,7 +22805,7 @@
     </row>
     <row r="1925" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1925" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B1925" t="s">
         <v>159</v>
@@ -22219,7 +22813,7 @@
     </row>
     <row r="1926" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1926" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B1926" t="s">
         <v>159</v>
@@ -22227,7 +22821,7 @@
     </row>
     <row r="1927" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1927" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B1927" t="s">
         <v>159</v>
@@ -22235,7 +22829,7 @@
     </row>
     <row r="1928" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1928" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B1928" t="s">
         <v>159</v>
@@ -22243,7 +22837,7 @@
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1929" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B1929" t="s">
         <v>159</v>
@@ -22251,7 +22845,7 @@
     </row>
     <row r="1930" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1930" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B1930" t="s">
         <v>159</v>
@@ -22259,7 +22853,7 @@
     </row>
     <row r="1931" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1931" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1931" t="s">
         <v>159</v>
@@ -22267,7 +22861,7 @@
     </row>
     <row r="1932" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1932" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B1932" t="s">
         <v>159</v>
@@ -22275,7 +22869,7 @@
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1933" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B1933" t="s">
         <v>159</v>
@@ -22283,7 +22877,7 @@
     </row>
     <row r="1934" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1934" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B1934" t="s">
         <v>159</v>
@@ -22291,7 +22885,7 @@
     </row>
     <row r="1935" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1935" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B1935" t="s">
         <v>159</v>
@@ -22299,7 +22893,7 @@
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1936" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B1936" t="s">
         <v>159</v>
@@ -22307,7 +22901,7 @@
     </row>
     <row r="1937" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1937" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B1937" t="s">
         <v>159</v>
@@ -22315,7 +22909,7 @@
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1938" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1938" t="s">
         <v>159</v>
@@ -22323,7 +22917,7 @@
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1939" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1939" t="s">
         <v>159</v>
@@ -22331,7 +22925,7 @@
     </row>
     <row r="1940" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1940" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B1940" t="s">
         <v>159</v>
@@ -22339,7 +22933,7 @@
     </row>
     <row r="1941" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1941" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B1941" t="s">
         <v>159</v>
@@ -22347,7 +22941,7 @@
     </row>
     <row r="1942" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1942" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B1942" t="s">
         <v>159</v>
@@ -22355,7 +22949,7 @@
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1943" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B1943" t="s">
         <v>159</v>
@@ -22363,7 +22957,7 @@
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1944" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B1944" t="s">
         <v>159</v>
@@ -22371,7 +22965,7 @@
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1945" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B1945" t="s">
         <v>159</v>
@@ -22379,7 +22973,7 @@
     </row>
     <row r="1946" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1946" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B1946" t="s">
         <v>159</v>
@@ -22387,7 +22981,7 @@
     </row>
     <row r="1947" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1947" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B1947" t="s">
         <v>159</v>
@@ -22395,7 +22989,7 @@
     </row>
     <row r="1948" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1948" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1948" t="s">
         <v>159</v>
@@ -22403,7 +22997,7 @@
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1949" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B1949" t="s">
         <v>159</v>
@@ -22411,7 +23005,7 @@
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1950" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1950" t="s">
         <v>159</v>
@@ -22419,7 +23013,7 @@
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1951" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1951" t="s">
         <v>159</v>
@@ -22427,7 +23021,7 @@
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1952" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1952" t="s">
         <v>159</v>
@@ -22435,7 +23029,7 @@
     </row>
     <row r="1953" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1953" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1953" t="s">
         <v>310</v>
@@ -22443,7 +23037,7 @@
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1954" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1954" t="s">
         <v>310</v>
@@ -22451,7 +23045,7 @@
     </row>
     <row r="1955" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1955" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1955" t="s">
         <v>310</v>
@@ -22459,7 +23053,7 @@
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1956" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1956" t="s">
         <v>310</v>
@@ -22467,7 +23061,7 @@
     </row>
     <row r="1957" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1957" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B1957" t="s">
         <v>310</v>
@@ -22475,7 +23069,7 @@
     </row>
     <row r="1958" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1958" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B1958" t="s">
         <v>310</v>
@@ -22483,7 +23077,7 @@
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1959" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1959" t="s">
         <v>310</v>
@@ -22491,7 +23085,7 @@
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1960" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B1960" t="s">
         <v>310</v>
@@ -22499,7 +23093,7 @@
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1961" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B1961" t="s">
         <v>310</v>
@@ -22507,7 +23101,7 @@
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1962" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B1962" t="s">
         <v>310</v>
@@ -22515,7 +23109,7 @@
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1963" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B1963" t="s">
         <v>310</v>
@@ -22523,7 +23117,7 @@
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1964" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B1964" t="s">
         <v>310</v>
@@ -22531,7 +23125,7 @@
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1965" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B1965" t="s">
         <v>310</v>
@@ -22539,7 +23133,7 @@
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1966" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1966" t="s">
         <v>310</v>
@@ -22547,7 +23141,7 @@
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1967" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1967" t="s">
         <v>310</v>
@@ -22555,7 +23149,7 @@
     </row>
     <row r="1968" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1968" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1968" t="s">
         <v>310</v>
@@ -22563,7 +23157,7 @@
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1969" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1969" t="s">
         <v>310</v>
@@ -22571,7 +23165,7 @@
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1970" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1970" t="s">
         <v>310</v>
@@ -22579,7 +23173,7 @@
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1971" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1971" t="s">
         <v>310</v>
@@ -22587,7 +23181,7 @@
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1972" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1972" t="s">
         <v>310</v>
@@ -22595,7 +23189,7 @@
     </row>
     <row r="1973" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1973" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B1973" t="s">
         <v>310</v>
@@ -22603,7 +23197,7 @@
     </row>
     <row r="1974" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1974" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B1974" t="s">
         <v>310</v>
@@ -22611,7 +23205,7 @@
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1975" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B1975" t="s">
         <v>310</v>
@@ -22619,7 +23213,7 @@
     </row>
     <row r="1976" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1976" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B1976" t="s">
         <v>310</v>
@@ -22627,7 +23221,7 @@
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1977" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1977" t="s">
         <v>310</v>
@@ -22635,7 +23229,7 @@
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1978" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B1978" t="s">
         <v>310</v>
@@ -22643,7 +23237,7 @@
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1979" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B1979" t="s">
         <v>310</v>
@@ -22651,7 +23245,7 @@
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1980" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B1980" t="s">
         <v>310</v>
@@ -22659,7 +23253,7 @@
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1981" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B1981" t="s">
         <v>310</v>
@@ -22667,7 +23261,7 @@
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1982" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1982" t="s">
         <v>310</v>
@@ -22675,7 +23269,7 @@
     </row>
     <row r="1983" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1983" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B1983" t="s">
         <v>289</v>
@@ -22683,7 +23277,7 @@
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1984" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B1984" t="s">
         <v>289</v>
@@ -22691,7 +23285,7 @@
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1985" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B1985" t="s">
         <v>289</v>
@@ -22699,7 +23293,7 @@
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1986" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1986" t="s">
         <v>289</v>
@@ -22707,7 +23301,7 @@
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1987" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B1987" t="s">
         <v>289</v>
@@ -22715,7 +23309,7 @@
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1988" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B1988" t="s">
         <v>289</v>
@@ -22723,7 +23317,7 @@
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1989" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1989" t="s">
         <v>289</v>
@@ -22731,7 +23325,7 @@
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1990" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B1990" t="s">
         <v>289</v>
@@ -22739,7 +23333,7 @@
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1991" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1991" t="s">
         <v>289</v>
@@ -22747,7 +23341,7 @@
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1992" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B1992" t="s">
         <v>289</v>
@@ -22755,7 +23349,7 @@
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1993" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B1993" t="s">
         <v>289</v>
@@ -22763,7 +23357,7 @@
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1994" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B1994" t="s">
         <v>289</v>
@@ -22771,7 +23365,7 @@
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1995" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B1995" t="s">
         <v>289</v>
@@ -22779,7 +23373,7 @@
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1996" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B1996" t="s">
         <v>289</v>
@@ -22787,7 +23381,7 @@
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1997" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1997" t="s">
         <v>289</v>
@@ -22795,7 +23389,7 @@
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1998" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1998" t="s">
         <v>289</v>
@@ -22803,7 +23397,7 @@
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1999" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1999" t="s">
         <v>289</v>
@@ -22811,7 +23405,7 @@
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2000" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B2000" t="s">
         <v>289</v>
@@ -22819,7 +23413,7 @@
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2001" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B2001" t="s">
         <v>289</v>
@@ -22827,7 +23421,7 @@
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2002" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B2002" t="s">
         <v>289</v>
@@ -22835,7 +23429,7 @@
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2003" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B2003" t="s">
         <v>289</v>
@@ -22843,7 +23437,7 @@
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2004" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B2004" t="s">
         <v>289</v>
@@ -22851,7 +23445,7 @@
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2005" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B2005" t="s">
         <v>289</v>
@@ -22859,7 +23453,7 @@
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2006" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B2006" t="s">
         <v>289</v>
@@ -22867,7 +23461,7 @@
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2007" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B2007" t="s">
         <v>289</v>
@@ -22875,7 +23469,7 @@
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2008" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B2008" t="s">
         <v>289</v>
@@ -22883,7 +23477,7 @@
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2009" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B2009" t="s">
         <v>289</v>
@@ -22891,7 +23485,7 @@
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2010" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B2010" t="s">
         <v>289</v>
@@ -22899,7 +23493,7 @@
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2011" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B2011" t="s">
         <v>289</v>
@@ -22907,7 +23501,7 @@
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2012" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B2012" t="s">
         <v>289</v>
@@ -22915,7 +23509,7 @@
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2013" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B2013" t="s">
         <v>159</v>
@@ -22923,7 +23517,7 @@
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2014" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B2014" t="s">
         <v>159</v>
@@ -22931,7 +23525,7 @@
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2015" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B2015" t="s">
         <v>159</v>
@@ -22939,7 +23533,7 @@
     </row>
     <row r="2016" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2016" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B2016" t="s">
         <v>159</v>
@@ -22947,7 +23541,7 @@
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2017" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B2017" t="s">
         <v>159</v>
@@ -22955,7 +23549,7 @@
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2018" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B2018" t="s">
         <v>159</v>
@@ -22963,7 +23557,7 @@
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2019" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B2019" t="s">
         <v>159</v>
@@ -22971,7 +23565,7 @@
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2020" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B2020" t="s">
         <v>159</v>
@@ -22979,7 +23573,7 @@
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2021" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2021" t="s">
         <v>159</v>
@@ -22987,7 +23581,7 @@
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2022" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B2022" t="s">
         <v>159</v>
@@ -22995,7 +23589,7 @@
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2023" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B2023" t="s">
         <v>159</v>
@@ -23003,7 +23597,7 @@
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2024" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B2024" t="s">
         <v>159</v>
@@ -23011,7 +23605,7 @@
     </row>
     <row r="2025" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2025" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B2025" t="s">
         <v>159</v>
@@ -23019,7 +23613,7 @@
     </row>
     <row r="2026" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2026" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B2026" t="s">
         <v>159</v>
@@ -23027,7 +23621,7 @@
     </row>
     <row r="2027" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2027" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B2027" t="s">
         <v>159</v>
@@ -23035,7 +23629,7 @@
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2028" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B2028" t="s">
         <v>159</v>
@@ -23043,7 +23637,7 @@
     </row>
     <row r="2029" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2029" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B2029" t="s">
         <v>159</v>
@@ -23051,7 +23645,7 @@
     </row>
     <row r="2030" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2030" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B2030" t="s">
         <v>159</v>
@@ -23059,7 +23653,7 @@
     </row>
     <row r="2031" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2031" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B2031" t="s">
         <v>159</v>
@@ -23067,7 +23661,7 @@
     </row>
     <row r="2032" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2032" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B2032" t="s">
         <v>159</v>
@@ -23075,7 +23669,7 @@
     </row>
     <row r="2033" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2033" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B2033" t="s">
         <v>159</v>
@@ -23083,7 +23677,7 @@
     </row>
     <row r="2034" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2034" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B2034" t="s">
         <v>159</v>
@@ -23091,7 +23685,7 @@
     </row>
     <row r="2035" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2035" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B2035" t="s">
         <v>159</v>
@@ -23099,7 +23693,7 @@
     </row>
     <row r="2036" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2036" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B2036" t="s">
         <v>159</v>
@@ -23107,7 +23701,7 @@
     </row>
     <row r="2037" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2037" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2037" t="s">
         <v>159</v>
@@ -23115,7 +23709,7 @@
     </row>
     <row r="2038" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2038" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B2038" t="s">
         <v>159</v>
@@ -23123,7 +23717,7 @@
     </row>
     <row r="2039" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2039" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B2039" t="s">
         <v>159</v>
@@ -23131,7 +23725,7 @@
     </row>
     <row r="2040" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2040" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B2040" t="s">
         <v>159</v>
@@ -23139,7 +23733,7 @@
     </row>
     <row r="2041" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2041" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B2041" t="s">
         <v>159</v>
@@ -23147,7 +23741,7 @@
     </row>
     <row r="2042" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2042" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B2042" t="s">
         <v>159</v>
@@ -23155,7 +23749,7 @@
     </row>
     <row r="2043" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2043" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B2043" t="s">
         <v>310</v>
@@ -23163,7 +23757,7 @@
     </row>
     <row r="2044" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2044" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B2044" t="s">
         <v>310</v>
@@ -23171,7 +23765,7 @@
     </row>
     <row r="2045" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2045" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B2045" t="s">
         <v>310</v>
@@ -23179,7 +23773,7 @@
     </row>
     <row r="2046" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2046" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B2046" t="s">
         <v>310</v>
@@ -23187,7 +23781,7 @@
     </row>
     <row r="2047" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2047" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B2047" t="s">
         <v>310</v>
@@ -23195,7 +23789,7 @@
     </row>
     <row r="2048" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2048" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B2048" t="s">
         <v>310</v>
@@ -23203,7 +23797,7 @@
     </row>
     <row r="2049" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2049" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B2049" t="s">
         <v>310</v>
@@ -23211,7 +23805,7 @@
     </row>
     <row r="2050" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2050" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B2050" t="s">
         <v>310</v>
@@ -23219,7 +23813,7 @@
     </row>
     <row r="2051" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2051" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B2051" t="s">
         <v>310</v>
@@ -23227,7 +23821,7 @@
     </row>
     <row r="2052" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2052" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B2052" t="s">
         <v>310</v>
@@ -23235,7 +23829,7 @@
     </row>
     <row r="2053" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2053" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B2053" t="s">
         <v>310</v>
@@ -23243,7 +23837,7 @@
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2054" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B2054" t="s">
         <v>310</v>
@@ -23251,7 +23845,7 @@
     </row>
     <row r="2055" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2055" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B2055" t="s">
         <v>310</v>
@@ -23259,7 +23853,7 @@
     </row>
     <row r="2056" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2056" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B2056" t="s">
         <v>310</v>
@@ -23267,7 +23861,7 @@
     </row>
     <row r="2057" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2057" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B2057" t="s">
         <v>310</v>
@@ -23275,7 +23869,7 @@
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2058" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B2058" t="s">
         <v>310</v>
@@ -23283,7 +23877,7 @@
     </row>
     <row r="2059" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2059" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B2059" t="s">
         <v>310</v>
@@ -23291,7 +23885,7 @@
     </row>
     <row r="2060" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2060" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B2060" t="s">
         <v>310</v>
@@ -23299,7 +23893,7 @@
     </row>
     <row r="2061" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2061" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B2061" t="s">
         <v>310</v>
@@ -23307,7 +23901,7 @@
     </row>
     <row r="2062" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2062" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B2062" t="s">
         <v>310</v>
@@ -23315,7 +23909,7 @@
     </row>
     <row r="2063" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2063" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B2063" t="s">
         <v>310</v>
@@ -23323,7 +23917,7 @@
     </row>
     <row r="2064" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2064" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B2064" t="s">
         <v>310</v>
@@ -23331,7 +23925,7 @@
     </row>
     <row r="2065" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2065" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B2065" t="s">
         <v>310</v>
@@ -23339,7 +23933,7 @@
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2066" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B2066" t="s">
         <v>310</v>
@@ -23347,7 +23941,7 @@
     </row>
     <row r="2067" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2067" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B2067" t="s">
         <v>310</v>
@@ -23355,7 +23949,7 @@
     </row>
     <row r="2068" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2068" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B2068" t="s">
         <v>310</v>
@@ -23363,7 +23957,7 @@
     </row>
     <row r="2069" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2069" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B2069" t="s">
         <v>310</v>
@@ -23371,7 +23965,7 @@
     </row>
     <row r="2070" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2070" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B2070" t="s">
         <v>310</v>
@@ -23379,7 +23973,7 @@
     </row>
     <row r="2071" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2071" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B2071" t="s">
         <v>310</v>
@@ -23387,7 +23981,7 @@
     </row>
     <row r="2072" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2072" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B2072" t="s">
         <v>310</v>
@@ -23395,7 +23989,7 @@
     </row>
     <row r="2073" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2073" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B2073" t="s">
         <v>289</v>
@@ -23403,7 +23997,7 @@
     </row>
     <row r="2074" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2074" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B2074" t="s">
         <v>289</v>
@@ -23411,7 +24005,7 @@
     </row>
     <row r="2075" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2075" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B2075" t="s">
         <v>289</v>
@@ -23419,7 +24013,7 @@
     </row>
     <row r="2076" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2076" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B2076" t="s">
         <v>289</v>
@@ -23427,7 +24021,7 @@
     </row>
     <row r="2077" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2077" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B2077" t="s">
         <v>289</v>
@@ -23435,7 +24029,7 @@
     </row>
     <row r="2078" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2078" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B2078" t="s">
         <v>289</v>
@@ -23443,7 +24037,7 @@
     </row>
     <row r="2079" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2079" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B2079" t="s">
         <v>289</v>
@@ -23451,7 +24045,7 @@
     </row>
     <row r="2080" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2080" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B2080" t="s">
         <v>289</v>
@@ -23459,7 +24053,7 @@
     </row>
     <row r="2081" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2081" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B2081" t="s">
         <v>289</v>
@@ -23467,7 +24061,7 @@
     </row>
     <row r="2082" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2082" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B2082" t="s">
         <v>289</v>
@@ -23475,7 +24069,7 @@
     </row>
     <row r="2083" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2083" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B2083" t="s">
         <v>289</v>
@@ -23483,7 +24077,7 @@
     </row>
     <row r="2084" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2084" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B2084" t="s">
         <v>289</v>
@@ -23491,7 +24085,7 @@
     </row>
     <row r="2085" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2085" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B2085" t="s">
         <v>289</v>
@@ -23499,7 +24093,7 @@
     </row>
     <row r="2086" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2086" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B2086" t="s">
         <v>289</v>
@@ -23507,7 +24101,7 @@
     </row>
     <row r="2087" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2087" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B2087" t="s">
         <v>289</v>
@@ -23515,7 +24109,7 @@
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2088" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B2088" t="s">
         <v>289</v>
@@ -23523,7 +24117,7 @@
     </row>
     <row r="2089" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2089" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B2089" t="s">
         <v>289</v>
@@ -23531,7 +24125,7 @@
     </row>
     <row r="2090" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2090" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B2090" t="s">
         <v>289</v>
@@ -23539,7 +24133,7 @@
     </row>
     <row r="2091" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2091" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B2091" t="s">
         <v>289</v>
@@ -23547,7 +24141,7 @@
     </row>
     <row r="2092" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2092" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B2092" t="s">
         <v>289</v>
@@ -23555,7 +24149,7 @@
     </row>
     <row r="2093" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2093" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B2093" t="s">
         <v>289</v>
@@ -23563,7 +24157,7 @@
     </row>
     <row r="2094" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2094" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B2094" t="s">
         <v>289</v>
@@ -23571,7 +24165,7 @@
     </row>
     <row r="2095" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2095" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B2095" t="s">
         <v>289</v>
@@ -23579,7 +24173,7 @@
     </row>
     <row r="2096" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2096" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B2096" t="s">
         <v>289</v>
@@ -23587,7 +24181,7 @@
     </row>
     <row r="2097" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2097" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B2097" t="s">
         <v>289</v>
@@ -23595,7 +24189,7 @@
     </row>
     <row r="2098" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2098" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B2098" t="s">
         <v>289</v>
@@ -23603,7 +24197,7 @@
     </row>
     <row r="2099" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2099" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B2099" t="s">
         <v>289</v>
@@ -23611,7 +24205,7 @@
     </row>
     <row r="2100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2100" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B2100" t="s">
         <v>289</v>
@@ -23619,7 +24213,7 @@
     </row>
     <row r="2101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2101" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B2101" t="s">
         <v>289</v>
@@ -23627,7 +24221,7 @@
     </row>
     <row r="2102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2102" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B2102" t="s">
         <v>289</v>
@@ -23635,7 +24229,7 @@
     </row>
     <row r="2103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2103" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B2103" t="s">
         <v>3</v>
@@ -23643,7 +24237,7 @@
     </row>
     <row r="2104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2104" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B2104" t="s">
         <v>3</v>
@@ -23652,7 +24246,7 @@
     </row>
     <row r="2105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2105" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B2105" t="s">
         <v>3</v>
@@ -23660,7 +24254,7 @@
     </row>
     <row r="2106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2106" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B2106" t="s">
         <v>3</v>
@@ -23668,7 +24262,7 @@
     </row>
     <row r="2107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2107" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B2107" t="s">
         <v>3</v>
@@ -23676,7 +24270,7 @@
     </row>
     <row r="2108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2108" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B2108" t="s">
         <v>3</v>
@@ -23684,7 +24278,7 @@
     </row>
     <row r="2109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2109" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B2109" t="s">
         <v>3</v>
@@ -23692,7 +24286,7 @@
     </row>
     <row r="2110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2110" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B2110" t="s">
         <v>3</v>
@@ -23700,7 +24294,7 @@
     </row>
     <row r="2111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2111" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B2111" t="s">
         <v>3</v>
@@ -23708,7 +24302,7 @@
     </row>
     <row r="2112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2112" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B2112" t="s">
         <v>3</v>
@@ -23716,7 +24310,7 @@
     </row>
     <row r="2113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2113" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B2113" t="s">
         <v>3</v>
@@ -23724,7 +24318,7 @@
     </row>
     <row r="2114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2114" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B2114" t="s">
         <v>3</v>
@@ -23732,7 +24326,7 @@
     </row>
     <row r="2115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2115" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B2115" t="s">
         <v>3</v>
@@ -23740,7 +24334,7 @@
     </row>
     <row r="2116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2116" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B2116" t="s">
         <v>3</v>
@@ -23748,7 +24342,7 @@
     </row>
     <row r="2117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2117" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B2117" t="s">
         <v>3</v>
@@ -23756,7 +24350,7 @@
     </row>
     <row r="2118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2118" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B2118" t="s">
         <v>3</v>
@@ -23764,7 +24358,7 @@
     </row>
     <row r="2119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2119" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B2119" t="s">
         <v>3</v>
@@ -23772,7 +24366,7 @@
     </row>
     <row r="2120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2120" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B2120" t="s">
         <v>3</v>
@@ -23780,7 +24374,7 @@
     </row>
     <row r="2121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2121" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B2121" t="s">
         <v>3</v>
@@ -23788,7 +24382,7 @@
     </row>
     <row r="2122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2122" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B2122" t="s">
         <v>3</v>
@@ -23796,7 +24390,7 @@
     </row>
     <row r="2123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2123" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B2123" t="s">
         <v>3</v>
@@ -23804,7 +24398,7 @@
     </row>
     <row r="2124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2124" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B2124" t="s">
         <v>3</v>
@@ -23812,7 +24406,7 @@
     </row>
     <row r="2125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2125" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B2125" t="s">
         <v>3</v>
@@ -23820,7 +24414,7 @@
     </row>
     <row r="2126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2126" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B2126" t="s">
         <v>3</v>
@@ -23828,7 +24422,7 @@
     </row>
     <row r="2127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2127" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B2127" t="s">
         <v>3</v>
@@ -23836,7 +24430,7 @@
     </row>
     <row r="2128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2128" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B2128" t="s">
         <v>3</v>
@@ -23844,7 +24438,7 @@
     </row>
     <row r="2129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2129" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B2129" t="s">
         <v>3</v>
@@ -23852,7 +24446,7 @@
     </row>
     <row r="2130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2130" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B2130" t="s">
         <v>3</v>
@@ -23860,7 +24454,7 @@
     </row>
     <row r="2131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2131" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B2131" t="s">
         <v>3</v>
@@ -23868,48 +24462,1612 @@
     </row>
     <row r="2132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2132" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B2132" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2133" s="3"/>
+      <c r="A2133" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2134" s="3"/>
+      <c r="A2134" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2135" s="3"/>
+      <c r="A2135" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2136" s="4"/>
+      <c r="A2136" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2137" s="3"/>
+      <c r="A2137" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2138" s="4"/>
+      <c r="A2138" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2139" s="4"/>
+      <c r="A2139" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2140" s="4"/>
+      <c r="A2140" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2141" s="4"/>
+      <c r="A2141" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2142" s="3"/>
+      <c r="A2142" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2143" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2144" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2145" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2146" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2147" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2148" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2149" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2150" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2151" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2152" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2153" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2154" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2155" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2156" s="4"/>
-      <c r="B2156" s="5"/>
-    </row>
-    <row r="2273" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="A2156" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2157" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2158" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2159" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2160" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2161" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2162" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2163" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2164" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2165" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2166" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2167" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2168" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2169" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2170" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2171" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2172" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2173" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2174" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2175" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2176" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2177" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2178" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2179" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2180" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2181" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2182" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2183" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2184" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2185" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2186" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2187" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2188" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2189" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2190" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2191" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2192" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2193" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2194" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2195" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2196" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2197" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2198" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2199" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2200" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2201" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2202" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2203" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2204" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2205" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2206" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2207" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2208" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2209" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2210" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2211" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2212" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2213" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2214" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2215" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2216" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2217" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2218" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2219" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2220" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2221" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2222" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2223" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2224" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2225" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2226" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2227" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2228" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2229" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2230" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2231" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2232" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2233" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2234" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2235" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2236" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2237" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2238" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2239" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2240" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2241" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2242" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2243" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2244" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2245" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2246" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2247" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2248" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2249" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2250" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2251" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2252" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2253" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2254" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2255" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2256" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2257" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2258" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2259" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2260" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2261" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2262" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2263" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2264" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2265" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2266" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2267" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2268" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2269" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2270" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2271" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2272" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2273" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>159</v>
+      </c>
       <c r="C2273" s="2"/>
+    </row>
+    <row r="2274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2274" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2275" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2276" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2277" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2278" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2279" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2280" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2281" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2282" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2283" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2284" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2285" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2286" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2287" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2288" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2289" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2290" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2291" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2292" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2293" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2294" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2295" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2296" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2297" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2298" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2299" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2300" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2301" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2302" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2303" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2304" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2305" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2306" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2307" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2308" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2309" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2310" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2311" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2312" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2313" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2314" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2315" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2316" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2317" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2318" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2319" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2320" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2321" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2322" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2323" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2324" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2325" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2326" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2327" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2328" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2329" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2330" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2331" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2332" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
